--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5432872</v>
+        <v>5434331</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,40 +2871,40 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L27">
         <v>4.2</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="O27">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q27">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>1.9</v>
@@ -2913,34 +2913,34 @@
         <v>1.9</v>
       </c>
       <c r="T27">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z27">
+        <v>-1</v>
+      </c>
+      <c r="AA27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.45</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5434331</v>
+        <v>5432872</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,40 +2960,40 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
         <v>4.2</v>
       </c>
       <c r="M28">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P28">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R28">
         <v>1.9</v>
@@ -3002,34 +3002,34 @@
         <v>1.9</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3215,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5432875</v>
+        <v>5432873</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3227,76 +3227,76 @@
         <v>44970.66666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L31">
         <v>4.2</v>
       </c>
       <c r="M31">
+        <v>3.75</v>
+      </c>
+      <c r="N31">
+        <v>1.75</v>
+      </c>
+      <c r="O31">
+        <v>3.75</v>
+      </c>
+      <c r="P31">
+        <v>3.6</v>
+      </c>
+      <c r="Q31">
+        <v>-0.5</v>
+      </c>
+      <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
+        <v>1.975</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>1.75</v>
+      </c>
+      <c r="V31">
         <v>1.95</v>
       </c>
-      <c r="N31">
-        <v>2.625</v>
-      </c>
-      <c r="O31">
-        <v>4</v>
-      </c>
-      <c r="P31">
-        <v>2.05</v>
-      </c>
-      <c r="Q31">
-        <v>0.25</v>
-      </c>
-      <c r="R31">
-        <v>1.925</v>
-      </c>
-      <c r="S31">
-        <v>1.875</v>
-      </c>
-      <c r="T31">
-        <v>3.25</v>
-      </c>
-      <c r="U31">
-        <v>1.775</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5432873</v>
+        <v>5432875</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3316,76 +3316,76 @@
         <v>44970.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L32">
         <v>4.2</v>
       </c>
       <c r="M32">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N32">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U32">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3749,7 +3749,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5432876</v>
+        <v>5434325</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3761,13 +3761,13 @@
         <v>44977.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3776,25 +3776,25 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>4.3</v>
+        <v>1.666</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O37">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P37">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q37">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R37">
         <v>1.775</v>
@@ -3806,13 +3806,13 @@
         <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3827,7 +3827,7 @@
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3838,7 +3838,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5434325</v>
+        <v>5432876</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3850,13 +3850,13 @@
         <v>44977.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3865,25 +3865,25 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="M38">
-        <v>1.666</v>
+        <v>4.3</v>
       </c>
       <c r="N38">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O38">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P38">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
         <v>1.775</v>
@@ -3895,13 +3895,13 @@
         <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
-        <v>2.6</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3916,7 +3916,7 @@
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5432877</v>
+        <v>5434322</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,49 +3939,49 @@
         <v>44977.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="J39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39">
+        <v>1.2</v>
+      </c>
+      <c r="L39">
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>1.333</v>
+      </c>
+      <c r="O39">
+        <v>4.75</v>
+      </c>
+      <c r="P39">
+        <v>7</v>
+      </c>
+      <c r="Q39">
+        <v>-1.5</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
         <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39">
-        <v>2.5</v>
-      </c>
-      <c r="L39">
-        <v>4.5</v>
-      </c>
-      <c r="M39">
-        <v>2.05</v>
-      </c>
-      <c r="N39">
-        <v>3.3</v>
-      </c>
-      <c r="O39">
-        <v>5</v>
-      </c>
-      <c r="P39">
-        <v>1.666</v>
-      </c>
-      <c r="Q39">
-        <v>0.75</v>
-      </c>
-      <c r="R39">
-        <v>1.95</v>
-      </c>
-      <c r="S39">
-        <v>1.85</v>
-      </c>
-      <c r="T39">
-        <v>3.25</v>
       </c>
       <c r="U39">
         <v>1.75</v>
@@ -3990,25 +3990,25 @@
         <v>1.95</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5434322</v>
+        <v>5432877</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,49 +4028,49 @@
         <v>44977.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L40">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="N40">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O40">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P40">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="Q40">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
         <v>1.75</v>
@@ -4079,25 +4079,25 @@
         <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6159600</v>
+        <v>6134949</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6342,46 +6342,46 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K66">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
+        <v>3.75</v>
+      </c>
+      <c r="M66">
+        <v>2.35</v>
+      </c>
+      <c r="N66">
+        <v>1.75</v>
+      </c>
+      <c r="O66">
+        <v>3.8</v>
+      </c>
+      <c r="P66">
         <v>4</v>
       </c>
-      <c r="M66">
-        <v>2.5</v>
-      </c>
-      <c r="N66">
-        <v>2.05</v>
-      </c>
-      <c r="O66">
-        <v>4</v>
-      </c>
-      <c r="P66">
-        <v>2.8</v>
-      </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
         <v>3</v>
@@ -6393,19 +6393,19 @@
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6134949</v>
+        <v>6159600</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6520,46 +6520,46 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K68">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
         <v>3</v>
@@ -6571,19 +6571,19 @@
         <v>1.925</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5434302</v>
+        <v>5432887</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,76 +6876,76 @@
         <v>45005.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
       <c r="J72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K72">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
         <v>3.25</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N72">
+        <v>2.4</v>
+      </c>
+      <c r="O72">
+        <v>3.5</v>
+      </c>
+      <c r="P72">
+        <v>2.6</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1.825</v>
+      </c>
+      <c r="S72">
+        <v>1.975</v>
+      </c>
+      <c r="T72">
         <v>3.25</v>
       </c>
-      <c r="O72">
-        <v>3.2</v>
-      </c>
-      <c r="P72">
-        <v>2</v>
-      </c>
-      <c r="Q72">
-        <v>0.5</v>
-      </c>
-      <c r="R72">
-        <v>1.775</v>
-      </c>
-      <c r="S72">
-        <v>2.025</v>
-      </c>
-      <c r="T72">
-        <v>3</v>
-      </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA72">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5432887</v>
+        <v>5432886</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,58 +6965,58 @@
         <v>45005.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
         <v>3.25</v>
       </c>
       <c r="U73">
+        <v>1.825</v>
+      </c>
+      <c r="V73">
         <v>1.975</v>
       </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7025,16 +7025,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5432886</v>
+        <v>5434302</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,40 +7054,40 @@
         <v>45005.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K74">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M74">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P74">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
         <v>1.775</v>
@@ -7096,34 +7096,34 @@
         <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7220,7 +7220,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5434300</v>
+        <v>5432888</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7232,76 +7232,76 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N76">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P76">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U76">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7309,7 +7309,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5434299</v>
+        <v>5434300</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7321,76 +7321,76 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77" t="s">
+        <v>53</v>
+      </c>
+      <c r="K77">
+        <v>2.75</v>
+      </c>
+      <c r="L77">
         <v>4</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="s">
-        <v>52</v>
-      </c>
-      <c r="K77">
-        <v>1.363</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
-      </c>
       <c r="M77">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="O77">
         <v>4</v>
       </c>
       <c r="P77">
+        <v>1.75</v>
+      </c>
+      <c r="Q77">
+        <v>0.5</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>3.25</v>
+      </c>
+      <c r="U77">
+        <v>1.75</v>
+      </c>
+      <c r="V77">
         <v>2.05</v>
       </c>
-      <c r="Q77">
-        <v>0.25</v>
-      </c>
-      <c r="R77">
-        <v>1.9</v>
-      </c>
-      <c r="S77">
-        <v>1.9</v>
-      </c>
-      <c r="T77">
-        <v>3.5</v>
-      </c>
-      <c r="U77">
-        <v>1.95</v>
-      </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5432888</v>
+        <v>5434299</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,13 +7410,13 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7425,43 +7425,43 @@
         <v>52</v>
       </c>
       <c r="K78">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L78">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="O78">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="Q78">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
+        <v>1.9</v>
+      </c>
+      <c r="S78">
+        <v>1.9</v>
+      </c>
+      <c r="T78">
+        <v>3.5</v>
+      </c>
+      <c r="U78">
         <v>1.95</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="T78">
-        <v>3.75</v>
-      </c>
-      <c r="U78">
-        <v>1.975</v>
-      </c>
-      <c r="V78">
-        <v>1.825</v>
-      </c>
       <c r="W78">
-        <v>5</v>
+        <v>1.625</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7470,16 +7470,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA78">
+        <v>-1</v>
+      </c>
+      <c r="AB78">
         <v>0.95</v>
       </c>
-      <c r="AA78">
-        <v>-1</v>
-      </c>
-      <c r="AB78">
-        <v>-1</v>
-      </c>
       <c r="AC78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -11136,7 +11136,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5434277</v>
+        <v>5434278</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11148,58 +11148,58 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>52</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L120">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M120">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
+        <v>1.285</v>
+      </c>
+      <c r="O120">
+        <v>5.5</v>
+      </c>
+      <c r="P120">
+        <v>6.5</v>
+      </c>
+      <c r="Q120">
+        <v>-1.75</v>
+      </c>
+      <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
+        <v>2</v>
+      </c>
+      <c r="T120">
+        <v>3.75</v>
+      </c>
+      <c r="U120">
+        <v>1.85</v>
+      </c>
+      <c r="V120">
         <v>1.95</v>
       </c>
-      <c r="O120">
-        <v>3.75</v>
-      </c>
-      <c r="P120">
-        <v>3</v>
-      </c>
-      <c r="Q120">
-        <v>-0.25</v>
-      </c>
-      <c r="R120">
-        <v>1.925</v>
-      </c>
-      <c r="S120">
-        <v>1.875</v>
-      </c>
-      <c r="T120">
-        <v>3.25</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11208,13 +11208,13 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11225,7 +11225,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5434278</v>
+        <v>5434277</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11237,58 +11237,58 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>52</v>
       </c>
       <c r="K121">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M121">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N121">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q121">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
+        <v>1.95</v>
+      </c>
+      <c r="V121">
         <v>1.85</v>
       </c>
-      <c r="V121">
-        <v>1.95</v>
-      </c>
       <c r="W121">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11297,13 +11297,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5434271</v>
+        <v>5432903</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,58 +12216,58 @@
         <v>45048.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>52</v>
       </c>
       <c r="K132">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L132">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="N132">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P132">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q132">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>4</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>0.3</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12276,13 +12276,13 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5432903</v>
+        <v>5434271</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,58 +12305,58 @@
         <v>45048.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>52</v>
       </c>
       <c r="K133">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M133">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="N133">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P133">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
         <v>4</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>0.7270000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12365,13 +12365,13 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5434270</v>
+        <v>5434268</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45051.375</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
         <v>53</v>
       </c>
       <c r="K135">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
+        <v>3.3</v>
+      </c>
+      <c r="N135">
+        <v>2.15</v>
+      </c>
+      <c r="O135">
+        <v>3.6</v>
+      </c>
+      <c r="P135">
+        <v>2.8</v>
+      </c>
+      <c r="Q135">
+        <v>-0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>1.85</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.85</v>
+      </c>
+      <c r="V135">
+        <v>1.95</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
         <v>1.8</v>
       </c>
-      <c r="N135">
-        <v>4.5</v>
-      </c>
-      <c r="O135">
-        <v>4.333</v>
-      </c>
-      <c r="P135">
-        <v>1.55</v>
-      </c>
-      <c r="Q135">
-        <v>1</v>
-      </c>
-      <c r="R135">
-        <v>1.85</v>
-      </c>
-      <c r="S135">
-        <v>1.95</v>
-      </c>
-      <c r="T135">
-        <v>3.5</v>
-      </c>
-      <c r="U135">
-        <v>1.925</v>
-      </c>
-      <c r="V135">
-        <v>1.875</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>0.55</v>
-      </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5434268</v>
+        <v>5434270</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,55 +12661,55 @@
         <v>45051.375</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>53</v>
       </c>
       <c r="K137">
+        <v>3.5</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>1.8</v>
+      </c>
+      <c r="N137">
+        <v>4.5</v>
+      </c>
+      <c r="O137">
+        <v>4.333</v>
+      </c>
+      <c r="P137">
+        <v>1.55</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
         <v>1.95</v>
       </c>
-      <c r="L137">
-        <v>3.6</v>
-      </c>
-      <c r="M137">
-        <v>3.3</v>
-      </c>
-      <c r="N137">
-        <v>2.15</v>
-      </c>
-      <c r="O137">
-        <v>3.6</v>
-      </c>
-      <c r="P137">
-        <v>2.8</v>
-      </c>
-      <c r="Q137">
-        <v>-0.25</v>
-      </c>
-      <c r="R137">
-        <v>1.95</v>
-      </c>
-      <c r="S137">
-        <v>1.85</v>
-      </c>
       <c r="T137">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12718,19 +12718,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7067620</v>
+        <v>7047431</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,58 +13907,58 @@
         <v>45153.375</v>
       </c>
       <c r="F151" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H151">
         <v>4</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
         <v>52</v>
       </c>
       <c r="K151">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L151">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N151">
+        <v>2.75</v>
+      </c>
+      <c r="O151">
         <v>3.6</v>
       </c>
-      <c r="O151">
-        <v>4</v>
-      </c>
       <c r="P151">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q151">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
         <v>3.5</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13967,13 +13967,13 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7047431</v>
+        <v>7067620</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,58 +13996,58 @@
         <v>45153.375</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G152" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>4</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>52</v>
       </c>
       <c r="K152">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L152">
+        <v>3.75</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
         <v>3.6</v>
       </c>
-      <c r="M152">
-        <v>2.1</v>
-      </c>
-      <c r="N152">
-        <v>2.75</v>
-      </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P152">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
         <v>3.5</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14056,13 +14056,13 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7071046</v>
+        <v>7047443</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,40 +15242,40 @@
         <v>45160.375</v>
       </c>
       <c r="F166" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K166">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M166">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N166">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O166">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P166">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q166">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
         <v>1.95</v>
@@ -15284,34 +15284,34 @@
         <v>1.85</v>
       </c>
       <c r="T166">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB166">
         <v>0.95</v>
       </c>
-      <c r="AA166">
-        <v>-1</v>
-      </c>
-      <c r="AB166">
-        <v>-1</v>
-      </c>
       <c r="AC166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,7 +15319,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7047443</v>
+        <v>7071046</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15331,40 +15331,40 @@
         <v>45160.375</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
         <v>0</v>
       </c>
-      <c r="I167">
+      <c r="J167" t="s">
+        <v>52</v>
+      </c>
+      <c r="K167">
+        <v>2.1</v>
+      </c>
+      <c r="L167">
+        <v>3.75</v>
+      </c>
+      <c r="M167">
+        <v>2.7</v>
+      </c>
+      <c r="N167">
+        <v>3.4</v>
+      </c>
+      <c r="O167">
         <v>4</v>
       </c>
-      <c r="J167" t="s">
-        <v>53</v>
-      </c>
-      <c r="K167">
-        <v>3</v>
-      </c>
-      <c r="L167">
-        <v>4.333</v>
-      </c>
-      <c r="M167">
+      <c r="P167">
         <v>1.833</v>
       </c>
-      <c r="N167">
-        <v>2.625</v>
-      </c>
-      <c r="O167">
-        <v>4.2</v>
-      </c>
-      <c r="P167">
-        <v>2.05</v>
-      </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R167">
         <v>1.95</v>
@@ -15373,34 +15373,34 @@
         <v>1.85</v>
       </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7071045</v>
+        <v>7047450</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,58 +15865,58 @@
         <v>45167.375</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>52</v>
       </c>
       <c r="K173">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N173">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O173">
         <v>4.2</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
         <v>3.5</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W173">
-        <v>0.5329999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15925,16 +15925,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7047450</v>
+        <v>7071045</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45167.375</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H175">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>52</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M175">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N175">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O175">
         <v>4.2</v>
       </c>
       <c r="P175">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
         <v>3.5</v>
       </c>
       <c r="U175">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>0.7270000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
-      <c r="AB175">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC175">
-        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7047704</v>
+        <v>7047452</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,73 +16132,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I176">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K176">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M176">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N176">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O176">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P176">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q176">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R176">
+        <v>1.925</v>
+      </c>
+      <c r="S176">
         <v>1.775</v>
       </c>
-      <c r="S176">
-        <v>1.925</v>
-      </c>
       <c r="T176">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U176">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7047452</v>
+        <v>7047704</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,73 +16221,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G177" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>7</v>
+      </c>
+      <c r="J177" t="s">
+        <v>53</v>
+      </c>
+      <c r="K177">
+        <v>2.55</v>
+      </c>
+      <c r="L177">
         <v>4</v>
       </c>
-      <c r="I177">
+      <c r="M177">
+        <v>2.15</v>
+      </c>
+      <c r="N177">
+        <v>6</v>
+      </c>
+      <c r="O177">
+        <v>6</v>
+      </c>
+      <c r="P177">
+        <v>1.285</v>
+      </c>
+      <c r="Q177">
         <v>2</v>
       </c>
-      <c r="J177" t="s">
-        <v>52</v>
-      </c>
-      <c r="K177">
+      <c r="R177">
+        <v>1.775</v>
+      </c>
+      <c r="S177">
+        <v>1.925</v>
+      </c>
+      <c r="T177">
+        <v>4</v>
+      </c>
+      <c r="U177">
         <v>1.75</v>
       </c>
-      <c r="L177">
-        <v>4.2</v>
-      </c>
-      <c r="M177">
-        <v>3.3</v>
-      </c>
-      <c r="N177">
-        <v>1.615</v>
-      </c>
-      <c r="O177">
-        <v>4.333</v>
-      </c>
-      <c r="P177">
-        <v>3.6</v>
-      </c>
-      <c r="Q177">
-        <v>-1</v>
-      </c>
-      <c r="R177">
-        <v>1.925</v>
-      </c>
-      <c r="S177">
-        <v>1.775</v>
-      </c>
-      <c r="T177">
-        <v>3.75</v>
-      </c>
-      <c r="U177">
-        <v>1.825</v>
-      </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
         <v>0.925</v>
       </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
       <c r="AB177">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16387,7 +16387,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7047454</v>
+        <v>7047455</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16399,58 +16399,58 @@
         <v>45170.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
         <v>52</v>
       </c>
       <c r="K179">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L179">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M179">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N179">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O179">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P179">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16459,16 +16459,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7047455</v>
+        <v>7047454</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,58 +16488,58 @@
         <v>45170.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>52</v>
       </c>
       <c r="K180">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L180">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="N180">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16548,16 +16548,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7047459</v>
+        <v>7047462</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,40 +16844,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H184">
         <v>2</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K184">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M184">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N184">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O184">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P184">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R184">
         <v>1.85</v>
@@ -16886,34 +16886,34 @@
         <v>1.95</v>
       </c>
       <c r="T184">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X184">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB184">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7047462</v>
+        <v>7047459</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,40 +16933,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185" t="s">
+        <v>51</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+      <c r="M185">
+        <v>2.9</v>
+      </c>
+      <c r="N185">
+        <v>2.375</v>
+      </c>
+      <c r="O185">
+        <v>4</v>
+      </c>
+      <c r="P185">
+        <v>2.45</v>
+      </c>
+      <c r="Q185">
         <v>0</v>
-      </c>
-      <c r="J185" t="s">
-        <v>52</v>
-      </c>
-      <c r="K185">
-        <v>1.25</v>
-      </c>
-      <c r="L185">
-        <v>5.5</v>
-      </c>
-      <c r="M185">
-        <v>7.5</v>
-      </c>
-      <c r="N185">
-        <v>1.166</v>
-      </c>
-      <c r="O185">
-        <v>7</v>
-      </c>
-      <c r="P185">
-        <v>9.5</v>
-      </c>
-      <c r="Q185">
-        <v>-2.25</v>
       </c>
       <c r="R185">
         <v>1.85</v>
@@ -16975,34 +16975,34 @@
         <v>1.95</v>
       </c>
       <c r="T185">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>-0</v>
+      </c>
+      <c r="AB185">
+        <v>0.4625</v>
+      </c>
+      <c r="AC185">
         <v>-0.5</v>
-      </c>
-      <c r="AA185">
-        <v>0.475</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
-      <c r="AC185">
-        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17722,7 +17722,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7047468</v>
+        <v>7047467</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17734,73 +17734,73 @@
         <v>45181.375</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H194">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K194">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M194">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N194">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="O194">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P194">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q194">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R194">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
         <v>1.925</v>
       </c>
       <c r="T194">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z194">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB194">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17811,7 +17811,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7047467</v>
+        <v>7047468</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17823,73 +17823,73 @@
         <v>45181.375</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K195">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L195">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N195">
-        <v>1.666</v>
+        <v>1.142</v>
       </c>
       <c r="O195">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P195">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R195">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S195">
         <v>1.925</v>
       </c>
       <c r="T195">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA195">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -19057,7 +19057,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7047483</v>
+        <v>7071042</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19069,76 +19069,76 @@
         <v>45195.375</v>
       </c>
       <c r="F209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H209">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K209">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M209">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N209">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O209">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P209">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q209">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
+        <v>1.925</v>
+      </c>
+      <c r="S209">
         <v>1.875</v>
-      </c>
-      <c r="S209">
-        <v>1.925</v>
       </c>
       <c r="T209">
         <v>3.25</v>
       </c>
       <c r="U209">
+        <v>1.975</v>
+      </c>
+      <c r="V209">
         <v>1.825</v>
       </c>
-      <c r="V209">
-        <v>1.975</v>
-      </c>
       <c r="W209">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.825</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7071042</v>
+        <v>7047483</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,76 +19158,76 @@
         <v>45195.375</v>
       </c>
       <c r="F210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J210" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K210">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L210">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M210">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N210">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O210">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P210">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
+        <v>1.875</v>
+      </c>
+      <c r="S210">
         <v>1.925</v>
-      </c>
-      <c r="S210">
-        <v>1.875</v>
       </c>
       <c r="T210">
         <v>3.25</v>
       </c>
       <c r="U210">
+        <v>1.825</v>
+      </c>
+      <c r="V210">
         <v>1.975</v>
       </c>
-      <c r="V210">
-        <v>1.825</v>
-      </c>
       <c r="W210">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
         <v>0.925</v>
       </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7047505</v>
+        <v>7047506</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,46 +21205,46 @@
         <v>45223.375</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G233" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233">
+        <v>4</v>
+      </c>
+      <c r="J233" t="s">
+        <v>53</v>
+      </c>
+      <c r="K233">
+        <v>2.3</v>
+      </c>
+      <c r="L233">
+        <v>3.8</v>
+      </c>
+      <c r="M233">
+        <v>2.375</v>
+      </c>
+      <c r="N233">
+        <v>4.75</v>
+      </c>
+      <c r="O233">
+        <v>4.5</v>
+      </c>
+      <c r="P233">
+        <v>1.5</v>
+      </c>
+      <c r="Q233">
+        <v>1.25</v>
+      </c>
+      <c r="R233">
+        <v>1.8</v>
+      </c>
+      <c r="S233">
         <v>2</v>
-      </c>
-      <c r="J233" t="s">
-        <v>52</v>
-      </c>
-      <c r="K233">
-        <v>1.8</v>
-      </c>
-      <c r="L233">
-        <v>4</v>
-      </c>
-      <c r="M233">
-        <v>3.25</v>
-      </c>
-      <c r="N233">
-        <v>1.7</v>
-      </c>
-      <c r="O233">
-        <v>4.2</v>
-      </c>
-      <c r="P233">
-        <v>3.8</v>
-      </c>
-      <c r="Q233">
-        <v>-0.75</v>
-      </c>
-      <c r="R233">
-        <v>1.875</v>
-      </c>
-      <c r="S233">
-        <v>1.925</v>
       </c>
       <c r="T233">
         <v>3.5</v>
@@ -21256,19 +21256,19 @@
         <v>1.85</v>
       </c>
       <c r="W233">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z233">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB233">
         <v>0.95</v>
@@ -21371,7 +21371,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7047506</v>
+        <v>7047505</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21383,46 +21383,46 @@
         <v>45223.375</v>
       </c>
       <c r="F235" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235" t="s">
+        <v>52</v>
+      </c>
+      <c r="K235">
+        <v>1.8</v>
+      </c>
+      <c r="L235">
         <v>4</v>
       </c>
-      <c r="J235" t="s">
-        <v>53</v>
-      </c>
-      <c r="K235">
-        <v>2.3</v>
-      </c>
-      <c r="L235">
+      <c r="M235">
+        <v>3.25</v>
+      </c>
+      <c r="N235">
+        <v>1.7</v>
+      </c>
+      <c r="O235">
+        <v>4.2</v>
+      </c>
+      <c r="P235">
         <v>3.8</v>
       </c>
-      <c r="M235">
-        <v>2.375</v>
-      </c>
-      <c r="N235">
-        <v>4.75</v>
-      </c>
-      <c r="O235">
-        <v>4.5</v>
-      </c>
-      <c r="P235">
-        <v>1.5</v>
-      </c>
       <c r="Q235">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T235">
         <v>3.5</v>
@@ -21434,19 +21434,19 @@
         <v>1.85</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA235">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
         <v>0.95</v>
@@ -21460,7 +21460,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7047510</v>
+        <v>7047509</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21472,49 +21472,49 @@
         <v>45229.41666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H236">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>52</v>
       </c>
       <c r="K236">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L236">
+        <v>5</v>
+      </c>
+      <c r="M236">
+        <v>4.5</v>
+      </c>
+      <c r="N236">
+        <v>2.1</v>
+      </c>
+      <c r="O236">
         <v>4.333</v>
       </c>
-      <c r="M236">
-        <v>3.6</v>
-      </c>
-      <c r="N236">
-        <v>1.909</v>
-      </c>
-      <c r="O236">
-        <v>4</v>
-      </c>
       <c r="P236">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q236">
         <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T236">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U236">
         <v>1.975</v>
@@ -21523,7 +21523,7 @@
         <v>1.825</v>
       </c>
       <c r="W236">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21532,7 +21532,7 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA236">
         <v>-1</v>
@@ -21549,7 +21549,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7047509</v>
+        <v>7047510</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21561,49 +21561,49 @@
         <v>45229.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>52</v>
       </c>
       <c r="K237">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L237">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M237">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N237">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O237">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P237">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q237">
         <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S237">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T237">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U237">
         <v>1.975</v>
@@ -21612,7 +21612,7 @@
         <v>1.825</v>
       </c>
       <c r="W237">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21621,7 +21621,7 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA237">
         <v>-1</v>
@@ -22350,7 +22350,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7071037</v>
+        <v>7047523</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22362,73 +22362,73 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G246" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
         <v>4</v>
       </c>
-      <c r="I246">
-        <v>3</v>
-      </c>
       <c r="J246" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K246">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L246">
+        <v>4.2</v>
+      </c>
+      <c r="M246">
+        <v>1.95</v>
+      </c>
+      <c r="N246">
+        <v>2.45</v>
+      </c>
+      <c r="O246">
         <v>4</v>
       </c>
-      <c r="M246">
-        <v>2.4</v>
-      </c>
-      <c r="N246">
-        <v>1.727</v>
-      </c>
-      <c r="O246">
-        <v>4.2</v>
-      </c>
       <c r="P246">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q246">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S246">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T246">
         <v>3.75</v>
       </c>
       <c r="U246">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W246">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z246">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB246">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC246">
         <v>-1</v>
@@ -22439,7 +22439,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7047523</v>
+        <v>7047522</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22451,56 +22451,56 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
         <v>53</v>
       </c>
       <c r="K247">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L247">
         <v>4.2</v>
       </c>
       <c r="M247">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N247">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O247">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P247">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R247">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S247">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T247">
         <v>3.75</v>
       </c>
       <c r="U247">
+        <v>1.875</v>
+      </c>
+      <c r="V247">
         <v>1.925</v>
       </c>
-      <c r="V247">
-        <v>1.875</v>
-      </c>
       <c r="W247">
         <v>-1</v>
       </c>
@@ -22508,19 +22508,19 @@
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB247">
+        <v>-1</v>
+      </c>
+      <c r="AC247">
         <v>0.925</v>
-      </c>
-      <c r="AC247">
-        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22528,7 +22528,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7047522</v>
+        <v>7071037</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22540,76 +22540,76 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G248" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J248" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K248">
         <v>2.25</v>
       </c>
       <c r="L248">
+        <v>4</v>
+      </c>
+      <c r="M248">
+        <v>2.4</v>
+      </c>
+      <c r="N248">
+        <v>1.727</v>
+      </c>
+      <c r="O248">
         <v>4.2</v>
       </c>
-      <c r="M248">
-        <v>2.3</v>
-      </c>
-      <c r="N248">
-        <v>3.6</v>
-      </c>
-      <c r="O248">
-        <v>5</v>
-      </c>
       <c r="P248">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q248">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T248">
         <v>3.75</v>
       </c>
       <c r="U248">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V248">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA248">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC248">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -23329,7 +23329,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7047534</v>
+        <v>7047533</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23341,10 +23341,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23356,61 +23356,61 @@
         <v>51</v>
       </c>
       <c r="K257">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L257">
         <v>4</v>
       </c>
       <c r="M257">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N257">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O257">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P257">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q257">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R257">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S257">
         <v>1.95</v>
       </c>
       <c r="T257">
+        <v>3.75</v>
+      </c>
+      <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
+        <v>1.85</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
         <v>3</v>
       </c>
-      <c r="U257">
-        <v>1.85</v>
-      </c>
-      <c r="V257">
-        <v>1.95</v>
-      </c>
-      <c r="W257">
-        <v>-1</v>
-      </c>
-      <c r="X257">
-        <v>2.75</v>
-      </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
+        <v>-0.5</v>
+      </c>
+      <c r="AA257">
+        <v>0.475</v>
+      </c>
+      <c r="AB257">
+        <v>-1</v>
+      </c>
+      <c r="AC257">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA257">
-        <v>-1</v>
-      </c>
-      <c r="AB257">
-        <v>-1</v>
-      </c>
-      <c r="AC257">
-        <v>0.95</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23418,7 +23418,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7047533</v>
+        <v>7047534</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23430,10 +23430,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G258" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -23445,61 +23445,61 @@
         <v>51</v>
       </c>
       <c r="K258">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L258">
         <v>4</v>
       </c>
       <c r="M258">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N258">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O258">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P258">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q258">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R258">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S258">
         <v>1.95</v>
       </c>
       <c r="T258">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U258">
+        <v>1.85</v>
+      </c>
+      <c r="V258">
         <v>1.95</v>
       </c>
-      <c r="V258">
-        <v>1.85</v>
-      </c>
       <c r="W258">
         <v>-1</v>
       </c>
       <c r="X258">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA258">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
         <v>-1</v>
       </c>
       <c r="AC258">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -25198,7 +25198,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7047560</v>
+        <v>7047559</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25210,76 +25210,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G278" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H278">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K278">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L278">
         <v>4</v>
       </c>
       <c r="M278">
-        <v>2.9</v>
+        <v>1.952</v>
       </c>
       <c r="N278">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P278">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="Q278">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R278">
+        <v>1.775</v>
+      </c>
+      <c r="S278">
+        <v>1.925</v>
+      </c>
+      <c r="T278">
+        <v>3.75</v>
+      </c>
+      <c r="U278">
         <v>1.95</v>
       </c>
-      <c r="S278">
+      <c r="V278">
         <v>1.85</v>
       </c>
-      <c r="T278">
-        <v>3.5</v>
-      </c>
-      <c r="U278">
-        <v>1.925</v>
-      </c>
-      <c r="V278">
-        <v>1.875</v>
-      </c>
       <c r="W278">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z278">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA278">
         <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25287,7 +25287,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7047559</v>
+        <v>7047560</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25299,76 +25299,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F279" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G279" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H279">
+        <v>5</v>
+      </c>
+      <c r="I279">
         <v>1</v>
       </c>
-      <c r="I279">
-        <v>2</v>
-      </c>
       <c r="J279" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K279">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L279">
         <v>4</v>
       </c>
       <c r="M279">
-        <v>1.952</v>
+        <v>2.9</v>
       </c>
       <c r="N279">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="O279">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P279">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q279">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R279">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S279">
+        <v>1.85</v>
+      </c>
+      <c r="T279">
+        <v>3.5</v>
+      </c>
+      <c r="U279">
         <v>1.925</v>
       </c>
-      <c r="T279">
-        <v>3.75</v>
-      </c>
-      <c r="U279">
-        <v>1.95</v>
-      </c>
       <c r="V279">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA279">
         <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC279">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25910,7 +25910,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7047568</v>
+        <v>7047570</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25922,49 +25922,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G286" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K286">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L286">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M286">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N286">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O286">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P286">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q286">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R286">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S286">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T286">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U286">
         <v>1.9</v>
@@ -25973,19 +25973,19 @@
         <v>1.9</v>
       </c>
       <c r="W286">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB286">
         <v>-1</v>
@@ -25999,7 +25999,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7047570</v>
+        <v>7047568</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26011,49 +26011,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F287" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G287" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I287">
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K287">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L287">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M287">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N287">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O287">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P287">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q287">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R287">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S287">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T287">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U287">
         <v>1.9</v>
@@ -26062,19 +26062,19 @@
         <v>1.9</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X287">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA287">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
         <v>-1</v>
@@ -26088,7 +26088,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7047572</v>
+        <v>7071032</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26100,34 +26100,34 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G288" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J288" t="s">
         <v>53</v>
       </c>
       <c r="K288">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L288">
         <v>4.2</v>
       </c>
       <c r="M288">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N288">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O288">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P288">
         <v>3.1</v>
@@ -26136,19 +26136,19 @@
         <v>-0.5</v>
       </c>
       <c r="R288">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S288">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T288">
         <v>3.5</v>
       </c>
       <c r="U288">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V288">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W288">
         <v>-1</v>
@@ -26163,13 +26163,13 @@
         <v>-1</v>
       </c>
       <c r="AA288">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB288">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26177,7 +26177,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7047569</v>
+        <v>7047709</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26189,55 +26189,55 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G289" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J289" t="s">
         <v>51</v>
       </c>
       <c r="K289">
+        <v>2.5</v>
+      </c>
+      <c r="L289">
+        <v>4.333</v>
+      </c>
+      <c r="M289">
         <v>2.1</v>
       </c>
-      <c r="L289">
-        <v>4.2</v>
-      </c>
-      <c r="M289">
-        <v>2.5</v>
-      </c>
       <c r="N289">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="O289">
         <v>4.333</v>
       </c>
       <c r="P289">
+        <v>2</v>
+      </c>
+      <c r="Q289">
+        <v>0.25</v>
+      </c>
+      <c r="R289">
+        <v>1.9</v>
+      </c>
+      <c r="S289">
+        <v>1.9</v>
+      </c>
+      <c r="T289">
+        <v>3.25</v>
+      </c>
+      <c r="U289">
         <v>1.75</v>
       </c>
-      <c r="Q289">
-        <v>0.5</v>
-      </c>
-      <c r="R289">
-        <v>1.975</v>
-      </c>
-      <c r="S289">
-        <v>1.825</v>
-      </c>
-      <c r="T289">
-        <v>3.5</v>
-      </c>
-      <c r="U289">
-        <v>1.975</v>
-      </c>
       <c r="V289">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W289">
         <v>-1</v>
@@ -26249,16 +26249,16 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB289">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC289">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26266,7 +26266,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7047709</v>
+        <v>7047571</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26278,10 +26278,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G290" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H290">
         <v>3</v>
@@ -26293,37 +26293,37 @@
         <v>51</v>
       </c>
       <c r="K290">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L290">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M290">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N290">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O290">
         <v>4.333</v>
       </c>
       <c r="P290">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q290">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R290">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S290">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T290">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U290">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V290">
         <v>1.95</v>
@@ -26338,13 +26338,13 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB290">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26355,7 +26355,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7071032</v>
+        <v>7047569</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26367,76 +26367,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G291" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I291">
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K291">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L291">
         <v>4.2</v>
       </c>
       <c r="M291">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N291">
+        <v>3.2</v>
+      </c>
+      <c r="O291">
+        <v>4.333</v>
+      </c>
+      <c r="P291">
         <v>1.75</v>
       </c>
-      <c r="O291">
-        <v>4.5</v>
-      </c>
-      <c r="P291">
-        <v>3.1</v>
-      </c>
       <c r="Q291">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R291">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S291">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T291">
         <v>3.5</v>
       </c>
       <c r="U291">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V291">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W291">
         <v>-1</v>
       </c>
       <c r="X291">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y291">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA291">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
         <v>-1</v>
       </c>
       <c r="AC291">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26444,7 +26444,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7047571</v>
+        <v>7047572</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26456,73 +26456,73 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F292" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G292" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J292" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K292">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L292">
         <v>4.2</v>
       </c>
       <c r="M292">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N292">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O292">
         <v>4.333</v>
       </c>
       <c r="P292">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q292">
         <v>-0.5</v>
       </c>
       <c r="R292">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S292">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T292">
         <v>3.5</v>
       </c>
       <c r="U292">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V292">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W292">
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB292">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -28580,7 +28580,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7047600</v>
+        <v>7047606</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28592,10 +28592,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G316" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -28607,25 +28607,25 @@
         <v>53</v>
       </c>
       <c r="K316">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L316">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M316">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N316">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O316">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P316">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q316">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
         <v>1.95</v>
@@ -28634,13 +28634,13 @@
         <v>1.85</v>
       </c>
       <c r="T316">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U316">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V316">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W316">
         <v>-1</v>
@@ -28649,7 +28649,7 @@
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z316">
         <v>-1</v>
@@ -28661,7 +28661,7 @@
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28669,7 +28669,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7047606</v>
+        <v>7047600</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28681,10 +28681,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G317" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -28696,25 +28696,25 @@
         <v>53</v>
       </c>
       <c r="K317">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L317">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M317">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N317">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O317">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P317">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R317">
         <v>1.95</v>
@@ -28723,22 +28723,22 @@
         <v>1.85</v>
       </c>
       <c r="T317">
+        <v>3.75</v>
+      </c>
+      <c r="U317">
+        <v>1.9</v>
+      </c>
+      <c r="V317">
+        <v>1.9</v>
+      </c>
+      <c r="W317">
+        <v>-1</v>
+      </c>
+      <c r="X317">
+        <v>-1</v>
+      </c>
+      <c r="Y317">
         <v>3.5</v>
-      </c>
-      <c r="U317">
-        <v>1.775</v>
-      </c>
-      <c r="V317">
-        <v>1.925</v>
-      </c>
-      <c r="W317">
-        <v>-1</v>
-      </c>
-      <c r="X317">
-        <v>-1</v>
-      </c>
-      <c r="Y317">
-        <v>2</v>
       </c>
       <c r="Z317">
         <v>-1</v>
@@ -28750,7 +28750,7 @@
         <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="318" spans="1:29">

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5434331</v>
+        <v>5432872</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,40 +2871,40 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
         <v>4.2</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P27">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
         <v>1.9</v>
@@ -2913,34 +2913,34 @@
         <v>1.9</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5432872</v>
+        <v>5434331</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,40 +2960,40 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L28">
         <v>4.2</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="N28">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q28">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <v>1.9</v>
@@ -3002,34 +3002,34 @@
         <v>1.9</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.45</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
-      </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3215,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5432873</v>
+        <v>5432875</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3227,76 +3227,76 @@
         <v>44970.66666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L31">
         <v>4.2</v>
       </c>
       <c r="M31">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N31">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5432875</v>
+        <v>5432873</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3316,76 +3316,76 @@
         <v>44970.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L32">
         <v>4.2</v>
       </c>
       <c r="M32">
+        <v>3.75</v>
+      </c>
+      <c r="N32">
+        <v>1.75</v>
+      </c>
+      <c r="O32">
+        <v>3.75</v>
+      </c>
+      <c r="P32">
+        <v>3.6</v>
+      </c>
+      <c r="Q32">
+        <v>-0.5</v>
+      </c>
+      <c r="R32">
+        <v>1.825</v>
+      </c>
+      <c r="S32">
+        <v>1.975</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>1.75</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="N32">
-        <v>2.625</v>
-      </c>
-      <c r="O32">
-        <v>4</v>
-      </c>
-      <c r="P32">
-        <v>2.05</v>
-      </c>
-      <c r="Q32">
-        <v>0.25</v>
-      </c>
-      <c r="R32">
-        <v>1.925</v>
-      </c>
-      <c r="S32">
-        <v>1.875</v>
-      </c>
-      <c r="T32">
-        <v>3.25</v>
-      </c>
-      <c r="U32">
-        <v>1.775</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -7220,7 +7220,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5432888</v>
+        <v>5434300</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7232,76 +7232,76 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>2</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K76">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="O76">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T76">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7309,7 +7309,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5434300</v>
+        <v>5432888</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7321,76 +7321,76 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K77">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N77">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P77">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U77">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -11136,7 +11136,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5434278</v>
+        <v>5434277</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11148,58 +11148,58 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>52</v>
       </c>
       <c r="K120">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N120">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O120">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T120">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="V120">
-        <v>1.95</v>
-      </c>
       <c r="W120">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11208,13 +11208,13 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11225,7 +11225,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5434277</v>
+        <v>5434278</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11237,58 +11237,58 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>52</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L121">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M121">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N121">
+        <v>1.285</v>
+      </c>
+      <c r="O121">
+        <v>5.5</v>
+      </c>
+      <c r="P121">
+        <v>6.5</v>
+      </c>
+      <c r="Q121">
+        <v>-1.75</v>
+      </c>
+      <c r="R121">
+        <v>1.8</v>
+      </c>
+      <c r="S121">
+        <v>2</v>
+      </c>
+      <c r="T121">
+        <v>3.75</v>
+      </c>
+      <c r="U121">
+        <v>1.85</v>
+      </c>
+      <c r="V121">
         <v>1.95</v>
       </c>
-      <c r="O121">
-        <v>3.75</v>
-      </c>
-      <c r="P121">
-        <v>3</v>
-      </c>
-      <c r="Q121">
-        <v>-0.25</v>
-      </c>
-      <c r="R121">
-        <v>1.925</v>
-      </c>
-      <c r="S121">
-        <v>1.875</v>
-      </c>
-      <c r="T121">
-        <v>3.25</v>
-      </c>
-      <c r="U121">
-        <v>1.95</v>
-      </c>
-      <c r="V121">
-        <v>1.85</v>
-      </c>
       <c r="W121">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11297,13 +11297,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5432903</v>
+        <v>5434271</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,58 +12216,58 @@
         <v>45048.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>52</v>
       </c>
       <c r="K132">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M132">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="N132">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P132">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
         <v>4</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>0.7270000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12276,13 +12276,13 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5434271</v>
+        <v>5432903</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,58 +12305,58 @@
         <v>45048.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>52</v>
       </c>
       <c r="K133">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="N133">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q133">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>4</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>0.3</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12365,13 +12365,13 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12916,7 +12916,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5434266</v>
+        <v>5432907</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12928,73 +12928,73 @@
         <v>45055.375</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140" t="s">
+        <v>53</v>
+      </c>
+      <c r="K140">
+        <v>2.25</v>
+      </c>
+      <c r="L140">
         <v>4</v>
       </c>
-      <c r="I140">
-        <v>2</v>
-      </c>
-      <c r="J140" t="s">
-        <v>52</v>
-      </c>
-      <c r="K140">
-        <v>1.571</v>
-      </c>
-      <c r="L140">
-        <v>4.333</v>
-      </c>
       <c r="M140">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N140">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
         <v>4</v>
       </c>
       <c r="P140">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T140">
         <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5432907</v>
+        <v>5434266</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,73 +13017,73 @@
         <v>45055.375</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H141">
+        <v>4</v>
+      </c>
+      <c r="I141">
         <v>2</v>
       </c>
-      <c r="I141">
-        <v>3</v>
-      </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L141">
+        <v>4.333</v>
+      </c>
+      <c r="M141">
         <v>4</v>
       </c>
-      <c r="M141">
-        <v>2.375</v>
-      </c>
       <c r="N141">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O141">
         <v>4</v>
       </c>
       <c r="P141">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
         <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7047443</v>
+        <v>7071046</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,40 +15242,40 @@
         <v>45160.375</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
         <v>0</v>
       </c>
-      <c r="I166">
+      <c r="J166" t="s">
+        <v>52</v>
+      </c>
+      <c r="K166">
+        <v>2.1</v>
+      </c>
+      <c r="L166">
+        <v>3.75</v>
+      </c>
+      <c r="M166">
+        <v>2.7</v>
+      </c>
+      <c r="N166">
+        <v>3.4</v>
+      </c>
+      <c r="O166">
         <v>4</v>
       </c>
-      <c r="J166" t="s">
-        <v>53</v>
-      </c>
-      <c r="K166">
-        <v>3</v>
-      </c>
-      <c r="L166">
-        <v>4.333</v>
-      </c>
-      <c r="M166">
+      <c r="P166">
         <v>1.833</v>
       </c>
-      <c r="N166">
-        <v>2.625</v>
-      </c>
-      <c r="O166">
-        <v>4.2</v>
-      </c>
-      <c r="P166">
-        <v>2.05</v>
-      </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R166">
         <v>1.95</v>
@@ -15284,34 +15284,34 @@
         <v>1.85</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,7 +15319,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7071046</v>
+        <v>7047443</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15331,40 +15331,40 @@
         <v>45160.375</v>
       </c>
       <c r="F167" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J167" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K167">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M167">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N167">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O167">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q167">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
         <v>1.95</v>
@@ -15373,34 +15373,34 @@
         <v>1.85</v>
       </c>
       <c r="T167">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z167">
+        <v>-1</v>
+      </c>
+      <c r="AA167">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB167">
         <v>0.95</v>
       </c>
-      <c r="AA167">
-        <v>-1</v>
-      </c>
-      <c r="AB167">
-        <v>-1</v>
-      </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7047452</v>
+        <v>7047704</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,73 +16132,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>7</v>
+      </c>
+      <c r="J176" t="s">
+        <v>53</v>
+      </c>
+      <c r="K176">
+        <v>2.55</v>
+      </c>
+      <c r="L176">
         <v>4</v>
       </c>
-      <c r="I176">
+      <c r="M176">
+        <v>2.15</v>
+      </c>
+      <c r="N176">
+        <v>6</v>
+      </c>
+      <c r="O176">
+        <v>6</v>
+      </c>
+      <c r="P176">
+        <v>1.285</v>
+      </c>
+      <c r="Q176">
         <v>2</v>
       </c>
-      <c r="J176" t="s">
-        <v>52</v>
-      </c>
-      <c r="K176">
+      <c r="R176">
+        <v>1.775</v>
+      </c>
+      <c r="S176">
+        <v>1.925</v>
+      </c>
+      <c r="T176">
+        <v>4</v>
+      </c>
+      <c r="U176">
         <v>1.75</v>
       </c>
-      <c r="L176">
-        <v>4.2</v>
-      </c>
-      <c r="M176">
-        <v>3.3</v>
-      </c>
-      <c r="N176">
-        <v>1.615</v>
-      </c>
-      <c r="O176">
-        <v>4.333</v>
-      </c>
-      <c r="P176">
-        <v>3.6</v>
-      </c>
-      <c r="Q176">
-        <v>-1</v>
-      </c>
-      <c r="R176">
-        <v>1.925</v>
-      </c>
-      <c r="S176">
-        <v>1.775</v>
-      </c>
-      <c r="T176">
-        <v>3.75</v>
-      </c>
-      <c r="U176">
-        <v>1.825</v>
-      </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
         <v>0.925</v>
       </c>
-      <c r="AA176">
-        <v>-1</v>
-      </c>
       <c r="AB176">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7047704</v>
+        <v>7047452</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,73 +16221,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I177">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K177">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M177">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N177">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O177">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P177">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R177">
+        <v>1.925</v>
+      </c>
+      <c r="S177">
         <v>1.775</v>
       </c>
-      <c r="S177">
-        <v>1.925</v>
-      </c>
       <c r="T177">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U177">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7047462</v>
+        <v>7047459</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,40 +16844,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H184">
         <v>2</v>
       </c>
       <c r="I184">
+        <v>2</v>
+      </c>
+      <c r="J184" t="s">
+        <v>51</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>4</v>
+      </c>
+      <c r="M184">
+        <v>2.9</v>
+      </c>
+      <c r="N184">
+        <v>2.375</v>
+      </c>
+      <c r="O184">
+        <v>4</v>
+      </c>
+      <c r="P184">
+        <v>2.45</v>
+      </c>
+      <c r="Q184">
         <v>0</v>
-      </c>
-      <c r="J184" t="s">
-        <v>52</v>
-      </c>
-      <c r="K184">
-        <v>1.25</v>
-      </c>
-      <c r="L184">
-        <v>5.5</v>
-      </c>
-      <c r="M184">
-        <v>7.5</v>
-      </c>
-      <c r="N184">
-        <v>1.166</v>
-      </c>
-      <c r="O184">
-        <v>7</v>
-      </c>
-      <c r="P184">
-        <v>9.5</v>
-      </c>
-      <c r="Q184">
-        <v>-2.25</v>
       </c>
       <c r="R184">
         <v>1.85</v>
@@ -16886,34 +16886,34 @@
         <v>1.95</v>
       </c>
       <c r="T184">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>-0</v>
+      </c>
+      <c r="AB184">
+        <v>0.4625</v>
+      </c>
+      <c r="AC184">
         <v>-0.5</v>
-      </c>
-      <c r="AA184">
-        <v>0.475</v>
-      </c>
-      <c r="AB184">
-        <v>-1</v>
-      </c>
-      <c r="AC184">
-        <v>0.825</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7047459</v>
+        <v>7047462</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,40 +16933,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K185">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M185">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N185">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P185">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R185">
         <v>1.85</v>
@@ -16975,34 +16975,34 @@
         <v>1.95</v>
       </c>
       <c r="T185">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X185">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB185">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17722,7 +17722,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7047467</v>
+        <v>7047468</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17734,73 +17734,73 @@
         <v>45181.375</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K194">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L194">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M194">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N194">
-        <v>1.666</v>
+        <v>1.142</v>
       </c>
       <c r="O194">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P194">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="Q194">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R194">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S194">
         <v>1.925</v>
       </c>
       <c r="T194">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA194">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17811,7 +17811,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7047468</v>
+        <v>7047467</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17823,73 +17823,73 @@
         <v>45181.375</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H195">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K195">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M195">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N195">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="O195">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P195">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q195">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S195">
         <v>1.925</v>
       </c>
       <c r="T195">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U195">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z195">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB195">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -18968,7 +18968,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7047484</v>
+        <v>7071042</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18980,58 +18980,58 @@
         <v>45195.375</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G208" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>52</v>
       </c>
       <c r="K208">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L208">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M208">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N208">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O208">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q208">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
+        <v>1.925</v>
+      </c>
+      <c r="S208">
+        <v>1.875</v>
+      </c>
+      <c r="T208">
+        <v>3.25</v>
+      </c>
+      <c r="U208">
         <v>1.975</v>
       </c>
-      <c r="S208">
+      <c r="V208">
         <v>1.825</v>
       </c>
-      <c r="T208">
-        <v>3.75</v>
-      </c>
-      <c r="U208">
-        <v>1.875</v>
-      </c>
-      <c r="V208">
-        <v>1.925</v>
-      </c>
       <c r="W208">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19040,16 +19040,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA208">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19057,7 +19057,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7071042</v>
+        <v>7047484</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19069,58 +19069,58 @@
         <v>45195.375</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
         <v>1</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>52</v>
       </c>
       <c r="K209">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L209">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M209">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N209">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O209">
+        <v>4.5</v>
+      </c>
+      <c r="P209">
+        <v>4.5</v>
+      </c>
+      <c r="Q209">
+        <v>-1.25</v>
+      </c>
+      <c r="R209">
+        <v>1.975</v>
+      </c>
+      <c r="S209">
+        <v>1.825</v>
+      </c>
+      <c r="T209">
         <v>3.75</v>
       </c>
-      <c r="P209">
-        <v>2.75</v>
-      </c>
-      <c r="Q209">
-        <v>-0.25</v>
-      </c>
-      <c r="R209">
+      <c r="U209">
+        <v>1.875</v>
+      </c>
+      <c r="V209">
         <v>1.925</v>
       </c>
-      <c r="S209">
-        <v>1.875</v>
-      </c>
-      <c r="T209">
-        <v>3.25</v>
-      </c>
-      <c r="U209">
-        <v>1.975</v>
-      </c>
-      <c r="V209">
-        <v>1.825</v>
-      </c>
       <c r="W209">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19129,16 +19129,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
+        <v>-0.5</v>
+      </c>
+      <c r="AA209">
+        <v>0.4125</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.925</v>
-      </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
-      <c r="AB209">
-        <v>-1</v>
-      </c>
-      <c r="AC209">
-        <v>0.825</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19858,7 +19858,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7047490</v>
+        <v>7047491</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19870,13 +19870,13 @@
         <v>45202.375</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G218" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -19885,43 +19885,43 @@
         <v>52</v>
       </c>
       <c r="K218">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L218">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M218">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N218">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O218">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P218">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q218">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S218">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T218">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U218">
+        <v>1.95</v>
+      </c>
+      <c r="V218">
         <v>1.85</v>
       </c>
-      <c r="V218">
-        <v>1.95</v>
-      </c>
       <c r="W218">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19930,13 +19930,13 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC218">
         <v>-1</v>
@@ -19947,7 +19947,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7047491</v>
+        <v>7047490</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19959,13 +19959,13 @@
         <v>45202.375</v>
       </c>
       <c r="F219" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H219">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I219">
         <v>2</v>
@@ -19974,43 +19974,43 @@
         <v>52</v>
       </c>
       <c r="K219">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L219">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M219">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N219">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O219">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P219">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S219">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T219">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U219">
+        <v>1.85</v>
+      </c>
+      <c r="V219">
         <v>1.95</v>
       </c>
-      <c r="V219">
-        <v>1.85</v>
-      </c>
       <c r="W219">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20019,13 +20019,13 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB219">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC219">
         <v>-1</v>
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7047506</v>
+        <v>7071039</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,73 +21205,73 @@
         <v>45223.375</v>
       </c>
       <c r="F233" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H233">
+        <v>4</v>
+      </c>
+      <c r="I233">
         <v>0</v>
       </c>
-      <c r="I233">
+      <c r="J233" t="s">
+        <v>52</v>
+      </c>
+      <c r="K233">
+        <v>1.909</v>
+      </c>
+      <c r="L233">
+        <v>3.9</v>
+      </c>
+      <c r="M233">
+        <v>3</v>
+      </c>
+      <c r="N233">
+        <v>1.85</v>
+      </c>
+      <c r="O233">
         <v>4</v>
       </c>
-      <c r="J233" t="s">
-        <v>53</v>
-      </c>
-      <c r="K233">
-        <v>2.3</v>
-      </c>
-      <c r="L233">
-        <v>3.8</v>
-      </c>
-      <c r="M233">
-        <v>2.375</v>
-      </c>
-      <c r="N233">
-        <v>4.75</v>
-      </c>
-      <c r="O233">
-        <v>4.5</v>
-      </c>
       <c r="P233">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q233">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T233">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U233">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V233">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7071039</v>
+        <v>7047506</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,73 +21294,73 @@
         <v>45223.375</v>
       </c>
       <c r="F234" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
         <v>4</v>
       </c>
-      <c r="I234">
-        <v>0</v>
-      </c>
       <c r="J234" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K234">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L234">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M234">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N234">
+        <v>4.75</v>
+      </c>
+      <c r="O234">
+        <v>4.5</v>
+      </c>
+      <c r="P234">
+        <v>1.5</v>
+      </c>
+      <c r="Q234">
+        <v>1.25</v>
+      </c>
+      <c r="R234">
+        <v>1.8</v>
+      </c>
+      <c r="S234">
+        <v>2</v>
+      </c>
+      <c r="T234">
+        <v>3.5</v>
+      </c>
+      <c r="U234">
+        <v>1.95</v>
+      </c>
+      <c r="V234">
         <v>1.85</v>
       </c>
-      <c r="O234">
-        <v>4</v>
-      </c>
-      <c r="P234">
-        <v>3.1</v>
-      </c>
-      <c r="Q234">
-        <v>-0.5</v>
-      </c>
-      <c r="R234">
-        <v>1.9</v>
-      </c>
-      <c r="S234">
-        <v>1.9</v>
-      </c>
-      <c r="T234">
-        <v>3.25</v>
-      </c>
-      <c r="U234">
-        <v>1.875</v>
-      </c>
-      <c r="V234">
-        <v>1.925</v>
-      </c>
       <c r="W234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z234">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB234">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -23685,7 +23685,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7047537</v>
+        <v>7047541</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23697,73 +23697,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F261" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H261">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I261">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J261" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K261">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="L261">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M261">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="N261">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="O261">
         <v>4</v>
       </c>
       <c r="P261">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q261">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R261">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S261">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T261">
         <v>3.75</v>
       </c>
       <c r="U261">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V261">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W261">
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z261">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB261">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7047540</v>
+        <v>7047537</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,73 +23786,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F262" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G262" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H262">
+        <v>5</v>
+      </c>
+      <c r="I262">
+        <v>5</v>
+      </c>
+      <c r="J262" t="s">
+        <v>51</v>
+      </c>
+      <c r="K262">
+        <v>1.75</v>
+      </c>
+      <c r="L262">
+        <v>4.2</v>
+      </c>
+      <c r="M262">
+        <v>3.3</v>
+      </c>
+      <c r="N262">
+        <v>1.95</v>
+      </c>
+      <c r="O262">
+        <v>4</v>
+      </c>
+      <c r="P262">
         <v>3</v>
       </c>
-      <c r="I262">
-        <v>1</v>
-      </c>
-      <c r="J262" t="s">
-        <v>52</v>
-      </c>
-      <c r="K262">
-        <v>3.2</v>
-      </c>
-      <c r="L262">
-        <v>4.1</v>
-      </c>
-      <c r="M262">
-        <v>1.8</v>
-      </c>
-      <c r="N262">
-        <v>3.6</v>
-      </c>
-      <c r="O262">
-        <v>4.2</v>
-      </c>
-      <c r="P262">
-        <v>1.7</v>
-      </c>
       <c r="Q262">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S262">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T262">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U262">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W262">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB262">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7047541</v>
+        <v>7047540</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,73 +23875,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F263" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G263" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H263">
         <v>3</v>
       </c>
       <c r="I263">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K263">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M263">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="N263">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O263">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P263">
+        <v>1.7</v>
+      </c>
+      <c r="Q263">
+        <v>0.75</v>
+      </c>
+      <c r="R263">
+        <v>1.9</v>
+      </c>
+      <c r="S263">
+        <v>1.9</v>
+      </c>
+      <c r="T263">
+        <v>3.5</v>
+      </c>
+      <c r="U263">
         <v>1.8</v>
       </c>
-      <c r="Q263">
-        <v>0.5</v>
-      </c>
-      <c r="R263">
-        <v>1.925</v>
-      </c>
-      <c r="S263">
-        <v>1.875</v>
-      </c>
-      <c r="T263">
-        <v>3.75</v>
-      </c>
-      <c r="U263">
-        <v>1.975</v>
-      </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
+        <v>-1</v>
+      </c>
+      <c r="Z263">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA263">
+        <v>-1</v>
+      </c>
+      <c r="AB263">
         <v>0.8</v>
-      </c>
-      <c r="Z263">
-        <v>-1</v>
-      </c>
-      <c r="AA263">
-        <v>0.875</v>
-      </c>
-      <c r="AB263">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC263">
         <v>-1</v>
@@ -25198,7 +25198,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7047559</v>
+        <v>7047560</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25210,76 +25210,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F278" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G278" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H278">
+        <v>5</v>
+      </c>
+      <c r="I278">
         <v>1</v>
       </c>
-      <c r="I278">
-        <v>2</v>
-      </c>
       <c r="J278" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K278">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L278">
         <v>4</v>
       </c>
       <c r="M278">
-        <v>1.952</v>
+        <v>2.9</v>
       </c>
       <c r="N278">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="O278">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P278">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q278">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R278">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S278">
+        <v>1.85</v>
+      </c>
+      <c r="T278">
+        <v>3.5</v>
+      </c>
+      <c r="U278">
         <v>1.925</v>
       </c>
-      <c r="T278">
-        <v>3.75</v>
-      </c>
-      <c r="U278">
-        <v>1.95</v>
-      </c>
       <c r="V278">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA278">
         <v>-1</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25287,7 +25287,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7047560</v>
+        <v>7047559</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25299,76 +25299,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F279" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G279" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H279">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K279">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L279">
         <v>4</v>
       </c>
       <c r="M279">
-        <v>2.9</v>
+        <v>1.952</v>
       </c>
       <c r="N279">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="O279">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P279">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="Q279">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R279">
+        <v>1.775</v>
+      </c>
+      <c r="S279">
+        <v>1.925</v>
+      </c>
+      <c r="T279">
+        <v>3.75</v>
+      </c>
+      <c r="U279">
         <v>1.95</v>
       </c>
-      <c r="S279">
+      <c r="V279">
         <v>1.85</v>
       </c>
-      <c r="T279">
-        <v>3.5</v>
-      </c>
-      <c r="U279">
-        <v>1.925</v>
-      </c>
-      <c r="V279">
-        <v>1.875</v>
-      </c>
       <c r="W279">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z279">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA279">
         <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25910,7 +25910,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7047570</v>
+        <v>7047568</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25922,49 +25922,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F286" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G286" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K286">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L286">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M286">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N286">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O286">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P286">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R286">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S286">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T286">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U286">
         <v>1.9</v>
@@ -25973,19 +25973,19 @@
         <v>1.9</v>
       </c>
       <c r="W286">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X286">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA286">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
         <v>-1</v>
@@ -25999,7 +25999,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7047568</v>
+        <v>7047570</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26011,49 +26011,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F287" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G287" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H287">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287">
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K287">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L287">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M287">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N287">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O287">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P287">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q287">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R287">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S287">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T287">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U287">
         <v>1.9</v>
@@ -26062,19 +26062,19 @@
         <v>1.9</v>
       </c>
       <c r="W287">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB287">
         <v>-1</v>
@@ -26088,7 +26088,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7071032</v>
+        <v>7047572</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26100,34 +26100,34 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G288" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J288" t="s">
         <v>53</v>
       </c>
       <c r="K288">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L288">
         <v>4.2</v>
       </c>
       <c r="M288">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N288">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O288">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P288">
         <v>3.1</v>
@@ -26136,19 +26136,19 @@
         <v>-0.5</v>
       </c>
       <c r="R288">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S288">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T288">
         <v>3.5</v>
       </c>
       <c r="U288">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V288">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W288">
         <v>-1</v>
@@ -26163,13 +26163,13 @@
         <v>-1</v>
       </c>
       <c r="AA288">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC288">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26177,7 +26177,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7047709</v>
+        <v>7047569</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26189,55 +26189,55 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G289" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J289" t="s">
         <v>51</v>
       </c>
       <c r="K289">
+        <v>2.1</v>
+      </c>
+      <c r="L289">
+        <v>4.2</v>
+      </c>
+      <c r="M289">
         <v>2.5</v>
       </c>
-      <c r="L289">
-        <v>4.333</v>
-      </c>
-      <c r="M289">
-        <v>2.1</v>
-      </c>
       <c r="N289">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O289">
         <v>4.333</v>
       </c>
       <c r="P289">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Q289">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R289">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S289">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T289">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U289">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V289">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W289">
         <v>-1</v>
@@ -26249,16 +26249,16 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA289">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC289">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26266,7 +26266,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7047571</v>
+        <v>7047709</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26278,10 +26278,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F290" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G290" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H290">
         <v>3</v>
@@ -26293,37 +26293,37 @@
         <v>51</v>
       </c>
       <c r="K290">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L290">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M290">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N290">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O290">
         <v>4.333</v>
       </c>
       <c r="P290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q290">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R290">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S290">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T290">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U290">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V290">
         <v>1.95</v>
@@ -26338,13 +26338,13 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA290">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB290">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26355,7 +26355,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7047569</v>
+        <v>7047571</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26367,55 +26367,55 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G291" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J291" t="s">
         <v>51</v>
       </c>
       <c r="K291">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L291">
         <v>4.2</v>
       </c>
       <c r="M291">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N291">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="O291">
         <v>4.333</v>
       </c>
       <c r="P291">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Q291">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S291">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T291">
         <v>3.5</v>
       </c>
       <c r="U291">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V291">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W291">
         <v>-1</v>
@@ -26427,16 +26427,16 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB291">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC291">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26444,7 +26444,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7047572</v>
+        <v>7071032</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26456,34 +26456,34 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F292" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G292" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J292" t="s">
         <v>53</v>
       </c>
       <c r="K292">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L292">
         <v>4.2</v>
       </c>
       <c r="M292">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N292">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O292">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P292">
         <v>3.1</v>
@@ -26492,19 +26492,19 @@
         <v>-0.5</v>
       </c>
       <c r="R292">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S292">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T292">
         <v>3.5</v>
       </c>
       <c r="U292">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V292">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W292">
         <v>-1</v>
@@ -26519,13 +26519,13 @@
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB292">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26711,7 +26711,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7047576</v>
+        <v>7047575</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26723,13 +26723,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G295" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295">
         <v>5</v>
@@ -26738,58 +26738,58 @@
         <v>53</v>
       </c>
       <c r="K295">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L295">
+        <v>6</v>
+      </c>
+      <c r="M295">
+        <v>1.25</v>
+      </c>
+      <c r="N295">
         <v>4</v>
       </c>
-      <c r="M295">
-        <v>2.75</v>
-      </c>
-      <c r="N295">
-        <v>2.875</v>
-      </c>
       <c r="O295">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P295">
+        <v>1.5</v>
+      </c>
+      <c r="Q295">
+        <v>1.25</v>
+      </c>
+      <c r="R295">
+        <v>1.85</v>
+      </c>
+      <c r="S295">
         <v>1.95</v>
       </c>
-      <c r="Q295">
+      <c r="T295">
+        <v>3.75</v>
+      </c>
+      <c r="U295">
+        <v>1.9</v>
+      </c>
+      <c r="V295">
+        <v>1.9</v>
+      </c>
+      <c r="W295">
+        <v>-1</v>
+      </c>
+      <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
         <v>0.5</v>
       </c>
-      <c r="R295">
-        <v>1.8</v>
-      </c>
-      <c r="S295">
-        <v>2</v>
-      </c>
-      <c r="T295">
-        <v>3.5</v>
-      </c>
-      <c r="U295">
-        <v>1.925</v>
-      </c>
-      <c r="V295">
-        <v>1.875</v>
-      </c>
-      <c r="W295">
-        <v>-1</v>
-      </c>
-      <c r="X295">
-        <v>-1</v>
-      </c>
-      <c r="Y295">
+      <c r="Z295">
+        <v>-1</v>
+      </c>
+      <c r="AA295">
         <v>0.95</v>
       </c>
-      <c r="Z295">
-        <v>-1</v>
-      </c>
-      <c r="AA295">
-        <v>1</v>
-      </c>
       <c r="AB295">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -26800,7 +26800,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7047575</v>
+        <v>7047576</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26812,13 +26812,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F296" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G296" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296">
         <v>5</v>
@@ -26827,40 +26827,40 @@
         <v>53</v>
       </c>
       <c r="K296">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L296">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M296">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="N296">
+        <v>2.875</v>
+      </c>
+      <c r="O296">
         <v>4</v>
       </c>
-      <c r="O296">
-        <v>5</v>
-      </c>
       <c r="P296">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q296">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R296">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S296">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T296">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U296">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26869,16 +26869,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB296">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -28224,7 +28224,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7047601</v>
+        <v>7047710</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28236,46 +28236,46 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G312" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H312">
         <v>1</v>
       </c>
       <c r="I312">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J312" t="s">
         <v>53</v>
       </c>
       <c r="K312">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="L312">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M312">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N312">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O312">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P312">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q312">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R312">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S312">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T312">
         <v>3.5</v>
@@ -28293,19 +28293,19 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>4.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB312">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC312">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28313,7 +28313,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7047710</v>
+        <v>7047601</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28325,46 +28325,46 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G313" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H313">
         <v>1</v>
       </c>
       <c r="I313">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J313" t="s">
         <v>53</v>
       </c>
       <c r="K313">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M313">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N313">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O313">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P313">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q313">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R313">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S313">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T313">
         <v>3.5</v>
@@ -28382,19 +28382,19 @@
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>1.15</v>
+        <v>4.75</v>
       </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB313">
+        <v>-1</v>
+      </c>
+      <c r="AC313">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB313">
-        <v>0.825</v>
-      </c>
-      <c r="AC313">
-        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC321"/>
+  <dimension ref="A1:AC322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5434360</v>
+        <v>6020901</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>44964.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M23">
+        <v>1.833</v>
+      </c>
+      <c r="N23">
+        <v>1.85</v>
+      </c>
+      <c r="O23">
+        <v>4.5</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.7</v>
+      </c>
+      <c r="S23">
         <v>2.1</v>
       </c>
-      <c r="N23">
-        <v>1.444</v>
-      </c>
-      <c r="O23">
-        <v>5</v>
-      </c>
-      <c r="P23">
-        <v>5</v>
-      </c>
-      <c r="Q23">
-        <v>-1.5</v>
-      </c>
-      <c r="R23">
-        <v>2.025</v>
-      </c>
-      <c r="S23">
-        <v>1.775</v>
-      </c>
       <c r="T23">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2592,7 +2592,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6020901</v>
+        <v>5434360</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2604,76 +2604,76 @@
         <v>44964.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>2</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L24">
+        <v>3.75</v>
+      </c>
+      <c r="M24">
+        <v>2.1</v>
+      </c>
+      <c r="N24">
+        <v>1.444</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>-1.5</v>
+      </c>
+      <c r="R24">
+        <v>2.025</v>
+      </c>
+      <c r="S24">
+        <v>1.775</v>
+      </c>
+      <c r="T24">
+        <v>3.5</v>
+      </c>
+      <c r="U24">
+        <v>1.9</v>
+      </c>
+      <c r="V24">
+        <v>1.9</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>4</v>
       </c>
-      <c r="M24">
-        <v>1.833</v>
-      </c>
-      <c r="N24">
-        <v>1.85</v>
-      </c>
-      <c r="O24">
-        <v>4.5</v>
-      </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.7</v>
-      </c>
-      <c r="S24">
-        <v>2.1</v>
-      </c>
-      <c r="T24">
-        <v>3.25</v>
-      </c>
-      <c r="U24">
-        <v>1.95</v>
-      </c>
-      <c r="V24">
-        <v>1.85</v>
-      </c>
-      <c r="W24">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
       <c r="Z24">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5432872</v>
+        <v>5434331</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,40 +2871,40 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L27">
         <v>4.2</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="N27">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="O27">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q27">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>1.9</v>
@@ -2913,34 +2913,34 @@
         <v>1.9</v>
       </c>
       <c r="T27">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z27">
+        <v>-1</v>
+      </c>
+      <c r="AA27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.45</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5434331</v>
+        <v>5432872</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,40 +2960,40 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
         <v>4.2</v>
       </c>
       <c r="M28">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P28">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R28">
         <v>1.9</v>
@@ -3002,34 +3002,34 @@
         <v>1.9</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5434327</v>
+        <v>5432874</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,10 +3494,10 @@
         <v>44971.4375</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3509,31 +3509,31 @@
         <v>51</v>
       </c>
       <c r="K34">
+        <v>1.25</v>
+      </c>
+      <c r="L34">
+        <v>5.5</v>
+      </c>
+      <c r="M34">
+        <v>8</v>
+      </c>
+      <c r="N34">
         <v>1.4</v>
       </c>
-      <c r="L34">
-        <v>4.5</v>
-      </c>
-      <c r="M34">
-        <v>5.5</v>
-      </c>
-      <c r="N34">
-        <v>1.45</v>
-      </c>
       <c r="O34">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P34">
         <v>5.5</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
         <v>3.5</v>
@@ -3548,7 +3548,7 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3557,7 +3557,7 @@
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
         <v>-1</v>
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5432874</v>
+        <v>5434327</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,10 +3583,10 @@
         <v>44971.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3598,31 +3598,31 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L35">
+        <v>4.5</v>
+      </c>
+      <c r="M35">
         <v>5.5</v>
       </c>
-      <c r="M35">
-        <v>8</v>
-      </c>
       <c r="N35">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O35">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P35">
         <v>5.5</v>
       </c>
       <c r="Q35">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
         <v>3.5</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
@@ -3646,7 +3646,7 @@
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5434322</v>
+        <v>5432877</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,49 +3939,49 @@
         <v>44977.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="N39">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O39">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P39">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="Q39">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
         <v>1.75</v>
@@ -3990,25 +3990,25 @@
         <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5432877</v>
+        <v>5434322</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,49 +4028,49 @@
         <v>44977.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>0</v>
       </c>
-      <c r="I40">
+      <c r="J40" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>1.2</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>9</v>
+      </c>
+      <c r="N40">
+        <v>1.333</v>
+      </c>
+      <c r="O40">
+        <v>4.75</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+      <c r="Q40">
+        <v>-1.5</v>
+      </c>
+      <c r="R40">
+        <v>1.9</v>
+      </c>
+      <c r="S40">
+        <v>1.9</v>
+      </c>
+      <c r="T40">
         <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40">
-        <v>2.5</v>
-      </c>
-      <c r="L40">
-        <v>4.5</v>
-      </c>
-      <c r="M40">
-        <v>2.05</v>
-      </c>
-      <c r="N40">
-        <v>3.3</v>
-      </c>
-      <c r="O40">
-        <v>5</v>
-      </c>
-      <c r="P40">
-        <v>1.666</v>
-      </c>
-      <c r="Q40">
-        <v>0.75</v>
-      </c>
-      <c r="R40">
-        <v>1.95</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
-      </c>
-      <c r="T40">
-        <v>3.25</v>
       </c>
       <c r="U40">
         <v>1.75</v>
@@ -4079,25 +4079,25 @@
         <v>1.95</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5434316</v>
+        <v>5434315</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,76 +4829,76 @@
         <v>44985.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49">
+        <v>1.833</v>
+      </c>
+      <c r="L49">
+        <v>3.75</v>
+      </c>
+      <c r="M49">
+        <v>3.3</v>
+      </c>
+      <c r="N49">
+        <v>3.4</v>
+      </c>
+      <c r="O49">
         <v>4</v>
       </c>
-      <c r="J49" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49">
-        <v>4.2</v>
-      </c>
-      <c r="L49">
-        <v>4</v>
-      </c>
-      <c r="M49">
-        <v>1.571</v>
-      </c>
-      <c r="N49">
-        <v>2.625</v>
-      </c>
-      <c r="O49">
-        <v>3.75</v>
-      </c>
       <c r="P49">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R49">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5434315</v>
+        <v>5434316</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,76 +4918,76 @@
         <v>44985.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>1.571</v>
+      </c>
+      <c r="N50">
+        <v>2.625</v>
+      </c>
+      <c r="O50">
         <v>3.75</v>
       </c>
-      <c r="M50">
-        <v>3.3</v>
-      </c>
-      <c r="N50">
-        <v>3.4</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
       <c r="P50">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q50">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5434313</v>
+        <v>5432880</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5007,55 +5007,55 @@
         <v>44985.4375</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>53</v>
       </c>
       <c r="K51">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M51">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="N51">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
+        <v>2.45</v>
+      </c>
+      <c r="Q51">
+        <v>-0.25</v>
+      </c>
+      <c r="R51">
         <v>1.95</v>
       </c>
-      <c r="Q51">
-        <v>0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.8</v>
-      </c>
       <c r="S51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5064,19 +5064,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5432880</v>
+        <v>5434313</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,55 +5096,55 @@
         <v>44985.4375</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>53</v>
       </c>
       <c r="K52">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L52">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="N52">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O52">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5153,19 +5153,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5440,7 +5440,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5434311</v>
+        <v>6176733</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5452,40 +5452,40 @@
         <v>44988.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K56">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="L56">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M56">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N56">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O56">
         <v>4</v>
       </c>
       <c r="P56">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <v>1.925</v>
@@ -5494,34 +5494,34 @@
         <v>1.875</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
+        <v>1.875</v>
+      </c>
+      <c r="V56">
         <v>1.925</v>
       </c>
-      <c r="V56">
-        <v>1.875</v>
-      </c>
       <c r="W56">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z56">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB56">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC56">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5529,7 +5529,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6176733</v>
+        <v>5434311</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5541,40 +5541,40 @@
         <v>44988.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K57">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M57">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O57">
         <v>4</v>
       </c>
       <c r="P57">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
         <v>1.925</v>
@@ -5583,34 +5583,34 @@
         <v>1.875</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U57">
+        <v>1.925</v>
+      </c>
+      <c r="V57">
         <v>1.875</v>
       </c>
-      <c r="V57">
-        <v>1.925</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA57">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6134949</v>
+        <v>6174295</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6342,76 +6342,76 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="L66">
+        <v>4.2</v>
+      </c>
+      <c r="M66">
+        <v>1.6</v>
+      </c>
+      <c r="N66">
+        <v>3.3</v>
+      </c>
+      <c r="O66">
         <v>3.75</v>
       </c>
-      <c r="M66">
-        <v>2.35</v>
-      </c>
-      <c r="N66">
-        <v>1.75</v>
-      </c>
-      <c r="O66">
-        <v>3.8</v>
-      </c>
       <c r="P66">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6174295</v>
+        <v>6159600</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6431,40 +6431,40 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K67">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="L67">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6473,34 +6473,34 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6508,7 +6508,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6159600</v>
+        <v>6134949</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6520,46 +6520,46 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L68">
+        <v>3.75</v>
+      </c>
+      <c r="M68">
+        <v>2.35</v>
+      </c>
+      <c r="N68">
+        <v>1.75</v>
+      </c>
+      <c r="O68">
+        <v>3.8</v>
+      </c>
+      <c r="P68">
         <v>4</v>
       </c>
-      <c r="M68">
-        <v>2.5</v>
-      </c>
-      <c r="N68">
-        <v>2.05</v>
-      </c>
-      <c r="O68">
-        <v>4</v>
-      </c>
-      <c r="P68">
-        <v>2.8</v>
-      </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>3</v>
@@ -6571,19 +6571,19 @@
         <v>1.925</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5432887</v>
+        <v>5434302</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,76 +6876,76 @@
         <v>45005.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L72">
         <v>3.25</v>
       </c>
       <c r="M72">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N72">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Q72">
+        <v>0.5</v>
+      </c>
+      <c r="R72">
+        <v>1.775</v>
+      </c>
+      <c r="S72">
+        <v>2.025</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
+        <v>1.85</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
+        <v>1.025</v>
+      </c>
+      <c r="AB72">
         <v>0</v>
       </c>
-      <c r="R72">
-        <v>1.825</v>
-      </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
-      <c r="T72">
-        <v>3.25</v>
-      </c>
-      <c r="U72">
-        <v>1.975</v>
-      </c>
-      <c r="V72">
-        <v>1.825</v>
-      </c>
-      <c r="W72">
-        <v>1.4</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
-      <c r="Z72">
-        <v>0.825</v>
-      </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5432886</v>
+        <v>5432887</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,58 +6965,58 @@
         <v>45005.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
         <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N73">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
         <v>3.25</v>
       </c>
       <c r="U73">
+        <v>1.975</v>
+      </c>
+      <c r="V73">
         <v>1.825</v>
       </c>
-      <c r="V73">
-        <v>1.975</v>
-      </c>
       <c r="W73">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7025,16 +7025,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5434302</v>
+        <v>5432886</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,40 +7054,40 @@
         <v>45005.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K74">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="L74">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M74">
+        <v>1.5</v>
+      </c>
+      <c r="N74">
+        <v>2.55</v>
+      </c>
+      <c r="O74">
+        <v>3.6</v>
+      </c>
+      <c r="P74">
         <v>2.2</v>
       </c>
-      <c r="N74">
-        <v>3.25</v>
-      </c>
-      <c r="O74">
-        <v>3.2</v>
-      </c>
-      <c r="P74">
-        <v>2</v>
-      </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
         <v>1.775</v>
@@ -7096,34 +7096,34 @@
         <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA74">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7220,7 +7220,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5434300</v>
+        <v>5434299</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7232,76 +7232,76 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N76">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O76">
         <v>4</v>
       </c>
       <c r="P76">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U76">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5434299</v>
+        <v>5434300</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78" t="s">
+        <v>53</v>
+      </c>
+      <c r="K78">
+        <v>2.75</v>
+      </c>
+      <c r="L78">
         <v>4</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="s">
-        <v>52</v>
-      </c>
-      <c r="K78">
-        <v>1.363</v>
-      </c>
-      <c r="L78">
-        <v>5</v>
-      </c>
       <c r="M78">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="O78">
         <v>4</v>
       </c>
       <c r="P78">
+        <v>1.75</v>
+      </c>
+      <c r="Q78">
+        <v>0.5</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>3.25</v>
+      </c>
+      <c r="U78">
+        <v>1.75</v>
+      </c>
+      <c r="V78">
         <v>2.05</v>
       </c>
-      <c r="Q78">
-        <v>0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.9</v>
-      </c>
-      <c r="S78">
-        <v>1.9</v>
-      </c>
-      <c r="T78">
-        <v>3.5</v>
-      </c>
-      <c r="U78">
-        <v>1.95</v>
-      </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -10602,7 +10602,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5434280</v>
+        <v>5434279</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10614,73 +10614,73 @@
         <v>45040.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G114" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L114">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
         <v>3.5</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10691,7 +10691,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5434279</v>
+        <v>5434280</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10703,73 +10703,73 @@
         <v>45040.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115" t="s">
+        <v>53</v>
+      </c>
+      <c r="K115">
+        <v>1.533</v>
+      </c>
+      <c r="L115">
+        <v>4.2</v>
+      </c>
+      <c r="M115">
+        <v>4.5</v>
+      </c>
+      <c r="N115">
+        <v>1.615</v>
+      </c>
+      <c r="O115">
         <v>4</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115" t="s">
-        <v>52</v>
-      </c>
-      <c r="K115">
-        <v>2.5</v>
-      </c>
-      <c r="L115">
-        <v>3.75</v>
-      </c>
-      <c r="M115">
-        <v>2.3</v>
-      </c>
-      <c r="N115">
-        <v>2.45</v>
-      </c>
-      <c r="O115">
-        <v>3.5</v>
-      </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T115">
         <v>3.5</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -11136,7 +11136,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5434277</v>
+        <v>5434278</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11148,58 +11148,58 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>52</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L120">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M120">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
+        <v>1.285</v>
+      </c>
+      <c r="O120">
+        <v>5.5</v>
+      </c>
+      <c r="P120">
+        <v>6.5</v>
+      </c>
+      <c r="Q120">
+        <v>-1.75</v>
+      </c>
+      <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
+        <v>2</v>
+      </c>
+      <c r="T120">
+        <v>3.75</v>
+      </c>
+      <c r="U120">
+        <v>1.85</v>
+      </c>
+      <c r="V120">
         <v>1.95</v>
       </c>
-      <c r="O120">
-        <v>3.75</v>
-      </c>
-      <c r="P120">
-        <v>3</v>
-      </c>
-      <c r="Q120">
-        <v>-0.25</v>
-      </c>
-      <c r="R120">
-        <v>1.925</v>
-      </c>
-      <c r="S120">
-        <v>1.875</v>
-      </c>
-      <c r="T120">
-        <v>3.25</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11208,13 +11208,13 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11225,7 +11225,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5434278</v>
+        <v>5434277</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11237,58 +11237,58 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>52</v>
       </c>
       <c r="K121">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M121">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N121">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q121">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
+        <v>1.95</v>
+      </c>
+      <c r="V121">
         <v>1.85</v>
       </c>
-      <c r="V121">
-        <v>1.95</v>
-      </c>
       <c r="W121">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11297,13 +11297,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11848,7 +11848,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5434272</v>
+        <v>5432900</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11860,76 +11860,76 @@
         <v>45047.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K128">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M128">
+        <v>1.95</v>
+      </c>
+      <c r="N128">
+        <v>3.25</v>
+      </c>
+      <c r="O128">
+        <v>4.5</v>
+      </c>
+      <c r="P128">
+        <v>1.8</v>
+      </c>
+      <c r="Q128">
+        <v>0.5</v>
+      </c>
+      <c r="R128">
+        <v>1.925</v>
+      </c>
+      <c r="S128">
+        <v>1.775</v>
+      </c>
+      <c r="T128">
+        <v>3.75</v>
+      </c>
+      <c r="U128">
+        <v>1.8</v>
+      </c>
+      <c r="V128">
         <v>2</v>
       </c>
-      <c r="N128">
-        <v>2.8</v>
-      </c>
-      <c r="O128">
-        <v>4</v>
-      </c>
-      <c r="P128">
-        <v>2</v>
-      </c>
-      <c r="Q128">
-        <v>0.25</v>
-      </c>
-      <c r="R128">
-        <v>1.975</v>
-      </c>
-      <c r="S128">
-        <v>1.825</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z128">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12026,7 +12026,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5432900</v>
+        <v>5434272</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12038,76 +12038,76 @@
         <v>45047.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>51</v>
+      </c>
+      <c r="K130">
+        <v>2.8</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
         <v>2</v>
       </c>
-      <c r="I130">
+      <c r="N130">
+        <v>2.8</v>
+      </c>
+      <c r="O130">
         <v>4</v>
       </c>
-      <c r="J130" t="s">
-        <v>53</v>
-      </c>
-      <c r="K130">
-        <v>2.75</v>
-      </c>
-      <c r="L130">
-        <v>4.333</v>
-      </c>
-      <c r="M130">
-        <v>1.95</v>
-      </c>
-      <c r="N130">
+      <c r="P130">
+        <v>2</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.975</v>
+      </c>
+      <c r="S130">
+        <v>1.825</v>
+      </c>
+      <c r="T130">
         <v>3.25</v>
       </c>
-      <c r="O130">
-        <v>4.5</v>
-      </c>
-      <c r="P130">
-        <v>1.8</v>
-      </c>
-      <c r="Q130">
-        <v>0.5</v>
-      </c>
-      <c r="R130">
-        <v>1.925</v>
-      </c>
-      <c r="S130">
-        <v>1.775</v>
-      </c>
-      <c r="T130">
-        <v>3.75</v>
-      </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5434268</v>
+        <v>6126109</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,55 +12483,55 @@
         <v>45051.375</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>53</v>
       </c>
       <c r="K135">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12540,19 +12540,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6126109</v>
+        <v>5434268</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45051.375</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
         <v>53</v>
       </c>
       <c r="K136">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L136">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
+        <v>1.85</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
+        <v>1.95</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
         <v>1.8</v>
       </c>
-      <c r="T136">
-        <v>3.5</v>
-      </c>
-      <c r="U136">
-        <v>1.825</v>
-      </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>1.3</v>
-      </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5432906</v>
+        <v>5434266</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12839,73 +12839,73 @@
         <v>45055.375</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K139">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L139">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M139">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O139">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA139">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12916,7 +12916,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5432907</v>
+        <v>5432906</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12928,13 +12928,13 @@
         <v>45055.375</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>3</v>
@@ -12943,40 +12943,40 @@
         <v>53</v>
       </c>
       <c r="K140">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M140">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P140">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12985,16 +12985,16 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5434266</v>
+        <v>5432907</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,73 +13017,73 @@
         <v>45055.375</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141" t="s">
+        <v>53</v>
+      </c>
+      <c r="K141">
+        <v>2.25</v>
+      </c>
+      <c r="L141">
         <v>4</v>
       </c>
-      <c r="I141">
-        <v>2</v>
-      </c>
-      <c r="J141" t="s">
-        <v>52</v>
-      </c>
-      <c r="K141">
-        <v>1.571</v>
-      </c>
-      <c r="L141">
-        <v>4.333</v>
-      </c>
       <c r="M141">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N141">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O141">
         <v>4</v>
       </c>
       <c r="P141">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7047431</v>
+        <v>7067620</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,58 +13907,58 @@
         <v>45153.375</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G151" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>4</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>52</v>
       </c>
       <c r="K151">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L151">
+        <v>3.75</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
         <v>3.6</v>
       </c>
-      <c r="M151">
-        <v>2.1</v>
-      </c>
-      <c r="N151">
-        <v>2.75</v>
-      </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P151">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
         <v>3.5</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13967,13 +13967,13 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7067620</v>
+        <v>7047431</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,58 +13996,58 @@
         <v>45153.375</v>
       </c>
       <c r="F152" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H152">
         <v>4</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>52</v>
       </c>
       <c r="K152">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N152">
+        <v>2.75</v>
+      </c>
+      <c r="O152">
         <v>3.6</v>
       </c>
-      <c r="O152">
-        <v>4</v>
-      </c>
       <c r="P152">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>3.5</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14056,13 +14056,13 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7047435</v>
+        <v>7047433</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,76 +14085,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K153">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="L153">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="N153">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O153">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P153">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="Q153">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
+        <v>1.875</v>
+      </c>
+      <c r="S153">
         <v>1.925</v>
       </c>
-      <c r="S153">
-        <v>1.875</v>
-      </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
         <v>0.925</v>
       </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7067710</v>
+        <v>7046797</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,76 +14174,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>2</v>
-      </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K154">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N154">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
+        <v>1.875</v>
+      </c>
+      <c r="S154">
+        <v>1.925</v>
+      </c>
+      <c r="T154">
+        <v>3.75</v>
+      </c>
+      <c r="U154">
         <v>1.9</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.9</v>
       </c>
-      <c r="T154">
-        <v>3.5</v>
-      </c>
-      <c r="U154">
-        <v>1.975</v>
-      </c>
-      <c r="V154">
-        <v>1.825</v>
-      </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB154">
-        <v>-1</v>
-      </c>
-      <c r="AC154">
-        <v>0.825</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14251,7 +14251,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7046797</v>
+        <v>7047434</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14263,13 +14263,13 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14278,43 +14278,43 @@
         <v>52</v>
       </c>
       <c r="K155">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L155">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N155">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O155">
+        <v>6.5</v>
+      </c>
+      <c r="P155">
+        <v>7</v>
+      </c>
+      <c r="Q155">
+        <v>-2</v>
+      </c>
+      <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>1.85</v>
+      </c>
+      <c r="T155">
         <v>4</v>
       </c>
-      <c r="P155">
-        <v>3.4</v>
-      </c>
-      <c r="Q155">
-        <v>-0.5</v>
-      </c>
-      <c r="R155">
+      <c r="U155">
         <v>1.875</v>
       </c>
-      <c r="S155">
+      <c r="V155">
         <v>1.925</v>
       </c>
-      <c r="T155">
-        <v>3.75</v>
-      </c>
-      <c r="U155">
-        <v>1.9</v>
-      </c>
-      <c r="V155">
-        <v>1.9</v>
-      </c>
       <c r="W155">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14323,16 +14323,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
+        <v>0.95</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
         <v>0.875</v>
       </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>-1</v>
-      </c>
       <c r="AC155">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7047433</v>
+        <v>7067710</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,55 +14352,55 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>53</v>
       </c>
       <c r="K156">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L156">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N156">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O156">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T156">
         <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14409,19 +14409,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.909</v>
+        <v>1.7</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7047434</v>
+        <v>7047435</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,73 +14441,73 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H157">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="L157">
+        <v>4.75</v>
+      </c>
+      <c r="M157">
+        <v>1.444</v>
+      </c>
+      <c r="N157">
         <v>5</v>
       </c>
-      <c r="M157">
-        <v>5.5</v>
-      </c>
-      <c r="N157">
+      <c r="O157">
+        <v>4.75</v>
+      </c>
+      <c r="P157">
+        <v>1.45</v>
+      </c>
+      <c r="Q157">
         <v>1.25</v>
       </c>
-      <c r="O157">
-        <v>6.5</v>
-      </c>
-      <c r="P157">
-        <v>7</v>
-      </c>
-      <c r="Q157">
-        <v>-2</v>
-      </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7047440</v>
+        <v>7047439</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,76 +14797,76 @@
         <v>45159.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161" t="s">
+        <v>51</v>
+      </c>
+      <c r="K161">
+        <v>3.5</v>
+      </c>
+      <c r="L161">
+        <v>4.2</v>
+      </c>
+      <c r="M161">
+        <v>1.7</v>
+      </c>
+      <c r="N161">
+        <v>1.727</v>
+      </c>
+      <c r="O161">
+        <v>4</v>
+      </c>
+      <c r="P161">
+        <v>3.5</v>
+      </c>
+      <c r="Q161">
+        <v>-0.75</v>
+      </c>
+      <c r="R161">
+        <v>1.975</v>
+      </c>
+      <c r="S161">
+        <v>1.825</v>
+      </c>
+      <c r="T161">
+        <v>3.75</v>
+      </c>
+      <c r="U161">
+        <v>1.9</v>
+      </c>
+      <c r="V161">
+        <v>1.9</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-      <c r="J161" t="s">
-        <v>52</v>
-      </c>
-      <c r="K161">
-        <v>1.533</v>
-      </c>
-      <c r="L161">
-        <v>4.5</v>
-      </c>
-      <c r="M161">
-        <v>4.2</v>
-      </c>
-      <c r="N161">
-        <v>1.45</v>
-      </c>
-      <c r="O161">
-        <v>4.75</v>
-      </c>
-      <c r="P161">
-        <v>4.75</v>
-      </c>
-      <c r="Q161">
-        <v>-1.25</v>
-      </c>
-      <c r="R161">
-        <v>1.9</v>
-      </c>
-      <c r="S161">
-        <v>1.9</v>
-      </c>
-      <c r="T161">
-        <v>3.5</v>
-      </c>
-      <c r="U161">
-        <v>1.85</v>
-      </c>
-      <c r="V161">
-        <v>1.95</v>
-      </c>
-      <c r="W161">
+      <c r="Y161">
+        <v>-1</v>
+      </c>
+      <c r="Z161">
+        <v>-1</v>
+      </c>
+      <c r="AA161">
+        <v>0.825</v>
+      </c>
+      <c r="AB161">
         <v>0.45</v>
       </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
-      <c r="Z161">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
-      <c r="AB161">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7047439</v>
+        <v>7047445</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45159.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162">
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K162">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L162">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M162">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="N162">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O162">
         <v>4</v>
       </c>
       <c r="P162">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>1.8</v>
+      </c>
+      <c r="T162">
+        <v>3.25</v>
+      </c>
+      <c r="U162">
+        <v>1.825</v>
+      </c>
+      <c r="V162">
         <v>1.975</v>
       </c>
-      <c r="S162">
-        <v>1.825</v>
-      </c>
-      <c r="T162">
-        <v>3.75</v>
-      </c>
-      <c r="U162">
-        <v>1.9</v>
-      </c>
-      <c r="V162">
-        <v>1.9</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X162">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA162">
+        <v>-1</v>
+      </c>
+      <c r="AB162">
         <v>0.825</v>
       </c>
-      <c r="AB162">
-        <v>0.45</v>
-      </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7047445</v>
+        <v>7047440</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,58 +14975,58 @@
         <v>45159.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>3</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>52</v>
       </c>
       <c r="K163">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M163">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N163">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P163">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T163">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
-        <v>1.15</v>
+        <v>0.45</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15035,13 +15035,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7047450</v>
+        <v>7071045</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,58 +15865,58 @@
         <v>45167.375</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H173">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>52</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N173">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O173">
         <v>4.2</v>
       </c>
       <c r="P173">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R173">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
         <v>3.5</v>
       </c>
       <c r="U173">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>0.7270000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15925,16 +15925,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7071045</v>
+        <v>7047450</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45167.375</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>52</v>
       </c>
       <c r="K175">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N175">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O175">
         <v>4.2</v>
       </c>
       <c r="P175">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q175">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
         <v>3.5</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>0.5329999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC175">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7047455</v>
+        <v>7047454</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16399,58 +16399,58 @@
         <v>45170.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>52</v>
       </c>
       <c r="K179">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L179">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="N179">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P179">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T179">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16459,16 +16459,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7047454</v>
+        <v>7047455</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,58 +16488,58 @@
         <v>45170.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
         <v>52</v>
       </c>
       <c r="K180">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M180">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N180">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16548,16 +16548,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7047459</v>
+        <v>7047462</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,40 +16844,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H184">
         <v>2</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K184">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M184">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N184">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O184">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P184">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R184">
         <v>1.85</v>
@@ -16886,34 +16886,34 @@
         <v>1.95</v>
       </c>
       <c r="T184">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X184">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB184">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7047462</v>
+        <v>7047459</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,40 +16933,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185" t="s">
+        <v>51</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+      <c r="M185">
+        <v>2.9</v>
+      </c>
+      <c r="N185">
+        <v>2.375</v>
+      </c>
+      <c r="O185">
+        <v>4</v>
+      </c>
+      <c r="P185">
+        <v>2.45</v>
+      </c>
+      <c r="Q185">
         <v>0</v>
-      </c>
-      <c r="J185" t="s">
-        <v>52</v>
-      </c>
-      <c r="K185">
-        <v>1.25</v>
-      </c>
-      <c r="L185">
-        <v>5.5</v>
-      </c>
-      <c r="M185">
-        <v>7.5</v>
-      </c>
-      <c r="N185">
-        <v>1.166</v>
-      </c>
-      <c r="O185">
-        <v>7</v>
-      </c>
-      <c r="P185">
-        <v>9.5</v>
-      </c>
-      <c r="Q185">
-        <v>-2.25</v>
       </c>
       <c r="R185">
         <v>1.85</v>
@@ -16975,34 +16975,34 @@
         <v>1.95</v>
       </c>
       <c r="T185">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>-0</v>
+      </c>
+      <c r="AB185">
+        <v>0.4625</v>
+      </c>
+      <c r="AC185">
         <v>-0.5</v>
-      </c>
-      <c r="AA185">
-        <v>0.475</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
-      <c r="AC185">
-        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7071044</v>
+        <v>7047461</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45174.375</v>
       </c>
       <c r="F187" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K187">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L187">
+        <v>4.2</v>
+      </c>
+      <c r="M187">
+        <v>2.45</v>
+      </c>
+      <c r="N187">
+        <v>2.375</v>
+      </c>
+      <c r="O187">
         <v>4</v>
       </c>
-      <c r="M187">
-        <v>2.3</v>
-      </c>
-      <c r="N187">
-        <v>1.65</v>
-      </c>
-      <c r="O187">
-        <v>4.2</v>
-      </c>
       <c r="P187">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S187">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X187">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA187">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7047461</v>
+        <v>7071044</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45174.375</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L188">
+        <v>4</v>
+      </c>
+      <c r="M188">
+        <v>2.3</v>
+      </c>
+      <c r="N188">
+        <v>1.65</v>
+      </c>
+      <c r="O188">
         <v>4.2</v>
       </c>
-      <c r="M188">
-        <v>2.45</v>
-      </c>
-      <c r="N188">
-        <v>2.375</v>
-      </c>
-      <c r="O188">
-        <v>4</v>
-      </c>
       <c r="P188">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U188">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17544,7 +17544,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7047466</v>
+        <v>7047465</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17556,76 +17556,76 @@
         <v>45180.41666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K192">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N192">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O192">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="Q192">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R192">
+        <v>1.975</v>
+      </c>
+      <c r="S192">
         <v>1.825</v>
-      </c>
-      <c r="S192">
-        <v>1.975</v>
       </c>
       <c r="T192">
         <v>3.5</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z192">
+        <v>-1</v>
+      </c>
+      <c r="AA192">
         <v>0.825</v>
       </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
       <c r="AB192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17633,7 +17633,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7047465</v>
+        <v>7047466</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17645,76 +17645,76 @@
         <v>45180.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K193">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L193">
+        <v>4</v>
+      </c>
+      <c r="M193">
+        <v>1.727</v>
+      </c>
+      <c r="N193">
+        <v>3.2</v>
+      </c>
+      <c r="O193">
         <v>3.75</v>
       </c>
-      <c r="M193">
-        <v>2.4</v>
-      </c>
-      <c r="N193">
-        <v>2.55</v>
-      </c>
-      <c r="O193">
-        <v>3.4</v>
-      </c>
       <c r="P193">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R193">
+        <v>1.825</v>
+      </c>
+      <c r="S193">
         <v>1.975</v>
-      </c>
-      <c r="S193">
-        <v>1.825</v>
       </c>
       <c r="T193">
         <v>3.5</v>
       </c>
       <c r="U193">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y193">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC193">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7047469</v>
+        <v>7047470</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,55 +17912,55 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G196" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J196" t="s">
         <v>53</v>
       </c>
       <c r="K196">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L196">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M196">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="N196">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O196">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P196">
+        <v>1.533</v>
+      </c>
+      <c r="Q196">
+        <v>1</v>
+      </c>
+      <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196">
         <v>1.8</v>
       </c>
-      <c r="Q196">
-        <v>0.5</v>
-      </c>
-      <c r="R196">
-        <v>1.925</v>
-      </c>
-      <c r="S196">
-        <v>1.775</v>
-      </c>
       <c r="T196">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W196">
         <v>-1</v>
@@ -17969,16 +17969,16 @@
         <v>-1</v>
       </c>
       <c r="Y196">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z196">
+        <v>-1</v>
+      </c>
+      <c r="AA196">
         <v>0.8</v>
       </c>
-      <c r="Z196">
-        <v>-1</v>
-      </c>
-      <c r="AA196">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB196">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7047470</v>
+        <v>7047469</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,56 +18090,56 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J198" t="s">
         <v>53</v>
       </c>
       <c r="K198">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L198">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M198">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="N198">
+        <v>3.1</v>
+      </c>
+      <c r="O198">
         <v>4.2</v>
       </c>
-      <c r="O198">
-        <v>4.75</v>
-      </c>
       <c r="P198">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="Q198">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R198">
+        <v>1.925</v>
+      </c>
+      <c r="S198">
+        <v>1.775</v>
+      </c>
+      <c r="T198">
+        <v>3.75</v>
+      </c>
+      <c r="U198">
+        <v>1.8</v>
+      </c>
+      <c r="V198">
         <v>2</v>
       </c>
-      <c r="S198">
-        <v>1.8</v>
-      </c>
-      <c r="T198">
-        <v>4</v>
-      </c>
-      <c r="U198">
-        <v>1.975</v>
-      </c>
-      <c r="V198">
-        <v>1.825</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
@@ -18147,16 +18147,16 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB198">
         <v>0.8</v>
-      </c>
-      <c r="AB198">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18612,7 +18612,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7047481</v>
+        <v>7047478</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18624,76 +18624,76 @@
         <v>45194.375</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K204">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L204">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N204">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="O204">
         <v>5.25</v>
       </c>
       <c r="P204">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q204">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S204">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
         <v>4</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7047478</v>
+        <v>7047481</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,76 +18713,76 @@
         <v>45194.375</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
         <v>0</v>
       </c>
-      <c r="I205">
-        <v>1</v>
-      </c>
       <c r="J205" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K205">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N205">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O205">
         <v>5.25</v>
       </c>
       <c r="P205">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R205">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
         <v>4</v>
       </c>
       <c r="U205">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA205">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7047479</v>
+        <v>7047485</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,76 +18802,76 @@
         <v>45194.625</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L206">
         <v>4.333</v>
       </c>
       <c r="M206">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N206">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O206">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P206">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
         <v>4.25</v>
       </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18879,7 +18879,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7047485</v>
+        <v>7047479</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18891,76 +18891,76 @@
         <v>45194.625</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H207">
+        <v>3</v>
+      </c>
+      <c r="I207">
         <v>1</v>
       </c>
-      <c r="I207">
+      <c r="J207" t="s">
+        <v>52</v>
+      </c>
+      <c r="K207">
         <v>2</v>
-      </c>
-      <c r="J207" t="s">
-        <v>53</v>
-      </c>
-      <c r="K207">
-        <v>1.571</v>
       </c>
       <c r="L207">
         <v>4.333</v>
       </c>
       <c r="M207">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N207">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O207">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P207">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q207">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S207">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T207">
         <v>4.25</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA207">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7071042</v>
+        <v>7047483</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18980,76 +18980,76 @@
         <v>45195.375</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J208" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K208">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L208">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O208">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P208">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
+        <v>1.875</v>
+      </c>
+      <c r="S208">
         <v>1.925</v>
-      </c>
-      <c r="S208">
-        <v>1.875</v>
       </c>
       <c r="T208">
         <v>3.25</v>
       </c>
       <c r="U208">
+        <v>1.825</v>
+      </c>
+      <c r="V208">
         <v>1.975</v>
       </c>
-      <c r="V208">
-        <v>1.825</v>
-      </c>
       <c r="W208">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
         <v>0.925</v>
       </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7047483</v>
+        <v>7071042</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,76 +19158,76 @@
         <v>45195.375</v>
       </c>
       <c r="F210" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H210">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K210">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M210">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N210">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O210">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P210">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q210">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
+        <v>1.925</v>
+      </c>
+      <c r="S210">
         <v>1.875</v>
-      </c>
-      <c r="S210">
-        <v>1.925</v>
       </c>
       <c r="T210">
         <v>3.25</v>
       </c>
       <c r="U210">
+        <v>1.975</v>
+      </c>
+      <c r="V210">
         <v>1.825</v>
       </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
         <v>0.825</v>
-      </c>
-      <c r="AC210">
-        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19858,7 +19858,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7047491</v>
+        <v>7047490</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19870,13 +19870,13 @@
         <v>45202.375</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H218">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -19885,43 +19885,43 @@
         <v>52</v>
       </c>
       <c r="K218">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L218">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M218">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N218">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O218">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P218">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R218">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U218">
+        <v>1.85</v>
+      </c>
+      <c r="V218">
         <v>1.95</v>
       </c>
-      <c r="V218">
-        <v>1.85</v>
-      </c>
       <c r="W218">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19930,13 +19930,13 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB218">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC218">
         <v>-1</v>
@@ -19947,7 +19947,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7047490</v>
+        <v>7047491</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19959,13 +19959,13 @@
         <v>45202.375</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G219" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I219">
         <v>2</v>
@@ -19974,43 +19974,43 @@
         <v>52</v>
       </c>
       <c r="K219">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L219">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M219">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N219">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O219">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P219">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q219">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S219">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T219">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U219">
+        <v>1.95</v>
+      </c>
+      <c r="V219">
         <v>1.85</v>
       </c>
-      <c r="V219">
-        <v>1.95</v>
-      </c>
       <c r="W219">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20019,13 +20019,13 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC219">
         <v>-1</v>
@@ -20036,7 +20036,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7047492</v>
+        <v>7047493</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20048,76 +20048,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220" t="s">
+        <v>51</v>
+      </c>
+      <c r="K220">
+        <v>1.615</v>
+      </c>
+      <c r="L220">
+        <v>4.75</v>
+      </c>
+      <c r="M220">
+        <v>3.5</v>
+      </c>
+      <c r="N220">
         <v>3</v>
       </c>
-      <c r="J220" t="s">
-        <v>53</v>
-      </c>
-      <c r="K220">
-        <v>1.909</v>
-      </c>
-      <c r="L220">
+      <c r="O220">
+        <v>4</v>
+      </c>
+      <c r="P220">
+        <v>1.85</v>
+      </c>
+      <c r="Q220">
+        <v>0.5</v>
+      </c>
+      <c r="R220">
+        <v>1.875</v>
+      </c>
+      <c r="S220">
+        <v>1.925</v>
+      </c>
+      <c r="T220">
         <v>3.75</v>
       </c>
-      <c r="M220">
-        <v>3.1</v>
-      </c>
-      <c r="N220">
-        <v>2.3</v>
-      </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
-      <c r="P220">
-        <v>2.4</v>
-      </c>
-      <c r="Q220">
-        <v>0</v>
-      </c>
-      <c r="R220">
-        <v>1.85</v>
-      </c>
-      <c r="S220">
-        <v>1.95</v>
-      </c>
-      <c r="T220">
-        <v>3.25</v>
-      </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y220">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA220">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
+        <v>0.4625</v>
+      </c>
+      <c r="AC220">
         <v>-0.5</v>
-      </c>
-      <c r="AC220">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20125,7 +20125,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7047493</v>
+        <v>7047492</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20137,76 +20137,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M221">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N221">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P221">
+        <v>2.4</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
         <v>1.85</v>
       </c>
-      <c r="Q221">
-        <v>0.5</v>
-      </c>
-      <c r="R221">
-        <v>1.875</v>
-      </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z221">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB221">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7047706</v>
+        <v>7047705</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,10 +20849,10 @@
         <v>45222.375</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20864,61 +20864,61 @@
         <v>51</v>
       </c>
       <c r="K229">
+        <v>2.25</v>
+      </c>
+      <c r="L229">
+        <v>3.75</v>
+      </c>
+      <c r="M229">
+        <v>2.5</v>
+      </c>
+      <c r="N229">
+        <v>3.75</v>
+      </c>
+      <c r="O229">
+        <v>4.333</v>
+      </c>
+      <c r="P229">
         <v>1.666</v>
       </c>
-      <c r="L229">
-        <v>4.333</v>
-      </c>
-      <c r="M229">
-        <v>3.5</v>
-      </c>
-      <c r="N229">
-        <v>2.15</v>
-      </c>
-      <c r="O229">
-        <v>4</v>
-      </c>
-      <c r="P229">
-        <v>2.5</v>
-      </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S229">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T229">
         <v>3.75</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA229">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20926,7 +20926,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7047705</v>
+        <v>7047706</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20938,10 +20938,10 @@
         <v>45222.375</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -20953,61 +20953,61 @@
         <v>51</v>
       </c>
       <c r="K230">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L230">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M230">
+        <v>3.5</v>
+      </c>
+      <c r="N230">
+        <v>2.15</v>
+      </c>
+      <c r="O230">
+        <v>4</v>
+      </c>
+      <c r="P230">
         <v>2.5</v>
       </c>
-      <c r="N230">
-        <v>3.75</v>
-      </c>
-      <c r="O230">
-        <v>4.333</v>
-      </c>
-      <c r="P230">
-        <v>1.666</v>
-      </c>
       <c r="Q230">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
         <v>3.75</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21104,7 +21104,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7047507</v>
+        <v>7047506</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21116,76 +21116,76 @@
         <v>45223.375</v>
       </c>
       <c r="F232" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J232" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K232">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M232">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N232">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O232">
         <v>4.5</v>
       </c>
       <c r="P232">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q232">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R232">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S232">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T232">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB232">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7071039</v>
+        <v>7047507</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,76 +21205,76 @@
         <v>45223.375</v>
       </c>
       <c r="F233" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K233">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L233">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="M233">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N233">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P233">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q233">
         <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S233">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T233">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U233">
+        <v>1.925</v>
+      </c>
+      <c r="V233">
         <v>1.875</v>
       </c>
-      <c r="V233">
-        <v>1.925</v>
-      </c>
       <c r="W233">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB233">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7047506</v>
+        <v>7071039</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,73 +21294,73 @@
         <v>45223.375</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H234">
+        <v>4</v>
+      </c>
+      <c r="I234">
         <v>0</v>
       </c>
-      <c r="I234">
+      <c r="J234" t="s">
+        <v>52</v>
+      </c>
+      <c r="K234">
+        <v>1.909</v>
+      </c>
+      <c r="L234">
+        <v>3.9</v>
+      </c>
+      <c r="M234">
+        <v>3</v>
+      </c>
+      <c r="N234">
+        <v>1.85</v>
+      </c>
+      <c r="O234">
         <v>4</v>
       </c>
-      <c r="J234" t="s">
-        <v>53</v>
-      </c>
-      <c r="K234">
-        <v>2.3</v>
-      </c>
-      <c r="L234">
-        <v>3.8</v>
-      </c>
-      <c r="M234">
-        <v>2.375</v>
-      </c>
-      <c r="N234">
-        <v>4.75</v>
-      </c>
-      <c r="O234">
-        <v>4.5</v>
-      </c>
       <c r="P234">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q234">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T234">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U234">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V234">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -21460,7 +21460,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7047509</v>
+        <v>7047510</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21472,49 +21472,49 @@
         <v>45229.41666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
         <v>52</v>
       </c>
       <c r="K236">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L236">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M236">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N236">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O236">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P236">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q236">
         <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S236">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T236">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U236">
         <v>1.975</v>
@@ -21523,7 +21523,7 @@
         <v>1.825</v>
       </c>
       <c r="W236">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21532,7 +21532,7 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA236">
         <v>-1</v>
@@ -21549,7 +21549,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7047510</v>
+        <v>7047509</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21561,49 +21561,49 @@
         <v>45229.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H237">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>52</v>
       </c>
       <c r="K237">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L237">
+        <v>5</v>
+      </c>
+      <c r="M237">
+        <v>4.5</v>
+      </c>
+      <c r="N237">
+        <v>2.1</v>
+      </c>
+      <c r="O237">
         <v>4.333</v>
       </c>
-      <c r="M237">
-        <v>3.6</v>
-      </c>
-      <c r="N237">
-        <v>1.909</v>
-      </c>
-      <c r="O237">
-        <v>4</v>
-      </c>
       <c r="P237">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q237">
         <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U237">
         <v>1.975</v>
@@ -21612,7 +21612,7 @@
         <v>1.825</v>
       </c>
       <c r="W237">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21621,7 +21621,7 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA237">
         <v>-1</v>
@@ -21816,7 +21816,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7047512</v>
+        <v>7047515</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21828,49 +21828,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G240" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K240">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L240">
         <v>4.5</v>
       </c>
       <c r="M240">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N240">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O240">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P240">
         <v>5</v>
       </c>
       <c r="Q240">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U240">
         <v>1.9</v>
@@ -21879,25 +21879,25 @@
         <v>1.9</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X240">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
+        <v>0.425</v>
+      </c>
+      <c r="AB240">
+        <v>-1</v>
+      </c>
+      <c r="AC240">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB240">
-        <v>0.45</v>
-      </c>
-      <c r="AC240">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21905,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7047515</v>
+        <v>7047512</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21917,49 +21917,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H241">
         <v>2</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K241">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L241">
         <v>4.5</v>
       </c>
       <c r="M241">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N241">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O241">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P241">
         <v>5</v>
       </c>
       <c r="Q241">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R241">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U241">
         <v>1.9</v>
@@ -21968,25 +21968,25 @@
         <v>1.9</v>
       </c>
       <c r="W241">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
+        <v>-1</v>
+      </c>
+      <c r="AA241">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB241">
+        <v>0.45</v>
+      </c>
+      <c r="AC241">
         <v>-0.5</v>
-      </c>
-      <c r="AA241">
-        <v>0.425</v>
-      </c>
-      <c r="AB241">
-        <v>-1</v>
-      </c>
-      <c r="AC241">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22350,7 +22350,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7047523</v>
+        <v>7071037</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22362,73 +22362,73 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G246" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I246">
+        <v>3</v>
+      </c>
+      <c r="J246" t="s">
+        <v>52</v>
+      </c>
+      <c r="K246">
+        <v>2.25</v>
+      </c>
+      <c r="L246">
         <v>4</v>
       </c>
-      <c r="J246" t="s">
-        <v>53</v>
-      </c>
-      <c r="K246">
-        <v>2.75</v>
-      </c>
-      <c r="L246">
+      <c r="M246">
+        <v>2.4</v>
+      </c>
+      <c r="N246">
+        <v>1.727</v>
+      </c>
+      <c r="O246">
         <v>4.2</v>
       </c>
-      <c r="M246">
-        <v>1.95</v>
-      </c>
-      <c r="N246">
-        <v>2.45</v>
-      </c>
-      <c r="O246">
-        <v>4</v>
-      </c>
       <c r="P246">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S246">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T246">
         <v>3.75</v>
       </c>
       <c r="U246">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V246">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA246">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB246">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC246">
         <v>-1</v>
@@ -22439,7 +22439,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7047522</v>
+        <v>7047523</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22451,56 +22451,56 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G247" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J247" t="s">
         <v>53</v>
       </c>
       <c r="K247">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L247">
         <v>4.2</v>
       </c>
       <c r="M247">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N247">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="O247">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P247">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="Q247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S247">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T247">
         <v>3.75</v>
       </c>
       <c r="U247">
+        <v>1.925</v>
+      </c>
+      <c r="V247">
         <v>1.875</v>
       </c>
-      <c r="V247">
-        <v>1.925</v>
-      </c>
       <c r="W247">
         <v>-1</v>
       </c>
@@ -22508,19 +22508,19 @@
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
+        <v>0.75</v>
+      </c>
+      <c r="AB247">
         <v>0.925</v>
       </c>
-      <c r="AB247">
-        <v>-1</v>
-      </c>
       <c r="AC247">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22528,7 +22528,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7071037</v>
+        <v>7047522</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22540,76 +22540,76 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G248" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K248">
         <v>2.25</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M248">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N248">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O248">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P248">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R248">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T248">
         <v>3.75</v>
       </c>
       <c r="U248">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V248">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W248">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z248">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7047537</v>
+        <v>7047540</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,73 +23786,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F262" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G262" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H262">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I262">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K262">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L262">
+        <v>4.1</v>
+      </c>
+      <c r="M262">
+        <v>1.8</v>
+      </c>
+      <c r="N262">
+        <v>3.6</v>
+      </c>
+      <c r="O262">
         <v>4.2</v>
       </c>
-      <c r="M262">
-        <v>3.3</v>
-      </c>
-      <c r="N262">
-        <v>1.95</v>
-      </c>
-      <c r="O262">
-        <v>4</v>
-      </c>
       <c r="P262">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R262">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S262">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X262">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA262">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7047540</v>
+        <v>7047537</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,73 +23875,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F263" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G263" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H263">
+        <v>5</v>
+      </c>
+      <c r="I263">
+        <v>5</v>
+      </c>
+      <c r="J263" t="s">
+        <v>51</v>
+      </c>
+      <c r="K263">
+        <v>1.75</v>
+      </c>
+      <c r="L263">
+        <v>4.2</v>
+      </c>
+      <c r="M263">
+        <v>3.3</v>
+      </c>
+      <c r="N263">
+        <v>1.95</v>
+      </c>
+      <c r="O263">
+        <v>4</v>
+      </c>
+      <c r="P263">
         <v>3</v>
       </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
-      <c r="J263" t="s">
-        <v>52</v>
-      </c>
-      <c r="K263">
-        <v>3.2</v>
-      </c>
-      <c r="L263">
-        <v>4.1</v>
-      </c>
-      <c r="M263">
-        <v>1.8</v>
-      </c>
-      <c r="N263">
-        <v>3.6</v>
-      </c>
-      <c r="O263">
-        <v>4.2</v>
-      </c>
-      <c r="P263">
-        <v>1.7</v>
-      </c>
       <c r="Q263">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R263">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S263">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U263">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB263">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC263">
         <v>-1</v>
@@ -25198,7 +25198,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7047560</v>
+        <v>7047559</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25210,76 +25210,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G278" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H278">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K278">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L278">
         <v>4</v>
       </c>
       <c r="M278">
-        <v>2.9</v>
+        <v>1.952</v>
       </c>
       <c r="N278">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P278">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="Q278">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R278">
+        <v>1.775</v>
+      </c>
+      <c r="S278">
+        <v>1.925</v>
+      </c>
+      <c r="T278">
+        <v>3.75</v>
+      </c>
+      <c r="U278">
         <v>1.95</v>
       </c>
-      <c r="S278">
+      <c r="V278">
         <v>1.85</v>
       </c>
-      <c r="T278">
-        <v>3.5</v>
-      </c>
-      <c r="U278">
-        <v>1.925</v>
-      </c>
-      <c r="V278">
-        <v>1.875</v>
-      </c>
       <c r="W278">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z278">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA278">
         <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25287,7 +25287,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7047559</v>
+        <v>7047560</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25299,76 +25299,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F279" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G279" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H279">
+        <v>5</v>
+      </c>
+      <c r="I279">
         <v>1</v>
       </c>
-      <c r="I279">
-        <v>2</v>
-      </c>
       <c r="J279" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K279">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L279">
         <v>4</v>
       </c>
       <c r="M279">
-        <v>1.952</v>
+        <v>2.9</v>
       </c>
       <c r="N279">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="O279">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P279">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q279">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R279">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S279">
+        <v>1.85</v>
+      </c>
+      <c r="T279">
+        <v>3.5</v>
+      </c>
+      <c r="U279">
         <v>1.925</v>
       </c>
-      <c r="T279">
-        <v>3.75</v>
-      </c>
-      <c r="U279">
-        <v>1.95</v>
-      </c>
       <c r="V279">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA279">
         <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC279">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -26177,7 +26177,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7047569</v>
+        <v>7047709</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26189,55 +26189,55 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G289" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J289" t="s">
         <v>51</v>
       </c>
       <c r="K289">
+        <v>2.5</v>
+      </c>
+      <c r="L289">
+        <v>4.333</v>
+      </c>
+      <c r="M289">
         <v>2.1</v>
       </c>
-      <c r="L289">
-        <v>4.2</v>
-      </c>
-      <c r="M289">
-        <v>2.5</v>
-      </c>
       <c r="N289">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="O289">
         <v>4.333</v>
       </c>
       <c r="P289">
+        <v>2</v>
+      </c>
+      <c r="Q289">
+        <v>0.25</v>
+      </c>
+      <c r="R289">
+        <v>1.9</v>
+      </c>
+      <c r="S289">
+        <v>1.9</v>
+      </c>
+      <c r="T289">
+        <v>3.25</v>
+      </c>
+      <c r="U289">
         <v>1.75</v>
       </c>
-      <c r="Q289">
-        <v>0.5</v>
-      </c>
-      <c r="R289">
-        <v>1.975</v>
-      </c>
-      <c r="S289">
-        <v>1.825</v>
-      </c>
-      <c r="T289">
-        <v>3.5</v>
-      </c>
-      <c r="U289">
-        <v>1.975</v>
-      </c>
       <c r="V289">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W289">
         <v>-1</v>
@@ -26249,16 +26249,16 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB289">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC289">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26266,7 +26266,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7047709</v>
+        <v>7071032</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26278,52 +26278,52 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G290" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K290">
         <v>2.5</v>
       </c>
       <c r="L290">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M290">
         <v>2.1</v>
       </c>
       <c r="N290">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O290">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P290">
+        <v>3.1</v>
+      </c>
+      <c r="Q290">
+        <v>-0.5</v>
+      </c>
+      <c r="R290">
+        <v>1.8</v>
+      </c>
+      <c r="S290">
         <v>2</v>
       </c>
-      <c r="Q290">
-        <v>0.25</v>
-      </c>
-      <c r="R290">
-        <v>1.9</v>
-      </c>
-      <c r="S290">
-        <v>1.9</v>
-      </c>
       <c r="T290">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U290">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V290">
         <v>1.95</v>
@@ -26332,22 +26332,22 @@
         <v>-1</v>
       </c>
       <c r="X290">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z290">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB290">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC290">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26444,7 +26444,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7071032</v>
+        <v>7047569</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26456,76 +26456,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F292" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G292" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292">
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K292">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L292">
         <v>4.2</v>
       </c>
       <c r="M292">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N292">
+        <v>3.2</v>
+      </c>
+      <c r="O292">
+        <v>4.333</v>
+      </c>
+      <c r="P292">
         <v>1.75</v>
       </c>
-      <c r="O292">
-        <v>4.5</v>
-      </c>
-      <c r="P292">
-        <v>3.1</v>
-      </c>
       <c r="Q292">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R292">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S292">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T292">
         <v>3.5</v>
       </c>
       <c r="U292">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V292">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W292">
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y292">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA292">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
         <v>-1</v>
       </c>
       <c r="AC292">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -28313,7 +28313,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7047601</v>
+        <v>7047603</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28325,76 +28325,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G313" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H313">
+        <v>2</v>
+      </c>
+      <c r="I313">
         <v>1</v>
       </c>
-      <c r="I313">
-        <v>2</v>
-      </c>
       <c r="J313" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K313">
+        <v>1.9</v>
+      </c>
+      <c r="L313">
+        <v>4</v>
+      </c>
+      <c r="M313">
+        <v>3</v>
+      </c>
+      <c r="N313">
         <v>1.7</v>
       </c>
-      <c r="L313">
+      <c r="O313">
         <v>4.2</v>
       </c>
-      <c r="M313">
+      <c r="P313">
         <v>3.6</v>
       </c>
-      <c r="N313">
-        <v>1.363</v>
-      </c>
-      <c r="O313">
-        <v>4.75</v>
-      </c>
-      <c r="P313">
-        <v>5.75</v>
-      </c>
       <c r="Q313">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R313">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S313">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T313">
         <v>3.5</v>
       </c>
       <c r="U313">
+        <v>1.975</v>
+      </c>
+      <c r="V313">
         <v>1.825</v>
       </c>
-      <c r="V313">
-        <v>1.975</v>
-      </c>
       <c r="W313">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z313">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA313">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB313">
         <v>-1</v>
       </c>
       <c r="AC313">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28402,7 +28402,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7047603</v>
+        <v>7047601</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28414,76 +28414,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G314" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
         <v>2</v>
       </c>
-      <c r="I314">
-        <v>1</v>
-      </c>
       <c r="J314" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K314">
+        <v>1.7</v>
+      </c>
+      <c r="L314">
+        <v>4.2</v>
+      </c>
+      <c r="M314">
+        <v>3.6</v>
+      </c>
+      <c r="N314">
+        <v>1.363</v>
+      </c>
+      <c r="O314">
+        <v>4.75</v>
+      </c>
+      <c r="P314">
+        <v>5.75</v>
+      </c>
+      <c r="Q314">
+        <v>-1.5</v>
+      </c>
+      <c r="R314">
         <v>1.9</v>
       </c>
-      <c r="L314">
-        <v>4</v>
-      </c>
-      <c r="M314">
-        <v>3</v>
-      </c>
-      <c r="N314">
-        <v>1.7</v>
-      </c>
-      <c r="O314">
-        <v>4.2</v>
-      </c>
-      <c r="P314">
-        <v>3.6</v>
-      </c>
-      <c r="Q314">
-        <v>-0.75</v>
-      </c>
-      <c r="R314">
-        <v>1.925</v>
-      </c>
       <c r="S314">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T314">
         <v>3.5</v>
       </c>
       <c r="U314">
+        <v>1.825</v>
+      </c>
+      <c r="V314">
         <v>1.975</v>
       </c>
-      <c r="V314">
-        <v>1.825</v>
-      </c>
       <c r="W314">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X314">
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z314">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB314">
         <v>-1</v>
       </c>
       <c r="AC314">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28580,7 +28580,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7047606</v>
+        <v>7047600</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28592,10 +28592,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G316" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -28607,25 +28607,25 @@
         <v>53</v>
       </c>
       <c r="K316">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L316">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M316">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N316">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O316">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P316">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q316">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R316">
         <v>1.95</v>
@@ -28634,22 +28634,22 @@
         <v>1.85</v>
       </c>
       <c r="T316">
+        <v>3.75</v>
+      </c>
+      <c r="U316">
+        <v>1.9</v>
+      </c>
+      <c r="V316">
+        <v>1.9</v>
+      </c>
+      <c r="W316">
+        <v>-1</v>
+      </c>
+      <c r="X316">
+        <v>-1</v>
+      </c>
+      <c r="Y316">
         <v>3.5</v>
-      </c>
-      <c r="U316">
-        <v>1.775</v>
-      </c>
-      <c r="V316">
-        <v>1.925</v>
-      </c>
-      <c r="W316">
-        <v>-1</v>
-      </c>
-      <c r="X316">
-        <v>-1</v>
-      </c>
-      <c r="Y316">
-        <v>2</v>
       </c>
       <c r="Z316">
         <v>-1</v>
@@ -28661,7 +28661,7 @@
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28669,7 +28669,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7047600</v>
+        <v>7047606</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28681,10 +28681,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G317" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -28696,25 +28696,25 @@
         <v>53</v>
       </c>
       <c r="K317">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L317">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M317">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N317">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O317">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P317">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q317">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
         <v>1.95</v>
@@ -28723,13 +28723,13 @@
         <v>1.85</v>
       </c>
       <c r="T317">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U317">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V317">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W317">
         <v>-1</v>
@@ -28738,7 +28738,7 @@
         <v>-1</v>
       </c>
       <c r="Y317">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z317">
         <v>-1</v>
@@ -28750,7 +28750,7 @@
         <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -29107,6 +29107,80 @@
       </c>
       <c r="AC321">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="322" spans="1:29">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>7047608</v>
+      </c>
+      <c r="C322" t="s">
+        <v>28</v>
+      </c>
+      <c r="D322" t="s">
+        <v>28</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45341.41666666666</v>
+      </c>
+      <c r="F322" t="s">
+        <v>35</v>
+      </c>
+      <c r="G322" t="s">
+        <v>42</v>
+      </c>
+      <c r="K322">
+        <v>1.8</v>
+      </c>
+      <c r="L322">
+        <v>4.2</v>
+      </c>
+      <c r="M322">
+        <v>3.1</v>
+      </c>
+      <c r="N322">
+        <v>1.727</v>
+      </c>
+      <c r="O322">
+        <v>4.2</v>
+      </c>
+      <c r="P322">
+        <v>3.3</v>
+      </c>
+      <c r="Q322">
+        <v>-0.75</v>
+      </c>
+      <c r="R322">
+        <v>1.975</v>
+      </c>
+      <c r="S322">
+        <v>1.825</v>
+      </c>
+      <c r="T322">
+        <v>3.5</v>
+      </c>
+      <c r="U322">
+        <v>1.85</v>
+      </c>
+      <c r="V322">
+        <v>1.95</v>
+      </c>
+      <c r="W322">
+        <v>0</v>
+      </c>
+      <c r="X322">
+        <v>0</v>
+      </c>
+      <c r="Y322">
+        <v>0</v>
+      </c>
+      <c r="Z322">
+        <v>0</v>
+      </c>
+      <c r="AA322">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC328"/>
+  <dimension ref="A1:AC329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5434360</v>
+        <v>6020901</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>44964.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M23">
+        <v>1.833</v>
+      </c>
+      <c r="N23">
+        <v>1.85</v>
+      </c>
+      <c r="O23">
+        <v>4.5</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.7</v>
+      </c>
+      <c r="S23">
         <v>2.1</v>
       </c>
-      <c r="N23">
-        <v>1.444</v>
-      </c>
-      <c r="O23">
-        <v>5</v>
-      </c>
-      <c r="P23">
-        <v>5</v>
-      </c>
-      <c r="Q23">
-        <v>-1.5</v>
-      </c>
-      <c r="R23">
-        <v>2.025</v>
-      </c>
-      <c r="S23">
-        <v>1.775</v>
-      </c>
       <c r="T23">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2592,7 +2592,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6020901</v>
+        <v>5434360</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2604,76 +2604,76 @@
         <v>44964.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>2</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L24">
+        <v>3.75</v>
+      </c>
+      <c r="M24">
+        <v>2.1</v>
+      </c>
+      <c r="N24">
+        <v>1.444</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>-1.5</v>
+      </c>
+      <c r="R24">
+        <v>2.025</v>
+      </c>
+      <c r="S24">
+        <v>1.775</v>
+      </c>
+      <c r="T24">
+        <v>3.5</v>
+      </c>
+      <c r="U24">
+        <v>1.9</v>
+      </c>
+      <c r="V24">
+        <v>1.9</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>4</v>
       </c>
-      <c r="M24">
-        <v>1.833</v>
-      </c>
-      <c r="N24">
-        <v>1.85</v>
-      </c>
-      <c r="O24">
-        <v>4.5</v>
-      </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.7</v>
-      </c>
-      <c r="S24">
-        <v>2.1</v>
-      </c>
-      <c r="T24">
-        <v>3.25</v>
-      </c>
-      <c r="U24">
-        <v>1.95</v>
-      </c>
-      <c r="V24">
-        <v>1.85</v>
-      </c>
-      <c r="W24">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
       <c r="Z24">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3215,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5432873</v>
+        <v>5432875</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3227,76 +3227,76 @@
         <v>44970.66666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L31">
         <v>4.2</v>
       </c>
       <c r="M31">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N31">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5432875</v>
+        <v>5432873</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3316,76 +3316,76 @@
         <v>44970.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L32">
         <v>4.2</v>
       </c>
       <c r="M32">
+        <v>3.75</v>
+      </c>
+      <c r="N32">
+        <v>1.75</v>
+      </c>
+      <c r="O32">
+        <v>3.75</v>
+      </c>
+      <c r="P32">
+        <v>3.6</v>
+      </c>
+      <c r="Q32">
+        <v>-0.5</v>
+      </c>
+      <c r="R32">
+        <v>1.825</v>
+      </c>
+      <c r="S32">
+        <v>1.975</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>1.75</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="N32">
-        <v>2.625</v>
-      </c>
-      <c r="O32">
-        <v>4</v>
-      </c>
-      <c r="P32">
-        <v>2.05</v>
-      </c>
-      <c r="Q32">
-        <v>0.25</v>
-      </c>
-      <c r="R32">
-        <v>1.925</v>
-      </c>
-      <c r="S32">
-        <v>1.875</v>
-      </c>
-      <c r="T32">
-        <v>3.25</v>
-      </c>
-      <c r="U32">
-        <v>1.775</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5434327</v>
+        <v>5432874</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,10 +3494,10 @@
         <v>44971.4375</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3509,31 +3509,31 @@
         <v>51</v>
       </c>
       <c r="K34">
+        <v>1.25</v>
+      </c>
+      <c r="L34">
+        <v>5.5</v>
+      </c>
+      <c r="M34">
+        <v>8</v>
+      </c>
+      <c r="N34">
         <v>1.4</v>
       </c>
-      <c r="L34">
-        <v>4.5</v>
-      </c>
-      <c r="M34">
-        <v>5.5</v>
-      </c>
-      <c r="N34">
-        <v>1.45</v>
-      </c>
       <c r="O34">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P34">
         <v>5.5</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
         <v>3.5</v>
@@ -3548,7 +3548,7 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3557,7 +3557,7 @@
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
         <v>-1</v>
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5432874</v>
+        <v>5434327</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,10 +3583,10 @@
         <v>44971.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3598,31 +3598,31 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L35">
+        <v>4.5</v>
+      </c>
+      <c r="M35">
         <v>5.5</v>
       </c>
-      <c r="M35">
-        <v>8</v>
-      </c>
       <c r="N35">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O35">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P35">
         <v>5.5</v>
       </c>
       <c r="Q35">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
         <v>3.5</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
@@ -3646,7 +3646,7 @@
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5432878</v>
+        <v>5434321</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>44978.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M42">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N42">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O42">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P42">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5434321</v>
+        <v>5432878</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,76 +4295,76 @@
         <v>44978.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="L43">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M43">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N43">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O43">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P43">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y43">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -5440,7 +5440,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6176733</v>
+        <v>5434310</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5452,40 +5452,40 @@
         <v>44988.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K56">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="L56">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M56">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="N56">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
         <v>1.925</v>
@@ -5497,31 +5497,31 @@
         <v>3.5</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y56">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5529,7 +5529,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5434310</v>
+        <v>6176733</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5541,40 +5541,40 @@
         <v>44988.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K57">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="N57">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>1.925</v>
@@ -5586,31 +5586,31 @@
         <v>3.5</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6174295</v>
+        <v>6134949</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6342,76 +6342,76 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K66">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
       <c r="N66">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q66">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X66">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6134949</v>
+        <v>6159600</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6431,46 +6431,46 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K67">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="N67">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O67">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
         <v>3</v>
@@ -6482,19 +6482,19 @@
         <v>1.925</v>
       </c>
       <c r="W67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6159600</v>
+        <v>6174295</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6520,40 +6520,40 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="N68">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6562,34 +6562,34 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y68">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5432886</v>
+        <v>5434302</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,40 +6876,40 @@
         <v>45005.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K72">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N72">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
         <v>1.775</v>
@@ -6918,34 +6918,34 @@
         <v>2.025</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z72">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5434302</v>
+        <v>5432886</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,40 +7054,40 @@
         <v>45005.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K74">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="L74">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M74">
+        <v>1.5</v>
+      </c>
+      <c r="N74">
+        <v>2.55</v>
+      </c>
+      <c r="O74">
+        <v>3.6</v>
+      </c>
+      <c r="P74">
         <v>2.2</v>
       </c>
-      <c r="N74">
-        <v>3.25</v>
-      </c>
-      <c r="O74">
-        <v>3.2</v>
-      </c>
-      <c r="P74">
-        <v>2</v>
-      </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
         <v>1.775</v>
@@ -7096,34 +7096,34 @@
         <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA74">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -9089,7 +9089,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5434291</v>
+        <v>6174296</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9101,73 +9101,73 @@
         <v>45027.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L97">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M97">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N97">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P97">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S97">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
         <v>3.5</v>
       </c>
       <c r="U97">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA97">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9178,7 +9178,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6174296</v>
+        <v>5434291</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9190,73 +9190,73 @@
         <v>45027.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>51</v>
+      </c>
+      <c r="K98">
         <v>3</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98" t="s">
-        <v>52</v>
-      </c>
-      <c r="K98">
-        <v>1.833</v>
-      </c>
       <c r="L98">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="N98">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O98">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T98">
         <v>3.5</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -10602,7 +10602,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5434279</v>
+        <v>5434281</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10614,40 +10614,40 @@
         <v>45040.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>4</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
         <v>52</v>
       </c>
       <c r="K114">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="L114">
+        <v>4.2</v>
+      </c>
+      <c r="M114">
+        <v>3.8</v>
+      </c>
+      <c r="N114">
+        <v>1.7</v>
+      </c>
+      <c r="O114">
+        <v>4.2</v>
+      </c>
+      <c r="P114">
         <v>3.75</v>
       </c>
-      <c r="M114">
-        <v>2.3</v>
-      </c>
-      <c r="N114">
-        <v>2.45</v>
-      </c>
-      <c r="O114">
-        <v>3.5</v>
-      </c>
-      <c r="P114">
-        <v>2.45</v>
-      </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R114">
         <v>1.875</v>
@@ -10656,16 +10656,16 @@
         <v>1.925</v>
       </c>
       <c r="T114">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10680,7 +10680,7 @@
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10691,7 +10691,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5434280</v>
+        <v>5434279</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10703,73 +10703,73 @@
         <v>45040.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G115" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L115">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N115">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
         <v>3.5</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10780,7 +10780,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5434281</v>
+        <v>5434280</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10792,73 +10792,73 @@
         <v>45040.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K116">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L116">
         <v>4.2</v>
       </c>
       <c r="M116">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N116">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O116">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q116">
         <v>-0.75</v>
       </c>
       <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>3.5</v>
+      </c>
+      <c r="U116">
+        <v>1.925</v>
+      </c>
+      <c r="V116">
         <v>1.875</v>
       </c>
-      <c r="S116">
-        <v>1.925</v>
-      </c>
-      <c r="T116">
-        <v>3.75</v>
-      </c>
-      <c r="U116">
-        <v>1.9</v>
-      </c>
-      <c r="V116">
-        <v>1.9</v>
-      </c>
       <c r="W116">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z116">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10958,7 +10958,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5432897</v>
+        <v>5432898</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10970,34 +10970,34 @@
         <v>45041.375</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>53</v>
       </c>
       <c r="K118">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L118">
         <v>4</v>
       </c>
       <c r="M118">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
         <v>3.75</v>
@@ -11006,19 +11006,19 @@
         <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11033,13 +11033,13 @@
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC118">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11047,7 +11047,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5432898</v>
+        <v>5432897</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11059,34 +11059,34 @@
         <v>45041.375</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>53</v>
       </c>
       <c r="K119">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N119">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P119">
         <v>3.75</v>
@@ -11095,19 +11095,19 @@
         <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11122,13 +11122,13 @@
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11136,7 +11136,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5434278</v>
+        <v>5434277</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11148,58 +11148,58 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>52</v>
       </c>
       <c r="K120">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N120">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O120">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T120">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="V120">
-        <v>1.95</v>
-      </c>
       <c r="W120">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11208,13 +11208,13 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11225,7 +11225,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5434277</v>
+        <v>5434278</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11237,58 +11237,58 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>52</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L121">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M121">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N121">
+        <v>1.285</v>
+      </c>
+      <c r="O121">
+        <v>5.5</v>
+      </c>
+      <c r="P121">
+        <v>6.5</v>
+      </c>
+      <c r="Q121">
+        <v>-1.75</v>
+      </c>
+      <c r="R121">
+        <v>1.8</v>
+      </c>
+      <c r="S121">
+        <v>2</v>
+      </c>
+      <c r="T121">
+        <v>3.75</v>
+      </c>
+      <c r="U121">
+        <v>1.85</v>
+      </c>
+      <c r="V121">
         <v>1.95</v>
       </c>
-      <c r="O121">
-        <v>3.75</v>
-      </c>
-      <c r="P121">
-        <v>3</v>
-      </c>
-      <c r="Q121">
-        <v>-0.25</v>
-      </c>
-      <c r="R121">
-        <v>1.925</v>
-      </c>
-      <c r="S121">
-        <v>1.875</v>
-      </c>
-      <c r="T121">
-        <v>3.25</v>
-      </c>
-      <c r="U121">
-        <v>1.95</v>
-      </c>
-      <c r="V121">
-        <v>1.85</v>
-      </c>
       <c r="W121">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11297,13 +11297,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11848,7 +11848,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5434272</v>
+        <v>5432901</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11860,76 +11860,76 @@
         <v>45047.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K128">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M128">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N128">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P128">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
         <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X128">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
         <v>-0.5</v>
       </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
       <c r="AC128">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12026,7 +12026,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5432901</v>
+        <v>5434272</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12038,76 +12038,76 @@
         <v>45047.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L130">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M130">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N130">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P130">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5432903</v>
+        <v>5434271</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,58 +12216,58 @@
         <v>45048.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>52</v>
       </c>
       <c r="K132">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M132">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="N132">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P132">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
         <v>4</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>0.7270000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12276,13 +12276,13 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5434271</v>
+        <v>5432903</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,58 +12305,58 @@
         <v>45048.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>52</v>
       </c>
       <c r="K133">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="N133">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q133">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>4</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>0.3</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12365,13 +12365,13 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5434270</v>
+        <v>5434268</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,76 +12483,76 @@
         <v>45051.375</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
         <v>53</v>
       </c>
       <c r="K135">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
+        <v>3.3</v>
+      </c>
+      <c r="N135">
+        <v>2.15</v>
+      </c>
+      <c r="O135">
+        <v>3.6</v>
+      </c>
+      <c r="P135">
+        <v>2.8</v>
+      </c>
+      <c r="Q135">
+        <v>-0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>1.85</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.85</v>
+      </c>
+      <c r="V135">
+        <v>1.95</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
         <v>1.8</v>
       </c>
-      <c r="N135">
-        <v>4.5</v>
-      </c>
-      <c r="O135">
-        <v>4.333</v>
-      </c>
-      <c r="P135">
-        <v>1.55</v>
-      </c>
-      <c r="Q135">
-        <v>1</v>
-      </c>
-      <c r="R135">
-        <v>1.85</v>
-      </c>
-      <c r="S135">
-        <v>1.95</v>
-      </c>
-      <c r="T135">
-        <v>3.5</v>
-      </c>
-      <c r="U135">
-        <v>1.925</v>
-      </c>
-      <c r="V135">
-        <v>1.875</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>0.55</v>
-      </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5434268</v>
+        <v>5434270</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,55 +12572,55 @@
         <v>45051.375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>53</v>
       </c>
       <c r="K136">
+        <v>3.5</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>1.8</v>
+      </c>
+      <c r="N136">
+        <v>4.5</v>
+      </c>
+      <c r="O136">
+        <v>4.333</v>
+      </c>
+      <c r="P136">
+        <v>1.55</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136">
+        <v>1.85</v>
+      </c>
+      <c r="S136">
         <v>1.95</v>
       </c>
-      <c r="L136">
-        <v>3.6</v>
-      </c>
-      <c r="M136">
-        <v>3.3</v>
-      </c>
-      <c r="N136">
-        <v>2.15</v>
-      </c>
-      <c r="O136">
-        <v>3.6</v>
-      </c>
-      <c r="P136">
-        <v>2.8</v>
-      </c>
-      <c r="Q136">
-        <v>-0.25</v>
-      </c>
-      <c r="R136">
-        <v>1.95</v>
-      </c>
-      <c r="S136">
-        <v>1.85</v>
-      </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12629,19 +12629,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5434266</v>
+        <v>5432906</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12839,73 +12839,73 @@
         <v>45055.375</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L139">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N139">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P139">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12916,7 +12916,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5432907</v>
+        <v>5434266</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12928,73 +12928,73 @@
         <v>45055.375</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H140">
+        <v>4</v>
+      </c>
+      <c r="I140">
         <v>2</v>
       </c>
-      <c r="I140">
-        <v>3</v>
-      </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K140">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L140">
+        <v>4.333</v>
+      </c>
+      <c r="M140">
         <v>4</v>
       </c>
-      <c r="M140">
-        <v>2.375</v>
-      </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O140">
         <v>4</v>
       </c>
       <c r="P140">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
         <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5432906</v>
+        <v>5432907</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,13 +13017,13 @@
         <v>45055.375</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>3</v>
@@ -13032,40 +13032,40 @@
         <v>53</v>
       </c>
       <c r="K141">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L141">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N141">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O141">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13074,16 +13074,16 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7047434</v>
+        <v>7046797</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,13 +14085,13 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H153">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14100,43 +14100,43 @@
         <v>52</v>
       </c>
       <c r="K153">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L153">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N153">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O153">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q153">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14145,16 +14145,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7047433</v>
+        <v>7067710</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,55 +14174,55 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
         <v>53</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N154">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O154">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
         <v>3.5</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -14231,19 +14231,19 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.909</v>
+        <v>1.7</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14251,7 +14251,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7047435</v>
+        <v>7047434</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14263,73 +14263,73 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K155">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="L155">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M155">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="N155">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="O155">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P155">
-        <v>1.45</v>
+        <v>7</v>
       </c>
       <c r="Q155">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>1.85</v>
+      </c>
+      <c r="T155">
+        <v>4</v>
+      </c>
+      <c r="U155">
+        <v>1.875</v>
+      </c>
+      <c r="V155">
         <v>1.925</v>
       </c>
-      <c r="S155">
-        <v>1.875</v>
-      </c>
-      <c r="T155">
-        <v>3.25</v>
-      </c>
-      <c r="U155">
-        <v>1.825</v>
-      </c>
-      <c r="V155">
-        <v>1.975</v>
-      </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X155">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7067710</v>
+        <v>7047433</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,55 +14352,55 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G156" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
         <v>53</v>
       </c>
       <c r="K156">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="N156">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P156">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T156">
         <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14409,19 +14409,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.7</v>
+        <v>0.909</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7046797</v>
+        <v>7047435</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L157">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M157">
+        <v>1.444</v>
+      </c>
+      <c r="N157">
+        <v>5</v>
+      </c>
+      <c r="O157">
         <v>4.75</v>
       </c>
-      <c r="N157">
-        <v>1.8</v>
-      </c>
-      <c r="O157">
-        <v>4</v>
-      </c>
       <c r="P157">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R157">
+        <v>1.925</v>
+      </c>
+      <c r="S157">
         <v>1.875</v>
       </c>
-      <c r="S157">
-        <v>1.925</v>
-      </c>
       <c r="T157">
+        <v>3.25</v>
+      </c>
+      <c r="U157">
+        <v>1.825</v>
+      </c>
+      <c r="V157">
+        <v>1.975</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>3.75</v>
       </c>
-      <c r="U157">
-        <v>1.9</v>
-      </c>
-      <c r="V157">
-        <v>1.9</v>
-      </c>
-      <c r="W157">
-        <v>0.8</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7047440</v>
+        <v>7047439</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45159.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162" t="s">
+        <v>51</v>
+      </c>
+      <c r="K162">
+        <v>3.5</v>
+      </c>
+      <c r="L162">
+        <v>4.2</v>
+      </c>
+      <c r="M162">
+        <v>1.7</v>
+      </c>
+      <c r="N162">
+        <v>1.727</v>
+      </c>
+      <c r="O162">
+        <v>4</v>
+      </c>
+      <c r="P162">
+        <v>3.5</v>
+      </c>
+      <c r="Q162">
+        <v>-0.75</v>
+      </c>
+      <c r="R162">
+        <v>1.975</v>
+      </c>
+      <c r="S162">
+        <v>1.825</v>
+      </c>
+      <c r="T162">
+        <v>3.75</v>
+      </c>
+      <c r="U162">
+        <v>1.9</v>
+      </c>
+      <c r="V162">
+        <v>1.9</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
         <v>3</v>
       </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
-      <c r="J162" t="s">
-        <v>52</v>
-      </c>
-      <c r="K162">
-        <v>1.533</v>
-      </c>
-      <c r="L162">
-        <v>4.5</v>
-      </c>
-      <c r="M162">
-        <v>4.2</v>
-      </c>
-      <c r="N162">
-        <v>1.45</v>
-      </c>
-      <c r="O162">
-        <v>4.75</v>
-      </c>
-      <c r="P162">
-        <v>4.75</v>
-      </c>
-      <c r="Q162">
-        <v>-1.25</v>
-      </c>
-      <c r="R162">
-        <v>1.9</v>
-      </c>
-      <c r="S162">
-        <v>1.9</v>
-      </c>
-      <c r="T162">
-        <v>3.5</v>
-      </c>
-      <c r="U162">
-        <v>1.85</v>
-      </c>
-      <c r="V162">
-        <v>1.95</v>
-      </c>
-      <c r="W162">
+      <c r="Y162">
+        <v>-1</v>
+      </c>
+      <c r="Z162">
+        <v>-1</v>
+      </c>
+      <c r="AA162">
+        <v>0.825</v>
+      </c>
+      <c r="AB162">
         <v>0.45</v>
       </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
-      <c r="Y162">
-        <v>-1</v>
-      </c>
-      <c r="Z162">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA162">
-        <v>-1</v>
-      </c>
-      <c r="AB162">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7047439</v>
+        <v>7047440</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,76 +14975,76 @@
         <v>45159.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K163">
+        <v>1.533</v>
+      </c>
+      <c r="L163">
+        <v>4.5</v>
+      </c>
+      <c r="M163">
+        <v>4.2</v>
+      </c>
+      <c r="N163">
+        <v>1.45</v>
+      </c>
+      <c r="O163">
+        <v>4.75</v>
+      </c>
+      <c r="P163">
+        <v>4.75</v>
+      </c>
+      <c r="Q163">
+        <v>-1.25</v>
+      </c>
+      <c r="R163">
+        <v>1.9</v>
+      </c>
+      <c r="S163">
+        <v>1.9</v>
+      </c>
+      <c r="T163">
         <v>3.5</v>
       </c>
-      <c r="L163">
-        <v>4.2</v>
-      </c>
-      <c r="M163">
-        <v>1.7</v>
-      </c>
-      <c r="N163">
-        <v>1.727</v>
-      </c>
-      <c r="O163">
-        <v>4</v>
-      </c>
-      <c r="P163">
-        <v>3.5</v>
-      </c>
-      <c r="Q163">
-        <v>-0.75</v>
-      </c>
-      <c r="R163">
-        <v>1.975</v>
-      </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
-      <c r="T163">
-        <v>3.75</v>
-      </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X163">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA163">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7047460</v>
+        <v>7071044</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45174.375</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L186">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M186">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N186">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P186">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7071044</v>
+        <v>7047460</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45174.375</v>
       </c>
       <c r="F188" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K188">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L188">
+        <v>3.75</v>
+      </c>
+      <c r="M188">
+        <v>2.55</v>
+      </c>
+      <c r="N188">
+        <v>2.4</v>
+      </c>
+      <c r="O188">
         <v>4</v>
       </c>
-      <c r="M188">
-        <v>2.3</v>
-      </c>
-      <c r="N188">
-        <v>1.65</v>
-      </c>
-      <c r="O188">
-        <v>4.2</v>
-      </c>
       <c r="P188">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X188">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA188">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17722,7 +17722,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7047468</v>
+        <v>7047467</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17734,73 +17734,73 @@
         <v>45181.375</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H194">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K194">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M194">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N194">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="O194">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P194">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q194">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R194">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
         <v>1.925</v>
       </c>
       <c r="T194">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z194">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB194">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17811,7 +17811,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7047467</v>
+        <v>7047468</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17823,73 +17823,73 @@
         <v>45181.375</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K195">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L195">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N195">
-        <v>1.666</v>
+        <v>1.142</v>
       </c>
       <c r="O195">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P195">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R195">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S195">
         <v>1.925</v>
       </c>
       <c r="T195">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA195">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7047471</v>
+        <v>7047469</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,76 +17912,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
         <v>3</v>
       </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
       <c r="J196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K196">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L196">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M196">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="N196">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O196">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P196">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T196">
         <v>3.75</v>
       </c>
       <c r="U196">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7047470</v>
+        <v>7047471</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,76 +18001,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I197">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K197">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L197">
         <v>4.5</v>
       </c>
       <c r="M197">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="N197">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="O197">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P197">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="Q197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T197">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7047469</v>
+        <v>7047470</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,55 +18090,55 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G198" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J198" t="s">
         <v>53</v>
       </c>
       <c r="K198">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L198">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M198">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="N198">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O198">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P198">
+        <v>1.533</v>
+      </c>
+      <c r="Q198">
+        <v>1</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
         <v>1.8</v>
       </c>
-      <c r="Q198">
-        <v>0.5</v>
-      </c>
-      <c r="R198">
-        <v>1.925</v>
-      </c>
-      <c r="S198">
-        <v>1.775</v>
-      </c>
       <c r="T198">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U198">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W198">
         <v>-1</v>
@@ -18147,16 +18147,16 @@
         <v>-1</v>
       </c>
       <c r="Y198">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
         <v>0.8</v>
       </c>
-      <c r="Z198">
-        <v>-1</v>
-      </c>
-      <c r="AA198">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB198">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7047485</v>
+        <v>7047479</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,76 +18802,76 @@
         <v>45194.625</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H206">
+        <v>3</v>
+      </c>
+      <c r="I206">
         <v>1</v>
       </c>
-      <c r="I206">
+      <c r="J206" t="s">
+        <v>52</v>
+      </c>
+      <c r="K206">
         <v>2</v>
-      </c>
-      <c r="J206" t="s">
-        <v>53</v>
-      </c>
-      <c r="K206">
-        <v>1.571</v>
       </c>
       <c r="L206">
         <v>4.333</v>
       </c>
       <c r="M206">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N206">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O206">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P206">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q206">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S206">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T206">
         <v>4.25</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA206">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC206">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18879,7 +18879,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7047479</v>
+        <v>7047485</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18891,76 +18891,76 @@
         <v>45194.625</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K207">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L207">
         <v>4.333</v>
       </c>
       <c r="M207">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N207">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O207">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P207">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q207">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R207">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S207">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T207">
         <v>4.25</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W207">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z207">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7047483</v>
+        <v>7047484</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18980,76 +18980,76 @@
         <v>45195.375</v>
       </c>
       <c r="F208" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G208" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K208">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M208">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N208">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O208">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P208">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R208">
+        <v>1.975</v>
+      </c>
+      <c r="S208">
+        <v>1.825</v>
+      </c>
+      <c r="T208">
+        <v>3.75</v>
+      </c>
+      <c r="U208">
         <v>1.875</v>
       </c>
-      <c r="S208">
+      <c r="V208">
         <v>1.925</v>
       </c>
-      <c r="T208">
-        <v>3.25</v>
-      </c>
-      <c r="U208">
-        <v>1.825</v>
-      </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
+        <v>0.4125</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.925</v>
-      </c>
-      <c r="AB208">
-        <v>0.825</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19057,7 +19057,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7071042</v>
+        <v>7047483</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19069,76 +19069,76 @@
         <v>45195.375</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J209" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K209">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L209">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N209">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O209">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P209">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R209">
+        <v>1.875</v>
+      </c>
+      <c r="S209">
         <v>1.925</v>
-      </c>
-      <c r="S209">
-        <v>1.875</v>
       </c>
       <c r="T209">
         <v>3.25</v>
       </c>
       <c r="U209">
+        <v>1.825</v>
+      </c>
+      <c r="V209">
         <v>1.975</v>
       </c>
-      <c r="V209">
-        <v>1.825</v>
-      </c>
       <c r="W209">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
         <v>0.925</v>
       </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7047484</v>
+        <v>7071042</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,58 +19158,58 @@
         <v>45195.375</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>52</v>
       </c>
       <c r="K210">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L210">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M210">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N210">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O210">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P210">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q210">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
+        <v>1.925</v>
+      </c>
+      <c r="S210">
+        <v>1.875</v>
+      </c>
+      <c r="T210">
+        <v>3.25</v>
+      </c>
+      <c r="U210">
         <v>1.975</v>
       </c>
-      <c r="S210">
+      <c r="V210">
         <v>1.825</v>
       </c>
-      <c r="T210">
-        <v>3.75</v>
-      </c>
-      <c r="U210">
-        <v>1.875</v>
-      </c>
-      <c r="V210">
-        <v>1.925</v>
-      </c>
       <c r="W210">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19218,16 +19218,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -20036,7 +20036,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7047492</v>
+        <v>7047493</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20048,76 +20048,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220" t="s">
+        <v>51</v>
+      </c>
+      <c r="K220">
+        <v>1.615</v>
+      </c>
+      <c r="L220">
+        <v>4.75</v>
+      </c>
+      <c r="M220">
+        <v>3.5</v>
+      </c>
+      <c r="N220">
         <v>3</v>
       </c>
-      <c r="J220" t="s">
-        <v>53</v>
-      </c>
-      <c r="K220">
-        <v>1.909</v>
-      </c>
-      <c r="L220">
+      <c r="O220">
+        <v>4</v>
+      </c>
+      <c r="P220">
+        <v>1.85</v>
+      </c>
+      <c r="Q220">
+        <v>0.5</v>
+      </c>
+      <c r="R220">
+        <v>1.875</v>
+      </c>
+      <c r="S220">
+        <v>1.925</v>
+      </c>
+      <c r="T220">
         <v>3.75</v>
       </c>
-      <c r="M220">
-        <v>3.1</v>
-      </c>
-      <c r="N220">
-        <v>2.3</v>
-      </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
-      <c r="P220">
-        <v>2.4</v>
-      </c>
-      <c r="Q220">
-        <v>0</v>
-      </c>
-      <c r="R220">
-        <v>1.85</v>
-      </c>
-      <c r="S220">
-        <v>1.95</v>
-      </c>
-      <c r="T220">
-        <v>3.25</v>
-      </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y220">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA220">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
+        <v>0.4625</v>
+      </c>
+      <c r="AC220">
         <v>-0.5</v>
-      </c>
-      <c r="AC220">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20125,7 +20125,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7047493</v>
+        <v>7047492</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20137,76 +20137,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M221">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N221">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P221">
+        <v>2.4</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
         <v>1.85</v>
       </c>
-      <c r="Q221">
-        <v>0.5</v>
-      </c>
-      <c r="R221">
-        <v>1.875</v>
-      </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z221">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB221">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20481,7 +20481,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7047499</v>
+        <v>7047501</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20493,58 +20493,58 @@
         <v>45216.375</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H225">
+        <v>3</v>
+      </c>
+      <c r="I225">
         <v>1</v>
-      </c>
-      <c r="I225">
-        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>52</v>
       </c>
       <c r="K225">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M225">
+        <v>1.8</v>
+      </c>
+      <c r="N225">
+        <v>2.05</v>
+      </c>
+      <c r="O225">
+        <v>4.5</v>
+      </c>
+      <c r="P225">
         <v>2.5</v>
       </c>
-      <c r="N225">
-        <v>2.75</v>
-      </c>
-      <c r="O225">
-        <v>3.8</v>
-      </c>
-      <c r="P225">
-        <v>2.1</v>
-      </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S225">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T225">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U225">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W225">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20553,16 +20553,16 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC225">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20570,7 +20570,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7047501</v>
+        <v>7047499</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20582,58 +20582,58 @@
         <v>45216.375</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>52</v>
       </c>
       <c r="K226">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L226">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M226">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N226">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O226">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P226">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U226">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W226">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20642,16 +20642,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7047507</v>
+        <v>7047505</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,76 +21205,76 @@
         <v>45223.375</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I233">
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K233">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L233">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M233">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N233">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O233">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P233">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q233">
+        <v>-0.75</v>
+      </c>
+      <c r="R233">
+        <v>1.875</v>
+      </c>
+      <c r="S233">
+        <v>1.925</v>
+      </c>
+      <c r="T233">
+        <v>3.5</v>
+      </c>
+      <c r="U233">
+        <v>1.95</v>
+      </c>
+      <c r="V233">
+        <v>1.85</v>
+      </c>
+      <c r="W233">
+        <v>0.7</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>-1</v>
+      </c>
+      <c r="Z233">
+        <v>0.4375</v>
+      </c>
+      <c r="AA233">
         <v>-0.5</v>
       </c>
-      <c r="R233">
-        <v>1.825</v>
-      </c>
-      <c r="S233">
-        <v>1.975</v>
-      </c>
-      <c r="T233">
-        <v>3.75</v>
-      </c>
-      <c r="U233">
-        <v>1.925</v>
-      </c>
-      <c r="V233">
-        <v>1.875</v>
-      </c>
-      <c r="W233">
-        <v>-1</v>
-      </c>
-      <c r="X233">
-        <v>3.5</v>
-      </c>
-      <c r="Y233">
-        <v>-1</v>
-      </c>
-      <c r="Z233">
-        <v>-1</v>
-      </c>
-      <c r="AA233">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB233">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7071039</v>
+        <v>7047507</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,76 +21294,76 @@
         <v>45223.375</v>
       </c>
       <c r="F234" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G234" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H234">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K234">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L234">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="M234">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N234">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O234">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P234">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q234">
         <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S234">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T234">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U234">
+        <v>1.925</v>
+      </c>
+      <c r="V234">
         <v>1.875</v>
       </c>
-      <c r="V234">
-        <v>1.925</v>
-      </c>
       <c r="W234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB234">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21371,7 +21371,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7047505</v>
+        <v>7071039</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21383,58 +21383,58 @@
         <v>45223.375</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G235" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
         <v>52</v>
       </c>
       <c r="K235">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L235">
+        <v>3.9</v>
+      </c>
+      <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>1.85</v>
+      </c>
+      <c r="O235">
         <v>4</v>
       </c>
-      <c r="M235">
+      <c r="P235">
+        <v>3.1</v>
+      </c>
+      <c r="Q235">
+        <v>-0.5</v>
+      </c>
+      <c r="R235">
+        <v>1.9</v>
+      </c>
+      <c r="S235">
+        <v>1.9</v>
+      </c>
+      <c r="T235">
         <v>3.25</v>
       </c>
-      <c r="N235">
-        <v>1.7</v>
-      </c>
-      <c r="O235">
-        <v>4.2</v>
-      </c>
-      <c r="P235">
-        <v>3.8</v>
-      </c>
-      <c r="Q235">
-        <v>-0.75</v>
-      </c>
-      <c r="R235">
+      <c r="U235">
         <v>1.875</v>
       </c>
-      <c r="S235">
+      <c r="V235">
         <v>1.925</v>
       </c>
-      <c r="T235">
-        <v>3.5</v>
-      </c>
-      <c r="U235">
-        <v>1.95</v>
-      </c>
-      <c r="V235">
-        <v>1.85</v>
-      </c>
       <c r="W235">
-        <v>0.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21443,13 +21443,13 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -21816,7 +21816,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7047512</v>
+        <v>7047515</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21828,49 +21828,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G240" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K240">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L240">
         <v>4.5</v>
       </c>
       <c r="M240">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N240">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O240">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P240">
         <v>5</v>
       </c>
       <c r="Q240">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U240">
         <v>1.9</v>
@@ -21879,25 +21879,25 @@
         <v>1.9</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X240">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
+        <v>0.425</v>
+      </c>
+      <c r="AB240">
+        <v>-1</v>
+      </c>
+      <c r="AC240">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB240">
-        <v>0.45</v>
-      </c>
-      <c r="AC240">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21905,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7047515</v>
+        <v>7047512</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21917,49 +21917,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H241">
         <v>2</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K241">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L241">
         <v>4.5</v>
       </c>
       <c r="M241">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N241">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O241">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P241">
         <v>5</v>
       </c>
       <c r="Q241">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R241">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U241">
         <v>1.9</v>
@@ -21968,25 +21968,25 @@
         <v>1.9</v>
       </c>
       <c r="W241">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
+        <v>-1</v>
+      </c>
+      <c r="AA241">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB241">
+        <v>0.45</v>
+      </c>
+      <c r="AC241">
         <v>-0.5</v>
-      </c>
-      <c r="AA241">
-        <v>0.425</v>
-      </c>
-      <c r="AB241">
-        <v>-1</v>
-      </c>
-      <c r="AC241">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22350,7 +22350,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7071037</v>
+        <v>7047522</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22362,76 +22362,76 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G246" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H246">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K246">
         <v>2.25</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M246">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N246">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O246">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P246">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q246">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R246">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
         <v>3.75</v>
       </c>
       <c r="U246">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V246">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z246">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB246">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22439,7 +22439,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7047523</v>
+        <v>7071037</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22451,73 +22451,73 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G247" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I247">
+        <v>3</v>
+      </c>
+      <c r="J247" t="s">
+        <v>52</v>
+      </c>
+      <c r="K247">
+        <v>2.25</v>
+      </c>
+      <c r="L247">
         <v>4</v>
       </c>
-      <c r="J247" t="s">
-        <v>53</v>
-      </c>
-      <c r="K247">
-        <v>2.75</v>
-      </c>
-      <c r="L247">
+      <c r="M247">
+        <v>2.4</v>
+      </c>
+      <c r="N247">
+        <v>1.727</v>
+      </c>
+      <c r="O247">
         <v>4.2</v>
       </c>
-      <c r="M247">
-        <v>1.95</v>
-      </c>
-      <c r="N247">
-        <v>2.45</v>
-      </c>
-      <c r="O247">
-        <v>4</v>
-      </c>
       <c r="P247">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S247">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T247">
         <v>3.75</v>
       </c>
       <c r="U247">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V247">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X247">
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA247">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB247">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22528,7 +22528,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7047522</v>
+        <v>7047523</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22540,56 +22540,56 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G248" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J248" t="s">
         <v>53</v>
       </c>
       <c r="K248">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L248">
         <v>4.2</v>
       </c>
       <c r="M248">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N248">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="O248">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P248">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="Q248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T248">
         <v>3.75</v>
       </c>
       <c r="U248">
+        <v>1.925</v>
+      </c>
+      <c r="V248">
         <v>1.875</v>
       </c>
-      <c r="V248">
-        <v>1.925</v>
-      </c>
       <c r="W248">
         <v>-1</v>
       </c>
@@ -22597,19 +22597,19 @@
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
+        <v>0.75</v>
+      </c>
+      <c r="AB248">
         <v>0.925</v>
       </c>
-      <c r="AB248">
-        <v>-1</v>
-      </c>
       <c r="AC248">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22617,7 +22617,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7047524</v>
+        <v>7047521</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22629,58 +22629,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H249">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="s">
         <v>52</v>
       </c>
       <c r="K249">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M249">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N249">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="O249">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P249">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q249">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R249">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S249">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T249">
         <v>3.75</v>
       </c>
       <c r="U249">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W249">
-        <v>0.25</v>
+        <v>1.9</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22689,16 +22689,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7047521</v>
+        <v>7047524</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,58 +22718,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G250" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
         <v>52</v>
       </c>
       <c r="K250">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L250">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M250">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N250">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="O250">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P250">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="Q250">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R250">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
         <v>3.75</v>
       </c>
       <c r="U250">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V250">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
-        <v>1.9</v>
+        <v>0.25</v>
       </c>
       <c r="X250">
         <v>-1</v>
@@ -22778,16 +22778,16 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC250">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -23240,7 +23240,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7047530</v>
+        <v>7047533</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23252,46 +23252,46 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G256" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K256">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L256">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M256">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N256">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O256">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P256">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q256">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R256">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S256">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T256">
         <v>3.75</v>
@@ -23306,16 +23306,16 @@
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y256">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA256">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AB256">
         <v>-1</v>
@@ -23329,7 +23329,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7047533</v>
+        <v>7047534</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23341,10 +23341,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23356,61 +23356,61 @@
         <v>51</v>
       </c>
       <c r="K257">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L257">
         <v>4</v>
       </c>
       <c r="M257">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N257">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O257">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q257">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R257">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S257">
         <v>1.95</v>
       </c>
       <c r="T257">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U257">
+        <v>1.85</v>
+      </c>
+      <c r="V257">
         <v>1.95</v>
       </c>
-      <c r="V257">
-        <v>1.85</v>
-      </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA257">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
         <v>-1</v>
       </c>
       <c r="AC257">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23418,7 +23418,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7047534</v>
+        <v>7047530</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23430,76 +23430,76 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G258" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J258" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K258">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M258">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N258">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O258">
+        <v>3.6</v>
+      </c>
+      <c r="P258">
+        <v>2.2</v>
+      </c>
+      <c r="Q258">
+        <v>0.25</v>
+      </c>
+      <c r="R258">
+        <v>1.775</v>
+      </c>
+      <c r="S258">
+        <v>2.025</v>
+      </c>
+      <c r="T258">
         <v>3.75</v>
       </c>
-      <c r="P258">
+      <c r="U258">
+        <v>1.95</v>
+      </c>
+      <c r="V258">
         <v>1.85</v>
       </c>
-      <c r="Q258">
-        <v>0.5</v>
-      </c>
-      <c r="R258">
-        <v>1.85</v>
-      </c>
-      <c r="S258">
-        <v>1.95</v>
-      </c>
-      <c r="T258">
-        <v>3</v>
-      </c>
-      <c r="U258">
-        <v>1.85</v>
-      </c>
-      <c r="V258">
-        <v>1.95</v>
-      </c>
       <c r="W258">
         <v>-1</v>
       </c>
       <c r="X258">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z258">
+        <v>-1</v>
+      </c>
+      <c r="AA258">
+        <v>1.025</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA258">
-        <v>-1</v>
-      </c>
-      <c r="AB258">
-        <v>-1</v>
-      </c>
-      <c r="AC258">
-        <v>0.95</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23685,7 +23685,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7047537</v>
+        <v>7047541</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23697,73 +23697,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F261" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H261">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I261">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J261" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K261">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="L261">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M261">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="N261">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="O261">
         <v>4</v>
       </c>
       <c r="P261">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q261">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R261">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S261">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T261">
         <v>3.75</v>
       </c>
       <c r="U261">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V261">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W261">
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z261">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB261">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7047541</v>
+        <v>7047540</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,73 +23786,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F262" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G262" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H262">
         <v>3</v>
       </c>
       <c r="I262">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K262">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M262">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="N262">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O262">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P262">
+        <v>1.7</v>
+      </c>
+      <c r="Q262">
+        <v>0.75</v>
+      </c>
+      <c r="R262">
+        <v>1.9</v>
+      </c>
+      <c r="S262">
+        <v>1.9</v>
+      </c>
+      <c r="T262">
+        <v>3.5</v>
+      </c>
+      <c r="U262">
         <v>1.8</v>
       </c>
-      <c r="Q262">
-        <v>0.5</v>
-      </c>
-      <c r="R262">
-        <v>1.925</v>
-      </c>
-      <c r="S262">
-        <v>1.875</v>
-      </c>
-      <c r="T262">
-        <v>3.75</v>
-      </c>
-      <c r="U262">
-        <v>1.975</v>
-      </c>
       <c r="V262">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
+        <v>-1</v>
+      </c>
+      <c r="Z262">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA262">
+        <v>-1</v>
+      </c>
+      <c r="AB262">
         <v>0.8</v>
-      </c>
-      <c r="Z262">
-        <v>-1</v>
-      </c>
-      <c r="AA262">
-        <v>0.875</v>
-      </c>
-      <c r="AB262">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7047540</v>
+        <v>7047537</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,73 +23875,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F263" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G263" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H263">
+        <v>5</v>
+      </c>
+      <c r="I263">
+        <v>5</v>
+      </c>
+      <c r="J263" t="s">
+        <v>51</v>
+      </c>
+      <c r="K263">
+        <v>1.75</v>
+      </c>
+      <c r="L263">
+        <v>4.2</v>
+      </c>
+      <c r="M263">
+        <v>3.3</v>
+      </c>
+      <c r="N263">
+        <v>1.95</v>
+      </c>
+      <c r="O263">
+        <v>4</v>
+      </c>
+      <c r="P263">
         <v>3</v>
       </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
-      <c r="J263" t="s">
-        <v>52</v>
-      </c>
-      <c r="K263">
-        <v>3.2</v>
-      </c>
-      <c r="L263">
-        <v>4.1</v>
-      </c>
-      <c r="M263">
-        <v>1.8</v>
-      </c>
-      <c r="N263">
-        <v>3.6</v>
-      </c>
-      <c r="O263">
-        <v>4.2</v>
-      </c>
-      <c r="P263">
-        <v>1.7</v>
-      </c>
       <c r="Q263">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R263">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S263">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U263">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB263">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC263">
         <v>-1</v>
@@ -25910,7 +25910,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7047568</v>
+        <v>7047570</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25922,49 +25922,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G286" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K286">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L286">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M286">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N286">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O286">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P286">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q286">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R286">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S286">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T286">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U286">
         <v>1.9</v>
@@ -25973,19 +25973,19 @@
         <v>1.9</v>
       </c>
       <c r="W286">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB286">
         <v>-1</v>
@@ -25999,7 +25999,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7047570</v>
+        <v>7047568</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26011,49 +26011,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F287" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G287" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I287">
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K287">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L287">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M287">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N287">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O287">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P287">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q287">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R287">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S287">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T287">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U287">
         <v>1.9</v>
@@ -26062,19 +26062,19 @@
         <v>1.9</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X287">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA287">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
         <v>-1</v>
@@ -26177,7 +26177,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7071032</v>
+        <v>7047569</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26189,76 +26189,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G289" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289">
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K289">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L289">
         <v>4.2</v>
       </c>
       <c r="M289">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N289">
+        <v>3.2</v>
+      </c>
+      <c r="O289">
+        <v>4.333</v>
+      </c>
+      <c r="P289">
         <v>1.75</v>
       </c>
-      <c r="O289">
-        <v>4.5</v>
-      </c>
-      <c r="P289">
-        <v>3.1</v>
-      </c>
       <c r="Q289">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R289">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S289">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T289">
         <v>3.5</v>
       </c>
       <c r="U289">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V289">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W289">
         <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y289">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA289">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26444,7 +26444,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7047569</v>
+        <v>7071032</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26456,76 +26456,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F292" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G292" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292">
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K292">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L292">
         <v>4.2</v>
       </c>
       <c r="M292">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N292">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O292">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P292">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q292">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R292">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S292">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T292">
         <v>3.5</v>
       </c>
       <c r="U292">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V292">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W292">
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z292">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB292">
         <v>-1</v>
       </c>
       <c r="AC292">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26711,7 +26711,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7047576</v>
+        <v>7047575</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26723,13 +26723,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G295" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295">
         <v>5</v>
@@ -26738,58 +26738,58 @@
         <v>53</v>
       </c>
       <c r="K295">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L295">
+        <v>6</v>
+      </c>
+      <c r="M295">
+        <v>1.25</v>
+      </c>
+      <c r="N295">
         <v>4</v>
       </c>
-      <c r="M295">
-        <v>2.75</v>
-      </c>
-      <c r="N295">
-        <v>2.875</v>
-      </c>
       <c r="O295">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P295">
+        <v>1.5</v>
+      </c>
+      <c r="Q295">
+        <v>1.25</v>
+      </c>
+      <c r="R295">
+        <v>1.85</v>
+      </c>
+      <c r="S295">
         <v>1.95</v>
       </c>
-      <c r="Q295">
+      <c r="T295">
+        <v>3.75</v>
+      </c>
+      <c r="U295">
+        <v>1.9</v>
+      </c>
+      <c r="V295">
+        <v>1.9</v>
+      </c>
+      <c r="W295">
+        <v>-1</v>
+      </c>
+      <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
         <v>0.5</v>
       </c>
-      <c r="R295">
-        <v>1.8</v>
-      </c>
-      <c r="S295">
-        <v>2</v>
-      </c>
-      <c r="T295">
-        <v>3.5</v>
-      </c>
-      <c r="U295">
-        <v>1.925</v>
-      </c>
-      <c r="V295">
-        <v>1.875</v>
-      </c>
-      <c r="W295">
-        <v>-1</v>
-      </c>
-      <c r="X295">
-        <v>-1</v>
-      </c>
-      <c r="Y295">
+      <c r="Z295">
+        <v>-1</v>
+      </c>
+      <c r="AA295">
         <v>0.95</v>
       </c>
-      <c r="Z295">
-        <v>-1</v>
-      </c>
-      <c r="AA295">
-        <v>1</v>
-      </c>
       <c r="AB295">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -26800,7 +26800,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7047575</v>
+        <v>7047576</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26812,13 +26812,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F296" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G296" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296">
         <v>5</v>
@@ -26827,40 +26827,40 @@
         <v>53</v>
       </c>
       <c r="K296">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L296">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M296">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="N296">
+        <v>2.875</v>
+      </c>
+      <c r="O296">
         <v>4</v>
       </c>
-      <c r="O296">
-        <v>5</v>
-      </c>
       <c r="P296">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q296">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R296">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S296">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T296">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U296">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26869,16 +26869,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB296">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -27779,7 +27779,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7047598</v>
+        <v>7047597</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27791,76 +27791,76 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G307" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K307">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L307">
+        <v>4</v>
+      </c>
+      <c r="M307">
+        <v>2.1</v>
+      </c>
+      <c r="N307">
         <v>4.2</v>
       </c>
-      <c r="M307">
-        <v>3.6</v>
-      </c>
-      <c r="N307">
-        <v>2.2</v>
-      </c>
       <c r="O307">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P307">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T307">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U307">
+        <v>1.95</v>
+      </c>
+      <c r="V307">
         <v>1.85</v>
       </c>
-      <c r="V307">
-        <v>1.95</v>
-      </c>
       <c r="W307">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X307">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA307">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
+        <v>-1</v>
+      </c>
+      <c r="AC307">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC307">
-        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7047597</v>
+        <v>7047598</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,76 +27880,76 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G308" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K308">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M308">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N308">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O308">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P308">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="Q308">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R308">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S308">
+        <v>1.8</v>
+      </c>
+      <c r="T308">
+        <v>3.25</v>
+      </c>
+      <c r="U308">
+        <v>1.85</v>
+      </c>
+      <c r="V308">
         <v>1.95</v>
       </c>
-      <c r="T308">
-        <v>3.75</v>
-      </c>
-      <c r="U308">
-        <v>1.95</v>
-      </c>
-      <c r="V308">
-        <v>1.85</v>
-      </c>
       <c r="W308">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28402,7 +28402,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7047603</v>
+        <v>7047601</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28414,76 +28414,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G314" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
         <v>2</v>
       </c>
-      <c r="I314">
-        <v>1</v>
-      </c>
       <c r="J314" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K314">
+        <v>1.7</v>
+      </c>
+      <c r="L314">
+        <v>4.2</v>
+      </c>
+      <c r="M314">
+        <v>3.6</v>
+      </c>
+      <c r="N314">
+        <v>1.363</v>
+      </c>
+      <c r="O314">
+        <v>4.75</v>
+      </c>
+      <c r="P314">
+        <v>5.75</v>
+      </c>
+      <c r="Q314">
+        <v>-1.5</v>
+      </c>
+      <c r="R314">
         <v>1.9</v>
       </c>
-      <c r="L314">
-        <v>4</v>
-      </c>
-      <c r="M314">
-        <v>3</v>
-      </c>
-      <c r="N314">
-        <v>1.7</v>
-      </c>
-      <c r="O314">
-        <v>4.2</v>
-      </c>
-      <c r="P314">
-        <v>3.6</v>
-      </c>
-      <c r="Q314">
-        <v>-0.75</v>
-      </c>
-      <c r="R314">
-        <v>1.925</v>
-      </c>
       <c r="S314">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T314">
         <v>3.5</v>
       </c>
       <c r="U314">
+        <v>1.825</v>
+      </c>
+      <c r="V314">
         <v>1.975</v>
       </c>
-      <c r="V314">
-        <v>1.825</v>
-      </c>
       <c r="W314">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X314">
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z314">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB314">
         <v>-1</v>
       </c>
       <c r="AC314">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28491,7 +28491,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7047601</v>
+        <v>7047603</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28503,76 +28503,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F315" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G315" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H315">
+        <v>2</v>
+      </c>
+      <c r="I315">
         <v>1</v>
       </c>
-      <c r="I315">
-        <v>2</v>
-      </c>
       <c r="J315" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K315">
+        <v>1.9</v>
+      </c>
+      <c r="L315">
+        <v>4</v>
+      </c>
+      <c r="M315">
+        <v>3</v>
+      </c>
+      <c r="N315">
         <v>1.7</v>
       </c>
-      <c r="L315">
+      <c r="O315">
         <v>4.2</v>
       </c>
-      <c r="M315">
+      <c r="P315">
         <v>3.6</v>
       </c>
-      <c r="N315">
-        <v>1.363</v>
-      </c>
-      <c r="O315">
-        <v>4.75</v>
-      </c>
-      <c r="P315">
-        <v>5.75</v>
-      </c>
       <c r="Q315">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R315">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S315">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T315">
         <v>3.5</v>
       </c>
       <c r="U315">
+        <v>1.975</v>
+      </c>
+      <c r="V315">
         <v>1.825</v>
       </c>
-      <c r="V315">
-        <v>1.975</v>
-      </c>
       <c r="W315">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X315">
         <v>-1</v>
       </c>
       <c r="Y315">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA315">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB315">
         <v>-1</v>
       </c>
       <c r="AC315">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28580,7 +28580,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7047600</v>
+        <v>7047606</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28592,10 +28592,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G316" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -28607,25 +28607,25 @@
         <v>53</v>
       </c>
       <c r="K316">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L316">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M316">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N316">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O316">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P316">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q316">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
         <v>1.95</v>
@@ -28634,13 +28634,13 @@
         <v>1.85</v>
       </c>
       <c r="T316">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U316">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V316">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W316">
         <v>-1</v>
@@ -28649,7 +28649,7 @@
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z316">
         <v>-1</v>
@@ -28661,7 +28661,7 @@
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28669,7 +28669,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7047606</v>
+        <v>7047600</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28681,10 +28681,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G317" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -28696,25 +28696,25 @@
         <v>53</v>
       </c>
       <c r="K317">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L317">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M317">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N317">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O317">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P317">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R317">
         <v>1.95</v>
@@ -28723,22 +28723,22 @@
         <v>1.85</v>
       </c>
       <c r="T317">
+        <v>3.75</v>
+      </c>
+      <c r="U317">
+        <v>1.9</v>
+      </c>
+      <c r="V317">
+        <v>1.9</v>
+      </c>
+      <c r="W317">
+        <v>-1</v>
+      </c>
+      <c r="X317">
+        <v>-1</v>
+      </c>
+      <c r="Y317">
         <v>3.5</v>
-      </c>
-      <c r="U317">
-        <v>1.775</v>
-      </c>
-      <c r="V317">
-        <v>1.925</v>
-      </c>
-      <c r="W317">
-        <v>-1</v>
-      </c>
-      <c r="X317">
-        <v>-1</v>
-      </c>
-      <c r="Y317">
-        <v>2</v>
       </c>
       <c r="Z317">
         <v>-1</v>
@@ -28750,7 +28750,7 @@
         <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -29114,7 +29114,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7047610</v>
+        <v>7071028</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29126,76 +29126,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F322" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G322" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322">
         <v>2</v>
       </c>
       <c r="J322" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K322">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="L322">
         <v>4.5</v>
       </c>
       <c r="M322">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N322">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O322">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P322">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q322">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R322">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S322">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T322">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U322">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V322">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W322">
         <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y322">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA322">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC322">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29203,7 +29203,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7047611</v>
+        <v>7047610</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29215,46 +29215,46 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F323" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G323" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H323">
         <v>1</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K323">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L323">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M323">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N323">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O323">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P323">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R323">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S323">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T323">
         <v>3.25</v>
@@ -29269,22 +29269,22 @@
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC323">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7071028</v>
+        <v>7047611</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,76 +29393,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F325" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G325" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J325" t="s">
         <v>51</v>
       </c>
       <c r="K325">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L325">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M325">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="N325">
+        <v>2.375</v>
+      </c>
+      <c r="O325">
+        <v>3.8</v>
+      </c>
+      <c r="P325">
+        <v>2.45</v>
+      </c>
+      <c r="Q325">
+        <v>0</v>
+      </c>
+      <c r="R325">
+        <v>1.875</v>
+      </c>
+      <c r="S325">
+        <v>1.925</v>
+      </c>
+      <c r="T325">
+        <v>3.25</v>
+      </c>
+      <c r="U325">
+        <v>1.85</v>
+      </c>
+      <c r="V325">
+        <v>1.95</v>
+      </c>
+      <c r="W325">
+        <v>-1</v>
+      </c>
+      <c r="X325">
         <v>2.8</v>
       </c>
-      <c r="O325">
-        <v>4.333</v>
-      </c>
-      <c r="P325">
-        <v>1.95</v>
-      </c>
-      <c r="Q325">
-        <v>0.5</v>
-      </c>
-      <c r="R325">
-        <v>1.8</v>
-      </c>
-      <c r="S325">
-        <v>2</v>
-      </c>
-      <c r="T325">
-        <v>3.5</v>
-      </c>
-      <c r="U325">
-        <v>1.875</v>
-      </c>
-      <c r="V325">
-        <v>1.925</v>
-      </c>
-      <c r="W325">
-        <v>-1</v>
-      </c>
-      <c r="X325">
-        <v>3.333</v>
-      </c>
       <c r="Y325">
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA325">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB325">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29665,6 +29665,15 @@
       <c r="G328" t="s">
         <v>43</v>
       </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328" t="s">
+        <v>51</v>
+      </c>
       <c r="K328">
         <v>1.45</v>
       </c>
@@ -29675,45 +29684,125 @@
         <v>4.5</v>
       </c>
       <c r="N328">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="O328">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P328">
+        <v>5.75</v>
+      </c>
+      <c r="Q328">
+        <v>-1.75</v>
+      </c>
+      <c r="R328">
+        <v>1.875</v>
+      </c>
+      <c r="S328">
+        <v>1.925</v>
+      </c>
+      <c r="T328">
         <v>4</v>
       </c>
-      <c r="Q328">
-        <v>-1.25</v>
-      </c>
-      <c r="R328">
-        <v>1.975</v>
-      </c>
-      <c r="S328">
-        <v>1.825</v>
-      </c>
-      <c r="T328">
-        <v>3.75</v>
-      </c>
       <c r="U328">
+        <v>1.9</v>
+      </c>
+      <c r="V328">
+        <v>1.9</v>
+      </c>
+      <c r="W328">
+        <v>-1</v>
+      </c>
+      <c r="X328">
+        <v>4.75</v>
+      </c>
+      <c r="Y328">
+        <v>-1</v>
+      </c>
+      <c r="Z328">
+        <v>-1</v>
+      </c>
+      <c r="AA328">
+        <v>0.925</v>
+      </c>
+      <c r="AB328">
+        <v>-1</v>
+      </c>
+      <c r="AC328">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>7665933</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45345.41666666666</v>
+      </c>
+      <c r="F329" t="s">
+        <v>33</v>
+      </c>
+      <c r="G329" t="s">
+        <v>42</v>
+      </c>
+      <c r="K329">
+        <v>1.6</v>
+      </c>
+      <c r="L329">
+        <v>4.2</v>
+      </c>
+      <c r="M329">
+        <v>4</v>
+      </c>
+      <c r="N329">
+        <v>1.615</v>
+      </c>
+      <c r="O329">
+        <v>4.2</v>
+      </c>
+      <c r="P329">
+        <v>4</v>
+      </c>
+      <c r="Q329">
+        <v>-0.75</v>
+      </c>
+      <c r="R329">
         <v>1.8</v>
       </c>
-      <c r="V328">
+      <c r="S329">
         <v>2</v>
       </c>
-      <c r="W328">
+      <c r="T329">
+        <v>3.5</v>
+      </c>
+      <c r="U329">
+        <v>1.95</v>
+      </c>
+      <c r="V329">
+        <v>1.85</v>
+      </c>
+      <c r="W329">
         <v>0</v>
       </c>
-      <c r="X328">
+      <c r="X329">
         <v>0</v>
       </c>
-      <c r="Y328">
+      <c r="Y329">
         <v>0</v>
       </c>
-      <c r="Z328">
+      <c r="Z329">
         <v>0</v>
       </c>
-      <c r="AA328">
+      <c r="AA329">
         <v>0</v>
       </c>
     </row>

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5434360</v>
+        <v>6020901</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>44964.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M23">
+        <v>1.833</v>
+      </c>
+      <c r="N23">
+        <v>1.85</v>
+      </c>
+      <c r="O23">
+        <v>4.5</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.7</v>
+      </c>
+      <c r="S23">
         <v>2.1</v>
       </c>
-      <c r="N23">
-        <v>1.444</v>
-      </c>
-      <c r="O23">
-        <v>5</v>
-      </c>
-      <c r="P23">
-        <v>5</v>
-      </c>
-      <c r="Q23">
-        <v>-1.5</v>
-      </c>
-      <c r="R23">
-        <v>2.025</v>
-      </c>
-      <c r="S23">
-        <v>1.775</v>
-      </c>
       <c r="T23">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2592,7 +2592,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6020901</v>
+        <v>5434360</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2604,76 +2604,76 @@
         <v>44964.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>2</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L24">
+        <v>3.75</v>
+      </c>
+      <c r="M24">
+        <v>2.1</v>
+      </c>
+      <c r="N24">
+        <v>1.444</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>-1.5</v>
+      </c>
+      <c r="R24">
+        <v>2.025</v>
+      </c>
+      <c r="S24">
+        <v>1.775</v>
+      </c>
+      <c r="T24">
+        <v>3.5</v>
+      </c>
+      <c r="U24">
+        <v>1.9</v>
+      </c>
+      <c r="V24">
+        <v>1.9</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>4</v>
       </c>
-      <c r="M24">
-        <v>1.833</v>
-      </c>
-      <c r="N24">
-        <v>1.85</v>
-      </c>
-      <c r="O24">
-        <v>4.5</v>
-      </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.7</v>
-      </c>
-      <c r="S24">
-        <v>2.1</v>
-      </c>
-      <c r="T24">
-        <v>3.25</v>
-      </c>
-      <c r="U24">
-        <v>1.95</v>
-      </c>
-      <c r="V24">
-        <v>1.85</v>
-      </c>
-      <c r="W24">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
       <c r="Z24">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5432874</v>
+        <v>5434327</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,10 +3494,10 @@
         <v>44971.4375</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3509,31 +3509,31 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L34">
+        <v>4.5</v>
+      </c>
+      <c r="M34">
         <v>5.5</v>
       </c>
-      <c r="M34">
-        <v>8</v>
-      </c>
       <c r="N34">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O34">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P34">
         <v>5.5</v>
       </c>
       <c r="Q34">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
         <v>3.5</v>
@@ -3548,7 +3548,7 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3557,7 +3557,7 @@
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB34">
         <v>-1</v>
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5434327</v>
+        <v>5432874</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,10 +3583,10 @@
         <v>44971.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3598,31 +3598,31 @@
         <v>51</v>
       </c>
       <c r="K35">
+        <v>1.25</v>
+      </c>
+      <c r="L35">
+        <v>5.5</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="N35">
         <v>1.4</v>
       </c>
-      <c r="L35">
-        <v>4.5</v>
-      </c>
-      <c r="M35">
-        <v>5.5</v>
-      </c>
-      <c r="N35">
-        <v>1.45</v>
-      </c>
       <c r="O35">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P35">
         <v>5.5</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
         <v>3.5</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y35">
         <v>-1</v>
@@ -3646,7 +3646,7 @@
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5432877</v>
+        <v>5434322</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,49 +3939,49 @@
         <v>44977.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="J39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39">
+        <v>1.2</v>
+      </c>
+      <c r="L39">
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>1.333</v>
+      </c>
+      <c r="O39">
+        <v>4.75</v>
+      </c>
+      <c r="P39">
+        <v>7</v>
+      </c>
+      <c r="Q39">
+        <v>-1.5</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
         <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39">
-        <v>2.5</v>
-      </c>
-      <c r="L39">
-        <v>4.5</v>
-      </c>
-      <c r="M39">
-        <v>2.05</v>
-      </c>
-      <c r="N39">
-        <v>3.3</v>
-      </c>
-      <c r="O39">
-        <v>5</v>
-      </c>
-      <c r="P39">
-        <v>1.666</v>
-      </c>
-      <c r="Q39">
-        <v>0.75</v>
-      </c>
-      <c r="R39">
-        <v>1.95</v>
-      </c>
-      <c r="S39">
-        <v>1.85</v>
-      </c>
-      <c r="T39">
-        <v>3.25</v>
       </c>
       <c r="U39">
         <v>1.75</v>
@@ -3990,25 +3990,25 @@
         <v>1.95</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5434322</v>
+        <v>5432877</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,49 +4028,49 @@
         <v>44977.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L40">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="N40">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O40">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P40">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="Q40">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
         <v>1.75</v>
@@ -4079,25 +4079,25 @@
         <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6159600</v>
+        <v>6134949</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6342,46 +6342,46 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K66">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
+        <v>3.75</v>
+      </c>
+      <c r="M66">
+        <v>2.35</v>
+      </c>
+      <c r="N66">
+        <v>1.75</v>
+      </c>
+      <c r="O66">
+        <v>3.8</v>
+      </c>
+      <c r="P66">
         <v>4</v>
       </c>
-      <c r="M66">
-        <v>2.5</v>
-      </c>
-      <c r="N66">
-        <v>2.05</v>
-      </c>
-      <c r="O66">
-        <v>4</v>
-      </c>
-      <c r="P66">
-        <v>2.8</v>
-      </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
         <v>3</v>
@@ -6393,19 +6393,19 @@
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6134949</v>
+        <v>6159600</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6520,46 +6520,46 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K68">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
         <v>3</v>
@@ -6571,19 +6571,19 @@
         <v>1.925</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5434302</v>
+        <v>5432887</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,76 +6876,76 @@
         <v>45005.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
       <c r="J72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K72">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
         <v>3.25</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N72">
+        <v>2.4</v>
+      </c>
+      <c r="O72">
+        <v>3.5</v>
+      </c>
+      <c r="P72">
+        <v>2.6</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1.825</v>
+      </c>
+      <c r="S72">
+        <v>1.975</v>
+      </c>
+      <c r="T72">
         <v>3.25</v>
       </c>
-      <c r="O72">
-        <v>3.2</v>
-      </c>
-      <c r="P72">
-        <v>2</v>
-      </c>
-      <c r="Q72">
-        <v>0.5</v>
-      </c>
-      <c r="R72">
-        <v>1.775</v>
-      </c>
-      <c r="S72">
-        <v>2.025</v>
-      </c>
-      <c r="T72">
-        <v>3</v>
-      </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA72">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5432887</v>
+        <v>5434302</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,76 +6965,76 @@
         <v>45005.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L73">
         <v>3.25</v>
       </c>
       <c r="M73">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Q73">
+        <v>0.5</v>
+      </c>
+      <c r="R73">
+        <v>1.775</v>
+      </c>
+      <c r="S73">
+        <v>2.025</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>1.95</v>
+      </c>
+      <c r="V73">
+        <v>1.85</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>1.025</v>
+      </c>
+      <c r="AB73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>1.825</v>
-      </c>
-      <c r="S73">
-        <v>1.975</v>
-      </c>
-      <c r="T73">
-        <v>3.25</v>
-      </c>
-      <c r="U73">
-        <v>1.975</v>
-      </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
-      <c r="W73">
-        <v>1.4</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0.825</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7220,7 +7220,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5432888</v>
+        <v>5434300</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7232,76 +7232,76 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>2</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K76">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="O76">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T76">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7309,7 +7309,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5434300</v>
+        <v>5434299</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7321,76 +7321,76 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K77">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N77">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O77">
         <v>4</v>
       </c>
       <c r="P77">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U77">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC77">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5434299</v>
+        <v>5432888</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,13 +7410,13 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7425,44 +7425,44 @@
         <v>52</v>
       </c>
       <c r="K78">
+        <v>2.8</v>
+      </c>
+      <c r="L78">
+        <v>4.333</v>
+      </c>
+      <c r="M78">
+        <v>1.909</v>
+      </c>
+      <c r="N78">
+        <v>6</v>
+      </c>
+      <c r="O78">
+        <v>5.25</v>
+      </c>
+      <c r="P78">
         <v>1.363</v>
       </c>
-      <c r="L78">
+      <c r="Q78">
+        <v>1.5</v>
+      </c>
+      <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
+        <v>1.85</v>
+      </c>
+      <c r="T78">
+        <v>3.75</v>
+      </c>
+      <c r="U78">
+        <v>1.975</v>
+      </c>
+      <c r="V78">
+        <v>1.825</v>
+      </c>
+      <c r="W78">
         <v>5</v>
       </c>
-      <c r="M78">
-        <v>5.5</v>
-      </c>
-      <c r="N78">
-        <v>2.625</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
-      <c r="P78">
-        <v>2.05</v>
-      </c>
-      <c r="Q78">
-        <v>0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.9</v>
-      </c>
-      <c r="S78">
-        <v>1.9</v>
-      </c>
-      <c r="T78">
-        <v>3.5</v>
-      </c>
-      <c r="U78">
-        <v>1.95</v>
-      </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
-      <c r="W78">
-        <v>1.625</v>
-      </c>
       <c r="X78">
         <v>-1</v>
       </c>
@@ -7470,16 +7470,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -9089,7 +9089,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5434291</v>
+        <v>6174296</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9101,73 +9101,73 @@
         <v>45027.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L97">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M97">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N97">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P97">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S97">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
         <v>3.5</v>
       </c>
       <c r="U97">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA97">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9178,7 +9178,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6174296</v>
+        <v>5434291</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9190,73 +9190,73 @@
         <v>45027.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>51</v>
+      </c>
+      <c r="K98">
         <v>3</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98" t="s">
-        <v>52</v>
-      </c>
-      <c r="K98">
-        <v>1.833</v>
-      </c>
       <c r="L98">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="N98">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O98">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T98">
         <v>3.5</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5434288</v>
+        <v>5432895</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,76 +9813,76 @@
         <v>45033.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M105">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N105">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P105">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R105">
+        <v>1.925</v>
+      </c>
+      <c r="S105">
         <v>1.875</v>
-      </c>
-      <c r="S105">
-        <v>1.925</v>
       </c>
       <c r="T105">
         <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.625</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5432895</v>
+        <v>5434288</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,76 +9902,76 @@
         <v>45033.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K106">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L106">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
+        <v>2.3</v>
+      </c>
+      <c r="N106">
+        <v>2.75</v>
+      </c>
+      <c r="O106">
+        <v>3.75</v>
+      </c>
+      <c r="P106">
         <v>2.1</v>
       </c>
-      <c r="N106">
-        <v>4.75</v>
-      </c>
-      <c r="O106">
-        <v>4.333</v>
-      </c>
-      <c r="P106">
-        <v>1.5</v>
-      </c>
       <c r="Q106">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
+        <v>1.875</v>
+      </c>
+      <c r="S106">
         <v>1.925</v>
-      </c>
-      <c r="S106">
-        <v>1.875</v>
       </c>
       <c r="T106">
         <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.625</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X106">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5432903</v>
+        <v>5434271</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,58 +12216,58 @@
         <v>45048.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>52</v>
       </c>
       <c r="K132">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M132">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="N132">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P132">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
         <v>4</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>0.7270000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12276,13 +12276,13 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5434271</v>
+        <v>5432903</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,58 +12305,58 @@
         <v>45048.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>52</v>
       </c>
       <c r="K133">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="N133">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q133">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>4</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>0.3</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12365,13 +12365,13 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7067620</v>
+        <v>7047431</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,58 +13907,58 @@
         <v>45153.375</v>
       </c>
       <c r="F151" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H151">
         <v>4</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
         <v>52</v>
       </c>
       <c r="K151">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L151">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N151">
+        <v>2.75</v>
+      </c>
+      <c r="O151">
         <v>3.6</v>
       </c>
-      <c r="O151">
-        <v>4</v>
-      </c>
       <c r="P151">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q151">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
         <v>3.5</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13967,13 +13967,13 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7047431</v>
+        <v>7067620</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,58 +13996,58 @@
         <v>45153.375</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G152" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>4</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>52</v>
       </c>
       <c r="K152">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L152">
+        <v>3.75</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
         <v>3.6</v>
       </c>
-      <c r="M152">
-        <v>2.1</v>
-      </c>
-      <c r="N152">
-        <v>2.75</v>
-      </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P152">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
         <v>3.5</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14056,13 +14056,13 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7047435</v>
+        <v>7047434</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,73 +14085,73 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K153">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="L153">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M153">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="N153">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="O153">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P153">
-        <v>1.45</v>
+        <v>7</v>
       </c>
       <c r="Q153">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>4</v>
+      </c>
+      <c r="U153">
+        <v>1.875</v>
+      </c>
+      <c r="V153">
         <v>1.925</v>
       </c>
-      <c r="S153">
-        <v>1.875</v>
-      </c>
-      <c r="T153">
-        <v>3.25</v>
-      </c>
-      <c r="U153">
-        <v>1.825</v>
-      </c>
-      <c r="V153">
-        <v>1.975</v>
-      </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X153">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7047433</v>
+        <v>7047435</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,76 +14174,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M154">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="N154">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O154">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P154">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R154">
+        <v>1.925</v>
+      </c>
+      <c r="S154">
         <v>1.875</v>
       </c>
-      <c r="S154">
-        <v>1.925</v>
-      </c>
       <c r="T154">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y154">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA154">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7047434</v>
+        <v>7047433</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,76 +14352,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H156">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K156">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L156">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N156">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O156">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P156">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q156">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
+        <v>1.875</v>
+      </c>
+      <c r="S156">
+        <v>1.925</v>
+      </c>
+      <c r="T156">
+        <v>3.5</v>
+      </c>
+      <c r="U156">
+        <v>1.85</v>
+      </c>
+      <c r="V156">
         <v>1.95</v>
       </c>
-      <c r="S156">
-        <v>1.85</v>
-      </c>
-      <c r="T156">
-        <v>4</v>
-      </c>
-      <c r="U156">
-        <v>1.875</v>
-      </c>
-      <c r="V156">
-        <v>1.925</v>
-      </c>
       <c r="W156">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>0.925</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.95</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
-      <c r="AB156">
-        <v>0.875</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7047445</v>
+        <v>7047439</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45159.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162">
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K162">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M162">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N162">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O162">
         <v>4</v>
       </c>
       <c r="P162">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB162">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7047439</v>
+        <v>7047445</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,76 +14975,76 @@
         <v>45159.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I163">
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K163">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L163">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M163">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="N163">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O163">
         <v>4</v>
       </c>
       <c r="P163">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
+        <v>1.8</v>
+      </c>
+      <c r="T163">
+        <v>3.25</v>
+      </c>
+      <c r="U163">
+        <v>1.825</v>
+      </c>
+      <c r="V163">
         <v>1.975</v>
       </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
-      <c r="T163">
-        <v>3.75</v>
-      </c>
-      <c r="U163">
-        <v>1.9</v>
-      </c>
-      <c r="V163">
-        <v>1.9</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X163">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA163">
+        <v>-1</v>
+      </c>
+      <c r="AB163">
         <v>0.825</v>
       </c>
-      <c r="AB163">
-        <v>0.45</v>
-      </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7047451</v>
+        <v>7047450</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,58 +15865,58 @@
         <v>45167.375</v>
       </c>
       <c r="F173" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>52</v>
       </c>
       <c r="K173">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L173">
         <v>4</v>
       </c>
       <c r="M173">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N173">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O173">
         <v>4.2</v>
       </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
         <v>3.5</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W173">
-        <v>0.615</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15925,16 +15925,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA173">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7047450</v>
+        <v>7071045</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,58 +15954,58 @@
         <v>45167.375</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H174">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>52</v>
       </c>
       <c r="K174">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N174">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O174">
         <v>4.2</v>
       </c>
       <c r="P174">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R174">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
         <v>3.5</v>
       </c>
       <c r="U174">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>0.7270000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16014,16 +16014,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC174">
-        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7071045</v>
+        <v>7047451</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,13 +16043,13 @@
         <v>45167.375</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G175" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16058,43 +16058,43 @@
         <v>52</v>
       </c>
       <c r="K175">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N175">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O175">
         <v>4.2</v>
       </c>
       <c r="P175">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q175">
         <v>-1</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T175">
         <v>3.5</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>0.5329999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7047459</v>
+        <v>7047462</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,40 +16844,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H184">
         <v>2</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K184">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M184">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N184">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O184">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P184">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R184">
         <v>1.85</v>
@@ -16886,34 +16886,34 @@
         <v>1.95</v>
       </c>
       <c r="T184">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X184">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB184">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7047462</v>
+        <v>7047459</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,40 +16933,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185" t="s">
+        <v>51</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+      <c r="M185">
+        <v>2.9</v>
+      </c>
+      <c r="N185">
+        <v>2.375</v>
+      </c>
+      <c r="O185">
+        <v>4</v>
+      </c>
+      <c r="P185">
+        <v>2.45</v>
+      </c>
+      <c r="Q185">
         <v>0</v>
-      </c>
-      <c r="J185" t="s">
-        <v>52</v>
-      </c>
-      <c r="K185">
-        <v>1.25</v>
-      </c>
-      <c r="L185">
-        <v>5.5</v>
-      </c>
-      <c r="M185">
-        <v>7.5</v>
-      </c>
-      <c r="N185">
-        <v>1.166</v>
-      </c>
-      <c r="O185">
-        <v>7</v>
-      </c>
-      <c r="P185">
-        <v>9.5</v>
-      </c>
-      <c r="Q185">
-        <v>-2.25</v>
       </c>
       <c r="R185">
         <v>1.85</v>
@@ -16975,34 +16975,34 @@
         <v>1.95</v>
       </c>
       <c r="T185">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>-0</v>
+      </c>
+      <c r="AB185">
+        <v>0.4625</v>
+      </c>
+      <c r="AC185">
         <v>-0.5</v>
-      </c>
-      <c r="AA185">
-        <v>0.475</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
-      <c r="AC185">
-        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7047479</v>
+        <v>7047485</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,76 +18802,76 @@
         <v>45194.625</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L206">
         <v>4.333</v>
       </c>
       <c r="M206">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N206">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O206">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P206">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
         <v>4.25</v>
       </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18879,7 +18879,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7047485</v>
+        <v>7047479</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18891,76 +18891,76 @@
         <v>45194.625</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H207">
+        <v>3</v>
+      </c>
+      <c r="I207">
         <v>1</v>
       </c>
-      <c r="I207">
+      <c r="J207" t="s">
+        <v>52</v>
+      </c>
+      <c r="K207">
         <v>2</v>
-      </c>
-      <c r="J207" t="s">
-        <v>53</v>
-      </c>
-      <c r="K207">
-        <v>1.571</v>
       </c>
       <c r="L207">
         <v>4.333</v>
       </c>
       <c r="M207">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N207">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O207">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P207">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q207">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S207">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T207">
         <v>4.25</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA207">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7047484</v>
+        <v>7047483</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18980,76 +18980,76 @@
         <v>45195.375</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G208" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J208" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K208">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L208">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O208">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q208">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
+        <v>1.875</v>
+      </c>
+      <c r="S208">
+        <v>1.925</v>
+      </c>
+      <c r="T208">
+        <v>3.25</v>
+      </c>
+      <c r="U208">
+        <v>1.825</v>
+      </c>
+      <c r="V208">
         <v>1.975</v>
       </c>
-      <c r="S208">
-        <v>1.825</v>
-      </c>
-      <c r="T208">
-        <v>3.75</v>
-      </c>
-      <c r="U208">
-        <v>1.875</v>
-      </c>
-      <c r="V208">
-        <v>1.925</v>
-      </c>
       <c r="W208">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC208">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19057,7 +19057,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7047483</v>
+        <v>7047484</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19069,76 +19069,76 @@
         <v>45195.375</v>
       </c>
       <c r="F209" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K209">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M209">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N209">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O209">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P209">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q209">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R209">
+        <v>1.975</v>
+      </c>
+      <c r="S209">
+        <v>1.825</v>
+      </c>
+      <c r="T209">
+        <v>3.75</v>
+      </c>
+      <c r="U209">
         <v>1.875</v>
       </c>
-      <c r="S209">
+      <c r="V209">
         <v>1.925</v>
       </c>
-      <c r="T209">
-        <v>3.25</v>
-      </c>
-      <c r="U209">
-        <v>1.825</v>
-      </c>
-      <c r="V209">
-        <v>1.975</v>
-      </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
+        <v>0.4125</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.925</v>
-      </c>
-      <c r="AB209">
-        <v>0.825</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -20036,7 +20036,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7047492</v>
+        <v>7047493</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20048,76 +20048,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220" t="s">
+        <v>51</v>
+      </c>
+      <c r="K220">
+        <v>1.615</v>
+      </c>
+      <c r="L220">
+        <v>4.75</v>
+      </c>
+      <c r="M220">
+        <v>3.5</v>
+      </c>
+      <c r="N220">
         <v>3</v>
       </c>
-      <c r="J220" t="s">
-        <v>53</v>
-      </c>
-      <c r="K220">
-        <v>1.909</v>
-      </c>
-      <c r="L220">
+      <c r="O220">
+        <v>4</v>
+      </c>
+      <c r="P220">
+        <v>1.85</v>
+      </c>
+      <c r="Q220">
+        <v>0.5</v>
+      </c>
+      <c r="R220">
+        <v>1.875</v>
+      </c>
+      <c r="S220">
+        <v>1.925</v>
+      </c>
+      <c r="T220">
         <v>3.75</v>
       </c>
-      <c r="M220">
-        <v>3.1</v>
-      </c>
-      <c r="N220">
-        <v>2.3</v>
-      </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
-      <c r="P220">
-        <v>2.4</v>
-      </c>
-      <c r="Q220">
-        <v>0</v>
-      </c>
-      <c r="R220">
-        <v>1.85</v>
-      </c>
-      <c r="S220">
-        <v>1.95</v>
-      </c>
-      <c r="T220">
-        <v>3.25</v>
-      </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y220">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA220">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
+        <v>0.4625</v>
+      </c>
+      <c r="AC220">
         <v>-0.5</v>
-      </c>
-      <c r="AC220">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20125,7 +20125,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7047493</v>
+        <v>7047492</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20137,76 +20137,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M221">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N221">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P221">
+        <v>2.4</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
         <v>1.85</v>
       </c>
-      <c r="Q221">
-        <v>0.5</v>
-      </c>
-      <c r="R221">
-        <v>1.875</v>
-      </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z221">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB221">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20481,7 +20481,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7047499</v>
+        <v>7047501</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20493,58 +20493,58 @@
         <v>45216.375</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H225">
+        <v>3</v>
+      </c>
+      <c r="I225">
         <v>1</v>
-      </c>
-      <c r="I225">
-        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>52</v>
       </c>
       <c r="K225">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M225">
+        <v>1.8</v>
+      </c>
+      <c r="N225">
+        <v>2.05</v>
+      </c>
+      <c r="O225">
+        <v>4.5</v>
+      </c>
+      <c r="P225">
         <v>2.5</v>
       </c>
-      <c r="N225">
-        <v>2.75</v>
-      </c>
-      <c r="O225">
-        <v>3.8</v>
-      </c>
-      <c r="P225">
-        <v>2.1</v>
-      </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S225">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T225">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U225">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W225">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20553,16 +20553,16 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC225">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20570,7 +20570,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7047501</v>
+        <v>7047499</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20582,58 +20582,58 @@
         <v>45216.375</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>52</v>
       </c>
       <c r="K226">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L226">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M226">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N226">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O226">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P226">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U226">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W226">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20642,16 +20642,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7071039</v>
+        <v>7047506</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,73 +21294,73 @@
         <v>45223.375</v>
       </c>
       <c r="F234" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
         <v>4</v>
       </c>
-      <c r="I234">
-        <v>0</v>
-      </c>
       <c r="J234" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K234">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L234">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M234">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N234">
+        <v>4.75</v>
+      </c>
+      <c r="O234">
+        <v>4.5</v>
+      </c>
+      <c r="P234">
+        <v>1.5</v>
+      </c>
+      <c r="Q234">
+        <v>1.25</v>
+      </c>
+      <c r="R234">
+        <v>1.8</v>
+      </c>
+      <c r="S234">
+        <v>2</v>
+      </c>
+      <c r="T234">
+        <v>3.5</v>
+      </c>
+      <c r="U234">
+        <v>1.95</v>
+      </c>
+      <c r="V234">
         <v>1.85</v>
       </c>
-      <c r="O234">
-        <v>4</v>
-      </c>
-      <c r="P234">
-        <v>3.1</v>
-      </c>
-      <c r="Q234">
-        <v>-0.5</v>
-      </c>
-      <c r="R234">
-        <v>1.9</v>
-      </c>
-      <c r="S234">
-        <v>1.9</v>
-      </c>
-      <c r="T234">
-        <v>3.25</v>
-      </c>
-      <c r="U234">
-        <v>1.875</v>
-      </c>
-      <c r="V234">
-        <v>1.925</v>
-      </c>
       <c r="W234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z234">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB234">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -21371,7 +21371,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7047506</v>
+        <v>7071039</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21383,73 +21383,73 @@
         <v>45223.375</v>
       </c>
       <c r="F235" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H235">
+        <v>4</v>
+      </c>
+      <c r="I235">
         <v>0</v>
       </c>
-      <c r="I235">
+      <c r="J235" t="s">
+        <v>52</v>
+      </c>
+      <c r="K235">
+        <v>1.909</v>
+      </c>
+      <c r="L235">
+        <v>3.9</v>
+      </c>
+      <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>1.85</v>
+      </c>
+      <c r="O235">
         <v>4</v>
       </c>
-      <c r="J235" t="s">
-        <v>53</v>
-      </c>
-      <c r="K235">
-        <v>2.3</v>
-      </c>
-      <c r="L235">
-        <v>3.8</v>
-      </c>
-      <c r="M235">
-        <v>2.375</v>
-      </c>
-      <c r="N235">
-        <v>4.75</v>
-      </c>
-      <c r="O235">
-        <v>4.5</v>
-      </c>
       <c r="P235">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T235">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U235">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V235">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -23240,7 +23240,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7047530</v>
+        <v>7047534</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23252,76 +23252,76 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G256" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" t="s">
+        <v>51</v>
+      </c>
+      <c r="K256">
+        <v>2.9</v>
+      </c>
+      <c r="L256">
+        <v>4</v>
+      </c>
+      <c r="M256">
+        <v>1.909</v>
+      </c>
+      <c r="N256">
+        <v>3.1</v>
+      </c>
+      <c r="O256">
+        <v>3.75</v>
+      </c>
+      <c r="P256">
+        <v>1.85</v>
+      </c>
+      <c r="Q256">
+        <v>0.5</v>
+      </c>
+      <c r="R256">
+        <v>1.85</v>
+      </c>
+      <c r="S256">
+        <v>1.95</v>
+      </c>
+      <c r="T256">
         <v>3</v>
       </c>
-      <c r="J256" t="s">
-        <v>53</v>
-      </c>
-      <c r="K256">
-        <v>2.25</v>
-      </c>
-      <c r="L256">
-        <v>3.75</v>
-      </c>
-      <c r="M256">
-        <v>2.5</v>
-      </c>
-      <c r="N256">
-        <v>2.55</v>
-      </c>
-      <c r="O256">
-        <v>3.6</v>
-      </c>
-      <c r="P256">
-        <v>2.2</v>
-      </c>
-      <c r="Q256">
-        <v>0.25</v>
-      </c>
-      <c r="R256">
-        <v>1.775</v>
-      </c>
-      <c r="S256">
-        <v>2.025</v>
-      </c>
-      <c r="T256">
-        <v>3.75</v>
-      </c>
       <c r="U256">
+        <v>1.85</v>
+      </c>
+      <c r="V256">
         <v>1.95</v>
       </c>
-      <c r="V256">
-        <v>1.85</v>
-      </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y256">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA256">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
         <v>-1</v>
       </c>
       <c r="AC256">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23418,7 +23418,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7047534</v>
+        <v>7047530</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23430,76 +23430,76 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G258" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J258" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K258">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M258">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N258">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O258">
+        <v>3.6</v>
+      </c>
+      <c r="P258">
+        <v>2.2</v>
+      </c>
+      <c r="Q258">
+        <v>0.25</v>
+      </c>
+      <c r="R258">
+        <v>1.775</v>
+      </c>
+      <c r="S258">
+        <v>2.025</v>
+      </c>
+      <c r="T258">
         <v>3.75</v>
       </c>
-      <c r="P258">
+      <c r="U258">
+        <v>1.95</v>
+      </c>
+      <c r="V258">
         <v>1.85</v>
       </c>
-      <c r="Q258">
-        <v>0.5</v>
-      </c>
-      <c r="R258">
-        <v>1.85</v>
-      </c>
-      <c r="S258">
-        <v>1.95</v>
-      </c>
-      <c r="T258">
-        <v>3</v>
-      </c>
-      <c r="U258">
-        <v>1.85</v>
-      </c>
-      <c r="V258">
-        <v>1.95</v>
-      </c>
       <c r="W258">
         <v>-1</v>
       </c>
       <c r="X258">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z258">
+        <v>-1</v>
+      </c>
+      <c r="AA258">
+        <v>1.025</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA258">
-        <v>-1</v>
-      </c>
-      <c r="AB258">
-        <v>-1</v>
-      </c>
-      <c r="AC258">
-        <v>0.95</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23685,7 +23685,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7047540</v>
+        <v>7047537</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23697,73 +23697,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F261" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G261" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H261">
+        <v>5</v>
+      </c>
+      <c r="I261">
+        <v>5</v>
+      </c>
+      <c r="J261" t="s">
+        <v>51</v>
+      </c>
+      <c r="K261">
+        <v>1.75</v>
+      </c>
+      <c r="L261">
+        <v>4.2</v>
+      </c>
+      <c r="M261">
+        <v>3.3</v>
+      </c>
+      <c r="N261">
+        <v>1.95</v>
+      </c>
+      <c r="O261">
+        <v>4</v>
+      </c>
+      <c r="P261">
         <v>3</v>
       </c>
-      <c r="I261">
-        <v>1</v>
-      </c>
-      <c r="J261" t="s">
-        <v>52</v>
-      </c>
-      <c r="K261">
-        <v>3.2</v>
-      </c>
-      <c r="L261">
-        <v>4.1</v>
-      </c>
-      <c r="M261">
-        <v>1.8</v>
-      </c>
-      <c r="N261">
-        <v>3.6</v>
-      </c>
-      <c r="O261">
-        <v>4.2</v>
-      </c>
-      <c r="P261">
-        <v>1.7</v>
-      </c>
       <c r="Q261">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S261">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T261">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U261">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V261">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W261">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB261">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7047537</v>
+        <v>7047541</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,73 +23786,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F262" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G262" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H262">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I262">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J262" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K262">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="L262">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M262">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="N262">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="O262">
         <v>4</v>
       </c>
       <c r="P262">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R262">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S262">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T262">
         <v>3.75</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z262">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB262">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7047541</v>
+        <v>7047540</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,73 +23875,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F263" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G263" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H263">
         <v>3</v>
       </c>
       <c r="I263">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K263">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M263">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="N263">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O263">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P263">
+        <v>1.7</v>
+      </c>
+      <c r="Q263">
+        <v>0.75</v>
+      </c>
+      <c r="R263">
+        <v>1.9</v>
+      </c>
+      <c r="S263">
+        <v>1.9</v>
+      </c>
+      <c r="T263">
+        <v>3.5</v>
+      </c>
+      <c r="U263">
         <v>1.8</v>
       </c>
-      <c r="Q263">
-        <v>0.5</v>
-      </c>
-      <c r="R263">
-        <v>1.925</v>
-      </c>
-      <c r="S263">
-        <v>1.875</v>
-      </c>
-      <c r="T263">
-        <v>3.75</v>
-      </c>
-      <c r="U263">
-        <v>1.975</v>
-      </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
+        <v>-1</v>
+      </c>
+      <c r="Z263">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA263">
+        <v>-1</v>
+      </c>
+      <c r="AB263">
         <v>0.8</v>
-      </c>
-      <c r="Z263">
-        <v>-1</v>
-      </c>
-      <c r="AA263">
-        <v>0.875</v>
-      </c>
-      <c r="AB263">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC263">
         <v>-1</v>
@@ -26711,7 +26711,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7047575</v>
+        <v>7047576</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26723,13 +26723,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G295" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295">
         <v>5</v>
@@ -26738,40 +26738,40 @@
         <v>53</v>
       </c>
       <c r="K295">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L295">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M295">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="N295">
+        <v>2.875</v>
+      </c>
+      <c r="O295">
         <v>4</v>
       </c>
-      <c r="O295">
-        <v>5</v>
-      </c>
       <c r="P295">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q295">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R295">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S295">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T295">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U295">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26780,16 +26780,16 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB295">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -26800,7 +26800,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7047576</v>
+        <v>7047575</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26812,13 +26812,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F296" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G296" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296">
         <v>5</v>
@@ -26827,58 +26827,58 @@
         <v>53</v>
       </c>
       <c r="K296">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L296">
+        <v>6</v>
+      </c>
+      <c r="M296">
+        <v>1.25</v>
+      </c>
+      <c r="N296">
         <v>4</v>
       </c>
-      <c r="M296">
-        <v>2.75</v>
-      </c>
-      <c r="N296">
-        <v>2.875</v>
-      </c>
       <c r="O296">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P296">
+        <v>1.5</v>
+      </c>
+      <c r="Q296">
+        <v>1.25</v>
+      </c>
+      <c r="R296">
+        <v>1.85</v>
+      </c>
+      <c r="S296">
         <v>1.95</v>
       </c>
-      <c r="Q296">
+      <c r="T296">
+        <v>3.75</v>
+      </c>
+      <c r="U296">
+        <v>1.9</v>
+      </c>
+      <c r="V296">
+        <v>1.9</v>
+      </c>
+      <c r="W296">
+        <v>-1</v>
+      </c>
+      <c r="X296">
+        <v>-1</v>
+      </c>
+      <c r="Y296">
         <v>0.5</v>
       </c>
-      <c r="R296">
-        <v>1.8</v>
-      </c>
-      <c r="S296">
-        <v>2</v>
-      </c>
-      <c r="T296">
-        <v>3.5</v>
-      </c>
-      <c r="U296">
-        <v>1.925</v>
-      </c>
-      <c r="V296">
-        <v>1.875</v>
-      </c>
-      <c r="W296">
-        <v>-1</v>
-      </c>
-      <c r="X296">
-        <v>-1</v>
-      </c>
-      <c r="Y296">
+      <c r="Z296">
+        <v>-1</v>
+      </c>
+      <c r="AA296">
         <v>0.95</v>
       </c>
-      <c r="Z296">
-        <v>-1</v>
-      </c>
-      <c r="AA296">
-        <v>1</v>
-      </c>
       <c r="AB296">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -27334,7 +27334,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7047585</v>
+        <v>7071030</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27346,76 +27346,76 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G302" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J302" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K302">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L302">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M302">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="N302">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O302">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P302">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q302">
         <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S302">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T302">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U302">
+        <v>1.975</v>
+      </c>
+      <c r="V302">
         <v>1.825</v>
       </c>
-      <c r="V302">
-        <v>1.975</v>
-      </c>
       <c r="W302">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z302">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC302">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27423,7 +27423,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7071030</v>
+        <v>7047585</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27435,76 +27435,76 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G303" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303" t="s">
+        <v>52</v>
+      </c>
+      <c r="K303">
+        <v>4.333</v>
+      </c>
+      <c r="L303">
+        <v>4.333</v>
+      </c>
+      <c r="M303">
+        <v>1.533</v>
+      </c>
+      <c r="N303">
+        <v>1.909</v>
+      </c>
+      <c r="O303">
+        <v>3.8</v>
+      </c>
+      <c r="P303">
         <v>3</v>
-      </c>
-      <c r="J303" t="s">
-        <v>53</v>
-      </c>
-      <c r="K303">
-        <v>2.1</v>
-      </c>
-      <c r="L303">
-        <v>3.75</v>
-      </c>
-      <c r="M303">
-        <v>2.7</v>
-      </c>
-      <c r="N303">
-        <v>2.15</v>
-      </c>
-      <c r="O303">
-        <v>3.6</v>
-      </c>
-      <c r="P303">
-        <v>2.7</v>
       </c>
       <c r="Q303">
         <v>-0.25</v>
       </c>
       <c r="R303">
+        <v>1.75</v>
+      </c>
+      <c r="S303">
+        <v>1.95</v>
+      </c>
+      <c r="T303">
+        <v>3.75</v>
+      </c>
+      <c r="U303">
+        <v>1.825</v>
+      </c>
+      <c r="V303">
         <v>1.975</v>
       </c>
-      <c r="S303">
-        <v>1.825</v>
-      </c>
-      <c r="T303">
-        <v>3.5</v>
-      </c>
-      <c r="U303">
-        <v>1.975</v>
-      </c>
-      <c r="V303">
-        <v>1.825</v>
-      </c>
       <c r="W303">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA303">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
+        <v>-1</v>
+      </c>
+      <c r="AC303">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC303">
-        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27779,7 +27779,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7047597</v>
+        <v>7047598</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27791,76 +27791,76 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G307" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K307">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L307">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M307">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N307">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O307">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P307">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="Q307">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S307">
+        <v>1.8</v>
+      </c>
+      <c r="T307">
+        <v>3.25</v>
+      </c>
+      <c r="U307">
+        <v>1.85</v>
+      </c>
+      <c r="V307">
         <v>1.95</v>
       </c>
-      <c r="T307">
-        <v>3.75</v>
-      </c>
-      <c r="U307">
-        <v>1.95</v>
-      </c>
-      <c r="V307">
-        <v>1.85</v>
-      </c>
       <c r="W307">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC307">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7047598</v>
+        <v>7047597</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,76 +27880,76 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G308" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K308">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L308">
+        <v>4</v>
+      </c>
+      <c r="M308">
+        <v>2.1</v>
+      </c>
+      <c r="N308">
         <v>4.2</v>
       </c>
-      <c r="M308">
-        <v>3.6</v>
-      </c>
-      <c r="N308">
-        <v>2.2</v>
-      </c>
       <c r="O308">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P308">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R308">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S308">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T308">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U308">
+        <v>1.95</v>
+      </c>
+      <c r="V308">
         <v>1.85</v>
       </c>
-      <c r="V308">
-        <v>1.95</v>
-      </c>
       <c r="W308">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X308">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA308">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
+        <v>-1</v>
+      </c>
+      <c r="AC308">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC308">
-        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28224,7 +28224,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7047710</v>
+        <v>7047602</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28236,76 +28236,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G312" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J312" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K312">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L312">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M312">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N312">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O312">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P312">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q312">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R312">
+        <v>1.975</v>
+      </c>
+      <c r="S312">
         <v>1.825</v>
-      </c>
-      <c r="S312">
-        <v>1.975</v>
       </c>
       <c r="T312">
         <v>3.5</v>
       </c>
       <c r="U312">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V312">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W312">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z312">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA312">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB312">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC312">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28313,7 +28313,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7047601</v>
+        <v>7047603</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28325,76 +28325,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G313" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H313">
+        <v>2</v>
+      </c>
+      <c r="I313">
         <v>1</v>
       </c>
-      <c r="I313">
-        <v>2</v>
-      </c>
       <c r="J313" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K313">
+        <v>1.9</v>
+      </c>
+      <c r="L313">
+        <v>4</v>
+      </c>
+      <c r="M313">
+        <v>3</v>
+      </c>
+      <c r="N313">
         <v>1.7</v>
       </c>
-      <c r="L313">
+      <c r="O313">
         <v>4.2</v>
       </c>
-      <c r="M313">
+      <c r="P313">
         <v>3.6</v>
       </c>
-      <c r="N313">
-        <v>1.363</v>
-      </c>
-      <c r="O313">
-        <v>4.75</v>
-      </c>
-      <c r="P313">
-        <v>5.75</v>
-      </c>
       <c r="Q313">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R313">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S313">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T313">
         <v>3.5</v>
       </c>
       <c r="U313">
+        <v>1.975</v>
+      </c>
+      <c r="V313">
         <v>1.825</v>
       </c>
-      <c r="V313">
-        <v>1.975</v>
-      </c>
       <c r="W313">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z313">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA313">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB313">
         <v>-1</v>
       </c>
       <c r="AC313">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28402,7 +28402,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7047602</v>
+        <v>7047601</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28414,76 +28414,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G314" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
         <v>2</v>
       </c>
-      <c r="I314">
-        <v>0</v>
-      </c>
       <c r="J314" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K314">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L314">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M314">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N314">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O314">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P314">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R314">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S314">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T314">
         <v>3.5</v>
       </c>
       <c r="U314">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V314">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X314">
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z314">
+        <v>-1</v>
+      </c>
+      <c r="AA314">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB314">
+        <v>-1</v>
+      </c>
+      <c r="AC314">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA314">
-        <v>-1</v>
-      </c>
-      <c r="AB314">
-        <v>-1</v>
-      </c>
-      <c r="AC314">
-        <v>0.925</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28491,7 +28491,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7047603</v>
+        <v>7047710</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28503,76 +28503,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F315" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G315" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J315" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K315">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="L315">
         <v>4</v>
       </c>
       <c r="M315">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N315">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O315">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P315">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q315">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R315">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S315">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T315">
         <v>3.5</v>
       </c>
       <c r="U315">
+        <v>1.825</v>
+      </c>
+      <c r="V315">
         <v>1.975</v>
       </c>
-      <c r="V315">
-        <v>1.825</v>
-      </c>
       <c r="W315">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X315">
         <v>-1</v>
       </c>
       <c r="Y315">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z315">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC315">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -29114,7 +29114,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7047610</v>
+        <v>7071028</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29126,76 +29126,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F322" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G322" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322">
         <v>2</v>
       </c>
       <c r="J322" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K322">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="L322">
         <v>4.5</v>
       </c>
       <c r="M322">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N322">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O322">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P322">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q322">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R322">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S322">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T322">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U322">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V322">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W322">
         <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y322">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA322">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC322">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29203,7 +29203,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7071028</v>
+        <v>7047610</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29215,76 +29215,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F323" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G323" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323">
         <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K323">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="L323">
         <v>4.5</v>
       </c>
       <c r="M323">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N323">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O323">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P323">
+        <v>4</v>
+      </c>
+      <c r="Q323">
+        <v>-1</v>
+      </c>
+      <c r="R323">
+        <v>1.825</v>
+      </c>
+      <c r="S323">
+        <v>1.975</v>
+      </c>
+      <c r="T323">
+        <v>3.25</v>
+      </c>
+      <c r="U323">
+        <v>1.85</v>
+      </c>
+      <c r="V323">
         <v>1.95</v>
       </c>
-      <c r="Q323">
-        <v>0.5</v>
-      </c>
-      <c r="R323">
-        <v>1.8</v>
-      </c>
-      <c r="S323">
-        <v>2</v>
-      </c>
-      <c r="T323">
-        <v>3.5</v>
-      </c>
-      <c r="U323">
-        <v>1.875</v>
-      </c>
-      <c r="V323">
-        <v>1.925</v>
-      </c>
       <c r="W323">
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z323">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB323">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC323">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="324" spans="1:29">

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5434331</v>
+        <v>5432872</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,40 +2871,40 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
         <v>4.2</v>
       </c>
       <c r="M27">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P27">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
         <v>1.9</v>
@@ -2913,34 +2913,34 @@
         <v>1.9</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5432872</v>
+        <v>5434331</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,40 +2960,40 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L28">
         <v>4.2</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="N28">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q28">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <v>1.9</v>
@@ -3002,34 +3002,34 @@
         <v>1.9</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.45</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
-      </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3215,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5432875</v>
+        <v>5432873</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3227,76 +3227,76 @@
         <v>44970.66666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L31">
         <v>4.2</v>
       </c>
       <c r="M31">
+        <v>3.75</v>
+      </c>
+      <c r="N31">
+        <v>1.75</v>
+      </c>
+      <c r="O31">
+        <v>3.75</v>
+      </c>
+      <c r="P31">
+        <v>3.6</v>
+      </c>
+      <c r="Q31">
+        <v>-0.5</v>
+      </c>
+      <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
+        <v>1.975</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>1.75</v>
+      </c>
+      <c r="V31">
         <v>1.95</v>
       </c>
-      <c r="N31">
-        <v>2.625</v>
-      </c>
-      <c r="O31">
-        <v>4</v>
-      </c>
-      <c r="P31">
-        <v>2.05</v>
-      </c>
-      <c r="Q31">
-        <v>0.25</v>
-      </c>
-      <c r="R31">
-        <v>1.925</v>
-      </c>
-      <c r="S31">
-        <v>1.875</v>
-      </c>
-      <c r="T31">
-        <v>3.25</v>
-      </c>
-      <c r="U31">
-        <v>1.775</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5432873</v>
+        <v>5432875</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3316,76 +3316,76 @@
         <v>44970.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L32">
         <v>4.2</v>
       </c>
       <c r="M32">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N32">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U32">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5434322</v>
+        <v>5432877</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,49 +3939,49 @@
         <v>44977.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="N39">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O39">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P39">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="Q39">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
         <v>1.75</v>
@@ -3990,25 +3990,25 @@
         <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5432877</v>
+        <v>5434322</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,49 +4028,49 @@
         <v>44977.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>0</v>
       </c>
-      <c r="I40">
+      <c r="J40" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>1.2</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>9</v>
+      </c>
+      <c r="N40">
+        <v>1.333</v>
+      </c>
+      <c r="O40">
+        <v>4.75</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+      <c r="Q40">
+        <v>-1.5</v>
+      </c>
+      <c r="R40">
+        <v>1.9</v>
+      </c>
+      <c r="S40">
+        <v>1.9</v>
+      </c>
+      <c r="T40">
         <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40">
-        <v>2.5</v>
-      </c>
-      <c r="L40">
-        <v>4.5</v>
-      </c>
-      <c r="M40">
-        <v>2.05</v>
-      </c>
-      <c r="N40">
-        <v>3.3</v>
-      </c>
-      <c r="O40">
-        <v>5</v>
-      </c>
-      <c r="P40">
-        <v>1.666</v>
-      </c>
-      <c r="Q40">
-        <v>0.75</v>
-      </c>
-      <c r="R40">
-        <v>1.95</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
-      </c>
-      <c r="T40">
-        <v>3.25</v>
       </c>
       <c r="U40">
         <v>1.75</v>
@@ -4079,25 +4079,25 @@
         <v>1.95</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5432878</v>
+        <v>5434321</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>44978.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M42">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N42">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O42">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P42">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5434321</v>
+        <v>5432878</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,76 +4295,76 @@
         <v>44978.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="L43">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M43">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N43">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O43">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P43">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y43">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5434315</v>
+        <v>5434316</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,76 +4829,76 @@
         <v>44985.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K49">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>1.571</v>
+      </c>
+      <c r="N49">
+        <v>2.625</v>
+      </c>
+      <c r="O49">
         <v>3.75</v>
       </c>
-      <c r="M49">
-        <v>3.3</v>
-      </c>
-      <c r="N49">
-        <v>3.4</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
       <c r="P49">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q49">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z49">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC49">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5434316</v>
+        <v>5434315</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,76 +4918,76 @@
         <v>44985.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50">
+        <v>1.833</v>
+      </c>
+      <c r="L50">
+        <v>3.75</v>
+      </c>
+      <c r="M50">
+        <v>3.3</v>
+      </c>
+      <c r="N50">
+        <v>3.4</v>
+      </c>
+      <c r="O50">
         <v>4</v>
       </c>
-      <c r="J50" t="s">
-        <v>53</v>
-      </c>
-      <c r="K50">
-        <v>4.2</v>
-      </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
-      <c r="M50">
-        <v>1.571</v>
-      </c>
-      <c r="N50">
-        <v>2.625</v>
-      </c>
-      <c r="O50">
-        <v>3.75</v>
-      </c>
       <c r="P50">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6134949</v>
+        <v>6159600</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6342,46 +6342,46 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="N66">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O66">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P66">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T66">
         <v>3</v>
@@ -6393,19 +6393,19 @@
         <v>1.925</v>
       </c>
       <c r="W66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6174295</v>
+        <v>6134949</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6431,76 +6431,76 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K67">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="L67">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M67">
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P67">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X67">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6508,7 +6508,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6159600</v>
+        <v>6174295</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6520,40 +6520,40 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="N68">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6562,34 +6562,34 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y68">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7220,7 +7220,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5434300</v>
+        <v>5432888</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7232,76 +7232,76 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N76">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P76">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U76">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5432888</v>
+        <v>5434300</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>45006.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
         <v>2</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
       <c r="J78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K78">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L78">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="O78">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V78">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W78">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -9089,7 +9089,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6174296</v>
+        <v>5434291</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9101,73 +9101,73 @@
         <v>45027.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>51</v>
+      </c>
+      <c r="K97">
         <v>3</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97" t="s">
-        <v>52</v>
-      </c>
-      <c r="K97">
-        <v>1.833</v>
-      </c>
       <c r="L97">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="N97">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O97">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T97">
         <v>3.5</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB97">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9178,7 +9178,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5434291</v>
+        <v>6174296</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9190,73 +9190,73 @@
         <v>45027.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K98">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M98">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N98">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P98">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
         <v>3.5</v>
       </c>
       <c r="U98">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5432895</v>
+        <v>5434288</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,76 +9813,76 @@
         <v>45033.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K105">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
+        <v>2.3</v>
+      </c>
+      <c r="N105">
+        <v>2.75</v>
+      </c>
+      <c r="O105">
+        <v>3.75</v>
+      </c>
+      <c r="P105">
         <v>2.1</v>
       </c>
-      <c r="N105">
-        <v>4.75</v>
-      </c>
-      <c r="O105">
-        <v>4.333</v>
-      </c>
-      <c r="P105">
-        <v>1.5</v>
-      </c>
       <c r="Q105">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
+        <v>1.875</v>
+      </c>
+      <c r="S105">
         <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.875</v>
       </c>
       <c r="T105">
         <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.625</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X105">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5434288</v>
+        <v>5432895</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,76 +9902,76 @@
         <v>45033.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M106">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N106">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P106">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R106">
+        <v>1.925</v>
+      </c>
+      <c r="S106">
         <v>1.875</v>
-      </c>
-      <c r="S106">
-        <v>1.925</v>
       </c>
       <c r="T106">
         <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.625</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -11136,7 +11136,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5434277</v>
+        <v>5434278</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11148,58 +11148,58 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>52</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L120">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M120">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
+        <v>1.285</v>
+      </c>
+      <c r="O120">
+        <v>5.5</v>
+      </c>
+      <c r="P120">
+        <v>6.5</v>
+      </c>
+      <c r="Q120">
+        <v>-1.75</v>
+      </c>
+      <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
+        <v>2</v>
+      </c>
+      <c r="T120">
+        <v>3.75</v>
+      </c>
+      <c r="U120">
+        <v>1.85</v>
+      </c>
+      <c r="V120">
         <v>1.95</v>
       </c>
-      <c r="O120">
-        <v>3.75</v>
-      </c>
-      <c r="P120">
-        <v>3</v>
-      </c>
-      <c r="Q120">
-        <v>-0.25</v>
-      </c>
-      <c r="R120">
-        <v>1.925</v>
-      </c>
-      <c r="S120">
-        <v>1.875</v>
-      </c>
-      <c r="T120">
-        <v>3.25</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>0.95</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11208,13 +11208,13 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11225,7 +11225,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5434278</v>
+        <v>5434277</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11237,58 +11237,58 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>52</v>
       </c>
       <c r="K121">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M121">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N121">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q121">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
+        <v>1.95</v>
+      </c>
+      <c r="V121">
         <v>1.85</v>
       </c>
-      <c r="V121">
-        <v>1.95</v>
-      </c>
       <c r="W121">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11297,13 +11297,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11848,7 +11848,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5432901</v>
+        <v>5432900</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11860,76 +11860,76 @@
         <v>45047.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K128">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L128">
         <v>4.333</v>
       </c>
       <c r="M128">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N128">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="O128">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P128">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T128">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC128">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12026,7 +12026,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5432900</v>
+        <v>5432901</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12038,76 +12038,76 @@
         <v>45047.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L130">
         <v>4.333</v>
       </c>
       <c r="M130">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N130">
+        <v>2.05</v>
+      </c>
+      <c r="O130">
+        <v>4.2</v>
+      </c>
+      <c r="P130">
+        <v>2.7</v>
+      </c>
+      <c r="Q130">
+        <v>-0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.875</v>
+      </c>
+      <c r="S130">
+        <v>1.925</v>
+      </c>
+      <c r="T130">
         <v>3.25</v>
       </c>
-      <c r="O130">
-        <v>4.5</v>
-      </c>
-      <c r="P130">
-        <v>1.8</v>
-      </c>
-      <c r="Q130">
-        <v>0.5</v>
-      </c>
-      <c r="R130">
-        <v>1.925</v>
-      </c>
-      <c r="S130">
-        <v>1.775</v>
-      </c>
-      <c r="T130">
-        <v>3.75</v>
-      </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5434268</v>
+        <v>6126109</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,55 +12572,55 @@
         <v>45051.375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>53</v>
       </c>
       <c r="K136">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P136">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12629,19 +12629,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6126109</v>
+        <v>5434268</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45051.375</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
         <v>53</v>
       </c>
       <c r="K137">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="N137">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O137">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
+        <v>1.85</v>
+      </c>
+      <c r="T137">
+        <v>3.25</v>
+      </c>
+      <c r="U137">
+        <v>1.85</v>
+      </c>
+      <c r="V137">
+        <v>1.95</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
         <v>1.8</v>
       </c>
-      <c r="T137">
-        <v>3.5</v>
-      </c>
-      <c r="U137">
-        <v>1.825</v>
-      </c>
-      <c r="V137">
-        <v>1.975</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>1.3</v>
-      </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5434266</v>
+        <v>5432906</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12839,73 +12839,73 @@
         <v>45055.375</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L139">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N139">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P139">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12916,7 +12916,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5432906</v>
+        <v>5432907</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12928,13 +12928,13 @@
         <v>45055.375</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>3</v>
@@ -12943,40 +12943,40 @@
         <v>53</v>
       </c>
       <c r="K140">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L140">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N140">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12985,16 +12985,16 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5432907</v>
+        <v>5434266</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,73 +13017,73 @@
         <v>45055.375</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H141">
+        <v>4</v>
+      </c>
+      <c r="I141">
         <v>2</v>
       </c>
-      <c r="I141">
-        <v>3</v>
-      </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L141">
+        <v>4.333</v>
+      </c>
+      <c r="M141">
         <v>4</v>
       </c>
-      <c r="M141">
-        <v>2.375</v>
-      </c>
       <c r="N141">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O141">
         <v>4</v>
       </c>
       <c r="P141">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
         <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7047431</v>
+        <v>7067620</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,58 +13907,58 @@
         <v>45153.375</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G151" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>4</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>52</v>
       </c>
       <c r="K151">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L151">
+        <v>3.75</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
         <v>3.6</v>
       </c>
-      <c r="M151">
-        <v>2.1</v>
-      </c>
-      <c r="N151">
-        <v>2.75</v>
-      </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P151">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
         <v>3.5</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13967,13 +13967,13 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7067620</v>
+        <v>7047431</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,58 +13996,58 @@
         <v>45153.375</v>
       </c>
       <c r="F152" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H152">
         <v>4</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>52</v>
       </c>
       <c r="K152">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N152">
+        <v>2.75</v>
+      </c>
+      <c r="O152">
         <v>3.6</v>
       </c>
-      <c r="O152">
-        <v>4</v>
-      </c>
       <c r="P152">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>3.5</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14056,13 +14056,13 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7047434</v>
+        <v>7047435</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,73 +14085,73 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H153">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K153">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="L153">
+        <v>4.75</v>
+      </c>
+      <c r="M153">
+        <v>1.444</v>
+      </c>
+      <c r="N153">
         <v>5</v>
       </c>
-      <c r="M153">
-        <v>5.5</v>
-      </c>
-      <c r="N153">
+      <c r="O153">
+        <v>4.75</v>
+      </c>
+      <c r="P153">
+        <v>1.45</v>
+      </c>
+      <c r="Q153">
         <v>1.25</v>
       </c>
-      <c r="O153">
-        <v>6.5</v>
-      </c>
-      <c r="P153">
-        <v>7</v>
-      </c>
-      <c r="Q153">
-        <v>-2</v>
-      </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T153">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7047435</v>
+        <v>7047434</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,73 +14174,73 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K154">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="L154">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M154">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="N154">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="O154">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P154">
-        <v>1.45</v>
+        <v>7</v>
       </c>
       <c r="Q154">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>4</v>
+      </c>
+      <c r="U154">
+        <v>1.875</v>
+      </c>
+      <c r="V154">
         <v>1.925</v>
       </c>
-      <c r="S154">
-        <v>1.875</v>
-      </c>
-      <c r="T154">
-        <v>3.25</v>
-      </c>
-      <c r="U154">
-        <v>1.825</v>
-      </c>
-      <c r="V154">
-        <v>1.975</v>
-      </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X154">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14251,7 +14251,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7046797</v>
+        <v>7047433</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14263,40 +14263,40 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K155">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L155">
         <v>4.5</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N155">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O155">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P155">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R155">
         <v>1.875</v>
@@ -14305,34 +14305,34 @@
         <v>1.925</v>
       </c>
       <c r="T155">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z155">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7047433</v>
+        <v>7046797</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,40 +14352,40 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
         <v>0</v>
       </c>
-      <c r="I156">
-        <v>3</v>
-      </c>
       <c r="J156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L156">
         <v>4.5</v>
       </c>
       <c r="M156">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N156">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O156">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P156">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
         <v>1.875</v>
@@ -14394,34 +14394,34 @@
         <v>1.925</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA156">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7047440</v>
+        <v>7047445</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,58 +14797,58 @@
         <v>45159.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H161">
         <v>3</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>52</v>
       </c>
       <c r="K161">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L161">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N161">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O161">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P161">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q161">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S161">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
-        <v>0.45</v>
+        <v>1.15</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14857,13 +14857,13 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7047445</v>
+        <v>7047440</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,58 +14975,58 @@
         <v>45159.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>3</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>52</v>
       </c>
       <c r="K163">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M163">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N163">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P163">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T163">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
-        <v>1.15</v>
+        <v>0.45</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15035,13 +15035,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7071045</v>
+        <v>7047451</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,13 +15954,13 @@
         <v>45167.375</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G174" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -15969,43 +15969,43 @@
         <v>52</v>
       </c>
       <c r="K174">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N174">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O174">
         <v>4.2</v>
       </c>
       <c r="P174">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q174">
         <v>-1</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
         <v>3.5</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>0.5329999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16014,16 +16014,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7047451</v>
+        <v>7071045</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,13 +16043,13 @@
         <v>45167.375</v>
       </c>
       <c r="F175" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16058,43 +16058,43 @@
         <v>52</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M175">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N175">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O175">
         <v>4.2</v>
       </c>
       <c r="P175">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q175">
         <v>-1</v>
       </c>
       <c r="R175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
         <v>3.5</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>0.615</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7047452</v>
+        <v>7047704</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,73 +16132,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>7</v>
+      </c>
+      <c r="J176" t="s">
+        <v>53</v>
+      </c>
+      <c r="K176">
+        <v>2.55</v>
+      </c>
+      <c r="L176">
         <v>4</v>
       </c>
-      <c r="I176">
+      <c r="M176">
+        <v>2.15</v>
+      </c>
+      <c r="N176">
+        <v>6</v>
+      </c>
+      <c r="O176">
+        <v>6</v>
+      </c>
+      <c r="P176">
+        <v>1.285</v>
+      </c>
+      <c r="Q176">
         <v>2</v>
       </c>
-      <c r="J176" t="s">
-        <v>52</v>
-      </c>
-      <c r="K176">
+      <c r="R176">
+        <v>1.775</v>
+      </c>
+      <c r="S176">
+        <v>1.925</v>
+      </c>
+      <c r="T176">
+        <v>4</v>
+      </c>
+      <c r="U176">
         <v>1.75</v>
       </c>
-      <c r="L176">
-        <v>4.2</v>
-      </c>
-      <c r="M176">
-        <v>3.3</v>
-      </c>
-      <c r="N176">
-        <v>1.615</v>
-      </c>
-      <c r="O176">
-        <v>4.333</v>
-      </c>
-      <c r="P176">
-        <v>3.6</v>
-      </c>
-      <c r="Q176">
-        <v>-1</v>
-      </c>
-      <c r="R176">
-        <v>1.925</v>
-      </c>
-      <c r="S176">
-        <v>1.775</v>
-      </c>
-      <c r="T176">
-        <v>3.75</v>
-      </c>
-      <c r="U176">
-        <v>1.825</v>
-      </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
         <v>0.925</v>
       </c>
-      <c r="AA176">
-        <v>-1</v>
-      </c>
       <c r="AB176">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7047704</v>
+        <v>7047452</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,73 +16221,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I177">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K177">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M177">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N177">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O177">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P177">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R177">
+        <v>1.925</v>
+      </c>
+      <c r="S177">
         <v>1.775</v>
       </c>
-      <c r="S177">
-        <v>1.925</v>
-      </c>
       <c r="T177">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U177">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7047461</v>
+        <v>7047460</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,31 +17022,31 @@
         <v>45174.375</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
         <v>52</v>
       </c>
       <c r="K186">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L186">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M186">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N186">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O186">
         <v>4</v>
@@ -17067,13 +17067,13 @@
         <v>3.75</v>
       </c>
       <c r="U186">
+        <v>1.925</v>
+      </c>
+      <c r="V186">
         <v>1.875</v>
       </c>
-      <c r="V186">
-        <v>1.925</v>
-      </c>
       <c r="W186">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17091,7 +17091,7 @@
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7071044</v>
+        <v>7047461</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,76 +17111,76 @@
         <v>45174.375</v>
       </c>
       <c r="F187" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K187">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L187">
+        <v>4.2</v>
+      </c>
+      <c r="M187">
+        <v>2.45</v>
+      </c>
+      <c r="N187">
+        <v>2.375</v>
+      </c>
+      <c r="O187">
         <v>4</v>
       </c>
-      <c r="M187">
-        <v>2.3</v>
-      </c>
-      <c r="N187">
-        <v>1.65</v>
-      </c>
-      <c r="O187">
-        <v>4.2</v>
-      </c>
       <c r="P187">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S187">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X187">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA187">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7047460</v>
+        <v>7071044</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45174.375</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M188">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N188">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O188">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P188">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7047471</v>
+        <v>7047469</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,76 +17912,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
         <v>3</v>
       </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
       <c r="J196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K196">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L196">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M196">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="N196">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O196">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P196">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T196">
         <v>3.75</v>
       </c>
       <c r="U196">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7047469</v>
+        <v>7047470</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,55 +18001,55 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G197" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J197" t="s">
         <v>53</v>
       </c>
       <c r="K197">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L197">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M197">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="N197">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O197">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P197">
+        <v>1.533</v>
+      </c>
+      <c r="Q197">
+        <v>1</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
         <v>1.8</v>
       </c>
-      <c r="Q197">
-        <v>0.5</v>
-      </c>
-      <c r="R197">
-        <v>1.925</v>
-      </c>
-      <c r="S197">
-        <v>1.775</v>
-      </c>
       <c r="T197">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U197">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -18058,16 +18058,16 @@
         <v>-1</v>
       </c>
       <c r="Y197">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
         <v>0.8</v>
       </c>
-      <c r="Z197">
-        <v>-1</v>
-      </c>
-      <c r="AA197">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB197">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7047470</v>
+        <v>7047471</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,76 +18090,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I198">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K198">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L198">
         <v>4.5</v>
       </c>
       <c r="M198">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="N198">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="O198">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P198">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="Q198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA198">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18612,7 +18612,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7047481</v>
+        <v>7047478</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18624,76 +18624,76 @@
         <v>45194.375</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K204">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L204">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N204">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="O204">
         <v>5.25</v>
       </c>
       <c r="P204">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q204">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S204">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
         <v>4</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7047478</v>
+        <v>7047481</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,76 +18713,76 @@
         <v>45194.375</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
         <v>0</v>
       </c>
-      <c r="I205">
-        <v>1</v>
-      </c>
       <c r="J205" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K205">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N205">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O205">
         <v>5.25</v>
       </c>
       <c r="P205">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R205">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
         <v>4</v>
       </c>
       <c r="U205">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA205">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7047483</v>
+        <v>7071042</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18980,76 +18980,76 @@
         <v>45195.375</v>
       </c>
       <c r="F208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G208" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K208">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M208">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N208">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O208">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P208">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
+        <v>1.925</v>
+      </c>
+      <c r="S208">
         <v>1.875</v>
-      </c>
-      <c r="S208">
-        <v>1.925</v>
       </c>
       <c r="T208">
         <v>3.25</v>
       </c>
       <c r="U208">
+        <v>1.975</v>
+      </c>
+      <c r="V208">
         <v>1.825</v>
       </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA208">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.825</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7071042</v>
+        <v>7047483</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,76 +19158,76 @@
         <v>45195.375</v>
       </c>
       <c r="F210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J210" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K210">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L210">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M210">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N210">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O210">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P210">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
+        <v>1.875</v>
+      </c>
+      <c r="S210">
         <v>1.925</v>
-      </c>
-      <c r="S210">
-        <v>1.875</v>
       </c>
       <c r="T210">
         <v>3.25</v>
       </c>
       <c r="U210">
+        <v>1.825</v>
+      </c>
+      <c r="V210">
         <v>1.975</v>
       </c>
-      <c r="V210">
-        <v>1.825</v>
-      </c>
       <c r="W210">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
         <v>0.925</v>
       </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19858,7 +19858,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7047491</v>
+        <v>7047490</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19870,13 +19870,13 @@
         <v>45202.375</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H218">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -19885,43 +19885,43 @@
         <v>52</v>
       </c>
       <c r="K218">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L218">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M218">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N218">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O218">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P218">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R218">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U218">
+        <v>1.85</v>
+      </c>
+      <c r="V218">
         <v>1.95</v>
       </c>
-      <c r="V218">
-        <v>1.85</v>
-      </c>
       <c r="W218">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19930,13 +19930,13 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB218">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC218">
         <v>-1</v>
@@ -19947,7 +19947,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7047490</v>
+        <v>7047491</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19959,13 +19959,13 @@
         <v>45202.375</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G219" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I219">
         <v>2</v>
@@ -19974,43 +19974,43 @@
         <v>52</v>
       </c>
       <c r="K219">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L219">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M219">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N219">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O219">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P219">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q219">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S219">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T219">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U219">
+        <v>1.95</v>
+      </c>
+      <c r="V219">
         <v>1.85</v>
       </c>
-      <c r="V219">
-        <v>1.95</v>
-      </c>
       <c r="W219">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20019,13 +20019,13 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC219">
         <v>-1</v>
@@ -21104,7 +21104,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7047507</v>
+        <v>7071039</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21116,76 +21116,76 @@
         <v>45223.375</v>
       </c>
       <c r="F232" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K232">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>3.9</v>
       </c>
       <c r="M232">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N232">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O232">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P232">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q232">
         <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S232">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T232">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U232">
+        <v>1.875</v>
+      </c>
+      <c r="V232">
         <v>1.925</v>
       </c>
-      <c r="V232">
-        <v>1.875</v>
-      </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X232">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7047505</v>
+        <v>7047506</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,46 +21205,46 @@
         <v>45223.375</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G233" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233">
+        <v>4</v>
+      </c>
+      <c r="J233" t="s">
+        <v>53</v>
+      </c>
+      <c r="K233">
+        <v>2.3</v>
+      </c>
+      <c r="L233">
+        <v>3.8</v>
+      </c>
+      <c r="M233">
+        <v>2.375</v>
+      </c>
+      <c r="N233">
+        <v>4.75</v>
+      </c>
+      <c r="O233">
+        <v>4.5</v>
+      </c>
+      <c r="P233">
+        <v>1.5</v>
+      </c>
+      <c r="Q233">
+        <v>1.25</v>
+      </c>
+      <c r="R233">
+        <v>1.8</v>
+      </c>
+      <c r="S233">
         <v>2</v>
-      </c>
-      <c r="J233" t="s">
-        <v>52</v>
-      </c>
-      <c r="K233">
-        <v>1.8</v>
-      </c>
-      <c r="L233">
-        <v>4</v>
-      </c>
-      <c r="M233">
-        <v>3.25</v>
-      </c>
-      <c r="N233">
-        <v>1.7</v>
-      </c>
-      <c r="O233">
-        <v>4.2</v>
-      </c>
-      <c r="P233">
-        <v>3.8</v>
-      </c>
-      <c r="Q233">
-        <v>-0.75</v>
-      </c>
-      <c r="R233">
-        <v>1.875</v>
-      </c>
-      <c r="S233">
-        <v>1.925</v>
       </c>
       <c r="T233">
         <v>3.5</v>
@@ -21256,19 +21256,19 @@
         <v>1.85</v>
       </c>
       <c r="W233">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z233">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB233">
         <v>0.95</v>
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7047506</v>
+        <v>7047505</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,46 +21294,46 @@
         <v>45223.375</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234" t="s">
+        <v>52</v>
+      </c>
+      <c r="K234">
+        <v>1.8</v>
+      </c>
+      <c r="L234">
         <v>4</v>
       </c>
-      <c r="J234" t="s">
-        <v>53</v>
-      </c>
-      <c r="K234">
-        <v>2.3</v>
-      </c>
-      <c r="L234">
+      <c r="M234">
+        <v>3.25</v>
+      </c>
+      <c r="N234">
+        <v>1.7</v>
+      </c>
+      <c r="O234">
+        <v>4.2</v>
+      </c>
+      <c r="P234">
         <v>3.8</v>
       </c>
-      <c r="M234">
-        <v>2.375</v>
-      </c>
-      <c r="N234">
-        <v>4.75</v>
-      </c>
-      <c r="O234">
-        <v>4.5</v>
-      </c>
-      <c r="P234">
-        <v>1.5</v>
-      </c>
       <c r="Q234">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
         <v>3.5</v>
@@ -21345,19 +21345,19 @@
         <v>1.85</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA234">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB234">
         <v>0.95</v>
@@ -21371,7 +21371,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7071039</v>
+        <v>7047507</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21383,76 +21383,76 @@
         <v>45223.375</v>
       </c>
       <c r="F235" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K235">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L235">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="M235">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N235">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O235">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q235">
         <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S235">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U235">
+        <v>1.925</v>
+      </c>
+      <c r="V235">
         <v>1.875</v>
       </c>
-      <c r="V235">
-        <v>1.925</v>
-      </c>
       <c r="W235">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB235">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21816,7 +21816,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7047515</v>
+        <v>7047512</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21828,49 +21828,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K240">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L240">
         <v>4.5</v>
       </c>
       <c r="M240">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N240">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O240">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P240">
         <v>5</v>
       </c>
       <c r="Q240">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R240">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U240">
         <v>1.9</v>
@@ -21879,25 +21879,25 @@
         <v>1.9</v>
       </c>
       <c r="W240">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
+        <v>-1</v>
+      </c>
+      <c r="AA240">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB240">
+        <v>0.45</v>
+      </c>
+      <c r="AC240">
         <v>-0.5</v>
-      </c>
-      <c r="AA240">
-        <v>0.425</v>
-      </c>
-      <c r="AB240">
-        <v>-1</v>
-      </c>
-      <c r="AC240">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21905,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7047512</v>
+        <v>7047515</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21917,49 +21917,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G241" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H241">
         <v>2</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K241">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L241">
         <v>4.5</v>
       </c>
       <c r="M241">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N241">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O241">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P241">
         <v>5</v>
       </c>
       <c r="Q241">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T241">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U241">
         <v>1.9</v>
@@ -21968,25 +21968,25 @@
         <v>1.9</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X241">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA241">
+        <v>0.425</v>
+      </c>
+      <c r="AB241">
+        <v>-1</v>
+      </c>
+      <c r="AC241">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB241">
-        <v>0.45</v>
-      </c>
-      <c r="AC241">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22350,7 +22350,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7047522</v>
+        <v>7047523</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22362,56 +22362,56 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G246" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J246" t="s">
         <v>53</v>
       </c>
       <c r="K246">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L246">
         <v>4.2</v>
       </c>
       <c r="M246">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N246">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="O246">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P246">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="Q246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T246">
         <v>3.75</v>
       </c>
       <c r="U246">
+        <v>1.925</v>
+      </c>
+      <c r="V246">
         <v>1.875</v>
       </c>
-      <c r="V246">
-        <v>1.925</v>
-      </c>
       <c r="W246">
         <v>-1</v>
       </c>
@@ -22419,19 +22419,19 @@
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="Z246">
         <v>-1</v>
       </c>
       <c r="AA246">
+        <v>0.75</v>
+      </c>
+      <c r="AB246">
         <v>0.925</v>
       </c>
-      <c r="AB246">
-        <v>-1</v>
-      </c>
       <c r="AC246">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22439,7 +22439,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7047523</v>
+        <v>7047522</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22451,56 +22451,56 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
         <v>53</v>
       </c>
       <c r="K247">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L247">
         <v>4.2</v>
       </c>
       <c r="M247">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N247">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O247">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P247">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R247">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S247">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T247">
         <v>3.75</v>
       </c>
       <c r="U247">
+        <v>1.875</v>
+      </c>
+      <c r="V247">
         <v>1.925</v>
       </c>
-      <c r="V247">
-        <v>1.875</v>
-      </c>
       <c r="W247">
         <v>-1</v>
       </c>
@@ -22508,19 +22508,19 @@
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB247">
+        <v>-1</v>
+      </c>
+      <c r="AC247">
         <v>0.925</v>
-      </c>
-      <c r="AC247">
-        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22617,7 +22617,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7047524</v>
+        <v>7047521</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22629,58 +22629,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H249">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="s">
         <v>52</v>
       </c>
       <c r="K249">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M249">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N249">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="O249">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P249">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q249">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R249">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S249">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T249">
         <v>3.75</v>
       </c>
       <c r="U249">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W249">
-        <v>0.25</v>
+        <v>1.9</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22689,16 +22689,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7047521</v>
+        <v>7047524</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,58 +22718,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G250" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
         <v>52</v>
       </c>
       <c r="K250">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L250">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M250">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N250">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="O250">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P250">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="Q250">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R250">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
         <v>3.75</v>
       </c>
       <c r="U250">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V250">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
-        <v>1.9</v>
+        <v>0.25</v>
       </c>
       <c r="X250">
         <v>-1</v>
@@ -22778,16 +22778,16 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC250">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -23240,7 +23240,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7047534</v>
+        <v>7047533</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23252,10 +23252,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G256" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -23267,61 +23267,61 @@
         <v>51</v>
       </c>
       <c r="K256">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L256">
         <v>4</v>
       </c>
       <c r="M256">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N256">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O256">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P256">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q256">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R256">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S256">
         <v>1.95</v>
       </c>
       <c r="T256">
+        <v>3.75</v>
+      </c>
+      <c r="U256">
+        <v>1.95</v>
+      </c>
+      <c r="V256">
+        <v>1.85</v>
+      </c>
+      <c r="W256">
+        <v>-1</v>
+      </c>
+      <c r="X256">
         <v>3</v>
       </c>
-      <c r="U256">
-        <v>1.85</v>
-      </c>
-      <c r="V256">
-        <v>1.95</v>
-      </c>
-      <c r="W256">
-        <v>-1</v>
-      </c>
-      <c r="X256">
-        <v>2.75</v>
-      </c>
       <c r="Y256">
         <v>-1</v>
       </c>
       <c r="Z256">
+        <v>-0.5</v>
+      </c>
+      <c r="AA256">
+        <v>0.475</v>
+      </c>
+      <c r="AB256">
+        <v>-1</v>
+      </c>
+      <c r="AC256">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA256">
-        <v>-1</v>
-      </c>
-      <c r="AB256">
-        <v>-1</v>
-      </c>
-      <c r="AC256">
-        <v>0.95</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23329,7 +23329,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7047533</v>
+        <v>7047534</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23341,10 +23341,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23356,61 +23356,61 @@
         <v>51</v>
       </c>
       <c r="K257">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L257">
         <v>4</v>
       </c>
       <c r="M257">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N257">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O257">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q257">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R257">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S257">
         <v>1.95</v>
       </c>
       <c r="T257">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U257">
+        <v>1.85</v>
+      </c>
+      <c r="V257">
         <v>1.95</v>
       </c>
-      <c r="V257">
-        <v>1.85</v>
-      </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA257">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
         <v>-1</v>
       </c>
       <c r="AC257">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7047541</v>
+        <v>7047540</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,73 +23786,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F262" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G262" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H262">
         <v>3</v>
       </c>
       <c r="I262">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K262">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M262">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="N262">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O262">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P262">
+        <v>1.7</v>
+      </c>
+      <c r="Q262">
+        <v>0.75</v>
+      </c>
+      <c r="R262">
+        <v>1.9</v>
+      </c>
+      <c r="S262">
+        <v>1.9</v>
+      </c>
+      <c r="T262">
+        <v>3.5</v>
+      </c>
+      <c r="U262">
         <v>1.8</v>
       </c>
-      <c r="Q262">
-        <v>0.5</v>
-      </c>
-      <c r="R262">
-        <v>1.925</v>
-      </c>
-      <c r="S262">
-        <v>1.875</v>
-      </c>
-      <c r="T262">
-        <v>3.75</v>
-      </c>
-      <c r="U262">
-        <v>1.975</v>
-      </c>
       <c r="V262">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
+        <v>-1</v>
+      </c>
+      <c r="Z262">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA262">
+        <v>-1</v>
+      </c>
+      <c r="AB262">
         <v>0.8</v>
-      </c>
-      <c r="Z262">
-        <v>-1</v>
-      </c>
-      <c r="AA262">
-        <v>0.875</v>
-      </c>
-      <c r="AB262">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7047540</v>
+        <v>7047541</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,73 +23875,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F263" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G263" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H263">
         <v>3</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J263" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K263">
+        <v>3.1</v>
+      </c>
+      <c r="L263">
+        <v>4</v>
+      </c>
+      <c r="M263">
+        <v>1.833</v>
+      </c>
+      <c r="N263">
         <v>3.2</v>
       </c>
-      <c r="L263">
-        <v>4.1</v>
-      </c>
-      <c r="M263">
+      <c r="O263">
+        <v>4</v>
+      </c>
+      <c r="P263">
         <v>1.8</v>
       </c>
-      <c r="N263">
-        <v>3.6</v>
-      </c>
-      <c r="O263">
-        <v>4.2</v>
-      </c>
-      <c r="P263">
-        <v>1.7</v>
-      </c>
       <c r="Q263">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R263">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S263">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T263">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U263">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V263">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W263">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z263">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC263">
         <v>-1</v>
@@ -25198,7 +25198,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7047560</v>
+        <v>7047559</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25210,76 +25210,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G278" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H278">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K278">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L278">
         <v>4</v>
       </c>
       <c r="M278">
-        <v>2.9</v>
+        <v>1.952</v>
       </c>
       <c r="N278">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P278">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="Q278">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R278">
+        <v>1.775</v>
+      </c>
+      <c r="S278">
+        <v>1.925</v>
+      </c>
+      <c r="T278">
+        <v>3.75</v>
+      </c>
+      <c r="U278">
         <v>1.95</v>
       </c>
-      <c r="S278">
+      <c r="V278">
         <v>1.85</v>
       </c>
-      <c r="T278">
-        <v>3.5</v>
-      </c>
-      <c r="U278">
-        <v>1.925</v>
-      </c>
-      <c r="V278">
-        <v>1.875</v>
-      </c>
       <c r="W278">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z278">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA278">
         <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25287,7 +25287,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7047559</v>
+        <v>7047560</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25299,76 +25299,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F279" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G279" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H279">
+        <v>5</v>
+      </c>
+      <c r="I279">
         <v>1</v>
       </c>
-      <c r="I279">
-        <v>2</v>
-      </c>
       <c r="J279" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K279">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L279">
         <v>4</v>
       </c>
       <c r="M279">
-        <v>1.952</v>
+        <v>2.9</v>
       </c>
       <c r="N279">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="O279">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P279">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q279">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R279">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S279">
+        <v>1.85</v>
+      </c>
+      <c r="T279">
+        <v>3.5</v>
+      </c>
+      <c r="U279">
         <v>1.925</v>
       </c>
-      <c r="T279">
-        <v>3.75</v>
-      </c>
-      <c r="U279">
-        <v>1.95</v>
-      </c>
       <c r="V279">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA279">
         <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC279">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25910,7 +25910,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7047568</v>
+        <v>7047570</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25922,49 +25922,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G286" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K286">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L286">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M286">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N286">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O286">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P286">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q286">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R286">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S286">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T286">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U286">
         <v>1.9</v>
@@ -25973,19 +25973,19 @@
         <v>1.9</v>
       </c>
       <c r="W286">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB286">
         <v>-1</v>
@@ -25999,7 +25999,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7047570</v>
+        <v>7047568</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26011,49 +26011,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F287" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G287" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I287">
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K287">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L287">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M287">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N287">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O287">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P287">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q287">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R287">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S287">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T287">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U287">
         <v>1.9</v>
@@ -26062,19 +26062,19 @@
         <v>1.9</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X287">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA287">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
         <v>-1</v>
@@ -26088,7 +26088,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7071032</v>
+        <v>7047569</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26100,76 +26100,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G288" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K288">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L288">
         <v>4.2</v>
       </c>
       <c r="M288">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N288">
+        <v>3.2</v>
+      </c>
+      <c r="O288">
+        <v>4.333</v>
+      </c>
+      <c r="P288">
         <v>1.75</v>
       </c>
-      <c r="O288">
-        <v>4.5</v>
-      </c>
-      <c r="P288">
-        <v>3.1</v>
-      </c>
       <c r="Q288">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R288">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S288">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T288">
         <v>3.5</v>
       </c>
       <c r="U288">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V288">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y288">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA288">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
         <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26266,7 +26266,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7047571</v>
+        <v>7047709</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26278,10 +26278,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F290" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G290" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H290">
         <v>3</v>
@@ -26293,37 +26293,37 @@
         <v>51</v>
       </c>
       <c r="K290">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L290">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M290">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N290">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O290">
         <v>4.333</v>
       </c>
       <c r="P290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q290">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R290">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S290">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T290">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U290">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V290">
         <v>1.95</v>
@@ -26338,13 +26338,13 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA290">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB290">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26355,7 +26355,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7047569</v>
+        <v>7071032</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26367,76 +26367,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G291" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291">
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K291">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L291">
         <v>4.2</v>
       </c>
       <c r="M291">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N291">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O291">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P291">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q291">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S291">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T291">
         <v>3.5</v>
       </c>
       <c r="U291">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V291">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W291">
         <v>-1</v>
       </c>
       <c r="X291">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z291">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB291">
         <v>-1</v>
       </c>
       <c r="AC291">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26444,7 +26444,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7047709</v>
+        <v>7047571</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26456,10 +26456,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F292" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G292" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H292">
         <v>3</v>
@@ -26471,37 +26471,37 @@
         <v>51</v>
       </c>
       <c r="K292">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L292">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M292">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N292">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O292">
         <v>4.333</v>
       </c>
       <c r="P292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q292">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R292">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S292">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T292">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U292">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V292">
         <v>1.95</v>
@@ -26516,13 +26516,13 @@
         <v>-1</v>
       </c>
       <c r="Z292">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB292">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -27779,7 +27779,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7047598</v>
+        <v>7047597</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27791,76 +27791,76 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G307" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K307">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L307">
+        <v>4</v>
+      </c>
+      <c r="M307">
+        <v>2.1</v>
+      </c>
+      <c r="N307">
         <v>4.2</v>
       </c>
-      <c r="M307">
-        <v>3.6</v>
-      </c>
-      <c r="N307">
-        <v>2.2</v>
-      </c>
       <c r="O307">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P307">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T307">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U307">
+        <v>1.95</v>
+      </c>
+      <c r="V307">
         <v>1.85</v>
       </c>
-      <c r="V307">
-        <v>1.95</v>
-      </c>
       <c r="W307">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X307">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA307">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
+        <v>-1</v>
+      </c>
+      <c r="AC307">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC307">
-        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7047597</v>
+        <v>7047598</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,76 +27880,76 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G308" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K308">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M308">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N308">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O308">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P308">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="Q308">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R308">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S308">
+        <v>1.8</v>
+      </c>
+      <c r="T308">
+        <v>3.25</v>
+      </c>
+      <c r="U308">
+        <v>1.85</v>
+      </c>
+      <c r="V308">
         <v>1.95</v>
       </c>
-      <c r="T308">
-        <v>3.75</v>
-      </c>
-      <c r="U308">
-        <v>1.95</v>
-      </c>
-      <c r="V308">
-        <v>1.85</v>
-      </c>
       <c r="W308">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28224,7 +28224,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7047602</v>
+        <v>7047601</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28236,76 +28236,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G312" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H312">
+        <v>1</v>
+      </c>
+      <c r="I312">
         <v>2</v>
       </c>
-      <c r="I312">
-        <v>0</v>
-      </c>
       <c r="J312" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K312">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L312">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M312">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N312">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O312">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P312">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q312">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R312">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S312">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T312">
         <v>3.5</v>
       </c>
       <c r="U312">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V312">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W312">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z312">
+        <v>-1</v>
+      </c>
+      <c r="AA312">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB312">
+        <v>-1</v>
+      </c>
+      <c r="AC312">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA312">
-        <v>-1</v>
-      </c>
-      <c r="AB312">
-        <v>-1</v>
-      </c>
-      <c r="AC312">
-        <v>0.925</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28402,7 +28402,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7047601</v>
+        <v>7047602</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28414,76 +28414,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G314" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K314">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L314">
+        <v>4.5</v>
+      </c>
+      <c r="M314">
+        <v>4.5</v>
+      </c>
+      <c r="N314">
+        <v>1.75</v>
+      </c>
+      <c r="O314">
         <v>4.2</v>
       </c>
-      <c r="M314">
-        <v>3.6</v>
-      </c>
-      <c r="N314">
-        <v>1.363</v>
-      </c>
-      <c r="O314">
-        <v>4.75</v>
-      </c>
       <c r="P314">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q314">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R314">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S314">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T314">
         <v>3.5</v>
       </c>
       <c r="U314">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V314">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X314">
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA314">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
         <v>-1</v>
       </c>
       <c r="AC314">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -29114,7 +29114,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7071028</v>
+        <v>7047611</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29126,76 +29126,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F322" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G322" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J322" t="s">
         <v>51</v>
       </c>
       <c r="K322">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L322">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M322">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="N322">
+        <v>2.375</v>
+      </c>
+      <c r="O322">
+        <v>3.8</v>
+      </c>
+      <c r="P322">
+        <v>2.45</v>
+      </c>
+      <c r="Q322">
+        <v>0</v>
+      </c>
+      <c r="R322">
+        <v>1.875</v>
+      </c>
+      <c r="S322">
+        <v>1.925</v>
+      </c>
+      <c r="T322">
+        <v>3.25</v>
+      </c>
+      <c r="U322">
+        <v>1.85</v>
+      </c>
+      <c r="V322">
+        <v>1.95</v>
+      </c>
+      <c r="W322">
+        <v>-1</v>
+      </c>
+      <c r="X322">
         <v>2.8</v>
       </c>
-      <c r="O322">
-        <v>4.333</v>
-      </c>
-      <c r="P322">
-        <v>1.95</v>
-      </c>
-      <c r="Q322">
-        <v>0.5</v>
-      </c>
-      <c r="R322">
-        <v>1.8</v>
-      </c>
-      <c r="S322">
-        <v>2</v>
-      </c>
-      <c r="T322">
-        <v>3.5</v>
-      </c>
-      <c r="U322">
-        <v>1.875</v>
-      </c>
-      <c r="V322">
-        <v>1.925</v>
-      </c>
-      <c r="W322">
-        <v>-1</v>
-      </c>
-      <c r="X322">
-        <v>3.333</v>
-      </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB322">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC322">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7047611</v>
+        <v>7071028</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,76 +29393,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F325" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G325" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J325" t="s">
         <v>51</v>
       </c>
       <c r="K325">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L325">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M325">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="N325">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="O325">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P325">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q325">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R325">
+        <v>1.8</v>
+      </c>
+      <c r="S325">
+        <v>2</v>
+      </c>
+      <c r="T325">
+        <v>3.5</v>
+      </c>
+      <c r="U325">
         <v>1.875</v>
       </c>
-      <c r="S325">
+      <c r="V325">
         <v>1.925</v>
       </c>
-      <c r="T325">
-        <v>3.25</v>
-      </c>
-      <c r="U325">
-        <v>1.85</v>
-      </c>
-      <c r="V325">
-        <v>1.95</v>
-      </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Y325">
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA325">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC325">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -26711,7 +26711,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7047576</v>
+        <v>7047575</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26723,13 +26723,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G295" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295">
         <v>5</v>
@@ -26738,58 +26738,58 @@
         <v>53</v>
       </c>
       <c r="K295">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L295">
+        <v>6</v>
+      </c>
+      <c r="M295">
+        <v>1.25</v>
+      </c>
+      <c r="N295">
         <v>4</v>
       </c>
-      <c r="M295">
-        <v>2.75</v>
-      </c>
-      <c r="N295">
-        <v>2.875</v>
-      </c>
       <c r="O295">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P295">
+        <v>1.5</v>
+      </c>
+      <c r="Q295">
+        <v>1.25</v>
+      </c>
+      <c r="R295">
+        <v>1.85</v>
+      </c>
+      <c r="S295">
         <v>1.95</v>
       </c>
-      <c r="Q295">
+      <c r="T295">
+        <v>3.75</v>
+      </c>
+      <c r="U295">
+        <v>1.9</v>
+      </c>
+      <c r="V295">
+        <v>1.9</v>
+      </c>
+      <c r="W295">
+        <v>-1</v>
+      </c>
+      <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
         <v>0.5</v>
       </c>
-      <c r="R295">
-        <v>1.8</v>
-      </c>
-      <c r="S295">
-        <v>2</v>
-      </c>
-      <c r="T295">
-        <v>3.5</v>
-      </c>
-      <c r="U295">
-        <v>1.925</v>
-      </c>
-      <c r="V295">
-        <v>1.875</v>
-      </c>
-      <c r="W295">
-        <v>-1</v>
-      </c>
-      <c r="X295">
-        <v>-1</v>
-      </c>
-      <c r="Y295">
+      <c r="Z295">
+        <v>-1</v>
+      </c>
+      <c r="AA295">
         <v>0.95</v>
       </c>
-      <c r="Z295">
-        <v>-1</v>
-      </c>
-      <c r="AA295">
-        <v>1</v>
-      </c>
       <c r="AB295">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -26800,7 +26800,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7047575</v>
+        <v>7047576</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26812,13 +26812,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F296" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G296" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296">
         <v>5</v>
@@ -26827,40 +26827,40 @@
         <v>53</v>
       </c>
       <c r="K296">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L296">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M296">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="N296">
+        <v>2.875</v>
+      </c>
+      <c r="O296">
         <v>4</v>
       </c>
-      <c r="O296">
-        <v>5</v>
-      </c>
       <c r="P296">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q296">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R296">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S296">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T296">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U296">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26869,16 +26869,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB296">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -28313,7 +28313,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7047603</v>
+        <v>7047602</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28325,58 +28325,58 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G313" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H313">
         <v>2</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="s">
         <v>52</v>
       </c>
       <c r="K313">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M313">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N313">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O313">
         <v>4.2</v>
       </c>
       <c r="P313">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q313">
         <v>-0.75</v>
       </c>
       <c r="R313">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S313">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T313">
         <v>3.5</v>
       </c>
       <c r="U313">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V313">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W313">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X313">
         <v>-1</v>
@@ -28385,16 +28385,16 @@
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA313">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB313">
         <v>-1</v>
       </c>
       <c r="AC313">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28402,7 +28402,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7047602</v>
+        <v>7047710</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28414,76 +28414,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G314" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J314" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K314">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L314">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M314">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N314">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O314">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P314">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R314">
+        <v>1.825</v>
+      </c>
+      <c r="S314">
         <v>1.975</v>
-      </c>
-      <c r="S314">
-        <v>1.825</v>
       </c>
       <c r="T314">
         <v>3.5</v>
       </c>
       <c r="U314">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V314">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X314">
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z314">
+        <v>-1</v>
+      </c>
+      <c r="AA314">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA314">
-        <v>-1</v>
-      </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC314">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28491,7 +28491,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7047710</v>
+        <v>7047603</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28503,76 +28503,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F315" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G315" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H315">
+        <v>2</v>
+      </c>
+      <c r="I315">
         <v>1</v>
       </c>
-      <c r="I315">
-        <v>8</v>
-      </c>
       <c r="J315" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K315">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="L315">
         <v>4</v>
       </c>
       <c r="M315">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N315">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O315">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P315">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q315">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R315">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S315">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T315">
         <v>3.5</v>
       </c>
       <c r="U315">
+        <v>1.975</v>
+      </c>
+      <c r="V315">
         <v>1.825</v>
       </c>
-      <c r="V315">
-        <v>1.975</v>
-      </c>
       <c r="W315">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X315">
         <v>-1</v>
       </c>
       <c r="Y315">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA315">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB315">
+        <v>-1</v>
+      </c>
+      <c r="AC315">
         <v>0.825</v>
-      </c>
-      <c r="AC315">
-        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Birmingham U21</t>
   </si>
   <si>
-    <t>Fleetwood Town U21</t>
+    <t>Barnsley U21</t>
   </si>
   <si>
-    <t>Barnsley U21</t>
+    <t>Fleetwood Town U21</t>
   </si>
   <si>
     <t>Sheff Utd U21</t>
@@ -121,13 +121,13 @@
     <t>Peterborough U21</t>
   </si>
   <si>
-    <t>Hull U21</t>
+    <t>Coventry U21</t>
   </si>
   <si>
     <t>Sheffield Wed U21</t>
   </si>
   <si>
-    <t>Coventry U21</t>
+    <t>Hull U21</t>
   </si>
   <si>
     <t>Wigan U21</t>
@@ -154,10 +154,10 @@
     <t>Cardiff U21</t>
   </si>
   <si>
-    <t>Bournemouth U21</t>
+    <t>Bristol City U21</t>
   </si>
   <si>
-    <t>Bristol City U21</t>
+    <t>Bournemouth U21</t>
   </si>
   <si>
     <t>Ipswich U21</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC186"/>
+  <dimension ref="A1:AC190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7067620</v>
+        <v>7047431</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -824,55 +824,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
       </c>
       <c r="K4">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
+        <v>2.75</v>
+      </c>
+      <c r="O4">
         <v>3.6</v>
       </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
       <c r="P4">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q4">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -881,13 +881,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7047431</v>
+        <v>7067620</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -913,55 +913,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
       </c>
       <c r="K5">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>2.1</v>
-      </c>
-      <c r="N5">
-        <v>2.75</v>
-      </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
         <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -970,13 +970,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7046797</v>
+        <v>7067710</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,73 +1180,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7067710</v>
+        <v>7046797</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1358,73 +1358,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
+        <v>1.875</v>
+      </c>
+      <c r="S10">
+        <v>1.925</v>
+      </c>
+      <c r="T10">
+        <v>3.75</v>
+      </c>
+      <c r="U10">
         <v>1.9</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.9</v>
       </c>
-      <c r="T10">
-        <v>3.5</v>
-      </c>
-      <c r="U10">
-        <v>1.975</v>
-      </c>
-      <c r="V10">
-        <v>1.825</v>
-      </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>0.825</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1981,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7071046</v>
+        <v>7047443</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,37 +2159,37 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M19">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N19">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P19">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
         <v>1.95</v>
@@ -2198,34 +2198,34 @@
         <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB19">
         <v>0.95</v>
       </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7047443</v>
+        <v>7071046</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2248,37 +2248,37 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>2.1</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>2.7</v>
+      </c>
+      <c r="N20">
+        <v>3.4</v>
+      </c>
+      <c r="O20">
         <v>4</v>
       </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>4.333</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
         <v>1.833</v>
       </c>
-      <c r="N20">
-        <v>2.625</v>
-      </c>
-      <c r="O20">
-        <v>4.2</v>
-      </c>
-      <c r="P20">
-        <v>2.05</v>
-      </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
         <v>1.95</v>
@@ -2287,34 +2287,34 @@
         <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2693,7 +2693,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2767,7 +2767,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7071045</v>
+        <v>7047450</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,58 +2779,58 @@
         <v>45167.375</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>51</v>
       </c>
       <c r="K26">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N26">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O26">
         <v>4.2</v>
       </c>
       <c r="P26">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
         <v>3.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>0.5329999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2839,16 +2839,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2868,7 +2868,7 @@
         <v>45167.375</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>48</v>
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7047450</v>
+        <v>7071045</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,58 +2957,58 @@
         <v>45167.375</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>51</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N28">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O28">
         <v>4.2</v>
       </c>
       <c r="P28">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
         <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>0.7270000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3017,16 +3017,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7047704</v>
+        <v>7047452</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3046,73 +3046,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M29">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N29">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O29">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P29">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
         <v>1.775</v>
       </c>
-      <c r="S29">
-        <v>1.925</v>
-      </c>
       <c r="T29">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7047452</v>
+        <v>7047704</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,73 +3135,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>2.55</v>
+      </c>
+      <c r="L30">
         <v>4</v>
       </c>
-      <c r="I30">
+      <c r="M30">
+        <v>2.15</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>1.285</v>
+      </c>
+      <c r="Q30">
         <v>2</v>
       </c>
-      <c r="J30" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30">
+      <c r="R30">
+        <v>1.775</v>
+      </c>
+      <c r="S30">
+        <v>1.925</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
         <v>1.75</v>
       </c>
-      <c r="L30">
-        <v>4.2</v>
-      </c>
-      <c r="M30">
-        <v>3.3</v>
-      </c>
-      <c r="N30">
-        <v>1.615</v>
-      </c>
-      <c r="O30">
-        <v>4.333</v>
-      </c>
-      <c r="P30">
-        <v>3.6</v>
-      </c>
-      <c r="Q30">
-        <v>-1</v>
-      </c>
-      <c r="R30">
-        <v>1.925</v>
-      </c>
-      <c r="S30">
-        <v>1.775</v>
-      </c>
-      <c r="T30">
-        <v>3.75</v>
-      </c>
-      <c r="U30">
-        <v>1.825</v>
-      </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>0.925</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3224,7 +3224,7 @@
         <v>45168.375</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -3301,7 +3301,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7047454</v>
+        <v>7047455</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3313,58 +3313,58 @@
         <v>45170.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>51</v>
       </c>
       <c r="K32">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3373,16 +3373,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3390,7 +3390,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7047455</v>
+        <v>7047454</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,58 +3402,58 @@
         <v>45170.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="N33">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P33">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3462,16 +3462,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3583,7 +3583,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -3672,7 +3672,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7047460</v>
+        <v>7071044</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,73 +3939,73 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4028,7 +4028,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7071044</v>
+        <v>7047460</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,73 +4117,73 @@
         <v>46</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
+        <v>3.75</v>
+      </c>
+      <c r="M41">
+        <v>2.55</v>
+      </c>
+      <c r="N41">
+        <v>2.4</v>
+      </c>
+      <c r="O41">
         <v>4</v>
       </c>
-      <c r="M41">
-        <v>2.3</v>
-      </c>
-      <c r="N41">
-        <v>1.65</v>
-      </c>
-      <c r="O41">
-        <v>4.2</v>
-      </c>
       <c r="P41">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X41">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4381,10 +4381,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -4648,7 +4648,7 @@
         <v>45181.375</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>48</v>
@@ -4814,7 +4814,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7047470</v>
+        <v>7047469</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4826,56 +4826,56 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" t="s">
         <v>52</v>
       </c>
       <c r="K49">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L49">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M49">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="N49">
+        <v>3.1</v>
+      </c>
+      <c r="O49">
         <v>4.2</v>
       </c>
-      <c r="O49">
-        <v>4.75</v>
-      </c>
       <c r="P49">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.775</v>
+      </c>
+      <c r="T49">
+        <v>3.75</v>
+      </c>
+      <c r="U49">
+        <v>1.8</v>
+      </c>
+      <c r="V49">
         <v>2</v>
       </c>
-      <c r="S49">
-        <v>1.8</v>
-      </c>
-      <c r="T49">
-        <v>4</v>
-      </c>
-      <c r="U49">
-        <v>1.975</v>
-      </c>
-      <c r="V49">
-        <v>1.825</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
@@ -4883,16 +4883,16 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB49">
         <v>0.8</v>
-      </c>
-      <c r="AB49">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4903,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7047471</v>
+        <v>7047470</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,76 +4915,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L50">
         <v>4.5</v>
       </c>
       <c r="M50">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="N50">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7047469</v>
+        <v>7047471</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,76 +5004,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K51">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L51">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M51">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O51">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
         <v>3.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5185,7 +5185,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5363,7 +5363,7 @@
         <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7047478</v>
+        <v>7047481</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,76 +5538,76 @@
         <v>45194.375</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K57">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O57">
         <v>5.25</v>
       </c>
       <c r="P57">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>4</v>
       </c>
       <c r="U57">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7047481</v>
+        <v>7047478</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,76 +5627,76 @@
         <v>45194.375</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K58">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="O58">
         <v>5.25</v>
       </c>
       <c r="P58">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
         <v>4</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7047485</v>
+        <v>7047479</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,76 +5716,76 @@
         <v>45194.625</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
-      <c r="I59">
+      <c r="J59" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59">
         <v>2</v>
-      </c>
-      <c r="J59" t="s">
-        <v>52</v>
-      </c>
-      <c r="K59">
-        <v>1.571</v>
       </c>
       <c r="L59">
         <v>4.333</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N59">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O59">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
         <v>4.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5793,7 +5793,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7047479</v>
+        <v>7047485</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5805,76 +5805,76 @@
         <v>45194.625</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
         <v>4.333</v>
       </c>
       <c r="M60">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
         <v>4.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7047483</v>
+        <v>7071042</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>45195.375</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M61">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P61">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
+        <v>1.925</v>
+      </c>
+      <c r="S61">
         <v>1.875</v>
-      </c>
-      <c r="S61">
-        <v>1.925</v>
       </c>
       <c r="T61">
         <v>3.25</v>
       </c>
       <c r="U61">
+        <v>1.975</v>
+      </c>
+      <c r="V61">
         <v>1.825</v>
       </c>
-      <c r="V61">
-        <v>1.975</v>
-      </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.825</v>
-      </c>
-      <c r="AC61">
-        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7071042</v>
+        <v>7047483</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,76 +5983,76 @@
         <v>45195.375</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N62">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
+        <v>1.875</v>
+      </c>
+      <c r="S62">
         <v>1.925</v>
-      </c>
-      <c r="S62">
-        <v>1.875</v>
       </c>
       <c r="T62">
         <v>3.25</v>
       </c>
       <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
         <v>1.975</v>
       </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
         <v>0.925</v>
       </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6250,7 +6250,7 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6342,7 +6342,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6431,7 +6431,7 @@
         <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6609,7 +6609,7 @@
         <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -6698,7 +6698,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7047490</v>
+        <v>7047491</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,13 +6784,13 @@
         <v>45202.375</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6799,43 +6799,43 @@
         <v>51</v>
       </c>
       <c r="K71">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L71">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M71">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N71">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q71">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U71">
+        <v>1.95</v>
+      </c>
+      <c r="V71">
         <v>1.85</v>
       </c>
-      <c r="V71">
-        <v>1.95</v>
-      </c>
       <c r="W71">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6844,13 +6844,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6861,7 +6861,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7047491</v>
+        <v>7047490</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6873,13 +6873,13 @@
         <v>45202.375</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -6888,43 +6888,43 @@
         <v>51</v>
       </c>
       <c r="K72">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L72">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M72">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N72">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P72">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R72">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U72">
+        <v>1.85</v>
+      </c>
+      <c r="V72">
         <v>1.95</v>
       </c>
-      <c r="V72">
-        <v>1.85</v>
-      </c>
       <c r="W72">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6933,13 +6933,13 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7318,7 +7318,7 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -7407,7 +7407,7 @@
         <v>45216.375</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
@@ -7674,10 +7674,10 @@
         <v>45216.625</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7944,7 +7944,7 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7071039</v>
+        <v>7047507</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,76 +8030,76 @@
         <v>45223.375</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L85">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N85">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q85">
         <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U85">
+        <v>1.925</v>
+      </c>
+      <c r="V85">
         <v>1.875</v>
       </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
       <c r="W85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7047507</v>
+        <v>7047506</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,76 +8119,76 @@
         <v>45223.375</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K86">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L86">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N86">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O86">
         <v>4.5</v>
       </c>
       <c r="P86">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB86">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8196,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7047505</v>
+        <v>7071039</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,58 +8208,58 @@
         <v>45223.375</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>51</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L87">
+        <v>3.9</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>1.85</v>
+      </c>
+      <c r="O87">
         <v>4</v>
       </c>
-      <c r="M87">
+      <c r="P87">
+        <v>3.1</v>
+      </c>
+      <c r="Q87">
+        <v>-0.5</v>
+      </c>
+      <c r="R87">
+        <v>1.9</v>
+      </c>
+      <c r="S87">
+        <v>1.9</v>
+      </c>
+      <c r="T87">
         <v>3.25</v>
       </c>
-      <c r="N87">
-        <v>1.7</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>3.8</v>
-      </c>
-      <c r="Q87">
-        <v>-0.75</v>
-      </c>
-      <c r="R87">
+      <c r="U87">
         <v>1.875</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>1.925</v>
       </c>
-      <c r="T87">
-        <v>3.5</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>1.85</v>
-      </c>
       <c r="W87">
-        <v>0.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8268,13 +8268,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8285,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7047506</v>
+        <v>7047505</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8297,46 +8297,46 @@
         <v>45223.375</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" t="s">
+        <v>51</v>
+      </c>
+      <c r="K88">
+        <v>1.8</v>
+      </c>
+      <c r="L88">
         <v>4</v>
       </c>
-      <c r="J88" t="s">
-        <v>52</v>
-      </c>
-      <c r="K88">
-        <v>2.3</v>
-      </c>
-      <c r="L88">
+      <c r="M88">
+        <v>3.25</v>
+      </c>
+      <c r="N88">
+        <v>1.7</v>
+      </c>
+      <c r="O88">
+        <v>4.2</v>
+      </c>
+      <c r="P88">
         <v>3.8</v>
       </c>
-      <c r="M88">
-        <v>2.375</v>
-      </c>
-      <c r="N88">
-        <v>4.75</v>
-      </c>
-      <c r="O88">
-        <v>4.5</v>
-      </c>
-      <c r="P88">
-        <v>1.5</v>
-      </c>
       <c r="Q88">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>3.5</v>
@@ -8348,19 +8348,19 @@
         <v>1.85</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
         <v>0.95</v>
@@ -8389,7 +8389,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>5</v>
@@ -8567,7 +8567,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7047515</v>
+        <v>7047512</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8742,49 +8742,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K93">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
         <v>4.5</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P93">
         <v>5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8793,25 +8793,25 @@
         <v>1.9</v>
       </c>
       <c r="W93">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB93">
+        <v>0.45</v>
+      </c>
+      <c r="AC93">
         <v>-0.5</v>
-      </c>
-      <c r="AA93">
-        <v>0.425</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
-      <c r="AC93">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7047512</v>
+        <v>7047515</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8831,49 +8831,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K94">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L94">
         <v>4.5</v>
       </c>
       <c r="M94">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N94">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O94">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P94">
         <v>5</v>
       </c>
       <c r="Q94">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U94">
         <v>1.9</v>
@@ -8882,25 +8882,25 @@
         <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X94">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
+        <v>0.425</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB94">
-        <v>0.45</v>
-      </c>
-      <c r="AC94">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7071037</v>
+        <v>7047523</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,73 +9276,73 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>4</v>
       </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L99">
+        <v>4.2</v>
+      </c>
+      <c r="M99">
+        <v>1.95</v>
+      </c>
+      <c r="N99">
+        <v>2.45</v>
+      </c>
+      <c r="O99">
         <v>4</v>
       </c>
-      <c r="M99">
-        <v>2.4</v>
-      </c>
-      <c r="N99">
-        <v>1.727</v>
-      </c>
-      <c r="O99">
-        <v>4.2</v>
-      </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T99">
         <v>3.75</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z99">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB99">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7047523</v>
+        <v>7047522</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,56 +9365,56 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
       </c>
       <c r="K100">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L100">
         <v>4.2</v>
       </c>
       <c r="M100">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N100">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
         <v>3.75</v>
       </c>
       <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
         <v>1.925</v>
       </c>
-      <c r="V100">
-        <v>1.875</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9422,19 +9422,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.925</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9442,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7047522</v>
+        <v>7071037</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9454,76 +9454,76 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K101">
         <v>2.25</v>
       </c>
       <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>2.4</v>
+      </c>
+      <c r="N101">
+        <v>1.727</v>
+      </c>
+      <c r="O101">
         <v>4.2</v>
       </c>
-      <c r="M101">
-        <v>2.3</v>
-      </c>
-      <c r="N101">
-        <v>3.6</v>
-      </c>
-      <c r="O101">
-        <v>5</v>
-      </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.75</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9531,7 +9531,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7047524</v>
+        <v>7047521</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9543,58 +9543,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>51</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M102">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N102">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="O102">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q102">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
         <v>3.75</v>
       </c>
       <c r="U102">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>0.25</v>
+        <v>1.9</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9603,16 +9603,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7047521</v>
+        <v>7047524</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9632,58 +9632,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N103">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P103">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>3.75</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>1.9</v>
+        <v>0.25</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9692,16 +9692,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9721,7 +9721,7 @@
         <v>45237.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -9813,7 +9813,7 @@
         <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9902,7 +9902,7 @@
         <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10080,7 +10080,7 @@
         <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10154,7 +10154,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7047533</v>
+        <v>7047534</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10166,10 +10166,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10181,61 +10181,61 @@
         <v>50</v>
       </c>
       <c r="K109">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L109">
         <v>4</v>
       </c>
       <c r="M109">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N109">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
         <v>1.95</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
+        <v>1.85</v>
+      </c>
+      <c r="V109">
         <v>1.95</v>
       </c>
-      <c r="V109">
-        <v>1.85</v>
-      </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7047534</v>
+        <v>7047530</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,76 +10255,76 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K110">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N110">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O110">
+        <v>3.6</v>
+      </c>
+      <c r="P110">
+        <v>2.2</v>
+      </c>
+      <c r="Q110">
+        <v>0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.775</v>
+      </c>
+      <c r="S110">
+        <v>2.025</v>
+      </c>
+      <c r="T110">
         <v>3.75</v>
       </c>
-      <c r="P110">
+      <c r="U110">
+        <v>1.95</v>
+      </c>
+      <c r="V110">
         <v>1.85</v>
       </c>
-      <c r="Q110">
-        <v>0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.85</v>
-      </c>
-      <c r="S110">
-        <v>1.95</v>
-      </c>
-      <c r="T110">
-        <v>3</v>
-      </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
-      <c r="V110">
-        <v>1.95</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>1.025</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7047530</v>
+        <v>7047533</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,46 +10344,46 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K111">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
         <v>3.75</v>
@@ -10398,16 +10398,16 @@
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y111">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AB111">
         <v>-1</v>
@@ -10436,7 +10436,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10525,7 +10525,7 @@
         <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -10967,7 +10967,7 @@
         <v>45258.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
         <v>36</v>
@@ -11059,7 +11059,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11145,7 +11145,7 @@
         <v>45260.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11323,7 +11323,7 @@
         <v>45265.375</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>34</v>
@@ -11400,7 +11400,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7047546</v>
+        <v>7047545</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11412,40 +11412,40 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K123">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N123">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R123">
         <v>2</v>
@@ -11457,31 +11457,31 @@
         <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11489,7 +11489,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7047545</v>
+        <v>7047546</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11501,40 +11501,40 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M124">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N124">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -11546,31 +11546,31 @@
         <v>3.5</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s">
         <v>48</v>
@@ -11860,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12216,7 +12216,7 @@
         <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12480,7 +12480,7 @@
         <v>45279.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
         <v>33</v>
@@ -12569,7 +12569,7 @@
         <v>45282.375</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7047569</v>
+        <v>7071032</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
         <v>4.2</v>
       </c>
       <c r="M141">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N141">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P141">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>3.5</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7071032</v>
+        <v>7047709</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,52 +13103,52 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K142">
         <v>2.5</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M142">
         <v>2.1</v>
       </c>
       <c r="N142">
+        <v>2.625</v>
+      </c>
+      <c r="O142">
+        <v>4.333</v>
+      </c>
+      <c r="P142">
+        <v>2</v>
+      </c>
+      <c r="Q142">
+        <v>0.25</v>
+      </c>
+      <c r="R142">
+        <v>1.9</v>
+      </c>
+      <c r="S142">
+        <v>1.9</v>
+      </c>
+      <c r="T142">
+        <v>3.25</v>
+      </c>
+      <c r="U142">
         <v>1.75</v>
-      </c>
-      <c r="O142">
-        <v>4.5</v>
-      </c>
-      <c r="P142">
-        <v>3.1</v>
-      </c>
-      <c r="Q142">
-        <v>-0.5</v>
-      </c>
-      <c r="R142">
-        <v>1.8</v>
-      </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
-      <c r="T142">
-        <v>3.5</v>
-      </c>
-      <c r="U142">
-        <v>1.85</v>
       </c>
       <c r="V142">
         <v>1.95</v>
@@ -13157,22 +13157,22 @@
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y142">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7047572</v>
+        <v>7047569</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
         <v>4.2</v>
       </c>
       <c r="M143">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N143">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
         <v>4.333</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
+        <v>1.975</v>
+      </c>
+      <c r="S143">
         <v>1.825</v>
-      </c>
-      <c r="S143">
-        <v>1.975</v>
       </c>
       <c r="T143">
         <v>3.5</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13281,10 +13281,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F144" t="s">
+        <v>35</v>
+      </c>
+      <c r="G144" t="s">
         <v>37</v>
-      </c>
-      <c r="G144" t="s">
-        <v>35</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7047709</v>
+        <v>7047572</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,73 +13370,73 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N145">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O145">
         <v>4.333</v>
       </c>
       <c r="P145">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U145">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z145">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13548,7 +13548,7 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13996,7 +13996,7 @@
         <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14082,10 +14082,10 @@
         <v>45316.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14260,7 +14260,7 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G155" t="s">
         <v>42</v>
@@ -14527,7 +14527,7 @@
         <v>45321.67708333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7047598</v>
+        <v>7047597</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,76 +14705,76 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K160">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L160">
+        <v>4</v>
+      </c>
+      <c r="M160">
+        <v>2.1</v>
+      </c>
+      <c r="N160">
         <v>4.2</v>
       </c>
-      <c r="M160">
-        <v>3.6</v>
-      </c>
-      <c r="N160">
-        <v>2.2</v>
-      </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P160">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U160">
+        <v>1.95</v>
+      </c>
+      <c r="V160">
         <v>1.85</v>
       </c>
-      <c r="V160">
-        <v>1.95</v>
-      </c>
       <c r="W160">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X160">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA160">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC160">
-        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7047597</v>
+        <v>7047598</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,76 +14794,76 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K161">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M161">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N161">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O161">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="Q161">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S161">
+        <v>1.8</v>
+      </c>
+      <c r="T161">
+        <v>3.25</v>
+      </c>
+      <c r="U161">
+        <v>1.85</v>
+      </c>
+      <c r="V161">
         <v>1.95</v>
       </c>
-      <c r="T161">
-        <v>3.75</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.85</v>
-      </c>
       <c r="W161">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14886,7 +14886,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15064,7 +15064,7 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7047602</v>
+        <v>7047710</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,76 +15150,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K165">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L165">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M165">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N165">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
+        <v>1.825</v>
+      </c>
+      <c r="S165">
         <v>1.975</v>
-      </c>
-      <c r="S165">
-        <v>1.825</v>
       </c>
       <c r="T165">
         <v>3.5</v>
       </c>
       <c r="U165">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W165">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15239,7 +15239,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G166" t="s">
         <v>45</v>
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7047710</v>
+        <v>7047602</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K168">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M168">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N168">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O168">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
+        <v>1.975</v>
+      </c>
+      <c r="S168">
         <v>1.825</v>
-      </c>
-      <c r="S168">
-        <v>1.975</v>
       </c>
       <c r="T168">
         <v>3.5</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15687,7 +15687,7 @@
         <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15862,7 +15862,7 @@
         <v>45338.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7071028</v>
+        <v>7047611</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,76 +16040,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>50</v>
       </c>
       <c r="K175">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L175">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="N175">
+        <v>2.375</v>
+      </c>
+      <c r="O175">
+        <v>3.8</v>
+      </c>
+      <c r="P175">
+        <v>2.45</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>1.875</v>
+      </c>
+      <c r="S175">
+        <v>1.925</v>
+      </c>
+      <c r="T175">
+        <v>3.25</v>
+      </c>
+      <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
+        <v>1.95</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
         <v>2.8</v>
       </c>
-      <c r="O175">
-        <v>4.333</v>
-      </c>
-      <c r="P175">
-        <v>1.95</v>
-      </c>
-      <c r="Q175">
-        <v>0.5</v>
-      </c>
-      <c r="R175">
-        <v>1.8</v>
-      </c>
-      <c r="S175">
-        <v>2</v>
-      </c>
-      <c r="T175">
-        <v>3.5</v>
-      </c>
-      <c r="U175">
-        <v>1.875</v>
-      </c>
-      <c r="V175">
-        <v>1.925</v>
-      </c>
-      <c r="W175">
-        <v>-1</v>
-      </c>
-      <c r="X175">
-        <v>3.333</v>
-      </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7047613</v>
+        <v>7047610</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,40 +16129,40 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H176">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K176">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P176">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R176">
         <v>1.825</v>
@@ -16171,34 +16171,34 @@
         <v>1.975</v>
       </c>
       <c r="T176">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB176">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7047611</v>
+        <v>7047613</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G177" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L177">
+        <v>4.8</v>
+      </c>
+      <c r="M177">
+        <v>1.571</v>
+      </c>
+      <c r="N177">
+        <v>3.2</v>
+      </c>
+      <c r="O177">
+        <v>4.5</v>
+      </c>
+      <c r="P177">
+        <v>1.8</v>
+      </c>
+      <c r="Q177">
+        <v>0.75</v>
+      </c>
+      <c r="R177">
+        <v>1.825</v>
+      </c>
+      <c r="S177">
+        <v>1.975</v>
+      </c>
+      <c r="T177">
         <v>3.75</v>
       </c>
-      <c r="M177">
-        <v>2.4</v>
-      </c>
-      <c r="N177">
-        <v>2.375</v>
-      </c>
-      <c r="O177">
-        <v>3.8</v>
-      </c>
-      <c r="P177">
-        <v>2.45</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
+      <c r="U177">
         <v>1.875</v>
       </c>
-      <c r="S177">
+      <c r="V177">
         <v>1.925</v>
       </c>
-      <c r="T177">
-        <v>3.25</v>
-      </c>
-      <c r="U177">
-        <v>1.85</v>
-      </c>
-      <c r="V177">
-        <v>1.95</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X177">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7047610</v>
+        <v>7071028</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K178">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="L178">
         <v>4.5</v>
       </c>
       <c r="M178">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N178">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O178">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P178">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T178">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y178">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC178">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16396,7 +16396,7 @@
         <v>45342.4375</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
         <v>33</v>
@@ -16666,7 +16666,7 @@
         <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16757,6 +16757,15 @@
       <c r="G183" t="s">
         <v>45</v>
       </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>51</v>
+      </c>
       <c r="K183">
         <v>2.25</v>
       </c>
@@ -16767,46 +16776,52 @@
         <v>2.5</v>
       </c>
       <c r="N183">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P183">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W183">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA183">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
+        <v>0.825</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7047619</v>
+        <v>7047618</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,61 +16841,76 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>50</v>
       </c>
       <c r="K184">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L184">
         <v>4.2</v>
       </c>
       <c r="M184">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="N184">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O184">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P184">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
         <v>3.5</v>
       </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V184">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16888,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7047618</v>
+        <v>7047619</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16900,19 +16930,28 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H185">
+        <v>3</v>
+      </c>
+      <c r="I185">
+        <v>3</v>
+      </c>
+      <c r="J185" t="s">
+        <v>50</v>
       </c>
       <c r="K185">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L185">
         <v>4.2</v>
       </c>
       <c r="M185">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="N185">
         <v>3.4</v>
@@ -16921,40 +16960,46 @@
         <v>4.2</v>
       </c>
       <c r="P185">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="Q185">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T185">
         <v>3.5</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA185">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB185">
+        <v>0.925</v>
+      </c>
+      <c r="AC185">
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16979,6 +17024,15 @@
       <c r="G186" t="s">
         <v>39</v>
       </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
+        <v>3</v>
+      </c>
+      <c r="J186" t="s">
+        <v>52</v>
+      </c>
       <c r="K186">
         <v>1.444</v>
       </c>
@@ -16989,16 +17043,16 @@
         <v>4.75</v>
       </c>
       <c r="N186">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O186">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P186">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q186">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R186">
         <v>1.95</v>
@@ -17007,27 +17061,329 @@
         <v>1.85</v>
       </c>
       <c r="T186">
+        <v>3.75</v>
+      </c>
+      <c r="U186">
+        <v>1.85</v>
+      </c>
+      <c r="V186">
+        <v>1.95</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
+        <v>3</v>
+      </c>
+      <c r="Z186">
+        <v>-1</v>
+      </c>
+      <c r="AA186">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB186">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC186">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>7047621</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45349.41666666666</v>
+      </c>
+      <c r="F187" t="s">
+        <v>32</v>
+      </c>
+      <c r="G187" t="s">
+        <v>49</v>
+      </c>
+      <c r="K187">
+        <v>1.727</v>
+      </c>
+      <c r="L187">
+        <v>4.333</v>
+      </c>
+      <c r="M187">
+        <v>3.3</v>
+      </c>
+      <c r="N187">
+        <v>1.65</v>
+      </c>
+      <c r="O187">
+        <v>4.5</v>
+      </c>
+      <c r="P187">
+        <v>3.6</v>
+      </c>
+      <c r="Q187">
+        <v>-0.75</v>
+      </c>
+      <c r="R187">
+        <v>1.825</v>
+      </c>
+      <c r="S187">
+        <v>1.975</v>
+      </c>
+      <c r="T187">
+        <v>3.5</v>
+      </c>
+      <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
+        <v>1.95</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>7047628</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45349.45833333334</v>
+      </c>
+      <c r="F188" t="s">
+        <v>36</v>
+      </c>
+      <c r="G188" t="s">
+        <v>37</v>
+      </c>
+      <c r="K188">
+        <v>1.727</v>
+      </c>
+      <c r="L188">
         <v>4</v>
       </c>
-      <c r="U186">
+      <c r="M188">
+        <v>3.5</v>
+      </c>
+      <c r="N188">
+        <v>1.7</v>
+      </c>
+      <c r="O188">
+        <v>4</v>
+      </c>
+      <c r="P188">
+        <v>3.6</v>
+      </c>
+      <c r="Q188">
+        <v>-0.75</v>
+      </c>
+      <c r="R188">
+        <v>1.925</v>
+      </c>
+      <c r="S188">
+        <v>1.875</v>
+      </c>
+      <c r="T188">
+        <v>3.5</v>
+      </c>
+      <c r="U188">
+        <v>1.925</v>
+      </c>
+      <c r="V188">
+        <v>1.875</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>7047629</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45349.45833333334</v>
+      </c>
+      <c r="F189" t="s">
+        <v>42</v>
+      </c>
+      <c r="G189" t="s">
+        <v>48</v>
+      </c>
+      <c r="K189">
+        <v>1.615</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>4</v>
+      </c>
+      <c r="N189">
+        <v>1.615</v>
+      </c>
+      <c r="O189">
+        <v>4</v>
+      </c>
+      <c r="P189">
+        <v>4</v>
+      </c>
+      <c r="Q189">
+        <v>-1</v>
+      </c>
+      <c r="R189">
+        <v>1.975</v>
+      </c>
+      <c r="S189">
         <v>1.825</v>
       </c>
-      <c r="V186">
+      <c r="T189">
+        <v>4</v>
+      </c>
+      <c r="U189">
+        <v>1.9</v>
+      </c>
+      <c r="V189">
+        <v>1.9</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7047630</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45349.45833333334</v>
+      </c>
+      <c r="F190" t="s">
+        <v>34</v>
+      </c>
+      <c r="G190" t="s">
+        <v>31</v>
+      </c>
+      <c r="K190">
+        <v>2.75</v>
+      </c>
+      <c r="L190">
+        <v>4</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
+        <v>3.5</v>
+      </c>
+      <c r="O190">
+        <v>4.2</v>
+      </c>
+      <c r="P190">
+        <v>1.7</v>
+      </c>
+      <c r="Q190">
+        <v>0.75</v>
+      </c>
+      <c r="R190">
+        <v>1.875</v>
+      </c>
+      <c r="S190">
+        <v>1.925</v>
+      </c>
+      <c r="T190">
+        <v>3.25</v>
+      </c>
+      <c r="U190">
+        <v>1.825</v>
+      </c>
+      <c r="V190">
         <v>1.975</v>
       </c>
-      <c r="W186">
+      <c r="W190">
         <v>0</v>
       </c>
-      <c r="X186">
+      <c r="X190">
         <v>0</v>
       </c>
-      <c r="Y186">
+      <c r="Y190">
         <v>0</v>
       </c>
-      <c r="Z186">
+      <c r="Z190">
         <v>0</v>
       </c>
-      <c r="AA186">
+      <c r="AA190">
         <v>0</v>
       </c>
     </row>

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -115,19 +115,19 @@
     <t>Fleetwood Town U21</t>
   </si>
   <si>
+    <t>Coventry U21</t>
+  </si>
+  <si>
     <t>Sheff Utd U21</t>
   </si>
   <si>
     <t>Peterborough U21</t>
   </si>
   <si>
-    <t>Coventry U21</t>
+    <t>Hull U21</t>
   </si>
   <si>
     <t>Sheffield Wed U21</t>
-  </si>
-  <si>
-    <t>Hull U21</t>
   </si>
   <si>
     <t>Wigan U21</t>
@@ -139,13 +139,13 @@
     <t>Swansea U21</t>
   </si>
   <si>
-    <t>Charlton U21</t>
+    <t>Colchester U21</t>
   </si>
   <si>
     <t>Millwall U21</t>
   </si>
   <si>
-    <t>Colchester U21</t>
+    <t>Charlton U21</t>
   </si>
   <si>
     <t>QPR U21</t>
@@ -154,10 +154,10 @@
     <t>Cardiff U21</t>
   </si>
   <si>
-    <t>Bristol City U21</t>
+    <t>Bournemouth U21</t>
   </si>
   <si>
-    <t>Bournemouth U21</t>
+    <t>Bristol City U21</t>
   </si>
   <si>
     <t>Ipswich U21</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7047434</v>
+        <v>7067710</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,73 +1002,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N6">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q6">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7047433</v>
+        <v>7047434</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1091,73 +1091,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P7">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.85</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
         <v>1.875</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.925</v>
       </c>
-      <c r="T7">
-        <v>3.5</v>
-      </c>
-      <c r="U7">
-        <v>1.85</v>
-      </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7067710</v>
+        <v>7047433</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,52 +1180,52 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
         <v>52</v>
       </c>
       <c r="K8">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
         <v>3.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1234,19 +1234,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.7</v>
+        <v>0.909</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7047435</v>
+        <v>7046797</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1269,73 +1269,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
+        <v>4.5</v>
+      </c>
+      <c r="M9">
         <v>4.75</v>
       </c>
-      <c r="M9">
-        <v>1.444</v>
-      </c>
       <c r="N9">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
+        <v>1.875</v>
+      </c>
+      <c r="S9">
         <v>1.925</v>
       </c>
-      <c r="S9">
-        <v>1.875</v>
-      </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X9">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7046797</v>
+        <v>7047435</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1358,73 +1358,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M10">
+        <v>1.444</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
         <v>4.75</v>
       </c>
-      <c r="N10">
-        <v>1.8</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
+        <v>1.925</v>
+      </c>
+      <c r="S10">
         <v>1.875</v>
       </c>
-      <c r="S10">
-        <v>1.925</v>
-      </c>
       <c r="T10">
+        <v>3.25</v>
+      </c>
+      <c r="U10">
+        <v>1.825</v>
+      </c>
+      <c r="V10">
+        <v>1.975</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
         <v>3.75</v>
       </c>
-      <c r="U10">
-        <v>1.9</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
-      <c r="W10">
-        <v>0.8</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7047439</v>
+        <v>7047445</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,73 +1714,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="N14">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O14">
         <v>4</v>
       </c>
       <c r="P14">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1.8</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
         <v>1.975</v>
       </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>3.75</v>
-      </c>
-      <c r="U14">
-        <v>1.9</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X14">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.825</v>
       </c>
-      <c r="AB14">
-        <v>0.45</v>
-      </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7047445</v>
+        <v>7047439</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,73 +1892,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M16">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N16">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O16">
         <v>4</v>
       </c>
       <c r="P16">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1981,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7047443</v>
+        <v>7071046</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,37 +2159,37 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19">
+        <v>2.1</v>
+      </c>
+      <c r="L19">
+        <v>3.75</v>
+      </c>
+      <c r="M19">
+        <v>2.7</v>
+      </c>
+      <c r="N19">
+        <v>3.4</v>
+      </c>
+      <c r="O19">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>4.333</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
         <v>1.833</v>
       </c>
-      <c r="N19">
-        <v>2.625</v>
-      </c>
-      <c r="O19">
-        <v>4.2</v>
-      </c>
-      <c r="P19">
-        <v>2.05</v>
-      </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
         <v>1.95</v>
@@ -2198,34 +2198,34 @@
         <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7071046</v>
+        <v>7047443</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2251,34 +2251,34 @@
         <v>34</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M20">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N20">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
         <v>1.95</v>
@@ -2287,34 +2287,34 @@
         <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB20">
         <v>0.95</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>45163.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2604,7 +2604,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2693,7 +2693,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2767,7 +2767,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7047450</v>
+        <v>7071045</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,58 +2779,58 @@
         <v>45167.375</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>51</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N26">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O26">
         <v>4.2</v>
       </c>
       <c r="P26">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
         <v>3.5</v>
       </c>
       <c r="U26">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>0.7270000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2839,16 +2839,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
+        <v>-1</v>
+      </c>
+      <c r="AC26">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7047451</v>
+        <v>7047450</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,58 +2868,58 @@
         <v>45167.375</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>51</v>
       </c>
       <c r="K27">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>4</v>
       </c>
       <c r="M27">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N27">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O27">
         <v>4.2</v>
       </c>
       <c r="P27">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
         <v>3.5</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>0.615</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2928,16 +2928,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7071045</v>
+        <v>7047451</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,13 +2957,13 @@
         <v>45167.375</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2972,43 +2972,43 @@
         <v>51</v>
       </c>
       <c r="K28">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N28">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O28">
         <v>4.2</v>
       </c>
       <c r="P28">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q28">
         <v>-1</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
         <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>0.5329999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3017,16 +3017,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7047452</v>
+        <v>7047704</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3046,73 +3046,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>2.55</v>
+      </c>
+      <c r="L29">
         <v>4</v>
       </c>
-      <c r="I29">
+      <c r="M29">
+        <v>2.15</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <v>1.285</v>
+      </c>
+      <c r="Q29">
         <v>2</v>
       </c>
-      <c r="J29" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29">
+      <c r="R29">
+        <v>1.775</v>
+      </c>
+      <c r="S29">
+        <v>1.925</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
         <v>1.75</v>
       </c>
-      <c r="L29">
-        <v>4.2</v>
-      </c>
-      <c r="M29">
-        <v>3.3</v>
-      </c>
-      <c r="N29">
-        <v>1.615</v>
-      </c>
-      <c r="O29">
-        <v>4.333</v>
-      </c>
-      <c r="P29">
-        <v>3.6</v>
-      </c>
-      <c r="Q29">
-        <v>-1</v>
-      </c>
-      <c r="R29">
-        <v>1.925</v>
-      </c>
-      <c r="S29">
-        <v>1.775</v>
-      </c>
-      <c r="T29">
-        <v>3.75</v>
-      </c>
-      <c r="U29">
-        <v>1.825</v>
-      </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
         <v>0.925</v>
       </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
       <c r="AB29">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7047704</v>
+        <v>7047452</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3138,70 +3138,70 @@
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O30">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P30">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R30">
+        <v>1.925</v>
+      </c>
+      <c r="S30">
         <v>1.775</v>
       </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
       <c r="T30">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3224,7 +3224,7 @@
         <v>45168.375</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -3316,7 +3316,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -3491,7 +3491,7 @@
         <v>45170.625</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
         <v>49</v>
@@ -3583,7 +3583,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7047462</v>
+        <v>7047459</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3758,40 +3758,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>2.9</v>
+      </c>
+      <c r="N37">
+        <v>2.375</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>2.45</v>
+      </c>
+      <c r="Q37">
         <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37">
-        <v>1.25</v>
-      </c>
-      <c r="L37">
-        <v>5.5</v>
-      </c>
-      <c r="M37">
-        <v>7.5</v>
-      </c>
-      <c r="N37">
-        <v>1.166</v>
-      </c>
-      <c r="O37">
-        <v>7</v>
-      </c>
-      <c r="P37">
-        <v>9.5</v>
-      </c>
-      <c r="Q37">
-        <v>-2.25</v>
       </c>
       <c r="R37">
         <v>1.85</v>
@@ -3800,34 +3800,34 @@
         <v>1.95</v>
       </c>
       <c r="T37">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>-0</v>
+      </c>
+      <c r="AB37">
+        <v>0.4625</v>
+      </c>
+      <c r="AC37">
         <v>-0.5</v>
-      </c>
-      <c r="AA37">
-        <v>0.475</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7047459</v>
+        <v>7047462</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3847,40 +3847,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M38">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N38">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P38">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R38">
         <v>1.85</v>
@@ -3889,34 +3889,34 @@
         <v>1.95</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X38">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB38">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7071044</v>
+        <v>7047460</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,73 +3939,73 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L39">
+        <v>3.75</v>
+      </c>
+      <c r="M39">
+        <v>2.55</v>
+      </c>
+      <c r="N39">
+        <v>2.4</v>
+      </c>
+      <c r="O39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>2.3</v>
-      </c>
-      <c r="N39">
-        <v>1.65</v>
-      </c>
-      <c r="O39">
-        <v>4.2</v>
-      </c>
       <c r="P39">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X39">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7047461</v>
+        <v>7071044</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>45174.375</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>2.3</v>
+      </c>
+      <c r="N40">
+        <v>1.65</v>
+      </c>
+      <c r="O40">
         <v>4.2</v>
       </c>
-      <c r="M40">
-        <v>2.45</v>
-      </c>
-      <c r="N40">
-        <v>2.375</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
       <c r="P40">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7047460</v>
+        <v>7047461</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,31 +4114,31 @@
         <v>45174.375</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>51</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M41">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N41">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O41">
         <v>4</v>
@@ -4159,13 +4159,13 @@
         <v>3.75</v>
       </c>
       <c r="U41">
+        <v>1.875</v>
+      </c>
+      <c r="V41">
         <v>1.925</v>
       </c>
-      <c r="V41">
-        <v>1.875</v>
-      </c>
       <c r="W41">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4183,7 +4183,7 @@
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4292,10 +4292,10 @@
         <v>45177.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4381,10 +4381,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7047467</v>
+        <v>7047468</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,73 +4648,73 @@
         <v>45181.375</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K47">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N47">
-        <v>1.666</v>
+        <v>1.142</v>
       </c>
       <c r="O47">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P47">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
         <v>1.925</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7047468</v>
+        <v>7047467</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,73 +4737,73 @@
         <v>45181.375</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="O48">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P48">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q48">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
         <v>1.925</v>
       </c>
       <c r="T48">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W48">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z48">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4826,7 +4826,7 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>40</v>
@@ -4903,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7047470</v>
+        <v>7047471</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,76 +4915,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K50">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L50">
         <v>4.5</v>
       </c>
       <c r="M50">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="N50">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T50">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7047471</v>
+        <v>7047470</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,76 +5004,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K51">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L51">
         <v>4.5</v>
       </c>
       <c r="M51">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="N51">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5185,7 +5185,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5360,7 +5360,7 @@
         <v>45188.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
@@ -5449,7 +5449,7 @@
         <v>45191.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5538,7 +5538,7 @@
         <v>45194.375</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s">
         <v>48</v>
@@ -5805,10 +5805,10 @@
         <v>45194.625</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7071042</v>
+        <v>7047483</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>45195.375</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N61">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
+        <v>1.875</v>
+      </c>
+      <c r="S61">
         <v>1.925</v>
-      </c>
-      <c r="S61">
-        <v>1.875</v>
       </c>
       <c r="T61">
         <v>3.25</v>
       </c>
       <c r="U61">
+        <v>1.825</v>
+      </c>
+      <c r="V61">
         <v>1.975</v>
       </c>
-      <c r="V61">
-        <v>1.825</v>
-      </c>
       <c r="W61">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
         <v>0.925</v>
       </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7047483</v>
+        <v>7071042</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,76 +5983,76 @@
         <v>45195.375</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M62">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
+        <v>1.925</v>
+      </c>
+      <c r="S62">
         <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.925</v>
       </c>
       <c r="T62">
         <v>3.25</v>
       </c>
       <c r="U62">
+        <v>1.975</v>
+      </c>
+      <c r="V62">
         <v>1.825</v>
       </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.825</v>
-      </c>
-      <c r="AC62">
-        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6075,7 +6075,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6253,7 +6253,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6339,10 +6339,10 @@
         <v>45198.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6606,10 +6606,10 @@
         <v>45201.375</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -6695,10 +6695,10 @@
         <v>45201.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7047491</v>
+        <v>7047490</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,13 +6784,13 @@
         <v>45202.375</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6799,43 +6799,43 @@
         <v>51</v>
       </c>
       <c r="K71">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L71">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M71">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N71">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O71">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P71">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U71">
+        <v>1.85</v>
+      </c>
+      <c r="V71">
         <v>1.95</v>
       </c>
-      <c r="V71">
-        <v>1.85</v>
-      </c>
       <c r="W71">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6844,13 +6844,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6861,7 +6861,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7047490</v>
+        <v>7047491</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6873,13 +6873,13 @@
         <v>45202.375</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -6888,43 +6888,43 @@
         <v>51</v>
       </c>
       <c r="K72">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L72">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M72">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N72">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q72">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T72">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
         <v>1.85</v>
       </c>
-      <c r="V72">
-        <v>1.95</v>
-      </c>
       <c r="W72">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6933,13 +6933,13 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6965,7 +6965,7 @@
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7140,10 +7140,10 @@
         <v>45212.625</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7229,7 +7229,7 @@
         <v>45215.375</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7407,7 +7407,7 @@
         <v>45216.375</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
@@ -7496,7 +7496,7 @@
         <v>45216.375</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7674,7 +7674,7 @@
         <v>45216.625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7047705</v>
+        <v>7047706</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7763,10 +7763,10 @@
         <v>45222.375</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7778,61 +7778,61 @@
         <v>50</v>
       </c>
       <c r="K82">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
+        <v>3.5</v>
+      </c>
+      <c r="N82">
+        <v>2.15</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
         <v>2.5</v>
       </c>
-      <c r="N82">
-        <v>3.75</v>
-      </c>
-      <c r="O82">
-        <v>4.333</v>
-      </c>
-      <c r="P82">
-        <v>1.666</v>
-      </c>
       <c r="Q82">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7047706</v>
+        <v>7047705</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7852,10 +7852,10 @@
         <v>45222.375</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7867,61 +7867,61 @@
         <v>50</v>
       </c>
       <c r="K83">
+        <v>2.25</v>
+      </c>
+      <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>2.5</v>
+      </c>
+      <c r="N83">
+        <v>3.75</v>
+      </c>
+      <c r="O83">
+        <v>4.333</v>
+      </c>
+      <c r="P83">
         <v>1.666</v>
       </c>
-      <c r="L83">
-        <v>4.333</v>
-      </c>
-      <c r="M83">
-        <v>3.5</v>
-      </c>
-      <c r="N83">
-        <v>2.15</v>
-      </c>
-      <c r="O83">
-        <v>4</v>
-      </c>
-      <c r="P83">
-        <v>2.5</v>
-      </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7944,7 +7944,7 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7047507</v>
+        <v>7071039</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,76 +8030,76 @@
         <v>45223.375</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L85">
-        <v>4.333</v>
+        <v>3.9</v>
       </c>
       <c r="M85">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
         <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
+        <v>1.875</v>
+      </c>
+      <c r="V85">
         <v>1.925</v>
       </c>
-      <c r="V85">
-        <v>1.875</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X85">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7047506</v>
+        <v>7047507</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,76 +8119,76 @@
         <v>45223.375</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K86">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L86">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M86">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N86">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O86">
         <v>4.5</v>
       </c>
       <c r="P86">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q86">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T86">
+        <v>3.75</v>
+      </c>
+      <c r="U86">
+        <v>1.925</v>
+      </c>
+      <c r="V86">
+        <v>1.875</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
         <v>3.5</v>
       </c>
-      <c r="U86">
-        <v>1.95</v>
-      </c>
-      <c r="V86">
-        <v>1.85</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
       <c r="Y86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8196,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7071039</v>
+        <v>7047505</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,73 +8208,73 @@
         <v>45223.375</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>51</v>
       </c>
       <c r="K87">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N87">
+        <v>1.7</v>
+      </c>
+      <c r="O87">
+        <v>4.2</v>
+      </c>
+      <c r="P87">
+        <v>3.8</v>
+      </c>
+      <c r="Q87">
+        <v>-0.75</v>
+      </c>
+      <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
+        <v>3.5</v>
+      </c>
+      <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
-      <c r="P87">
-        <v>3.1</v>
-      </c>
-      <c r="Q87">
+      <c r="W87">
+        <v>0.7</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>0.4375</v>
+      </c>
+      <c r="AA87">
         <v>-0.5</v>
       </c>
-      <c r="R87">
-        <v>1.9</v>
-      </c>
-      <c r="S87">
-        <v>1.9</v>
-      </c>
-      <c r="T87">
-        <v>3.25</v>
-      </c>
-      <c r="U87">
-        <v>1.875</v>
-      </c>
-      <c r="V87">
-        <v>1.925</v>
-      </c>
-      <c r="W87">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8285,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7047505</v>
+        <v>7047506</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8297,46 +8297,46 @@
         <v>45223.375</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88" t="s">
+        <v>52</v>
+      </c>
+      <c r="K88">
+        <v>2.3</v>
+      </c>
+      <c r="L88">
+        <v>3.8</v>
+      </c>
+      <c r="M88">
+        <v>2.375</v>
+      </c>
+      <c r="N88">
+        <v>4.75</v>
+      </c>
+      <c r="O88">
+        <v>4.5</v>
+      </c>
+      <c r="P88">
+        <v>1.5</v>
+      </c>
+      <c r="Q88">
+        <v>1.25</v>
+      </c>
+      <c r="R88">
+        <v>1.8</v>
+      </c>
+      <c r="S88">
         <v>2</v>
-      </c>
-      <c r="J88" t="s">
-        <v>51</v>
-      </c>
-      <c r="K88">
-        <v>1.8</v>
-      </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
-        <v>3.25</v>
-      </c>
-      <c r="N88">
-        <v>1.7</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
-      <c r="P88">
-        <v>3.8</v>
-      </c>
-      <c r="Q88">
-        <v>-0.75</v>
-      </c>
-      <c r="R88">
-        <v>1.875</v>
-      </c>
-      <c r="S88">
-        <v>1.925</v>
       </c>
       <c r="T88">
         <v>3.5</v>
@@ -8348,19 +8348,19 @@
         <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z88">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB88">
         <v>0.95</v>
@@ -8567,7 +8567,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8656,7 +8656,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8730,7 +8730,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7047512</v>
+        <v>7047515</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8742,49 +8742,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L93">
         <v>4.5</v>
       </c>
       <c r="M93">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O93">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P93">
         <v>5</v>
       </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8793,25 +8793,25 @@
         <v>1.9</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X93">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
+        <v>0.425</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB93">
-        <v>0.45</v>
-      </c>
-      <c r="AC93">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7047515</v>
+        <v>7047512</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8831,49 +8831,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K94">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L94">
         <v>4.5</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N94">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O94">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P94">
         <v>5</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U94">
         <v>1.9</v>
@@ -8882,25 +8882,25 @@
         <v>1.9</v>
       </c>
       <c r="W94">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB94">
+        <v>0.45</v>
+      </c>
+      <c r="AC94">
         <v>-0.5</v>
-      </c>
-      <c r="AA94">
-        <v>0.425</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
-      <c r="AC94">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8920,10 +8920,10 @@
         <v>45230.45833333334</v>
       </c>
       <c r="F95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" t="s">
         <v>34</v>
-      </c>
-      <c r="G95" t="s">
-        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>48</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9187,7 +9187,7 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>48</v>
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7047523</v>
+        <v>7071037</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,73 +9276,73 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>51</v>
+      </c>
+      <c r="K99">
+        <v>2.25</v>
+      </c>
+      <c r="L99">
         <v>4</v>
       </c>
-      <c r="J99" t="s">
-        <v>52</v>
-      </c>
-      <c r="K99">
-        <v>2.75</v>
-      </c>
-      <c r="L99">
+      <c r="M99">
+        <v>2.4</v>
+      </c>
+      <c r="N99">
+        <v>1.727</v>
+      </c>
+      <c r="O99">
         <v>4.2</v>
       </c>
-      <c r="M99">
-        <v>1.95</v>
-      </c>
-      <c r="N99">
-        <v>2.45</v>
-      </c>
-      <c r="O99">
-        <v>4</v>
-      </c>
       <c r="P99">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
         <v>3.75</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA99">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7047522</v>
+        <v>7047523</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,56 +9365,56 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
       </c>
       <c r="K100">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
         <v>4.2</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N100">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T100">
         <v>3.75</v>
       </c>
       <c r="U100">
+        <v>1.925</v>
+      </c>
+      <c r="V100">
         <v>1.875</v>
       </c>
-      <c r="V100">
-        <v>1.925</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9422,19 +9422,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
+        <v>0.75</v>
+      </c>
+      <c r="AB100">
         <v>0.925</v>
       </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9442,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7071037</v>
+        <v>7047522</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9454,76 +9454,76 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K101">
         <v>2.25</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M101">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
         <v>3.75</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z101">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9546,7 +9546,7 @@
         <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9632,7 +9632,7 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9721,10 +9721,10 @@
         <v>45237.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>45244.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
         <v>32</v>
@@ -9899,10 +9899,10 @@
         <v>45247.66666666666</v>
       </c>
       <c r="F106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
         <v>33</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10080,7 +10080,7 @@
         <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10154,7 +10154,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7047534</v>
+        <v>7047533</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10166,10 +10166,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10181,61 +10181,61 @@
         <v>50</v>
       </c>
       <c r="K109">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L109">
         <v>4</v>
       </c>
       <c r="M109">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O109">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P109">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S109">
         <v>1.95</v>
       </c>
       <c r="T109">
+        <v>3.75</v>
+      </c>
+      <c r="U109">
+        <v>1.95</v>
+      </c>
+      <c r="V109">
+        <v>1.85</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
         <v>3</v>
       </c>
-      <c r="U109">
-        <v>1.85</v>
-      </c>
-      <c r="V109">
-        <v>1.95</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>2.75</v>
-      </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
+        <v>-0.5</v>
+      </c>
+      <c r="AA109">
+        <v>0.475</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>0.95</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10255,7 +10255,7 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G110" t="s">
         <v>40</v>
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7047533</v>
+        <v>7047534</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,10 +10344,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10359,61 +10359,61 @@
         <v>50</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L111">
         <v>4</v>
       </c>
       <c r="M111">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N111">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R111">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
         <v>1.95</v>
       </c>
       <c r="T111">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
         <v>1.95</v>
       </c>
-      <c r="V111">
-        <v>1.85</v>
-      </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA111">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10436,7 +10436,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10525,7 +10525,7 @@
         <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7047541</v>
+        <v>7047537</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10614,70 +10614,70 @@
         <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K114">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M114">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N114">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="O114">
         <v>4</v>
       </c>
       <c r="P114">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q114">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
         <v>3.75</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB114">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10703,7 +10703,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7047537</v>
+        <v>7047541</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10792,70 +10792,70 @@
         <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K116">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="L116">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M116">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="N116">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="O116">
         <v>4</v>
       </c>
       <c r="P116">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
         <v>3.75</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10967,10 +10967,10 @@
         <v>45258.66666666666</v>
       </c>
       <c r="F118" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" t="s">
         <v>37</v>
-      </c>
-      <c r="G118" t="s">
-        <v>36</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11145,7 +11145,7 @@
         <v>45260.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11237,7 +11237,7 @@
         <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11326,7 +11326,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11501,10 +11501,10 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -11679,7 +11679,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s">
         <v>48</v>
@@ -11860,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11946,10 +11946,10 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12127,7 +12127,7 @@
         <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -12391,7 +12391,7 @@
         <v>45279.4375</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
         <v>30</v>
@@ -12480,10 +12480,10 @@
         <v>45279.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12661,7 +12661,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12750,7 +12750,7 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7071032</v>
+        <v>7047572</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,34 +13014,34 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J141" t="s">
         <v>52</v>
       </c>
       <c r="K141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L141">
         <v>4.2</v>
       </c>
       <c r="M141">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N141">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O141">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
         <v>3.1</v>
@@ -13050,19 +13050,19 @@
         <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
         <v>3.5</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13077,13 +13077,13 @@
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7047569</v>
+        <v>7071032</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
         <v>4.2</v>
       </c>
       <c r="M143">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T143">
         <v>3.5</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13281,10 +13281,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7047572</v>
+        <v>7047569</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
         <v>4.2</v>
       </c>
       <c r="M145">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N145">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O145">
         <v>4.333</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
+        <v>1.975</v>
+      </c>
+      <c r="S145">
         <v>1.825</v>
-      </c>
-      <c r="S145">
-        <v>1.975</v>
       </c>
       <c r="T145">
         <v>3.5</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13459,7 +13459,7 @@
         <v>45303.375</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
         <v>40</v>
@@ -13548,7 +13548,7 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7047576</v>
+        <v>7047575</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>5</v>
@@ -13652,58 +13652,58 @@
         <v>52</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L148">
+        <v>6</v>
+      </c>
+      <c r="M148">
+        <v>1.25</v>
+      </c>
+      <c r="N148">
         <v>4</v>
       </c>
-      <c r="M148">
-        <v>2.75</v>
-      </c>
-      <c r="N148">
-        <v>2.875</v>
-      </c>
       <c r="O148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P148">
+        <v>1.5</v>
+      </c>
+      <c r="Q148">
+        <v>1.25</v>
+      </c>
+      <c r="R148">
+        <v>1.85</v>
+      </c>
+      <c r="S148">
         <v>1.95</v>
       </c>
-      <c r="Q148">
+      <c r="T148">
+        <v>3.75</v>
+      </c>
+      <c r="U148">
+        <v>1.9</v>
+      </c>
+      <c r="V148">
+        <v>1.9</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
         <v>0.5</v>
       </c>
-      <c r="R148">
-        <v>1.8</v>
-      </c>
-      <c r="S148">
-        <v>2</v>
-      </c>
-      <c r="T148">
-        <v>3.5</v>
-      </c>
-      <c r="U148">
-        <v>1.925</v>
-      </c>
-      <c r="V148">
-        <v>1.875</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
         <v>0.95</v>
       </c>
-      <c r="Z148">
-        <v>-1</v>
-      </c>
-      <c r="AA148">
-        <v>1</v>
-      </c>
       <c r="AB148">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7047575</v>
+        <v>7047576</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>5</v>
@@ -13741,40 +13741,40 @@
         <v>52</v>
       </c>
       <c r="K149">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="N149">
+        <v>2.875</v>
+      </c>
+      <c r="O149">
         <v>4</v>
       </c>
-      <c r="O149">
-        <v>5</v>
-      </c>
       <c r="P149">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q149">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13783,16 +13783,16 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13818,7 +13818,7 @@
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13993,7 +13993,7 @@
         <v>45314.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
         <v>31</v>
@@ -14085,7 +14085,7 @@
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14171,7 +14171,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
         <v>48</v>
@@ -14260,7 +14260,7 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G155" t="s">
         <v>42</v>
@@ -14349,7 +14349,7 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
         <v>40</v>
@@ -14527,7 +14527,7 @@
         <v>45321.67708333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14705,7 +14705,7 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
         <v>38</v>
@@ -14794,10 +14794,10 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14886,7 +14886,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14975,7 +14975,7 @@
         <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15064,7 +15064,7 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15153,7 +15153,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7047601</v>
+        <v>7047603</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
         <v>1</v>
       </c>
-      <c r="I166">
-        <v>2</v>
-      </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K166">
+        <v>1.9</v>
+      </c>
+      <c r="L166">
+        <v>4</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
         <v>1.7</v>
       </c>
-      <c r="L166">
+      <c r="O166">
         <v>4.2</v>
       </c>
-      <c r="M166">
+      <c r="P166">
         <v>3.6</v>
       </c>
-      <c r="N166">
-        <v>1.363</v>
-      </c>
-      <c r="O166">
-        <v>4.75</v>
-      </c>
-      <c r="P166">
-        <v>5.75</v>
-      </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
         <v>1.825</v>
       </c>
-      <c r="V166">
-        <v>1.975</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA166">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7047603</v>
+        <v>7047602</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,58 +15328,58 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>51</v>
       </c>
       <c r="K167">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M167">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N167">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O167">
         <v>4.2</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q167">
         <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7047602</v>
+        <v>7047601</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
         <v>2</v>
       </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L168">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M168">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N168">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P168">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
         <v>3.5</v>
       </c>
       <c r="U168">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA168">
-        <v>-1</v>
-      </c>
-      <c r="AB168">
-        <v>-1</v>
-      </c>
-      <c r="AC168">
-        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7047600</v>
+        <v>7047606</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,10 +15506,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15521,25 +15521,25 @@
         <v>52</v>
       </c>
       <c r="K169">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L169">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M169">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O169">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P169">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
         <v>1.95</v>
@@ -15548,13 +15548,13 @@
         <v>1.85</v>
       </c>
       <c r="T169">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15563,7 +15563,7 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z169">
         <v>-1</v>
@@ -15575,7 +15575,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7047606</v>
+        <v>7047600</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,10 +15595,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15610,25 +15610,25 @@
         <v>52</v>
       </c>
       <c r="K170">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L170">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N170">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O170">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P170">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R170">
         <v>1.95</v>
@@ -15637,22 +15637,22 @@
         <v>1.85</v>
       </c>
       <c r="T170">
+        <v>3.75</v>
+      </c>
+      <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
+        <v>1.9</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
         <v>3.5</v>
-      </c>
-      <c r="U170">
-        <v>1.775</v>
-      </c>
-      <c r="V170">
-        <v>1.925</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>2</v>
       </c>
       <c r="Z170">
         <v>-1</v>
@@ -15664,7 +15664,7 @@
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15776,7 +15776,7 @@
         <v>49</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15865,7 +15865,7 @@
         <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15954,7 +15954,7 @@
         <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7047611</v>
+        <v>7071028</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,76 +16040,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F175" t="s">
+        <v>39</v>
+      </c>
+      <c r="G175" t="s">
         <v>46</v>
       </c>
-      <c r="G175" t="s">
-        <v>42</v>
-      </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>50</v>
       </c>
       <c r="K175">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M175">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="N175">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P175">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R175">
+        <v>1.8</v>
+      </c>
+      <c r="S175">
+        <v>2</v>
+      </c>
+      <c r="T175">
+        <v>3.5</v>
+      </c>
+      <c r="U175">
         <v>1.875</v>
       </c>
-      <c r="S175">
+      <c r="V175">
         <v>1.925</v>
       </c>
-      <c r="T175">
-        <v>3.25</v>
-      </c>
-      <c r="U175">
-        <v>1.85</v>
-      </c>
-      <c r="V175">
-        <v>1.95</v>
-      </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA175">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC175">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7047610</v>
+        <v>7047613</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,40 +16129,40 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L176">
+        <v>4.8</v>
+      </c>
+      <c r="M176">
+        <v>1.571</v>
+      </c>
+      <c r="N176">
+        <v>3.2</v>
+      </c>
+      <c r="O176">
         <v>4.5</v>
       </c>
-      <c r="M176">
-        <v>3.2</v>
-      </c>
-      <c r="N176">
-        <v>1.55</v>
-      </c>
-      <c r="O176">
-        <v>5</v>
-      </c>
       <c r="P176">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R176">
         <v>1.825</v>
@@ -16171,34 +16171,34 @@
         <v>1.975</v>
       </c>
       <c r="T176">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7047613</v>
+        <v>7047610</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,40 +16218,40 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H177">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K177">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M177">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="N177">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="O177">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P177">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R177">
         <v>1.825</v>
@@ -16260,34 +16260,34 @@
         <v>1.975</v>
       </c>
       <c r="T177">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB177">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7071028</v>
+        <v>7047611</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G178" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>50</v>
       </c>
       <c r="K178">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L178">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="N178">
+        <v>2.375</v>
+      </c>
+      <c r="O178">
+        <v>3.8</v>
+      </c>
+      <c r="P178">
+        <v>2.45</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>1.875</v>
+      </c>
+      <c r="S178">
+        <v>1.925</v>
+      </c>
+      <c r="T178">
+        <v>3.25</v>
+      </c>
+      <c r="U178">
+        <v>1.85</v>
+      </c>
+      <c r="V178">
+        <v>1.95</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
         <v>2.8</v>
       </c>
-      <c r="O178">
-        <v>4.333</v>
-      </c>
-      <c r="P178">
-        <v>1.95</v>
-      </c>
-      <c r="Q178">
-        <v>0.5</v>
-      </c>
-      <c r="R178">
-        <v>1.8</v>
-      </c>
-      <c r="S178">
-        <v>2</v>
-      </c>
-      <c r="T178">
-        <v>3.5</v>
-      </c>
-      <c r="U178">
-        <v>1.875</v>
-      </c>
-      <c r="V178">
-        <v>1.925</v>
-      </c>
-      <c r="W178">
-        <v>-1</v>
-      </c>
-      <c r="X178">
-        <v>3.333</v>
-      </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16488,7 +16488,7 @@
         <v>45</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16577,7 +16577,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16663,10 +16663,10 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>45348.375</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
         <v>45</v>
@@ -16841,7 +16841,7 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
         <v>30</v>
@@ -17019,7 +17019,7 @@
         <v>45348.4375</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
         <v>39</v>
@@ -17113,6 +17113,15 @@
       <c r="G187" t="s">
         <v>49</v>
       </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>52</v>
+      </c>
       <c r="K187">
         <v>1.727</v>
       </c>
@@ -17123,46 +17132,52 @@
         <v>3.3</v>
       </c>
       <c r="N187">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O187">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q187">
         <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S187">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T187">
         <v>3.5</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
+        <v>0.825</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17182,10 +17197,19 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F188" t="s">
+        <v>37</v>
+      </c>
+      <c r="G188" t="s">
         <v>36</v>
       </c>
-      <c r="G188" t="s">
-        <v>37</v>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>52</v>
       </c>
       <c r="K188">
         <v>1.727</v>
@@ -17203,40 +17227,46 @@
         <v>4</v>
       </c>
       <c r="P188">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q188">
         <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
         <v>3.5</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17244,7 +17274,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7047629</v>
+        <v>7047630</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17256,61 +17286,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189" t="s">
+        <v>50</v>
       </c>
       <c r="K189">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L189">
         <v>4</v>
       </c>
       <c r="M189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N189">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>1.8</v>
+      </c>
+      <c r="T189">
+        <v>3.25</v>
+      </c>
+      <c r="U189">
         <v>1.975</v>
       </c>
-      <c r="S189">
+      <c r="V189">
         <v>1.825</v>
       </c>
-      <c r="T189">
-        <v>4</v>
-      </c>
-      <c r="U189">
-        <v>1.9</v>
-      </c>
-      <c r="V189">
-        <v>1.9</v>
-      </c>
       <c r="W189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="AB189">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC189">
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17318,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7047630</v>
+        <v>7047629</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17330,31 +17375,40 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" t="s">
+        <v>51</v>
       </c>
       <c r="K190">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L190">
         <v>4</v>
       </c>
       <c r="M190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N190">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q190">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
         <v>1.875</v>
@@ -17363,28 +17417,123 @@
         <v>1.925</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U190">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
+        <v>0.7</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
+        <v>0.4375</v>
+      </c>
+      <c r="AA190">
+        <v>-0.5</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>7071027</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45350.45833333334</v>
+      </c>
+      <c r="F191" t="s">
+        <v>46</v>
+      </c>
+      <c r="G191" t="s">
+        <v>44</v>
+      </c>
+      <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191">
+        <v>3</v>
+      </c>
+      <c r="J191" t="s">
+        <v>52</v>
+      </c>
+      <c r="K191">
+        <v>2.2</v>
+      </c>
+      <c r="L191">
+        <v>4.333</v>
+      </c>
+      <c r="M191">
+        <v>2.35</v>
+      </c>
+      <c r="N191">
+        <v>2.4</v>
+      </c>
+      <c r="O191">
+        <v>4.333</v>
+      </c>
+      <c r="P191">
+        <v>2.2</v>
+      </c>
+      <c r="Q191">
         <v>0</v>
       </c>
-      <c r="X190">
-        <v>0</v>
-      </c>
-      <c r="Y190">
-        <v>0</v>
-      </c>
-      <c r="Z190">
-        <v>0</v>
-      </c>
-      <c r="AA190">
-        <v>0</v>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>1.8</v>
+      </c>
+      <c r="T191">
+        <v>3.5</v>
+      </c>
+      <c r="U191">
+        <v>1.9</v>
+      </c>
+      <c r="V191">
+        <v>1.9</v>
+      </c>
+      <c r="W191">
+        <v>-1</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>1.2</v>
+      </c>
+      <c r="Z191">
+        <v>-1</v>
+      </c>
+      <c r="AA191">
+        <v>0.8</v>
+      </c>
+      <c r="AB191">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC191">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -109,25 +109,25 @@
     <t>Birmingham U21</t>
   </si>
   <si>
+    <t>Fleetwood Town U21</t>
+  </si>
+  <si>
     <t>Barnsley U21</t>
   </si>
   <si>
-    <t>Fleetwood Town U21</t>
+    <t>Peterborough U21</t>
+  </si>
+  <si>
+    <t>Sheff Utd U21</t>
   </si>
   <si>
     <t>Coventry U21</t>
   </si>
   <si>
-    <t>Sheff Utd U21</t>
-  </si>
-  <si>
-    <t>Peterborough U21</t>
+    <t>Sheffield Wed U21</t>
   </si>
   <si>
     <t>Hull U21</t>
-  </si>
-  <si>
-    <t>Sheffield Wed U21</t>
   </si>
   <si>
     <t>Wigan U21</t>
@@ -142,10 +142,10 @@
     <t>Colchester U21</t>
   </si>
   <si>
-    <t>Millwall U21</t>
+    <t>Charlton U21</t>
   </si>
   <si>
-    <t>Charlton U21</t>
+    <t>Millwall U21</t>
   </si>
   <si>
     <t>QPR U21</t>
@@ -154,10 +154,10 @@
     <t>Cardiff U21</t>
   </si>
   <si>
-    <t>Bournemouth U21</t>
+    <t>Bristol City U21</t>
   </si>
   <si>
-    <t>Bristol City U21</t>
+    <t>Bournemouth U21</t>
   </si>
   <si>
     <t>Ipswich U21</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7047431</v>
+        <v>7067620</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -824,55 +824,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
       </c>
       <c r="K4">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L4">
+        <v>3.75</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
         <v>3.6</v>
       </c>
-      <c r="M4">
-        <v>2.1</v>
-      </c>
-      <c r="N4">
-        <v>2.75</v>
-      </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -881,13 +881,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7067620</v>
+        <v>7047431</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -913,55 +913,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
       </c>
       <c r="K5">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N5">
+        <v>2.75</v>
+      </c>
+      <c r="O5">
         <v>3.6</v>
       </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -970,13 +970,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7067710</v>
+        <v>7047433</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,52 +1002,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
       </c>
       <c r="K6">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M6">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P6">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
         <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1056,19 +1056,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.7</v>
+        <v>0.909</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7047433</v>
+        <v>7067710</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,52 +1180,52 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>52</v>
       </c>
       <c r="K8">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>3.5</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1234,19 +1234,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.909</v>
+        <v>1.7</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7046797</v>
+        <v>7047435</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1275,67 +1275,67 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M9">
+        <v>1.444</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
         <v>4.75</v>
       </c>
-      <c r="N9">
-        <v>1.8</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
       <c r="P9">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R9">
+        <v>1.925</v>
+      </c>
+      <c r="S9">
         <v>1.875</v>
       </c>
-      <c r="S9">
-        <v>1.925</v>
-      </c>
       <c r="T9">
+        <v>3.25</v>
+      </c>
+      <c r="U9">
+        <v>1.825</v>
+      </c>
+      <c r="V9">
+        <v>1.975</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
         <v>3.75</v>
       </c>
-      <c r="U9">
-        <v>1.9</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
-      <c r="W9">
-        <v>0.8</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7047435</v>
+        <v>7046797</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1364,67 +1364,67 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
+        <v>4.5</v>
+      </c>
+      <c r="M10">
         <v>4.75</v>
       </c>
-      <c r="M10">
-        <v>1.444</v>
-      </c>
       <c r="N10">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
+        <v>1.875</v>
+      </c>
+      <c r="S10">
         <v>1.925</v>
       </c>
-      <c r="S10">
-        <v>1.875</v>
-      </c>
       <c r="T10">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X10">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7047440</v>
+        <v>7047439</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,73 +1803,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>3.5</v>
+      </c>
+      <c r="L15">
+        <v>4.2</v>
+      </c>
+      <c r="M15">
+        <v>1.7</v>
+      </c>
+      <c r="N15">
+        <v>1.727</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>3.5</v>
+      </c>
+      <c r="Q15">
+        <v>-0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>3.75</v>
+      </c>
+      <c r="U15">
+        <v>1.9</v>
+      </c>
+      <c r="V15">
+        <v>1.9</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>3</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15">
-        <v>1.533</v>
-      </c>
-      <c r="L15">
-        <v>4.5</v>
-      </c>
-      <c r="M15">
-        <v>4.2</v>
-      </c>
-      <c r="N15">
-        <v>1.45</v>
-      </c>
-      <c r="O15">
-        <v>4.75</v>
-      </c>
-      <c r="P15">
-        <v>4.75</v>
-      </c>
-      <c r="Q15">
-        <v>-1.25</v>
-      </c>
-      <c r="R15">
-        <v>1.9</v>
-      </c>
-      <c r="S15">
-        <v>1.9</v>
-      </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
-      <c r="V15">
-        <v>1.95</v>
-      </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>-1</v>
+      </c>
+      <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
+        <v>0.825</v>
+      </c>
+      <c r="AB15">
         <v>0.45</v>
       </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7047439</v>
+        <v>7047440</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,73 +1892,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
+        <v>1.533</v>
+      </c>
+      <c r="L16">
+        <v>4.5</v>
+      </c>
+      <c r="M16">
+        <v>4.2</v>
+      </c>
+      <c r="N16">
+        <v>1.45</v>
+      </c>
+      <c r="O16">
+        <v>4.75</v>
+      </c>
+      <c r="P16">
+        <v>4.75</v>
+      </c>
+      <c r="Q16">
+        <v>-1.25</v>
+      </c>
+      <c r="R16">
+        <v>1.9</v>
+      </c>
+      <c r="S16">
+        <v>1.9</v>
+      </c>
+      <c r="T16">
         <v>3.5</v>
       </c>
-      <c r="L16">
-        <v>4.2</v>
-      </c>
-      <c r="M16">
-        <v>1.7</v>
-      </c>
-      <c r="N16">
-        <v>1.727</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="P16">
-        <v>3.5</v>
-      </c>
-      <c r="Q16">
-        <v>-0.75</v>
-      </c>
-      <c r="R16">
-        <v>1.975</v>
-      </c>
-      <c r="S16">
-        <v>1.825</v>
-      </c>
-      <c r="T16">
-        <v>3.75</v>
-      </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1981,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7071046</v>
+        <v>7047443</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,37 +2159,37 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M19">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N19">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P19">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
         <v>1.95</v>
@@ -2198,34 +2198,34 @@
         <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB19">
         <v>0.95</v>
       </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7047443</v>
+        <v>7071046</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2248,37 +2248,37 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>2.1</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>2.7</v>
+      </c>
+      <c r="N20">
+        <v>3.4</v>
+      </c>
+      <c r="O20">
         <v>4</v>
       </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>4.333</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
         <v>1.833</v>
       </c>
-      <c r="N20">
-        <v>2.625</v>
-      </c>
-      <c r="O20">
-        <v>4.2</v>
-      </c>
-      <c r="P20">
-        <v>2.05</v>
-      </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
         <v>1.95</v>
@@ -2287,34 +2287,34 @@
         <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>45163.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2693,7 +2693,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2767,7 +2767,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7071045</v>
+        <v>7047450</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,58 +2779,58 @@
         <v>45167.375</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>51</v>
       </c>
       <c r="K26">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N26">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O26">
         <v>4.2</v>
       </c>
       <c r="P26">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
         <v>3.5</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>0.5329999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2839,16 +2839,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7047450</v>
+        <v>7071045</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,58 +2868,58 @@
         <v>45167.375</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>51</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N27">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O27">
         <v>4.2</v>
       </c>
       <c r="P27">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
         <v>3.5</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>0.7270000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2928,16 +2928,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
+        <v>-1</v>
+      </c>
+      <c r="AC27">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
-      <c r="AB27">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC27">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2957,7 +2957,7 @@
         <v>45167.375</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>48</v>
@@ -3046,7 +3046,7 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -3224,10 +3224,10 @@
         <v>45168.375</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3316,7 +3316,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -3405,7 +3405,7 @@
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3583,7 +3583,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -3672,7 +3672,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3758,7 +3758,7 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
         <v>30</v>
@@ -3847,7 +3847,7 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
         <v>29</v>
@@ -3936,7 +3936,7 @@
         <v>45174.375</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7071044</v>
+        <v>7047461</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>45174.375</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L40">
+        <v>4.2</v>
+      </c>
+      <c r="M40">
+        <v>2.45</v>
+      </c>
+      <c r="N40">
+        <v>2.375</v>
+      </c>
+      <c r="O40">
         <v>4</v>
       </c>
-      <c r="M40">
-        <v>2.3</v>
-      </c>
-      <c r="N40">
-        <v>1.65</v>
-      </c>
-      <c r="O40">
-        <v>4.2</v>
-      </c>
       <c r="P40">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X40">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7047461</v>
+        <v>7071044</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,76 +4114,76 @@
         <v>45174.375</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>2.3</v>
+      </c>
+      <c r="N41">
+        <v>1.65</v>
+      </c>
+      <c r="O41">
         <v>4.2</v>
       </c>
-      <c r="M41">
-        <v>2.45</v>
-      </c>
-      <c r="N41">
-        <v>2.375</v>
-      </c>
-      <c r="O41">
-        <v>4</v>
-      </c>
       <c r="P41">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4292,10 +4292,10 @@
         <v>45177.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4381,10 +4381,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7047466</v>
+        <v>7047465</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4470,76 +4470,76 @@
         <v>45180.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M45">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N45">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
+        <v>1.975</v>
+      </c>
+      <c r="S45">
         <v>1.825</v>
-      </c>
-      <c r="S45">
-        <v>1.975</v>
       </c>
       <c r="T45">
         <v>3.5</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
         <v>0.825</v>
       </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7047465</v>
+        <v>7047466</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4559,76 +4559,76 @@
         <v>45180.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>1.727</v>
+      </c>
+      <c r="N46">
+        <v>3.2</v>
+      </c>
+      <c r="O46">
         <v>3.75</v>
       </c>
-      <c r="M46">
-        <v>2.4</v>
-      </c>
-      <c r="N46">
-        <v>2.55</v>
-      </c>
-      <c r="O46">
-        <v>3.4</v>
-      </c>
       <c r="P46">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
+        <v>1.825</v>
+      </c>
+      <c r="S46">
         <v>1.975</v>
-      </c>
-      <c r="S46">
-        <v>1.825</v>
       </c>
       <c r="T46">
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y46">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7047468</v>
+        <v>7047467</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,73 +4648,73 @@
         <v>45181.375</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="O47">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q47">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
         <v>1.925</v>
       </c>
       <c r="T47">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7047467</v>
+        <v>7047468</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,73 +4737,73 @@
         <v>45181.375</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K48">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N48">
-        <v>1.666</v>
+        <v>1.142</v>
       </c>
       <c r="O48">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P48">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S48">
         <v>1.925</v>
       </c>
       <c r="T48">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4814,7 +4814,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7047469</v>
+        <v>7047470</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,52 +4829,52 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
         <v>52</v>
       </c>
       <c r="K49">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L49">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M49">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="N49">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O49">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P49">
+        <v>1.533</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
         <v>1.8</v>
       </c>
-      <c r="Q49">
-        <v>0.5</v>
-      </c>
-      <c r="R49">
-        <v>1.925</v>
-      </c>
-      <c r="S49">
-        <v>1.775</v>
-      </c>
       <c r="T49">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4883,16 +4883,16 @@
         <v>-1</v>
       </c>
       <c r="Y49">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
         <v>0.8</v>
       </c>
-      <c r="Z49">
-        <v>-1</v>
-      </c>
-      <c r="AA49">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4903,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7047471</v>
+        <v>7047469</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,76 +4915,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
         <v>3</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M50">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="N50">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P50">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T50">
         <v>3.75</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7047470</v>
+        <v>7047471</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,76 +5004,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K51">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L51">
         <v>4.5</v>
       </c>
       <c r="M51">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="N51">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="O51">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5185,7 +5185,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5363,7 +5363,7 @@
         <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -5449,7 +5449,7 @@
         <v>45191.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7047481</v>
+        <v>7047478</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,76 +5538,76 @@
         <v>45194.375</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K57">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N57">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="O57">
         <v>5.25</v>
       </c>
       <c r="P57">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
         <v>4</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7047478</v>
+        <v>7047481</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,76 +5627,76 @@
         <v>45194.375</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L58">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N58">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O58">
         <v>5.25</v>
       </c>
       <c r="P58">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q58">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
         <v>4</v>
       </c>
       <c r="U58">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7047479</v>
+        <v>7047485</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,76 +5716,76 @@
         <v>45194.625</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L59">
         <v>4.333</v>
       </c>
       <c r="M59">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N59">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
         <v>4.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5793,7 +5793,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7047485</v>
+        <v>7047479</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5805,76 +5805,76 @@
         <v>45194.625</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
-      <c r="I60">
+      <c r="J60" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60">
         <v>2</v>
-      </c>
-      <c r="J60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60">
-        <v>1.571</v>
       </c>
       <c r="L60">
         <v>4.333</v>
       </c>
       <c r="M60">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N60">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O60">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
         <v>4.25</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5894,7 +5894,7 @@
         <v>45195.375</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7071042</v>
+        <v>7047484</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,58 +5983,58 @@
         <v>45195.375</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
         <v>1</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>51</v>
       </c>
       <c r="K62">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L62">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N62">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O62">
+        <v>4.5</v>
+      </c>
+      <c r="P62">
+        <v>4.5</v>
+      </c>
+      <c r="Q62">
+        <v>-1.25</v>
+      </c>
+      <c r="R62">
+        <v>1.975</v>
+      </c>
+      <c r="S62">
+        <v>1.825</v>
+      </c>
+      <c r="T62">
         <v>3.75</v>
       </c>
-      <c r="P62">
-        <v>2.75</v>
-      </c>
-      <c r="Q62">
-        <v>-0.25</v>
-      </c>
-      <c r="R62">
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
         <v>1.925</v>
       </c>
-      <c r="S62">
-        <v>1.875</v>
-      </c>
-      <c r="T62">
-        <v>3.25</v>
-      </c>
-      <c r="U62">
-        <v>1.975</v>
-      </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6043,16 +6043,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
+        <v>-0.5</v>
+      </c>
+      <c r="AA62">
+        <v>0.4125</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.925</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>-1</v>
-      </c>
-      <c r="AC62">
-        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7047484</v>
+        <v>7071042</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,58 +6072,58 @@
         <v>45195.375</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>51</v>
       </c>
       <c r="K63">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L63">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M63">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
+        <v>1.925</v>
+      </c>
+      <c r="S63">
+        <v>1.875</v>
+      </c>
+      <c r="T63">
+        <v>3.25</v>
+      </c>
+      <c r="U63">
         <v>1.975</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.825</v>
       </c>
-      <c r="T63">
-        <v>3.75</v>
-      </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.925</v>
-      </c>
       <c r="W63">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6132,16 +6132,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6164,7 +6164,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6342,7 +6342,7 @@
         <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6431,7 +6431,7 @@
         <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6606,10 +6606,10 @@
         <v>45201.375</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -6698,7 +6698,7 @@
         <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6784,10 +6784,10 @@
         <v>45202.375</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6965,7 +6965,7 @@
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7140,7 +7140,7 @@
         <v>45212.625</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>34</v>
@@ -7229,10 +7229,10 @@
         <v>45215.375</v>
       </c>
       <c r="F76" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" t="s">
         <v>43</v>
-      </c>
-      <c r="G76" t="s">
-        <v>42</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7318,7 +7318,7 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -7407,7 +7407,7 @@
         <v>45216.375</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
@@ -7496,7 +7496,7 @@
         <v>45216.375</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7674,10 +7674,10 @@
         <v>45216.625</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7047706</v>
+        <v>7047705</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7763,10 +7763,10 @@
         <v>45222.375</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7778,61 +7778,61 @@
         <v>50</v>
       </c>
       <c r="K82">
+        <v>2.25</v>
+      </c>
+      <c r="L82">
+        <v>3.75</v>
+      </c>
+      <c r="M82">
+        <v>2.5</v>
+      </c>
+      <c r="N82">
+        <v>3.75</v>
+      </c>
+      <c r="O82">
+        <v>4.333</v>
+      </c>
+      <c r="P82">
         <v>1.666</v>
       </c>
-      <c r="L82">
-        <v>4.333</v>
-      </c>
-      <c r="M82">
-        <v>3.5</v>
-      </c>
-      <c r="N82">
-        <v>2.15</v>
-      </c>
-      <c r="O82">
-        <v>4</v>
-      </c>
-      <c r="P82">
-        <v>2.5</v>
-      </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7047705</v>
+        <v>7047706</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7852,10 +7852,10 @@
         <v>45222.375</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7867,61 +7867,61 @@
         <v>50</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M83">
+        <v>3.5</v>
+      </c>
+      <c r="N83">
+        <v>2.15</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
         <v>2.5</v>
       </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>4.333</v>
-      </c>
-      <c r="P83">
-        <v>1.666</v>
-      </c>
       <c r="Q83">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7944,7 +7944,7 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7071039</v>
+        <v>7047507</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,76 +8030,76 @@
         <v>45223.375</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L85">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N85">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q85">
         <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U85">
+        <v>1.925</v>
+      </c>
+      <c r="V85">
         <v>1.875</v>
       </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
       <c r="W85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7047507</v>
+        <v>7047506</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,76 +8119,76 @@
         <v>45223.375</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K86">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L86">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N86">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O86">
         <v>4.5</v>
       </c>
       <c r="P86">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB86">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8196,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7047505</v>
+        <v>7071039</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,58 +8208,58 @@
         <v>45223.375</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>51</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L87">
+        <v>3.9</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>1.85</v>
+      </c>
+      <c r="O87">
         <v>4</v>
       </c>
-      <c r="M87">
+      <c r="P87">
+        <v>3.1</v>
+      </c>
+      <c r="Q87">
+        <v>-0.5</v>
+      </c>
+      <c r="R87">
+        <v>1.9</v>
+      </c>
+      <c r="S87">
+        <v>1.9</v>
+      </c>
+      <c r="T87">
         <v>3.25</v>
       </c>
-      <c r="N87">
-        <v>1.7</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>3.8</v>
-      </c>
-      <c r="Q87">
-        <v>-0.75</v>
-      </c>
-      <c r="R87">
+      <c r="U87">
         <v>1.875</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>1.925</v>
       </c>
-      <c r="T87">
-        <v>3.5</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>1.85</v>
-      </c>
       <c r="W87">
-        <v>0.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8268,13 +8268,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8285,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7047506</v>
+        <v>7047505</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8297,46 +8297,46 @@
         <v>45223.375</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" t="s">
+        <v>51</v>
+      </c>
+      <c r="K88">
+        <v>1.8</v>
+      </c>
+      <c r="L88">
         <v>4</v>
       </c>
-      <c r="J88" t="s">
-        <v>52</v>
-      </c>
-      <c r="K88">
-        <v>2.3</v>
-      </c>
-      <c r="L88">
+      <c r="M88">
+        <v>3.25</v>
+      </c>
+      <c r="N88">
+        <v>1.7</v>
+      </c>
+      <c r="O88">
+        <v>4.2</v>
+      </c>
+      <c r="P88">
         <v>3.8</v>
       </c>
-      <c r="M88">
-        <v>2.375</v>
-      </c>
-      <c r="N88">
-        <v>4.75</v>
-      </c>
-      <c r="O88">
-        <v>4.5</v>
-      </c>
-      <c r="P88">
-        <v>1.5</v>
-      </c>
       <c r="Q88">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>3.5</v>
@@ -8348,19 +8348,19 @@
         <v>1.85</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
         <v>0.95</v>
@@ -8389,7 +8389,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>5</v>
@@ -8564,10 +8564,10 @@
         <v>45229.4375</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8656,7 +8656,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8730,7 +8730,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7047515</v>
+        <v>7047512</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8742,49 +8742,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K93">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
         <v>4.5</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P93">
         <v>5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8793,25 +8793,25 @@
         <v>1.9</v>
       </c>
       <c r="W93">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB93">
+        <v>0.45</v>
+      </c>
+      <c r="AC93">
         <v>-0.5</v>
-      </c>
-      <c r="AA93">
-        <v>0.425</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
-      <c r="AC93">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7047512</v>
+        <v>7047515</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8831,49 +8831,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K94">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L94">
         <v>4.5</v>
       </c>
       <c r="M94">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N94">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O94">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P94">
         <v>5</v>
       </c>
       <c r="Q94">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U94">
         <v>1.9</v>
@@ -8882,25 +8882,25 @@
         <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X94">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
+        <v>0.425</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB94">
-        <v>0.45</v>
-      </c>
-      <c r="AC94">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8920,7 +8920,7 @@
         <v>45230.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
         <v>34</v>
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7047520</v>
+        <v>7047707</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,76 +9098,76 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>3</v>
-      </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K97">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L97">
         <v>3.9</v>
       </c>
       <c r="M97">
-        <v>1.869</v>
+        <v>2.25</v>
       </c>
       <c r="N97">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
+        <v>3</v>
+      </c>
+      <c r="Q97">
+        <v>-0.25</v>
+      </c>
+      <c r="R97">
         <v>1.75</v>
       </c>
-      <c r="Q97">
+      <c r="S97">
+        <v>2.05</v>
+      </c>
+      <c r="T97">
+        <v>4</v>
+      </c>
+      <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>0.909</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
         <v>0.75</v>
       </c>
-      <c r="R97">
-        <v>1.775</v>
-      </c>
-      <c r="S97">
-        <v>1.925</v>
-      </c>
-      <c r="T97">
-        <v>3.5</v>
-      </c>
-      <c r="U97">
-        <v>1.925</v>
-      </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>0.75</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
       <c r="AA97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7047707</v>
+        <v>7047520</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,76 +9187,76 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
         <v>3.9</v>
       </c>
       <c r="M98">
-        <v>2.25</v>
+        <v>1.869</v>
       </c>
       <c r="N98">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7071037</v>
+        <v>7047522</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,76 +9276,76 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K99">
         <v>2.25</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M99">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N99">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
         <v>3.75</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z99">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9442,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7047522</v>
+        <v>7071037</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9454,76 +9454,76 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K101">
         <v>2.25</v>
       </c>
       <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>2.4</v>
+      </c>
+      <c r="N101">
+        <v>1.727</v>
+      </c>
+      <c r="O101">
         <v>4.2</v>
       </c>
-      <c r="M101">
-        <v>2.3</v>
-      </c>
-      <c r="N101">
-        <v>3.6</v>
-      </c>
-      <c r="O101">
-        <v>5</v>
-      </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.75</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9546,7 +9546,7 @@
         <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9721,10 +9721,10 @@
         <v>45237.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9810,10 +9810,10 @@
         <v>45244.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9902,7 +9902,7 @@
         <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10080,7 +10080,7 @@
         <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10169,7 +10169,7 @@
         <v>48</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10255,7 +10255,7 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
         <v>40</v>
@@ -10344,7 +10344,7 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -10436,7 +10436,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10522,10 +10522,10 @@
         <v>45257.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -10611,7 +10611,7 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
         <v>45</v>
@@ -10967,10 +10967,10 @@
         <v>45258.66666666666</v>
       </c>
       <c r="F118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
         <v>36</v>
-      </c>
-      <c r="G118" t="s">
-        <v>37</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11059,7 +11059,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11145,7 +11145,7 @@
         <v>45260.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11323,10 +11323,10 @@
         <v>45265.375</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11412,7 +11412,7 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
         <v>30</v>
@@ -11501,7 +11501,7 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
         <v>41</v>
@@ -11679,7 +11679,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s">
         <v>48</v>
@@ -11771,7 +11771,7 @@
         <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11860,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11946,10 +11946,10 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12127,7 +12127,7 @@
         <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -12216,7 +12216,7 @@
         <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12302,7 +12302,7 @@
         <v>45278.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
         <v>45</v>
@@ -12391,7 +12391,7 @@
         <v>45279.4375</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
         <v>30</v>
@@ -12480,7 +12480,7 @@
         <v>45279.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12569,7 +12569,7 @@
         <v>45282.375</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12658,10 +12658,10 @@
         <v>45295.4375</v>
       </c>
       <c r="F137" t="s">
+        <v>43</v>
+      </c>
+      <c r="G137" t="s">
         <v>42</v>
-      </c>
-      <c r="G137" t="s">
-        <v>43</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12750,7 +12750,7 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12839,7 +12839,7 @@
         <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7047572</v>
+        <v>7047709</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,73 +13014,73 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M141">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N141">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O141">
         <v>4.333</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q141">
+        <v>0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.9</v>
+      </c>
+      <c r="S141">
+        <v>1.9</v>
+      </c>
+      <c r="T141">
+        <v>3.25</v>
+      </c>
+      <c r="U141">
+        <v>1.75</v>
+      </c>
+      <c r="V141">
+        <v>1.95</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>3.333</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
+        <v>0.45</v>
+      </c>
+      <c r="AA141">
         <v>-0.5</v>
       </c>
-      <c r="R141">
-        <v>1.825</v>
-      </c>
-      <c r="S141">
-        <v>1.975</v>
-      </c>
-      <c r="T141">
-        <v>3.5</v>
-      </c>
-      <c r="U141">
-        <v>1.925</v>
-      </c>
-      <c r="V141">
-        <v>1.875</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>2.1</v>
-      </c>
-      <c r="Z141">
-        <v>-1</v>
-      </c>
-      <c r="AA141">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7047709</v>
+        <v>7047572</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,73 +13103,73 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O142">
         <v>4.333</v>
       </c>
       <c r="P142">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U142">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z142">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7071032</v>
+        <v>7047569</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G143" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
         <v>4.2</v>
       </c>
       <c r="M143">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N143">
+        <v>3.2</v>
+      </c>
+      <c r="O143">
+        <v>4.333</v>
+      </c>
+      <c r="P143">
         <v>1.75</v>
       </c>
-      <c r="O143">
-        <v>4.5</v>
-      </c>
-      <c r="P143">
-        <v>3.1</v>
-      </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
         <v>3.5</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13281,10 +13281,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7047569</v>
+        <v>7071032</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L145">
         <v>4.2</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N145">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O145">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P145">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T145">
         <v>3.5</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13548,7 +13548,7 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13907,7 +13907,7 @@
         <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13993,10 +13993,10 @@
         <v>45314.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14082,10 +14082,10 @@
         <v>45316.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14260,10 +14260,10 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14349,7 +14349,7 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
         <v>40</v>
@@ -14527,7 +14527,7 @@
         <v>45321.67708333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14705,7 +14705,7 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>38</v>
@@ -14794,10 +14794,10 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14886,7 +14886,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14972,7 +14972,7 @@
         <v>45334.4375</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
         <v>41</v>
@@ -15064,7 +15064,7 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15153,7 +15153,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15239,7 +15239,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
         <v>49</v>
@@ -15328,7 +15328,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>29</v>
@@ -15417,7 +15417,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
         <v>45</v>
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7047606</v>
+        <v>7047600</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,10 +15506,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15521,25 +15521,25 @@
         <v>52</v>
       </c>
       <c r="K169">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L169">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N169">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O169">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P169">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R169">
         <v>1.95</v>
@@ -15548,22 +15548,22 @@
         <v>1.85</v>
       </c>
       <c r="T169">
+        <v>3.75</v>
+      </c>
+      <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
+        <v>1.9</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
         <v>3.5</v>
-      </c>
-      <c r="U169">
-        <v>1.775</v>
-      </c>
-      <c r="V169">
-        <v>1.925</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>2</v>
       </c>
       <c r="Z169">
         <v>-1</v>
@@ -15575,7 +15575,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7047600</v>
+        <v>7047606</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,10 +15595,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15610,25 +15610,25 @@
         <v>52</v>
       </c>
       <c r="K170">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L170">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M170">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O170">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P170">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q170">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
         <v>1.95</v>
@@ -15637,13 +15637,13 @@
         <v>1.85</v>
       </c>
       <c r="T170">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15652,7 +15652,7 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z170">
         <v>-1</v>
@@ -15664,7 +15664,7 @@
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15687,7 +15687,7 @@
         <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15776,7 +15776,7 @@
         <v>49</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15862,10 +15862,10 @@
         <v>45338.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7071028</v>
+        <v>7047613</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,49 +16040,49 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G175" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="L175">
+        <v>4.8</v>
+      </c>
+      <c r="M175">
+        <v>1.571</v>
+      </c>
+      <c r="N175">
+        <v>3.2</v>
+      </c>
+      <c r="O175">
         <v>4.5</v>
       </c>
-      <c r="M175">
-        <v>1.833</v>
-      </c>
-      <c r="N175">
-        <v>2.8</v>
-      </c>
-      <c r="O175">
-        <v>4.333</v>
-      </c>
       <c r="P175">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="Q175">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U175">
         <v>1.875</v>
@@ -16091,16 +16091,16 @@
         <v>1.925</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X175">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA175">
         <v>-1</v>
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7047613</v>
+        <v>7071028</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,49 +16129,49 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H176">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K176">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="L176">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="N176">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P176">
+        <v>1.95</v>
+      </c>
+      <c r="Q176">
+        <v>0.5</v>
+      </c>
+      <c r="R176">
         <v>1.8</v>
       </c>
-      <c r="Q176">
-        <v>0.75</v>
-      </c>
-      <c r="R176">
-        <v>1.825</v>
-      </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U176">
         <v>1.875</v>
@@ -16180,16 +16180,16 @@
         <v>1.925</v>
       </c>
       <c r="W176">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
         <v>-1</v>
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7047610</v>
+        <v>7047611</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,46 +16218,46 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L177">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N177">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O177">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>3.25</v>
@@ -16272,22 +16272,22 @@
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7047611</v>
+        <v>7047610</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,46 +16307,46 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K178">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M178">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N178">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
         <v>3.25</v>
@@ -16361,22 +16361,22 @@
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16396,7 +16396,7 @@
         <v>45342.4375</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
         <v>34</v>
@@ -16488,7 +16488,7 @@
         <v>45</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16663,10 +16663,10 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7047618</v>
+        <v>7047619</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,76 +16841,76 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
         <v>50</v>
       </c>
       <c r="K184">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L184">
         <v>4.2</v>
       </c>
       <c r="M184">
+        <v>1.666</v>
+      </c>
+      <c r="N184">
+        <v>3.4</v>
+      </c>
+      <c r="O184">
+        <v>4.2</v>
+      </c>
+      <c r="P184">
         <v>1.75</v>
       </c>
-      <c r="N184">
-        <v>4</v>
-      </c>
-      <c r="O184">
-        <v>4.5</v>
-      </c>
-      <c r="P184">
-        <v>1.571</v>
-      </c>
       <c r="Q184">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T184">
         <v>3.5</v>
       </c>
       <c r="U184">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7047619</v>
+        <v>7047618</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16930,76 +16930,76 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>50</v>
       </c>
       <c r="K185">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L185">
         <v>4.2</v>
       </c>
       <c r="M185">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="N185">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O185">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P185">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
         <v>3.5</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17019,7 +17019,7 @@
         <v>45348.4375</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
         <v>39</v>
@@ -17108,7 +17108,7 @@
         <v>45349.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>49</v>
@@ -17185,7 +17185,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7047628</v>
+        <v>7047630</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17197,76 +17197,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K188">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L188">
         <v>4</v>
       </c>
       <c r="M188">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N188">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O188">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y188">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17274,7 +17274,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7047630</v>
+        <v>7047628</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17286,76 +17286,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K189">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L189">
         <v>4</v>
       </c>
       <c r="M189">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N189">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P189">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17375,7 +17375,7 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
         <v>48</v>
@@ -17464,7 +17464,7 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G191" t="s">
         <v>44</v>
@@ -17533,6 +17533,95 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC191">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7463351</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45352.45833333334</v>
+      </c>
+      <c r="F192" t="s">
+        <v>43</v>
+      </c>
+      <c r="G192" t="s">
+        <v>40</v>
+      </c>
+      <c r="H192">
+        <v>4</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192" t="s">
+        <v>51</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>4.5</v>
+      </c>
+      <c r="M192">
+        <v>2.5</v>
+      </c>
+      <c r="N192">
+        <v>2.15</v>
+      </c>
+      <c r="O192">
+        <v>4.5</v>
+      </c>
+      <c r="P192">
+        <v>2.375</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>1.85</v>
+      </c>
+      <c r="S192">
+        <v>1.95</v>
+      </c>
+      <c r="T192">
+        <v>3.75</v>
+      </c>
+      <c r="U192">
+        <v>1.8</v>
+      </c>
+      <c r="V192">
+        <v>2</v>
+      </c>
+      <c r="W192">
+        <v>1.15</v>
+      </c>
+      <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
+        <v>-1</v>
+      </c>
+      <c r="Z192">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA192">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
+        <v>0.8</v>
+      </c>
+      <c r="AC192">
         <v>-1</v>
       </c>
     </row>

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -118,16 +118,16 @@
     <t>Peterborough U21</t>
   </si>
   <si>
-    <t>Sheff Utd U21</t>
+    <t>Hull U21</t>
   </si>
   <si>
-    <t>Coventry U21</t>
+    <t>Sheff Utd U21</t>
   </si>
   <si>
     <t>Sheffield Wed U21</t>
   </si>
   <si>
-    <t>Hull U21</t>
+    <t>Coventry U21</t>
   </si>
   <si>
     <t>Wigan U21</t>
@@ -139,13 +139,13 @@
     <t>Swansea U21</t>
   </si>
   <si>
+    <t>Millwall U21</t>
+  </si>
+  <si>
     <t>Colchester U21</t>
   </si>
   <si>
     <t>Charlton U21</t>
-  </si>
-  <si>
-    <t>Millwall U21</t>
   </si>
   <si>
     <t>QPR U21</t>
@@ -154,10 +154,10 @@
     <t>Cardiff U21</t>
   </si>
   <si>
-    <t>Bristol City U21</t>
+    <t>Bournemouth U21</t>
   </si>
   <si>
-    <t>Bournemouth U21</t>
+    <t>Bristol City U21</t>
   </si>
   <si>
     <t>Ipswich U21</t>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7047434</v>
+        <v>7046797</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1091,10 +1091,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1103,43 +1103,43 @@
         <v>51</v>
       </c>
       <c r="K7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q7">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1148,16 +1148,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7067710</v>
+        <v>7047434</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,73 +1180,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7046797</v>
+        <v>7067710</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1358,73 +1358,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N10">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7047445</v>
+        <v>7047440</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,55 +1714,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P14">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.15</v>
+        <v>0.45</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1771,13 +1771,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7047439</v>
+        <v>7047445</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,73 +1803,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O15">
         <v>4</v>
       </c>
       <c r="P15">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1.8</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
+        <v>1.825</v>
+      </c>
+      <c r="V15">
         <v>1.975</v>
       </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3.75</v>
-      </c>
-      <c r="U15">
-        <v>1.9</v>
-      </c>
-      <c r="V15">
-        <v>1.9</v>
-      </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X15">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
         <v>0.825</v>
       </c>
-      <c r="AB15">
-        <v>0.45</v>
-      </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7047440</v>
+        <v>7047439</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,73 +1892,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>3.5</v>
+      </c>
+      <c r="L16">
+        <v>4.2</v>
+      </c>
+      <c r="M16">
+        <v>1.7</v>
+      </c>
+      <c r="N16">
+        <v>1.727</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>3.5</v>
+      </c>
+      <c r="Q16">
+        <v>-0.75</v>
+      </c>
+      <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
+        <v>1.825</v>
+      </c>
+      <c r="T16">
+        <v>3.75</v>
+      </c>
+      <c r="U16">
+        <v>1.9</v>
+      </c>
+      <c r="V16">
+        <v>1.9</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>3</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16">
-        <v>1.533</v>
-      </c>
-      <c r="L16">
-        <v>4.5</v>
-      </c>
-      <c r="M16">
-        <v>4.2</v>
-      </c>
-      <c r="N16">
-        <v>1.45</v>
-      </c>
-      <c r="O16">
-        <v>4.75</v>
-      </c>
-      <c r="P16">
-        <v>4.75</v>
-      </c>
-      <c r="Q16">
-        <v>-1.25</v>
-      </c>
-      <c r="R16">
-        <v>1.9</v>
-      </c>
-      <c r="S16">
-        <v>1.9</v>
-      </c>
-      <c r="T16">
-        <v>3.5</v>
-      </c>
-      <c r="U16">
-        <v>1.85</v>
-      </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.825</v>
+      </c>
+      <c r="AB16">
         <v>0.45</v>
       </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1981,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7047443</v>
+        <v>7071046</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,37 +2159,37 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19">
+        <v>2.1</v>
+      </c>
+      <c r="L19">
+        <v>3.75</v>
+      </c>
+      <c r="M19">
+        <v>2.7</v>
+      </c>
+      <c r="N19">
+        <v>3.4</v>
+      </c>
+      <c r="O19">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>4.333</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
         <v>1.833</v>
       </c>
-      <c r="N19">
-        <v>2.625</v>
-      </c>
-      <c r="O19">
-        <v>4.2</v>
-      </c>
-      <c r="P19">
-        <v>2.05</v>
-      </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
         <v>1.95</v>
@@ -2198,34 +2198,34 @@
         <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7071046</v>
+        <v>7047443</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2248,37 +2248,37 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M20">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N20">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
         <v>1.95</v>
@@ -2287,34 +2287,34 @@
         <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB20">
         <v>0.95</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2604,7 +2604,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2693,7 +2693,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2779,10 +2779,10 @@
         <v>45167.375</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7071045</v>
+        <v>7047451</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,13 +2868,13 @@
         <v>45167.375</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2883,43 +2883,43 @@
         <v>51</v>
       </c>
       <c r="K27">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N27">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O27">
         <v>4.2</v>
       </c>
       <c r="P27">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q27">
         <v>-1</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>3.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>0.5329999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2928,16 +2928,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7047451</v>
+        <v>7071045</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,13 +2957,13 @@
         <v>45167.375</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2972,43 +2972,43 @@
         <v>51</v>
       </c>
       <c r="K28">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N28">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O28">
         <v>4.2</v>
       </c>
       <c r="P28">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
         <v>-1</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
         <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>0.615</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3017,16 +3017,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7047704</v>
+        <v>7047452</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3046,73 +3046,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M29">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N29">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O29">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P29">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
         <v>1.775</v>
       </c>
-      <c r="S29">
-        <v>1.925</v>
-      </c>
       <c r="T29">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7047452</v>
+        <v>7047704</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,73 +3135,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>2.55</v>
+      </c>
+      <c r="L30">
         <v>4</v>
       </c>
-      <c r="I30">
+      <c r="M30">
+        <v>2.15</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>1.285</v>
+      </c>
+      <c r="Q30">
         <v>2</v>
       </c>
-      <c r="J30" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30">
+      <c r="R30">
+        <v>1.775</v>
+      </c>
+      <c r="S30">
+        <v>1.925</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
         <v>1.75</v>
       </c>
-      <c r="L30">
-        <v>4.2</v>
-      </c>
-      <c r="M30">
-        <v>3.3</v>
-      </c>
-      <c r="N30">
-        <v>1.615</v>
-      </c>
-      <c r="O30">
-        <v>4.333</v>
-      </c>
-      <c r="P30">
-        <v>3.6</v>
-      </c>
-      <c r="Q30">
-        <v>-1</v>
-      </c>
-      <c r="R30">
-        <v>1.925</v>
-      </c>
-      <c r="S30">
-        <v>1.775</v>
-      </c>
-      <c r="T30">
-        <v>3.75</v>
-      </c>
-      <c r="U30">
-        <v>1.825</v>
-      </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>0.925</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3224,10 +3224,10 @@
         <v>45168.375</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3491,7 +3491,7 @@
         <v>45170.625</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
         <v>49</v>
@@ -3583,7 +3583,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7047459</v>
+        <v>7047462</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3758,40 +3758,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N37">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P37">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R37">
         <v>1.85</v>
@@ -3800,34 +3800,34 @@
         <v>1.95</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB37">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7047462</v>
+        <v>7047459</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3850,37 +3850,37 @@
         <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>2.9</v>
+      </c>
+      <c r="N38">
+        <v>2.375</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>2.45</v>
+      </c>
+      <c r="Q38">
         <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38">
-        <v>1.25</v>
-      </c>
-      <c r="L38">
-        <v>5.5</v>
-      </c>
-      <c r="M38">
-        <v>7.5</v>
-      </c>
-      <c r="N38">
-        <v>1.166</v>
-      </c>
-      <c r="O38">
-        <v>7</v>
-      </c>
-      <c r="P38">
-        <v>9.5</v>
-      </c>
-      <c r="Q38">
-        <v>-2.25</v>
       </c>
       <c r="R38">
         <v>1.85</v>
@@ -3889,34 +3889,34 @@
         <v>1.95</v>
       </c>
       <c r="T38">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>-0</v>
+      </c>
+      <c r="AB38">
+        <v>0.4625</v>
+      </c>
+      <c r="AC38">
         <v>-0.5</v>
-      </c>
-      <c r="AA38">
-        <v>0.475</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7047460</v>
+        <v>7071044</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,73 +3939,73 @@
         <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4028,7 +4028,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7071044</v>
+        <v>7047460</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4117,73 +4117,73 @@
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
+        <v>3.75</v>
+      </c>
+      <c r="M41">
+        <v>2.55</v>
+      </c>
+      <c r="N41">
+        <v>2.4</v>
+      </c>
+      <c r="O41">
         <v>4</v>
       </c>
-      <c r="M41">
-        <v>2.3</v>
-      </c>
-      <c r="N41">
-        <v>1.65</v>
-      </c>
-      <c r="O41">
-        <v>4.2</v>
-      </c>
       <c r="P41">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X41">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4295,7 +4295,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4381,10 +4381,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7047465</v>
+        <v>7047466</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4470,76 +4470,76 @@
         <v>45180.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>1.727</v>
+      </c>
+      <c r="N45">
+        <v>3.2</v>
+      </c>
+      <c r="O45">
         <v>3.75</v>
       </c>
-      <c r="M45">
-        <v>2.4</v>
-      </c>
-      <c r="N45">
-        <v>2.55</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
+        <v>1.825</v>
+      </c>
+      <c r="S45">
         <v>1.975</v>
-      </c>
-      <c r="S45">
-        <v>1.825</v>
       </c>
       <c r="T45">
         <v>3.5</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y45">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7047466</v>
+        <v>7047465</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4559,76 +4559,76 @@
         <v>45180.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M46">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
+        <v>1.975</v>
+      </c>
+      <c r="S46">
         <v>1.825</v>
-      </c>
-      <c r="S46">
-        <v>1.975</v>
       </c>
       <c r="T46">
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
         <v>0.825</v>
       </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4737,7 +4737,7 @@
         <v>45181.375</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4829,7 +4829,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7047469</v>
+        <v>7047471</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,76 +4915,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K50">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L50">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M50">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="N50">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O50">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q50">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T50">
         <v>3.75</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7047471</v>
+        <v>7047469</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,76 +5004,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>3</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K51">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L51">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M51">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="N51">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P51">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T51">
         <v>3.75</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5185,7 +5185,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5360,7 +5360,7 @@
         <v>45188.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>31</v>
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7047478</v>
+        <v>7047481</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,76 +5538,76 @@
         <v>45194.375</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K57">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O57">
         <v>5.25</v>
       </c>
       <c r="P57">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>4</v>
       </c>
       <c r="U57">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7047481</v>
+        <v>7047478</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,76 +5627,76 @@
         <v>45194.375</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K58">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="O58">
         <v>5.25</v>
       </c>
       <c r="P58">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
         <v>4</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7047485</v>
+        <v>7047479</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,76 +5716,76 @@
         <v>45194.625</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
-      <c r="I59">
+      <c r="J59" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59">
         <v>2</v>
-      </c>
-      <c r="J59" t="s">
-        <v>52</v>
-      </c>
-      <c r="K59">
-        <v>1.571</v>
       </c>
       <c r="L59">
         <v>4.333</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N59">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O59">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
         <v>4.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5793,7 +5793,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7047479</v>
+        <v>7047485</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5805,76 +5805,76 @@
         <v>45194.625</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
         <v>4.333</v>
       </c>
       <c r="M60">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
         <v>4.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7047483</v>
+        <v>7047484</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>45195.375</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M61">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R61">
+        <v>1.975</v>
+      </c>
+      <c r="S61">
+        <v>1.825</v>
+      </c>
+      <c r="T61">
+        <v>3.75</v>
+      </c>
+      <c r="U61">
         <v>1.875</v>
       </c>
-      <c r="S61">
+      <c r="V61">
         <v>1.925</v>
       </c>
-      <c r="T61">
-        <v>3.25</v>
-      </c>
-      <c r="U61">
-        <v>1.825</v>
-      </c>
-      <c r="V61">
-        <v>1.975</v>
-      </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
+        <v>0.4125</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.925</v>
-      </c>
-      <c r="AB61">
-        <v>0.825</v>
-      </c>
-      <c r="AC61">
-        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7047484</v>
+        <v>7071042</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,58 +5983,58 @@
         <v>45195.375</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>51</v>
       </c>
       <c r="K62">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M62">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O62">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
+        <v>1.925</v>
+      </c>
+      <c r="S62">
+        <v>1.875</v>
+      </c>
+      <c r="T62">
+        <v>3.25</v>
+      </c>
+      <c r="U62">
         <v>1.975</v>
       </c>
-      <c r="S62">
+      <c r="V62">
         <v>1.825</v>
       </c>
-      <c r="T62">
-        <v>3.75</v>
-      </c>
-      <c r="U62">
-        <v>1.875</v>
-      </c>
-      <c r="V62">
-        <v>1.925</v>
-      </c>
       <c r="W62">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6043,16 +6043,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7071042</v>
+        <v>7047483</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,76 +6072,76 @@
         <v>45195.375</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K63">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L63">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N63">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
+        <v>1.875</v>
+      </c>
+      <c r="S63">
         <v>1.925</v>
-      </c>
-      <c r="S63">
-        <v>1.875</v>
       </c>
       <c r="T63">
         <v>3.25</v>
       </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
         <v>0.925</v>
       </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6164,7 +6164,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6339,10 +6339,10 @@
         <v>45198.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6606,10 +6606,10 @@
         <v>45201.375</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -6695,10 +6695,10 @@
         <v>45201.41666666666</v>
       </c>
       <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
         <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7047490</v>
+        <v>7047491</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,13 +6784,13 @@
         <v>45202.375</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6799,43 +6799,43 @@
         <v>51</v>
       </c>
       <c r="K71">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L71">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M71">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N71">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q71">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U71">
+        <v>1.95</v>
+      </c>
+      <c r="V71">
         <v>1.85</v>
       </c>
-      <c r="V71">
-        <v>1.95</v>
-      </c>
       <c r="W71">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6844,13 +6844,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6861,7 +6861,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7047491</v>
+        <v>7047490</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6873,13 +6873,13 @@
         <v>45202.375</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -6888,43 +6888,43 @@
         <v>51</v>
       </c>
       <c r="K72">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L72">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M72">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N72">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P72">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R72">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U72">
+        <v>1.85</v>
+      </c>
+      <c r="V72">
         <v>1.95</v>
       </c>
-      <c r="V72">
-        <v>1.85</v>
-      </c>
       <c r="W72">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6933,13 +6933,13 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7051,7 +7051,7 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7143,7 +7143,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7229,10 +7229,10 @@
         <v>45215.375</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7047499</v>
+        <v>7047501</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7407,58 +7407,58 @@
         <v>45216.375</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>51</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M78">
+        <v>1.8</v>
+      </c>
+      <c r="N78">
+        <v>2.05</v>
+      </c>
+      <c r="O78">
+        <v>4.5</v>
+      </c>
+      <c r="P78">
         <v>2.5</v>
       </c>
-      <c r="N78">
-        <v>2.75</v>
-      </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
-      <c r="P78">
-        <v>2.1</v>
-      </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7467,16 +7467,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7047501</v>
+        <v>7047499</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7496,58 +7496,58 @@
         <v>45216.375</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>51</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O79">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7556,16 +7556,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7674,7 +7674,7 @@
         <v>45216.625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7047705</v>
+        <v>7047706</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7763,10 +7763,10 @@
         <v>45222.375</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7778,61 +7778,61 @@
         <v>50</v>
       </c>
       <c r="K82">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
+        <v>3.5</v>
+      </c>
+      <c r="N82">
+        <v>2.15</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
         <v>2.5</v>
       </c>
-      <c r="N82">
-        <v>3.75</v>
-      </c>
-      <c r="O82">
-        <v>4.333</v>
-      </c>
-      <c r="P82">
-        <v>1.666</v>
-      </c>
       <c r="Q82">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7047706</v>
+        <v>7047705</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7852,10 +7852,10 @@
         <v>45222.375</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7867,61 +7867,61 @@
         <v>50</v>
       </c>
       <c r="K83">
+        <v>2.25</v>
+      </c>
+      <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>2.5</v>
+      </c>
+      <c r="N83">
+        <v>3.75</v>
+      </c>
+      <c r="O83">
+        <v>4.333</v>
+      </c>
+      <c r="P83">
         <v>1.666</v>
       </c>
-      <c r="L83">
-        <v>4.333</v>
-      </c>
-      <c r="M83">
-        <v>3.5</v>
-      </c>
-      <c r="N83">
-        <v>2.15</v>
-      </c>
-      <c r="O83">
-        <v>4</v>
-      </c>
-      <c r="P83">
-        <v>2.5</v>
-      </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7944,7 +7944,7 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7047507</v>
+        <v>7071039</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,76 +8030,76 @@
         <v>45223.375</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L85">
-        <v>4.333</v>
+        <v>3.9</v>
       </c>
       <c r="M85">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
         <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
+        <v>1.875</v>
+      </c>
+      <c r="V85">
         <v>1.925</v>
       </c>
-      <c r="V85">
-        <v>1.875</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X85">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7047506</v>
+        <v>7047505</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,46 +8119,46 @@
         <v>45223.375</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>51</v>
+      </c>
+      <c r="K86">
+        <v>1.8</v>
+      </c>
+      <c r="L86">
         <v>4</v>
       </c>
-      <c r="J86" t="s">
-        <v>52</v>
-      </c>
-      <c r="K86">
-        <v>2.3</v>
-      </c>
-      <c r="L86">
+      <c r="M86">
+        <v>3.25</v>
+      </c>
+      <c r="N86">
+        <v>1.7</v>
+      </c>
+      <c r="O86">
+        <v>4.2</v>
+      </c>
+      <c r="P86">
         <v>3.8</v>
       </c>
-      <c r="M86">
-        <v>2.375</v>
-      </c>
-      <c r="N86">
-        <v>4.75</v>
-      </c>
-      <c r="O86">
-        <v>4.5</v>
-      </c>
-      <c r="P86">
-        <v>1.5</v>
-      </c>
       <c r="Q86">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
         <v>3.5</v>
@@ -8170,19 +8170,19 @@
         <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
         <v>0.95</v>
@@ -8196,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7071039</v>
+        <v>7047506</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,73 +8208,73 @@
         <v>45223.375</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <v>4</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K87">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L87">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N87">
+        <v>4.75</v>
+      </c>
+      <c r="O87">
+        <v>4.5</v>
+      </c>
+      <c r="P87">
+        <v>1.5</v>
+      </c>
+      <c r="Q87">
+        <v>1.25</v>
+      </c>
+      <c r="R87">
+        <v>1.8</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
+        <v>3.5</v>
+      </c>
+      <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
-      <c r="P87">
-        <v>3.1</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.9</v>
-      </c>
-      <c r="S87">
-        <v>1.9</v>
-      </c>
-      <c r="T87">
-        <v>3.25</v>
-      </c>
-      <c r="U87">
-        <v>1.875</v>
-      </c>
-      <c r="V87">
-        <v>1.925</v>
-      </c>
       <c r="W87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8285,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7047505</v>
+        <v>7047507</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8297,76 +8297,76 @@
         <v>45223.375</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K88">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M88">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N88">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P88">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
+        <v>1.975</v>
+      </c>
+      <c r="T88">
+        <v>3.75</v>
+      </c>
+      <c r="U88">
+        <v>1.925</v>
+      </c>
+      <c r="V88">
         <v>1.875</v>
       </c>
-      <c r="S88">
-        <v>1.925</v>
-      </c>
-      <c r="T88">
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
         <v>3.5</v>
       </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
-      <c r="V88">
-        <v>1.85</v>
-      </c>
-      <c r="W88">
-        <v>0.7</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB88">
+        <v>0.4625</v>
+      </c>
+      <c r="AC88">
         <v>-0.5</v>
-      </c>
-      <c r="AB88">
-        <v>0.95</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8374,7 +8374,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7047510</v>
+        <v>7047509</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8386,49 +8386,49 @@
         <v>45229.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>51</v>
       </c>
       <c r="K89">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>4.5</v>
+      </c>
+      <c r="N89">
+        <v>2.1</v>
+      </c>
+      <c r="O89">
         <v>4.333</v>
       </c>
-      <c r="M89">
-        <v>3.6</v>
-      </c>
-      <c r="N89">
-        <v>1.909</v>
-      </c>
-      <c r="O89">
-        <v>4</v>
-      </c>
       <c r="P89">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U89">
         <v>1.975</v>
@@ -8437,7 +8437,7 @@
         <v>1.825</v>
       </c>
       <c r="W89">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8446,7 +8446,7 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8463,7 +8463,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7047509</v>
+        <v>7047510</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8475,49 +8475,49 @@
         <v>45229.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>51</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M90">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O90">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q90">
         <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
         <v>1.975</v>
@@ -8526,7 +8526,7 @@
         <v>1.825</v>
       </c>
       <c r="W90">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8535,7 +8535,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8564,10 +8564,10 @@
         <v>45229.4375</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8656,7 +8656,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8742,7 +8742,7 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G93" t="s">
         <v>39</v>
@@ -8923,7 +8923,7 @@
         <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>48</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7047707</v>
+        <v>7047520</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,76 +9098,76 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L97">
         <v>3.9</v>
       </c>
       <c r="M97">
-        <v>2.25</v>
+        <v>1.869</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R97">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7047520</v>
+        <v>7047707</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,76 +9187,76 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>3</v>
-      </c>
       <c r="J98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L98">
         <v>3.9</v>
       </c>
       <c r="M98">
-        <v>1.869</v>
+        <v>2.25</v>
       </c>
       <c r="N98">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
+        <v>3</v>
+      </c>
+      <c r="Q98">
+        <v>-0.25</v>
+      </c>
+      <c r="R98">
         <v>1.75</v>
       </c>
-      <c r="Q98">
+      <c r="S98">
+        <v>2.05</v>
+      </c>
+      <c r="T98">
+        <v>4</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
+        <v>1.95</v>
+      </c>
+      <c r="W98">
+        <v>0.909</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
         <v>0.75</v>
       </c>
-      <c r="R98">
-        <v>1.775</v>
-      </c>
-      <c r="S98">
-        <v>1.925</v>
-      </c>
-      <c r="T98">
-        <v>3.5</v>
-      </c>
-      <c r="U98">
-        <v>1.925</v>
-      </c>
-      <c r="V98">
-        <v>1.875</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>0.75</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
       <c r="AA98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7047522</v>
+        <v>7047523</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,56 +9276,56 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L99">
         <v>4.2</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N99">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="O99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T99">
         <v>3.75</v>
       </c>
       <c r="U99">
+        <v>1.925</v>
+      </c>
+      <c r="V99">
         <v>1.875</v>
       </c>
-      <c r="V99">
-        <v>1.925</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9333,19 +9333,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.75</v>
+      </c>
+      <c r="AB99">
         <v>0.925</v>
       </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7047523</v>
+        <v>7047522</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,56 +9365,56 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
       </c>
       <c r="K100">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L100">
         <v>4.2</v>
       </c>
       <c r="M100">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N100">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
         <v>3.75</v>
       </c>
       <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
         <v>1.925</v>
       </c>
-      <c r="V100">
-        <v>1.875</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9422,19 +9422,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.925</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9454,7 +9454,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G101" t="s">
         <v>40</v>
@@ -9546,7 +9546,7 @@
         <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9632,7 +9632,7 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9721,7 +9721,7 @@
         <v>45237.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
         <v>33</v>
@@ -9899,10 +9899,10 @@
         <v>45247.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10080,7 +10080,7 @@
         <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10154,7 +10154,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7047533</v>
+        <v>7047530</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10166,46 +10166,46 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K109">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N109">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>3.75</v>
@@ -10220,16 +10220,16 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7047530</v>
+        <v>7047533</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,46 +10255,46 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S110">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
         <v>3.75</v>
@@ -10309,16 +10309,16 @@
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y110">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -10436,7 +10436,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10522,10 +10522,10 @@
         <v>45257.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -10611,7 +10611,7 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
         <v>45</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7047540</v>
+        <v>7047541</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,73 +10700,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H115">
         <v>3</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K115">
+        <v>3.1</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>1.833</v>
+      </c>
+      <c r="N115">
         <v>3.2</v>
       </c>
-      <c r="L115">
-        <v>4.1</v>
-      </c>
-      <c r="M115">
+      <c r="O115">
+        <v>4</v>
+      </c>
+      <c r="P115">
         <v>1.8</v>
       </c>
-      <c r="N115">
-        <v>3.6</v>
-      </c>
-      <c r="O115">
-        <v>4.2</v>
-      </c>
-      <c r="P115">
-        <v>1.7</v>
-      </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7047541</v>
+        <v>7047540</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,73 +10789,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K116">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M116">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="N116">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
+        <v>1.7</v>
+      </c>
+      <c r="Q116">
+        <v>0.75</v>
+      </c>
+      <c r="R116">
+        <v>1.9</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
+        <v>3.5</v>
+      </c>
+      <c r="U116">
         <v>1.8</v>
       </c>
-      <c r="Q116">
-        <v>0.5</v>
-      </c>
-      <c r="R116">
-        <v>1.925</v>
-      </c>
-      <c r="S116">
-        <v>1.875</v>
-      </c>
-      <c r="T116">
-        <v>3.75</v>
-      </c>
-      <c r="U116">
-        <v>1.975</v>
-      </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
         <v>0.8</v>
-      </c>
-      <c r="Z116">
-        <v>-1</v>
-      </c>
-      <c r="AA116">
-        <v>0.875</v>
-      </c>
-      <c r="AB116">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10967,7 +10967,7 @@
         <v>45258.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
         <v>36</v>
@@ -11145,7 +11145,7 @@
         <v>45260.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11237,7 +11237,7 @@
         <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11400,7 +11400,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7047545</v>
+        <v>7047546</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11412,40 +11412,40 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K123">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M123">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N123">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R123">
         <v>2</v>
@@ -11457,31 +11457,31 @@
         <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11489,7 +11489,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7047546</v>
+        <v>7047545</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11501,40 +11501,40 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K124">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N124">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -11546,31 +11546,31 @@
         <v>3.5</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s">
         <v>48</v>
@@ -11771,7 +11771,7 @@
         <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11860,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12112,7 +12112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7047560</v>
+        <v>7047559</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12124,76 +12124,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L131">
         <v>4</v>
       </c>
       <c r="M131">
-        <v>2.9</v>
+        <v>1.952</v>
       </c>
       <c r="N131">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P131">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R131">
+        <v>1.775</v>
+      </c>
+      <c r="S131">
+        <v>1.925</v>
+      </c>
+      <c r="T131">
+        <v>3.75</v>
+      </c>
+      <c r="U131">
         <v>1.95</v>
       </c>
-      <c r="S131">
+      <c r="V131">
         <v>1.85</v>
       </c>
-      <c r="T131">
-        <v>3.5</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
-      <c r="V131">
-        <v>1.875</v>
-      </c>
       <c r="W131">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7047559</v>
+        <v>7047560</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H132">
+        <v>5</v>
+      </c>
+      <c r="I132">
         <v>1</v>
       </c>
-      <c r="I132">
-        <v>2</v>
-      </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K132">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L132">
         <v>4</v>
       </c>
       <c r="M132">
-        <v>1.952</v>
+        <v>2.9</v>
       </c>
       <c r="N132">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="O132">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P132">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q132">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
+        <v>1.85</v>
+      </c>
+      <c r="T132">
+        <v>3.5</v>
+      </c>
+      <c r="U132">
         <v>1.925</v>
       </c>
-      <c r="T132">
-        <v>3.75</v>
-      </c>
-      <c r="U132">
-        <v>1.95</v>
-      </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12302,7 +12302,7 @@
         <v>45278.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
         <v>45</v>
@@ -12480,10 +12480,10 @@
         <v>45279.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12658,10 +12658,10 @@
         <v>45295.4375</v>
       </c>
       <c r="F137" t="s">
+        <v>41</v>
+      </c>
+      <c r="G137" t="s">
         <v>43</v>
-      </c>
-      <c r="G137" t="s">
-        <v>42</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7047568</v>
+        <v>7047570</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,49 +12836,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M139">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N139">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O139">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P139">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q139">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U139">
         <v>1.9</v>
@@ -12887,19 +12887,19 @@
         <v>1.9</v>
       </c>
       <c r="W139">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7047570</v>
+        <v>7047568</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,49 +12925,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L140">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O140">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P140">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U140">
         <v>1.9</v>
@@ -12976,19 +12976,19 @@
         <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X140">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7047709</v>
+        <v>7047571</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,10 +13014,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13029,37 +13029,37 @@
         <v>50</v>
       </c>
       <c r="K141">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L141">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M141">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N141">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O141">
         <v>4.333</v>
       </c>
       <c r="P141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
         <v>1.95</v>
@@ -13074,13 +13074,13 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7047572</v>
+        <v>7047709</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,73 +13103,73 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M142">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N142">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O142">
         <v>4.333</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q142">
+        <v>0.25</v>
+      </c>
+      <c r="R142">
+        <v>1.9</v>
+      </c>
+      <c r="S142">
+        <v>1.9</v>
+      </c>
+      <c r="T142">
+        <v>3.25</v>
+      </c>
+      <c r="U142">
+        <v>1.75</v>
+      </c>
+      <c r="V142">
+        <v>1.95</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>3.333</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>0.45</v>
+      </c>
+      <c r="AA142">
         <v>-0.5</v>
       </c>
-      <c r="R142">
-        <v>1.825</v>
-      </c>
-      <c r="S142">
-        <v>1.975</v>
-      </c>
-      <c r="T142">
-        <v>3.5</v>
-      </c>
-      <c r="U142">
-        <v>1.925</v>
-      </c>
-      <c r="V142">
-        <v>1.875</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>2.1</v>
-      </c>
-      <c r="Z142">
-        <v>-1</v>
-      </c>
-      <c r="AA142">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB142">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7047571</v>
+        <v>7047572</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,73 +13281,73 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
         <v>4.2</v>
       </c>
       <c r="M144">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N144">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O144">
         <v>4.333</v>
       </c>
       <c r="P144">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
         <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
         <v>3.5</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13370,10 +13370,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F145" t="s">
+        <v>47</v>
+      </c>
+      <c r="G145" t="s">
         <v>46</v>
-      </c>
-      <c r="G145" t="s">
-        <v>47</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>45303.375</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
         <v>40</v>
@@ -13548,7 +13548,7 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13640,7 +13640,7 @@
         <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13818,7 +13818,7 @@
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14085,7 +14085,7 @@
         <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14171,7 +14171,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
         <v>48</v>
@@ -14260,10 +14260,10 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G155" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14349,7 +14349,7 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
         <v>40</v>
@@ -14527,7 +14527,7 @@
         <v>45321.67708333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7047597</v>
+        <v>7047598</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,76 +14705,76 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K160">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M160">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N160">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O160">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="Q160">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S160">
+        <v>1.8</v>
+      </c>
+      <c r="T160">
+        <v>3.25</v>
+      </c>
+      <c r="U160">
+        <v>1.85</v>
+      </c>
+      <c r="V160">
         <v>1.95</v>
       </c>
-      <c r="T160">
-        <v>3.75</v>
-      </c>
-      <c r="U160">
-        <v>1.95</v>
-      </c>
-      <c r="V160">
-        <v>1.85</v>
-      </c>
       <c r="W160">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7047598</v>
+        <v>7047597</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,76 +14794,76 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K161">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L161">
+        <v>4</v>
+      </c>
+      <c r="M161">
+        <v>2.1</v>
+      </c>
+      <c r="N161">
         <v>4.2</v>
       </c>
-      <c r="M161">
-        <v>3.6</v>
-      </c>
-      <c r="N161">
-        <v>2.2</v>
-      </c>
       <c r="O161">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P161">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
         <v>1.85</v>
       </c>
-      <c r="V161">
-        <v>1.95</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X161">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA161">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14886,7 +14886,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14972,10 +14972,10 @@
         <v>45334.4375</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15064,7 +15064,7 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7047710</v>
+        <v>7047601</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,46 +15150,46 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
         <v>52</v>
       </c>
       <c r="K165">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M165">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N165">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P165">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
         <v>3.5</v>
@@ -15207,19 +15207,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.15</v>
+        <v>4.75</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB165">
-        <v>0.825</v>
-      </c>
-      <c r="AC165">
-        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7047603</v>
+        <v>7047602</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,58 +15239,58 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>51</v>
       </c>
       <c r="K166">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M166">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O166">
         <v>4.2</v>
       </c>
       <c r="P166">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q166">
         <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7047602</v>
+        <v>7047710</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,76 +15328,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L167">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N167">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
+        <v>1.825</v>
+      </c>
+      <c r="S167">
         <v>1.975</v>
-      </c>
-      <c r="S167">
-        <v>1.825</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z167">
+        <v>-1</v>
+      </c>
+      <c r="AA167">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA167">
-        <v>-1</v>
-      </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7047601</v>
+        <v>7047603</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168">
         <v>1</v>
       </c>
-      <c r="I168">
-        <v>2</v>
-      </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K168">
+        <v>1.9</v>
+      </c>
+      <c r="L168">
+        <v>4</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
         <v>1.7</v>
       </c>
-      <c r="L168">
+      <c r="O168">
         <v>4.2</v>
       </c>
-      <c r="M168">
+      <c r="P168">
         <v>3.6</v>
       </c>
-      <c r="N168">
-        <v>1.363</v>
-      </c>
-      <c r="O168">
-        <v>4.75</v>
-      </c>
-      <c r="P168">
-        <v>5.75</v>
-      </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
         <v>3.5</v>
       </c>
       <c r="U168">
+        <v>1.975</v>
+      </c>
+      <c r="V168">
         <v>1.825</v>
       </c>
-      <c r="V168">
-        <v>1.975</v>
-      </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA168">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15595,7 +15595,7 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
         <v>32</v>
@@ -15954,7 +15954,7 @@
         <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7047613</v>
+        <v>7071028</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,49 +16040,49 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H175">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K175">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="L175">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M175">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="N175">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O175">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P175">
+        <v>1.95</v>
+      </c>
+      <c r="Q175">
+        <v>0.5</v>
+      </c>
+      <c r="R175">
         <v>1.8</v>
       </c>
-      <c r="Q175">
-        <v>0.75</v>
-      </c>
-      <c r="R175">
-        <v>1.825</v>
-      </c>
       <c r="S175">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U175">
         <v>1.875</v>
@@ -16091,16 +16091,16 @@
         <v>1.925</v>
       </c>
       <c r="W175">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA175">
         <v>-1</v>
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7071028</v>
+        <v>7047610</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,76 +16129,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K176">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
         <v>4.5</v>
       </c>
       <c r="M176">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O176">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P176">
+        <v>4</v>
+      </c>
+      <c r="Q176">
+        <v>-1</v>
+      </c>
+      <c r="R176">
+        <v>1.825</v>
+      </c>
+      <c r="S176">
+        <v>1.975</v>
+      </c>
+      <c r="T176">
+        <v>3.25</v>
+      </c>
+      <c r="U176">
+        <v>1.85</v>
+      </c>
+      <c r="V176">
         <v>1.95</v>
       </c>
-      <c r="Q176">
-        <v>0.5</v>
-      </c>
-      <c r="R176">
-        <v>1.8</v>
-      </c>
-      <c r="S176">
-        <v>2</v>
-      </c>
-      <c r="T176">
-        <v>3.5</v>
-      </c>
-      <c r="U176">
-        <v>1.875</v>
-      </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB176">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7047611</v>
+        <v>7047613</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L177">
+        <v>4.8</v>
+      </c>
+      <c r="M177">
+        <v>1.571</v>
+      </c>
+      <c r="N177">
+        <v>3.2</v>
+      </c>
+      <c r="O177">
+        <v>4.5</v>
+      </c>
+      <c r="P177">
+        <v>1.8</v>
+      </c>
+      <c r="Q177">
+        <v>0.75</v>
+      </c>
+      <c r="R177">
+        <v>1.825</v>
+      </c>
+      <c r="S177">
+        <v>1.975</v>
+      </c>
+      <c r="T177">
         <v>3.75</v>
       </c>
-      <c r="M177">
-        <v>2.4</v>
-      </c>
-      <c r="N177">
-        <v>2.375</v>
-      </c>
-      <c r="O177">
-        <v>3.8</v>
-      </c>
-      <c r="P177">
-        <v>2.45</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
+      <c r="U177">
         <v>1.875</v>
       </c>
-      <c r="S177">
+      <c r="V177">
         <v>1.925</v>
       </c>
-      <c r="T177">
-        <v>3.25</v>
-      </c>
-      <c r="U177">
-        <v>1.85</v>
-      </c>
-      <c r="V177">
-        <v>1.95</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X177">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7047610</v>
+        <v>7047611</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,46 +16307,46 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K178">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L178">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N178">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O178">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
         <v>3.25</v>
@@ -16361,22 +16361,22 @@
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y178">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16488,7 +16488,7 @@
         <v>45</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16577,7 +16577,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16666,7 +16666,7 @@
         <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>45348.375</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G183" t="s">
         <v>45</v>
@@ -16930,7 +16930,7 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17019,7 +17019,7 @@
         <v>45348.4375</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
         <v>39</v>
@@ -17185,7 +17185,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7047630</v>
+        <v>7047628</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17197,76 +17197,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K188">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L188">
         <v>4</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N188">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P188">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB188">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17274,7 +17274,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7047628</v>
+        <v>7047630</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17286,76 +17286,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K189">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L189">
         <v>4</v>
       </c>
       <c r="M189">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N189">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y189">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17375,7 +17375,7 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
         <v>48</v>
@@ -17464,7 +17464,7 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
         <v>44</v>
@@ -17553,7 +17553,7 @@
         <v>45352.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -109,25 +109,25 @@
     <t>Birmingham U21</t>
   </si>
   <si>
-    <t>Fleetwood Town U21</t>
-  </si>
-  <si>
     <t>Barnsley U21</t>
   </si>
   <si>
-    <t>Peterborough U21</t>
-  </si>
-  <si>
-    <t>Hull U21</t>
-  </si>
-  <si>
-    <t>Sheff Utd U21</t>
+    <t>Fleetwood Town U21</t>
   </si>
   <si>
     <t>Sheffield Wed U21</t>
   </si>
   <si>
     <t>Coventry U21</t>
+  </si>
+  <si>
+    <t>Peterborough U21</t>
+  </si>
+  <si>
+    <t>Sheff Utd U21</t>
+  </si>
+  <si>
+    <t>Hull U21</t>
   </si>
   <si>
     <t>Wigan U21</t>
@@ -139,13 +139,13 @@
     <t>Swansea U21</t>
   </si>
   <si>
+    <t>Charlton U21</t>
+  </si>
+  <si>
     <t>Millwall U21</t>
   </si>
   <si>
     <t>Colchester U21</t>
-  </si>
-  <si>
-    <t>Charlton U21</t>
   </si>
   <si>
     <t>QPR U21</t>
@@ -154,10 +154,10 @@
     <t>Cardiff U21</t>
   </si>
   <si>
-    <t>Bournemouth U21</t>
+    <t>Bristol City U21</t>
   </si>
   <si>
-    <t>Bristol City U21</t>
+    <t>Bournemouth U21</t>
   </si>
   <si>
     <t>Ipswich U21</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC192"/>
+  <dimension ref="A1:AC198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7067620</v>
+        <v>7047431</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -824,55 +824,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
       </c>
       <c r="K4">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
+        <v>2.75</v>
+      </c>
+      <c r="O4">
         <v>3.6</v>
       </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
       <c r="P4">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q4">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -881,13 +881,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7047431</v>
+        <v>7067620</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -913,55 +913,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
       </c>
       <c r="K5">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>2.1</v>
-      </c>
-      <c r="N5">
-        <v>2.75</v>
-      </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
         <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -970,13 +970,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7047433</v>
+        <v>7047435</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,70 +1005,70 @@
         <v>42</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="L6">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M6">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P6">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R6">
+        <v>1.925</v>
+      </c>
+      <c r="S6">
         <v>1.875</v>
       </c>
-      <c r="S6">
-        <v>1.925</v>
-      </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7046797</v>
+        <v>7067710</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1091,73 +1091,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L7">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7047434</v>
+        <v>7047433</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,73 +1180,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q8">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
+        <v>1.875</v>
+      </c>
+      <c r="S8">
+        <v>1.925</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
+        <v>1.85</v>
+      </c>
+      <c r="V8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.925</v>
-      </c>
       <c r="W8">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>0.925</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.95</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>0.875</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7047435</v>
+        <v>7047434</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1269,70 +1269,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="L9">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="O9">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P9">
-        <v>1.45</v>
+        <v>7</v>
       </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>1.85</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>1.875</v>
+      </c>
+      <c r="V9">
         <v>1.925</v>
       </c>
-      <c r="S9">
-        <v>1.875</v>
-      </c>
-      <c r="T9">
-        <v>3.25</v>
-      </c>
-      <c r="U9">
-        <v>1.825</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X9">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7067710</v>
+        <v>7046797</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1358,73 +1358,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
+        <v>1.875</v>
+      </c>
+      <c r="S10">
+        <v>1.925</v>
+      </c>
+      <c r="T10">
+        <v>3.75</v>
+      </c>
+      <c r="U10">
         <v>1.9</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.9</v>
       </c>
-      <c r="T10">
-        <v>3.5</v>
-      </c>
-      <c r="U10">
-        <v>1.975</v>
-      </c>
-      <c r="V10">
-        <v>1.825</v>
-      </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>0.825</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7047440</v>
+        <v>7047439</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,73 +1714,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>3.5</v>
+      </c>
+      <c r="L14">
+        <v>4.2</v>
+      </c>
+      <c r="M14">
+        <v>1.7</v>
+      </c>
+      <c r="N14">
+        <v>1.727</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>3.5</v>
+      </c>
+      <c r="Q14">
+        <v>-0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>3.75</v>
+      </c>
+      <c r="U14">
+        <v>1.9</v>
+      </c>
+      <c r="V14">
+        <v>1.9</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
         <v>3</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14">
-        <v>1.533</v>
-      </c>
-      <c r="L14">
-        <v>4.5</v>
-      </c>
-      <c r="M14">
-        <v>4.2</v>
-      </c>
-      <c r="N14">
-        <v>1.45</v>
-      </c>
-      <c r="O14">
-        <v>4.75</v>
-      </c>
-      <c r="P14">
-        <v>4.75</v>
-      </c>
-      <c r="Q14">
-        <v>-1.25</v>
-      </c>
-      <c r="R14">
-        <v>1.9</v>
-      </c>
-      <c r="S14">
-        <v>1.9</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>1.95</v>
-      </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>0.825</v>
+      </c>
+      <c r="AB14">
         <v>0.45</v>
       </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7047445</v>
+        <v>7047440</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,55 +1803,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M15">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>1.15</v>
+        <v>0.45</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1860,13 +1860,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7047439</v>
+        <v>7047445</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,73 +1892,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O16">
         <v>4</v>
       </c>
       <c r="P16">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>1.8</v>
+      </c>
+      <c r="T16">
+        <v>3.25</v>
+      </c>
+      <c r="U16">
+        <v>1.825</v>
+      </c>
+      <c r="V16">
         <v>1.975</v>
       </c>
-      <c r="S16">
-        <v>1.825</v>
-      </c>
-      <c r="T16">
-        <v>3.75</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>0.825</v>
       </c>
-      <c r="AB16">
-        <v>0.45</v>
-      </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1981,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7071046</v>
+        <v>7047443</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,37 +2159,37 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M19">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N19">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P19">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
         <v>1.95</v>
@@ -2198,34 +2198,34 @@
         <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB19">
         <v>0.95</v>
       </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7047443</v>
+        <v>7071046</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2251,34 +2251,34 @@
         <v>35</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>2.1</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>2.7</v>
+      </c>
+      <c r="N20">
+        <v>3.4</v>
+      </c>
+      <c r="O20">
         <v>4</v>
       </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>4.333</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
         <v>1.833</v>
       </c>
-      <c r="N20">
-        <v>2.625</v>
-      </c>
-      <c r="O20">
-        <v>4.2</v>
-      </c>
-      <c r="P20">
-        <v>2.05</v>
-      </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
         <v>1.95</v>
@@ -2287,34 +2287,34 @@
         <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>45163.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2604,7 +2604,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2693,7 +2693,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2767,7 +2767,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7047450</v>
+        <v>7047451</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,58 +2779,58 @@
         <v>45167.375</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>51</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L26">
         <v>4</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N26">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O26">
         <v>4.2</v>
       </c>
       <c r="P26">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>3.5</v>
       </c>
       <c r="U26">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.7270000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2839,16 +2839,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7047451</v>
+        <v>7071045</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,10 +2871,10 @@
         <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2883,43 +2883,43 @@
         <v>51</v>
       </c>
       <c r="K27">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N27">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O27">
         <v>4.2</v>
       </c>
       <c r="P27">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
         <v>-1</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
         <v>3.5</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>0.615</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2928,16 +2928,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7071045</v>
+        <v>7047450</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,58 +2957,58 @@
         <v>45167.375</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>51</v>
       </c>
       <c r="K28">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N28">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O28">
         <v>4.2</v>
       </c>
       <c r="P28">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
         <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>0.5329999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3017,16 +3017,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7047452</v>
+        <v>7047704</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3049,70 +3049,70 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>2.55</v>
+      </c>
+      <c r="L29">
         <v>4</v>
       </c>
-      <c r="I29">
+      <c r="M29">
+        <v>2.15</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <v>1.285</v>
+      </c>
+      <c r="Q29">
         <v>2</v>
       </c>
-      <c r="J29" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29">
+      <c r="R29">
+        <v>1.775</v>
+      </c>
+      <c r="S29">
+        <v>1.925</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
         <v>1.75</v>
       </c>
-      <c r="L29">
-        <v>4.2</v>
-      </c>
-      <c r="M29">
-        <v>3.3</v>
-      </c>
-      <c r="N29">
-        <v>1.615</v>
-      </c>
-      <c r="O29">
-        <v>4.333</v>
-      </c>
-      <c r="P29">
-        <v>3.6</v>
-      </c>
-      <c r="Q29">
-        <v>-1</v>
-      </c>
-      <c r="R29">
-        <v>1.925</v>
-      </c>
-      <c r="S29">
-        <v>1.775</v>
-      </c>
-      <c r="T29">
-        <v>3.75</v>
-      </c>
-      <c r="U29">
-        <v>1.825</v>
-      </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
         <v>0.925</v>
       </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
       <c r="AB29">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7047704</v>
+        <v>7047452</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,73 +3135,73 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O30">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P30">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R30">
+        <v>1.925</v>
+      </c>
+      <c r="S30">
         <v>1.775</v>
       </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
       <c r="T30">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3224,10 +3224,10 @@
         <v>45168.375</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3316,7 +3316,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -3405,7 +3405,7 @@
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3491,7 +3491,7 @@
         <v>45170.625</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
         <v>49</v>
@@ -3583,7 +3583,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -3672,7 +3672,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7047462</v>
+        <v>7047459</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3761,37 +3761,37 @@
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>2.9</v>
+      </c>
+      <c r="N37">
+        <v>2.375</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>2.45</v>
+      </c>
+      <c r="Q37">
         <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37">
-        <v>1.25</v>
-      </c>
-      <c r="L37">
-        <v>5.5</v>
-      </c>
-      <c r="M37">
-        <v>7.5</v>
-      </c>
-      <c r="N37">
-        <v>1.166</v>
-      </c>
-      <c r="O37">
-        <v>7</v>
-      </c>
-      <c r="P37">
-        <v>9.5</v>
-      </c>
-      <c r="Q37">
-        <v>-2.25</v>
       </c>
       <c r="R37">
         <v>1.85</v>
@@ -3800,34 +3800,34 @@
         <v>1.95</v>
       </c>
       <c r="T37">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>-0</v>
+      </c>
+      <c r="AB37">
+        <v>0.4625</v>
+      </c>
+      <c r="AC37">
         <v>-0.5</v>
-      </c>
-      <c r="AA37">
-        <v>0.475</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7047459</v>
+        <v>7047462</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3847,40 +3847,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M38">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N38">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P38">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R38">
         <v>1.85</v>
@@ -3889,34 +3889,34 @@
         <v>1.95</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X38">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB38">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3936,10 +3936,10 @@
         <v>45174.375</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7047461</v>
+        <v>7047460</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,31 +4025,31 @@
         <v>45174.375</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>51</v>
       </c>
       <c r="K40">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L40">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N40">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O40">
         <v>4</v>
@@ -4070,13 +4070,13 @@
         <v>3.75</v>
       </c>
       <c r="U40">
+        <v>1.925</v>
+      </c>
+      <c r="V40">
         <v>1.875</v>
       </c>
-      <c r="V40">
-        <v>1.925</v>
-      </c>
       <c r="W40">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4094,7 +4094,7 @@
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7047460</v>
+        <v>7047461</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,31 +4114,31 @@
         <v>45174.375</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>51</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M41">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N41">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O41">
         <v>4</v>
@@ -4159,13 +4159,13 @@
         <v>3.75</v>
       </c>
       <c r="U41">
+        <v>1.875</v>
+      </c>
+      <c r="V41">
         <v>1.925</v>
       </c>
-      <c r="V41">
-        <v>1.875</v>
-      </c>
       <c r="W41">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4183,7 +4183,7 @@
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4292,10 +4292,10 @@
         <v>45177.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4381,10 +4381,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -4473,7 +4473,7 @@
         <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4648,7 +4648,7 @@
         <v>45181.375</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>48</v>
@@ -4737,7 +4737,7 @@
         <v>45181.375</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4814,7 +4814,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7047470</v>
+        <v>7047469</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4826,56 +4826,56 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" t="s">
         <v>52</v>
       </c>
       <c r="K49">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L49">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M49">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="N49">
+        <v>3.1</v>
+      </c>
+      <c r="O49">
         <v>4.2</v>
       </c>
-      <c r="O49">
-        <v>4.75</v>
-      </c>
       <c r="P49">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.775</v>
+      </c>
+      <c r="T49">
+        <v>3.75</v>
+      </c>
+      <c r="U49">
+        <v>1.8</v>
+      </c>
+      <c r="V49">
         <v>2</v>
       </c>
-      <c r="S49">
-        <v>1.8</v>
-      </c>
-      <c r="T49">
-        <v>4</v>
-      </c>
-      <c r="U49">
-        <v>1.975</v>
-      </c>
-      <c r="V49">
-        <v>1.825</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
@@ -4883,16 +4883,16 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB49">
         <v>0.8</v>
-      </c>
-      <c r="AB49">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4918,7 +4918,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7047469</v>
+        <v>7047470</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,55 +5004,55 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
         <v>52</v>
       </c>
       <c r="K51">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L51">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M51">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O51">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
+        <v>1.533</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
         <v>1.8</v>
       </c>
-      <c r="Q51">
-        <v>0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.925</v>
-      </c>
-      <c r="S51">
-        <v>1.775</v>
-      </c>
       <c r="T51">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5061,16 +5061,16 @@
         <v>-1</v>
       </c>
       <c r="Y51">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
         <v>0.8</v>
       </c>
-      <c r="Z51">
-        <v>-1</v>
-      </c>
-      <c r="AA51">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5185,7 +5185,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5360,10 +5360,10 @@
         <v>45188.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -5449,7 +5449,7 @@
         <v>45191.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7047481</v>
+        <v>7047478</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,76 +5538,76 @@
         <v>45194.375</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K57">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N57">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="O57">
         <v>5.25</v>
       </c>
       <c r="P57">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
         <v>4</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7047478</v>
+        <v>7047481</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,76 +5627,76 @@
         <v>45194.375</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L58">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N58">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O58">
         <v>5.25</v>
       </c>
       <c r="P58">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q58">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
         <v>4</v>
       </c>
       <c r="U58">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5805,10 +5805,10 @@
         <v>45194.625</v>
       </c>
       <c r="F60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s">
         <v>34</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7047484</v>
+        <v>7047483</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>45195.375</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N61">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
+        <v>1.875</v>
+      </c>
+      <c r="S61">
+        <v>1.925</v>
+      </c>
+      <c r="T61">
+        <v>3.25</v>
+      </c>
+      <c r="U61">
+        <v>1.825</v>
+      </c>
+      <c r="V61">
         <v>1.975</v>
       </c>
-      <c r="S61">
-        <v>1.825</v>
-      </c>
-      <c r="T61">
-        <v>3.75</v>
-      </c>
-      <c r="U61">
-        <v>1.875</v>
-      </c>
-      <c r="V61">
-        <v>1.925</v>
-      </c>
       <c r="W61">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7071042</v>
+        <v>7047484</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,58 +5983,58 @@
         <v>45195.375</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>43</v>
       </c>
       <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
         <v>1</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>51</v>
       </c>
       <c r="K62">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L62">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N62">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O62">
+        <v>4.5</v>
+      </c>
+      <c r="P62">
+        <v>4.5</v>
+      </c>
+      <c r="Q62">
+        <v>-1.25</v>
+      </c>
+      <c r="R62">
+        <v>1.975</v>
+      </c>
+      <c r="S62">
+        <v>1.825</v>
+      </c>
+      <c r="T62">
         <v>3.75</v>
       </c>
-      <c r="P62">
-        <v>2.75</v>
-      </c>
-      <c r="Q62">
-        <v>-0.25</v>
-      </c>
-      <c r="R62">
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
         <v>1.925</v>
       </c>
-      <c r="S62">
-        <v>1.875</v>
-      </c>
-      <c r="T62">
-        <v>3.25</v>
-      </c>
-      <c r="U62">
-        <v>1.975</v>
-      </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6043,16 +6043,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
+        <v>-0.5</v>
+      </c>
+      <c r="AA62">
+        <v>0.4125</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.925</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>-1</v>
-      </c>
-      <c r="AC62">
-        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7047483</v>
+        <v>7071042</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,76 +6072,76 @@
         <v>45195.375</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K63">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M63">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
+        <v>1.925</v>
+      </c>
+      <c r="S63">
         <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
       </c>
       <c r="T63">
         <v>3.25</v>
       </c>
       <c r="U63">
+        <v>1.975</v>
+      </c>
+      <c r="V63">
         <v>1.825</v>
       </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.825</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6164,7 +6164,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6250,10 +6250,10 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6339,10 +6339,10 @@
         <v>45198.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6431,7 +6431,7 @@
         <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6606,10 +6606,10 @@
         <v>45201.375</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -6695,10 +6695,10 @@
         <v>45201.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7047491</v>
+        <v>7047490</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,13 +6784,13 @@
         <v>45202.375</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6799,43 +6799,43 @@
         <v>51</v>
       </c>
       <c r="K71">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L71">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M71">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N71">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O71">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P71">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U71">
+        <v>1.85</v>
+      </c>
+      <c r="V71">
         <v>1.95</v>
       </c>
-      <c r="V71">
-        <v>1.85</v>
-      </c>
       <c r="W71">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6844,13 +6844,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6861,7 +6861,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7047490</v>
+        <v>7047491</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6873,13 +6873,13 @@
         <v>45202.375</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -6888,43 +6888,43 @@
         <v>51</v>
       </c>
       <c r="K72">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L72">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M72">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N72">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q72">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T72">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
         <v>1.85</v>
       </c>
-      <c r="V72">
-        <v>1.95</v>
-      </c>
       <c r="W72">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6933,13 +6933,13 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6950,7 +6950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7047492</v>
+        <v>7047493</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6962,76 +6962,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>50</v>
+      </c>
+      <c r="K73">
+        <v>1.615</v>
+      </c>
+      <c r="L73">
+        <v>4.75</v>
+      </c>
+      <c r="M73">
+        <v>3.5</v>
+      </c>
+      <c r="N73">
         <v>3</v>
       </c>
-      <c r="J73" t="s">
-        <v>52</v>
-      </c>
-      <c r="K73">
-        <v>1.909</v>
-      </c>
-      <c r="L73">
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>1.85</v>
+      </c>
+      <c r="Q73">
+        <v>0.5</v>
+      </c>
+      <c r="R73">
+        <v>1.875</v>
+      </c>
+      <c r="S73">
+        <v>1.925</v>
+      </c>
+      <c r="T73">
         <v>3.75</v>
       </c>
-      <c r="M73">
-        <v>3.1</v>
-      </c>
-      <c r="N73">
-        <v>2.3</v>
-      </c>
-      <c r="O73">
-        <v>3.6</v>
-      </c>
-      <c r="P73">
-        <v>2.4</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>1.95</v>
-      </c>
-      <c r="T73">
-        <v>3.25</v>
-      </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
+        <v>0.4625</v>
+      </c>
+      <c r="AC73">
         <v>-0.5</v>
-      </c>
-      <c r="AC73">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7039,7 +7039,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7047493</v>
+        <v>7047492</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7051,76 +7051,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K74">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L74">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
+        <v>2.4</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
         <v>1.85</v>
       </c>
-      <c r="Q74">
-        <v>0.5</v>
-      </c>
-      <c r="R74">
-        <v>1.875</v>
-      </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7140,10 +7140,10 @@
         <v>45212.625</v>
       </c>
       <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s">
         <v>36</v>
-      </c>
-      <c r="G75" t="s">
-        <v>35</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7229,10 +7229,10 @@
         <v>45215.375</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7318,7 +7318,7 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -7395,7 +7395,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7047501</v>
+        <v>7047499</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7407,58 +7407,58 @@
         <v>45216.375</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>51</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W78">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7467,16 +7467,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7047499</v>
+        <v>7047501</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7496,58 +7496,58 @@
         <v>45216.375</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>51</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M79">
+        <v>1.8</v>
+      </c>
+      <c r="N79">
+        <v>2.05</v>
+      </c>
+      <c r="O79">
+        <v>4.5</v>
+      </c>
+      <c r="P79">
         <v>2.5</v>
       </c>
-      <c r="N79">
-        <v>2.75</v>
-      </c>
-      <c r="O79">
-        <v>3.8</v>
-      </c>
-      <c r="P79">
-        <v>2.1</v>
-      </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7556,16 +7556,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7674,10 +7674,10 @@
         <v>45216.625</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7047706</v>
+        <v>7047705</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7763,10 +7763,10 @@
         <v>45222.375</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7778,61 +7778,61 @@
         <v>50</v>
       </c>
       <c r="K82">
+        <v>2.25</v>
+      </c>
+      <c r="L82">
+        <v>3.75</v>
+      </c>
+      <c r="M82">
+        <v>2.5</v>
+      </c>
+      <c r="N82">
+        <v>3.75</v>
+      </c>
+      <c r="O82">
+        <v>4.333</v>
+      </c>
+      <c r="P82">
         <v>1.666</v>
       </c>
-      <c r="L82">
-        <v>4.333</v>
-      </c>
-      <c r="M82">
-        <v>3.5</v>
-      </c>
-      <c r="N82">
-        <v>2.15</v>
-      </c>
-      <c r="O82">
-        <v>4</v>
-      </c>
-      <c r="P82">
-        <v>2.5</v>
-      </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7047705</v>
+        <v>7047706</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7852,10 +7852,10 @@
         <v>45222.375</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7867,61 +7867,61 @@
         <v>50</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M83">
+        <v>3.5</v>
+      </c>
+      <c r="N83">
+        <v>2.15</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
         <v>2.5</v>
       </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>4.333</v>
-      </c>
-      <c r="P83">
-        <v>1.666</v>
-      </c>
       <c r="Q83">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7944,7 +7944,7 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7071039</v>
+        <v>7047505</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,73 +8030,73 @@
         <v>45223.375</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>51</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L85">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N85">
+        <v>1.7</v>
+      </c>
+      <c r="O85">
+        <v>4.2</v>
+      </c>
+      <c r="P85">
+        <v>3.8</v>
+      </c>
+      <c r="Q85">
+        <v>-0.75</v>
+      </c>
+      <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
+        <v>1.925</v>
+      </c>
+      <c r="T85">
+        <v>3.5</v>
+      </c>
+      <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="O85">
-        <v>4</v>
-      </c>
-      <c r="P85">
-        <v>3.1</v>
-      </c>
-      <c r="Q85">
+      <c r="W85">
+        <v>0.7</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>0.4375</v>
+      </c>
+      <c r="AA85">
         <v>-0.5</v>
       </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.9</v>
-      </c>
-      <c r="T85">
-        <v>3.25</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
-      <c r="W85">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
-      <c r="Z85">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7047505</v>
+        <v>7047506</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,46 +8119,46 @@
         <v>45223.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86" t="s">
+        <v>52</v>
+      </c>
+      <c r="K86">
+        <v>2.3</v>
+      </c>
+      <c r="L86">
+        <v>3.8</v>
+      </c>
+      <c r="M86">
+        <v>2.375</v>
+      </c>
+      <c r="N86">
+        <v>4.75</v>
+      </c>
+      <c r="O86">
+        <v>4.5</v>
+      </c>
+      <c r="P86">
+        <v>1.5</v>
+      </c>
+      <c r="Q86">
+        <v>1.25</v>
+      </c>
+      <c r="R86">
+        <v>1.8</v>
+      </c>
+      <c r="S86">
         <v>2</v>
-      </c>
-      <c r="J86" t="s">
-        <v>51</v>
-      </c>
-      <c r="K86">
-        <v>1.8</v>
-      </c>
-      <c r="L86">
-        <v>4</v>
-      </c>
-      <c r="M86">
-        <v>3.25</v>
-      </c>
-      <c r="N86">
-        <v>1.7</v>
-      </c>
-      <c r="O86">
-        <v>4.2</v>
-      </c>
-      <c r="P86">
-        <v>3.8</v>
-      </c>
-      <c r="Q86">
-        <v>-0.75</v>
-      </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
       </c>
       <c r="T86">
         <v>3.5</v>
@@ -8170,19 +8170,19 @@
         <v>1.85</v>
       </c>
       <c r="W86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z86">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB86">
         <v>0.95</v>
@@ -8196,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7047506</v>
+        <v>7071039</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,73 +8208,73 @@
         <v>45223.375</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
         <v>0</v>
       </c>
-      <c r="I87">
+      <c r="J87" t="s">
+        <v>51</v>
+      </c>
+      <c r="K87">
+        <v>1.909</v>
+      </c>
+      <c r="L87">
+        <v>3.9</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>1.85</v>
+      </c>
+      <c r="O87">
         <v>4</v>
       </c>
-      <c r="J87" t="s">
-        <v>52</v>
-      </c>
-      <c r="K87">
-        <v>2.3</v>
-      </c>
-      <c r="L87">
-        <v>3.8</v>
-      </c>
-      <c r="M87">
-        <v>2.375</v>
-      </c>
-      <c r="N87">
-        <v>4.75</v>
-      </c>
-      <c r="O87">
-        <v>4.5</v>
-      </c>
       <c r="P87">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8374,7 +8374,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7047509</v>
+        <v>7047510</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8386,49 +8386,49 @@
         <v>45229.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>51</v>
       </c>
       <c r="K89">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M89">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N89">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O89">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U89">
         <v>1.975</v>
@@ -8437,7 +8437,7 @@
         <v>1.825</v>
       </c>
       <c r="W89">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8446,7 +8446,7 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8463,7 +8463,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7047510</v>
+        <v>7047509</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8475,49 +8475,49 @@
         <v>45229.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>51</v>
       </c>
       <c r="K90">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>4.5</v>
+      </c>
+      <c r="N90">
+        <v>2.1</v>
+      </c>
+      <c r="O90">
         <v>4.333</v>
       </c>
-      <c r="M90">
-        <v>3.6</v>
-      </c>
-      <c r="N90">
-        <v>1.909</v>
-      </c>
-      <c r="O90">
-        <v>4</v>
-      </c>
       <c r="P90">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q90">
         <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U90">
         <v>1.975</v>
@@ -8526,7 +8526,7 @@
         <v>1.825</v>
       </c>
       <c r="W90">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8535,7 +8535,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8564,10 +8564,10 @@
         <v>45229.4375</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8656,7 +8656,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8742,7 +8742,7 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
         <v>39</v>
@@ -8831,7 +8831,7 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -8920,10 +8920,10 @@
         <v>45230.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>48</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9187,7 +9187,7 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
         <v>48</v>
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7047523</v>
+        <v>7071037</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,73 +9276,73 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>51</v>
+      </c>
+      <c r="K99">
+        <v>2.25</v>
+      </c>
+      <c r="L99">
         <v>4</v>
       </c>
-      <c r="J99" t="s">
-        <v>52</v>
-      </c>
-      <c r="K99">
-        <v>2.75</v>
-      </c>
-      <c r="L99">
+      <c r="M99">
+        <v>2.4</v>
+      </c>
+      <c r="N99">
+        <v>1.727</v>
+      </c>
+      <c r="O99">
         <v>4.2</v>
       </c>
-      <c r="M99">
-        <v>1.95</v>
-      </c>
-      <c r="N99">
-        <v>2.45</v>
-      </c>
-      <c r="O99">
-        <v>4</v>
-      </c>
       <c r="P99">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
         <v>3.75</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA99">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7047522</v>
+        <v>7047523</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,56 +9365,56 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
       </c>
       <c r="K100">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
         <v>4.2</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N100">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T100">
         <v>3.75</v>
       </c>
       <c r="U100">
+        <v>1.925</v>
+      </c>
+      <c r="V100">
         <v>1.875</v>
       </c>
-      <c r="V100">
-        <v>1.925</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9422,19 +9422,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
+        <v>0.75</v>
+      </c>
+      <c r="AB100">
         <v>0.925</v>
       </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9442,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7071037</v>
+        <v>7047522</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9454,76 +9454,76 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K101">
         <v>2.25</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M101">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
         <v>3.75</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z101">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9546,7 +9546,7 @@
         <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9632,7 +9632,7 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9721,10 +9721,10 @@
         <v>45237.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9810,10 +9810,10 @@
         <v>45244.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9899,10 +9899,10 @@
         <v>45247.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10080,7 +10080,7 @@
         <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10166,7 +10166,7 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
         <v>40</v>
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7047533</v>
+        <v>7047534</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,10 +10255,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10270,61 +10270,61 @@
         <v>50</v>
       </c>
       <c r="K110">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L110">
         <v>4</v>
       </c>
       <c r="M110">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N110">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
         <v>1.95</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
         <v>1.95</v>
       </c>
-      <c r="V110">
-        <v>1.85</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA110">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7047534</v>
+        <v>7047533</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,10 +10344,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10359,61 +10359,61 @@
         <v>50</v>
       </c>
       <c r="K111">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
         <v>4</v>
       </c>
       <c r="M111">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S111">
         <v>1.95</v>
       </c>
       <c r="T111">
+        <v>3.75</v>
+      </c>
+      <c r="U111">
+        <v>1.95</v>
+      </c>
+      <c r="V111">
+        <v>1.85</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
         <v>3</v>
       </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
-      <c r="V111">
-        <v>1.95</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>2.75</v>
-      </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
+        <v>-0.5</v>
+      </c>
+      <c r="AA111">
+        <v>0.475</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10436,7 +10436,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10522,10 +10522,10 @@
         <v>45257.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7047537</v>
+        <v>7047540</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,73 +10611,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K114">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L114">
+        <v>4.1</v>
+      </c>
+      <c r="M114">
+        <v>1.8</v>
+      </c>
+      <c r="N114">
+        <v>3.6</v>
+      </c>
+      <c r="O114">
         <v>4.2</v>
       </c>
-      <c r="M114">
-        <v>3.3</v>
-      </c>
-      <c r="N114">
-        <v>1.95</v>
-      </c>
-      <c r="O114">
-        <v>4</v>
-      </c>
       <c r="P114">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X114">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA114">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7047541</v>
+        <v>7047537</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,73 +10700,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M115">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N115">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
         <v>4</v>
       </c>
       <c r="P115">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>3.75</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7047540</v>
+        <v>7047541</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,73 +10789,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K116">
+        <v>3.1</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>1.833</v>
+      </c>
+      <c r="N116">
         <v>3.2</v>
       </c>
-      <c r="L116">
-        <v>4.1</v>
-      </c>
-      <c r="M116">
+      <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116">
         <v>1.8</v>
       </c>
-      <c r="N116">
-        <v>3.6</v>
-      </c>
-      <c r="O116">
-        <v>4.2</v>
-      </c>
-      <c r="P116">
-        <v>1.7</v>
-      </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10967,10 +10967,10 @@
         <v>45258.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11059,7 +11059,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11145,7 +11145,7 @@
         <v>45260.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11237,7 +11237,7 @@
         <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11323,10 +11323,10 @@
         <v>45265.375</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11412,10 +11412,10 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -11501,7 +11501,7 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
         <v>30</v>
@@ -11679,7 +11679,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s">
         <v>48</v>
@@ -11771,7 +11771,7 @@
         <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11860,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11946,10 +11946,10 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F129" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" t="s">
         <v>33</v>
-      </c>
-      <c r="G129" t="s">
-        <v>36</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12127,7 +12127,7 @@
         <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12216,7 +12216,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>5</v>
@@ -12302,7 +12302,7 @@
         <v>45278.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
         <v>45</v>
@@ -12391,7 +12391,7 @@
         <v>45279.4375</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
         <v>30</v>
@@ -12480,10 +12480,10 @@
         <v>45279.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12569,7 +12569,7 @@
         <v>45282.375</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12658,10 +12658,10 @@
         <v>45295.4375</v>
       </c>
       <c r="F137" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137" t="s">
         <v>41</v>
-      </c>
-      <c r="G137" t="s">
-        <v>43</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12750,7 +12750,7 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7047570</v>
+        <v>7047568</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,49 +12836,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L139">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M139">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N139">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O139">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P139">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U139">
         <v>1.9</v>
@@ -12887,19 +12887,19 @@
         <v>1.9</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X139">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7047568</v>
+        <v>7047570</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,49 +12925,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N140">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O140">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P140">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q140">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U140">
         <v>1.9</v>
@@ -12976,19 +12976,19 @@
         <v>1.9</v>
       </c>
       <c r="W140">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7047571</v>
+        <v>7047709</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,10 +13014,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13029,37 +13029,37 @@
         <v>50</v>
       </c>
       <c r="K141">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M141">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N141">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O141">
         <v>4.333</v>
       </c>
       <c r="P141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V141">
         <v>1.95</v>
@@ -13074,13 +13074,13 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7047709</v>
+        <v>7047572</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,73 +13103,73 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O142">
         <v>4.333</v>
       </c>
       <c r="P142">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U142">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z142">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7047569</v>
+        <v>7047571</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,55 +13192,55 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
         <v>50</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
         <v>4.2</v>
       </c>
       <c r="M143">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="O143">
         <v>4.333</v>
       </c>
       <c r="P143">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T143">
         <v>3.5</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13252,16 +13252,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7047572</v>
+        <v>7047569</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,76 +13281,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
         <v>4.2</v>
       </c>
       <c r="M144">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N144">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O144">
         <v>4.333</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
+        <v>1.975</v>
+      </c>
+      <c r="S144">
         <v>1.825</v>
-      </c>
-      <c r="S144">
-        <v>1.975</v>
       </c>
       <c r="T144">
         <v>3.5</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13370,10 +13370,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F145" t="s">
+        <v>46</v>
+      </c>
+      <c r="G145" t="s">
         <v>47</v>
-      </c>
-      <c r="G145" t="s">
-        <v>46</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>45303.375</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
         <v>40</v>
@@ -13548,7 +13548,7 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13640,7 +13640,7 @@
         <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13818,7 +13818,7 @@
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13993,10 +13993,10 @@
         <v>45314.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14082,10 +14082,10 @@
         <v>45316.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14171,7 +14171,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
         <v>48</v>
@@ -14248,7 +14248,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7071030</v>
+        <v>7047585</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14260,76 +14260,76 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>51</v>
+      </c>
+      <c r="K155">
+        <v>4.333</v>
+      </c>
+      <c r="L155">
+        <v>4.333</v>
+      </c>
+      <c r="M155">
+        <v>1.533</v>
+      </c>
+      <c r="N155">
+        <v>1.909</v>
+      </c>
+      <c r="O155">
+        <v>3.8</v>
+      </c>
+      <c r="P155">
         <v>3</v>
-      </c>
-      <c r="J155" t="s">
-        <v>52</v>
-      </c>
-      <c r="K155">
-        <v>2.1</v>
-      </c>
-      <c r="L155">
-        <v>3.75</v>
-      </c>
-      <c r="M155">
-        <v>2.7</v>
-      </c>
-      <c r="N155">
-        <v>2.15</v>
-      </c>
-      <c r="O155">
-        <v>3.6</v>
-      </c>
-      <c r="P155">
-        <v>2.7</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
+        <v>1.75</v>
+      </c>
+      <c r="S155">
+        <v>1.95</v>
+      </c>
+      <c r="T155">
+        <v>3.75</v>
+      </c>
+      <c r="U155">
+        <v>1.825</v>
+      </c>
+      <c r="V155">
         <v>1.975</v>
       </c>
-      <c r="S155">
-        <v>1.825</v>
-      </c>
-      <c r="T155">
-        <v>3.5</v>
-      </c>
-      <c r="U155">
-        <v>1.975</v>
-      </c>
-      <c r="V155">
-        <v>1.825</v>
-      </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC155">
-        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14337,7 +14337,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7047585</v>
+        <v>7071030</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14349,76 +14349,76 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L156">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="N156">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q156">
         <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
+        <v>1.975</v>
+      </c>
+      <c r="V156">
         <v>1.825</v>
       </c>
-      <c r="V156">
-        <v>1.975</v>
-      </c>
       <c r="W156">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z156">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14527,7 +14527,7 @@
         <v>45321.67708333334</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14705,10 +14705,10 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14794,7 +14794,7 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>38</v>
@@ -14886,7 +14886,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14972,10 +14972,10 @@
         <v>45334.4375</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15064,7 +15064,7 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7047601</v>
+        <v>7047710</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,46 +15150,46 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J165" t="s">
         <v>52</v>
       </c>
       <c r="K165">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="L165">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M165">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N165">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O165">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
         <v>3.5</v>
@@ -15207,19 +15207,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>4.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC165">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7047602</v>
+        <v>7047601</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
         <v>2</v>
       </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K166">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L166">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M166">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N166">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P166">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB166">
+        <v>-1</v>
+      </c>
+      <c r="AC166">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA166">
-        <v>-1</v>
-      </c>
-      <c r="AB166">
-        <v>-1</v>
-      </c>
-      <c r="AC166">
-        <v>0.925</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7047710</v>
+        <v>7047603</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,76 +15328,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
         <v>1</v>
       </c>
-      <c r="I167">
-        <v>8</v>
-      </c>
       <c r="J167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K167">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="L167">
         <v>4</v>
       </c>
       <c r="M167">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N167">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
+        <v>1.975</v>
+      </c>
+      <c r="V167">
         <v>1.825</v>
       </c>
-      <c r="V167">
-        <v>1.975</v>
-      </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA167">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
+        <v>-1</v>
+      </c>
+      <c r="AC167">
         <v>0.825</v>
-      </c>
-      <c r="AC167">
-        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7047603</v>
+        <v>7047602</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,58 +15417,58 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H168">
         <v>2</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>51</v>
       </c>
       <c r="K168">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M168">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N168">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O168">
         <v>4.2</v>
       </c>
       <c r="P168">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q168">
         <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>3.5</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15477,16 +15477,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7047600</v>
+        <v>7047606</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,10 +15506,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15521,25 +15521,25 @@
         <v>52</v>
       </c>
       <c r="K169">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L169">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M169">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O169">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P169">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
         <v>1.95</v>
@@ -15548,13 +15548,13 @@
         <v>1.85</v>
       </c>
       <c r="T169">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15563,7 +15563,7 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z169">
         <v>-1</v>
@@ -15575,7 +15575,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7047606</v>
+        <v>7047600</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,10 +15595,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15610,25 +15610,25 @@
         <v>52</v>
       </c>
       <c r="K170">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L170">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N170">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O170">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P170">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R170">
         <v>1.95</v>
@@ -15637,22 +15637,22 @@
         <v>1.85</v>
       </c>
       <c r="T170">
+        <v>3.75</v>
+      </c>
+      <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
+        <v>1.9</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
         <v>3.5</v>
-      </c>
-      <c r="U170">
-        <v>1.775</v>
-      </c>
-      <c r="V170">
-        <v>1.925</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>2</v>
       </c>
       <c r="Z170">
         <v>-1</v>
@@ -15664,7 +15664,7 @@
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15687,7 +15687,7 @@
         <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15776,7 +15776,7 @@
         <v>49</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15862,10 +15862,10 @@
         <v>45338.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15954,7 +15954,7 @@
         <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7071028</v>
+        <v>7047610</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,76 +16040,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K175">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
         <v>4.5</v>
       </c>
       <c r="M175">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N175">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O175">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P175">
+        <v>4</v>
+      </c>
+      <c r="Q175">
+        <v>-1</v>
+      </c>
+      <c r="R175">
+        <v>1.825</v>
+      </c>
+      <c r="S175">
+        <v>1.975</v>
+      </c>
+      <c r="T175">
+        <v>3.25</v>
+      </c>
+      <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
         <v>1.95</v>
       </c>
-      <c r="Q175">
-        <v>0.5</v>
-      </c>
-      <c r="R175">
-        <v>1.8</v>
-      </c>
-      <c r="S175">
-        <v>2</v>
-      </c>
-      <c r="T175">
-        <v>3.5</v>
-      </c>
-      <c r="U175">
-        <v>1.875</v>
-      </c>
-      <c r="V175">
-        <v>1.925</v>
-      </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB175">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7047610</v>
+        <v>7071028</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,76 +16129,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K176">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="L176">
         <v>4.5</v>
       </c>
       <c r="M176">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N176">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O176">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R176">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16307,10 +16307,10 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16396,10 +16396,10 @@
         <v>45342.4375</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16488,7 +16488,7 @@
         <v>45</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16577,7 +16577,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16663,10 +16663,10 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>45348.375</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G183" t="s">
         <v>45</v>
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7047619</v>
+        <v>7047618</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,76 +16841,76 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>50</v>
       </c>
       <c r="K184">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L184">
         <v>4.2</v>
       </c>
       <c r="M184">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="N184">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O184">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P184">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q184">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R184">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
         <v>3.5</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V184">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7047618</v>
+        <v>7047619</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16930,76 +16930,76 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
         <v>50</v>
       </c>
       <c r="K185">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L185">
         <v>4.2</v>
       </c>
       <c r="M185">
+        <v>1.666</v>
+      </c>
+      <c r="N185">
+        <v>3.4</v>
+      </c>
+      <c r="O185">
+        <v>4.2</v>
+      </c>
+      <c r="P185">
         <v>1.75</v>
       </c>
-      <c r="N185">
-        <v>4</v>
-      </c>
-      <c r="O185">
-        <v>4.5</v>
-      </c>
-      <c r="P185">
-        <v>1.571</v>
-      </c>
       <c r="Q185">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T185">
         <v>3.5</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17019,7 +17019,7 @@
         <v>45348.4375</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G186" t="s">
         <v>39</v>
@@ -17108,7 +17108,7 @@
         <v>45349.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>49</v>
@@ -17185,7 +17185,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7047628</v>
+        <v>7047630</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17197,76 +17197,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K188">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L188">
         <v>4</v>
       </c>
       <c r="M188">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N188">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O188">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y188">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17274,7 +17274,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7047630</v>
+        <v>7047629</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17286,76 +17286,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K189">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L189">
         <v>4</v>
       </c>
       <c r="M189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N189">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P189">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X189">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
+        <v>0.4375</v>
+      </c>
+      <c r="AA189">
         <v>-0.5</v>
       </c>
-      <c r="AA189">
-        <v>0.4</v>
-      </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17363,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7047629</v>
+        <v>7047628</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,28 +17375,28 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
         <v>2</v>
       </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K190">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L190">
         <v>4</v>
       </c>
       <c r="M190">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N190">
         <v>1.7</v>
@@ -17405,19 +17405,19 @@
         <v>4</v>
       </c>
       <c r="P190">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q190">
         <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U190">
         <v>1.95</v>
@@ -17426,19 +17426,19 @@
         <v>1.85</v>
       </c>
       <c r="W190">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z190">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB190">
         <v>-1</v>
@@ -17464,7 +17464,7 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G191" t="s">
         <v>44</v>
@@ -17553,7 +17553,7 @@
         <v>45352.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
@@ -17623,6 +17623,540 @@
       </c>
       <c r="AC192">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7047633</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45355.41666666666</v>
+      </c>
+      <c r="F193" t="s">
+        <v>29</v>
+      </c>
+      <c r="G193" t="s">
+        <v>33</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193" t="s">
+        <v>52</v>
+      </c>
+      <c r="K193">
+        <v>3.5</v>
+      </c>
+      <c r="L193">
+        <v>4.2</v>
+      </c>
+      <c r="M193">
+        <v>1.75</v>
+      </c>
+      <c r="N193">
+        <v>4</v>
+      </c>
+      <c r="O193">
+        <v>4.5</v>
+      </c>
+      <c r="P193">
+        <v>1.615</v>
+      </c>
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="R193">
+        <v>1.8</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>3.5</v>
+      </c>
+      <c r="U193">
+        <v>1.9</v>
+      </c>
+      <c r="V193">
+        <v>1.9</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>0.615</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>1</v>
+      </c>
+      <c r="AB193">
+        <v>-1</v>
+      </c>
+      <c r="AC193">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>7047636</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45356.41666666666</v>
+      </c>
+      <c r="F194" t="s">
+        <v>45</v>
+      </c>
+      <c r="G194" t="s">
+        <v>48</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>3</v>
+      </c>
+      <c r="J194" t="s">
+        <v>52</v>
+      </c>
+      <c r="K194">
+        <v>2.4</v>
+      </c>
+      <c r="L194">
+        <v>3.8</v>
+      </c>
+      <c r="M194">
+        <v>2.3</v>
+      </c>
+      <c r="N194">
+        <v>2.375</v>
+      </c>
+      <c r="O194">
+        <v>3.8</v>
+      </c>
+      <c r="P194">
+        <v>2.375</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>1.9</v>
+      </c>
+      <c r="S194">
+        <v>1.9</v>
+      </c>
+      <c r="T194">
+        <v>3.75</v>
+      </c>
+      <c r="U194">
+        <v>1.875</v>
+      </c>
+      <c r="V194">
+        <v>1.925</v>
+      </c>
+      <c r="W194">
+        <v>-1</v>
+      </c>
+      <c r="X194">
+        <v>-1</v>
+      </c>
+      <c r="Y194">
+        <v>1.375</v>
+      </c>
+      <c r="Z194">
+        <v>-1</v>
+      </c>
+      <c r="AA194">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB194">
+        <v>0.4375</v>
+      </c>
+      <c r="AC194">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>7047637</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45356.45833333334</v>
+      </c>
+      <c r="F195" t="s">
+        <v>36</v>
+      </c>
+      <c r="G195" t="s">
+        <v>30</v>
+      </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>51</v>
+      </c>
+      <c r="K195">
+        <v>1.833</v>
+      </c>
+      <c r="L195">
+        <v>4</v>
+      </c>
+      <c r="M195">
+        <v>3.2</v>
+      </c>
+      <c r="N195">
+        <v>1.615</v>
+      </c>
+      <c r="O195">
+        <v>4</v>
+      </c>
+      <c r="P195">
+        <v>4</v>
+      </c>
+      <c r="Q195">
+        <v>-0.75</v>
+      </c>
+      <c r="R195">
+        <v>1.825</v>
+      </c>
+      <c r="S195">
+        <v>1.975</v>
+      </c>
+      <c r="T195">
+        <v>3.5</v>
+      </c>
+      <c r="U195">
+        <v>1.85</v>
+      </c>
+      <c r="V195">
+        <v>1.95</v>
+      </c>
+      <c r="W195">
+        <v>0.615</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>0.825</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>7071026</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45356.45833333334</v>
+      </c>
+      <c r="F196" t="s">
+        <v>47</v>
+      </c>
+      <c r="G196" t="s">
+        <v>43</v>
+      </c>
+      <c r="H196">
+        <v>5</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>51</v>
+      </c>
+      <c r="K196">
+        <v>1.5</v>
+      </c>
+      <c r="L196">
+        <v>4.6</v>
+      </c>
+      <c r="M196">
+        <v>4.5</v>
+      </c>
+      <c r="N196">
+        <v>1.45</v>
+      </c>
+      <c r="O196">
+        <v>4.5</v>
+      </c>
+      <c r="P196">
+        <v>4.75</v>
+      </c>
+      <c r="Q196">
+        <v>-1.25</v>
+      </c>
+      <c r="R196">
+        <v>1.975</v>
+      </c>
+      <c r="S196">
+        <v>1.825</v>
+      </c>
+      <c r="T196">
+        <v>3.75</v>
+      </c>
+      <c r="U196">
+        <v>1.975</v>
+      </c>
+      <c r="V196">
+        <v>1.825</v>
+      </c>
+      <c r="W196">
+        <v>0.45</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC196">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>7047634</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45356.66666666666</v>
+      </c>
+      <c r="F197" t="s">
+        <v>44</v>
+      </c>
+      <c r="G197" t="s">
+        <v>42</v>
+      </c>
+      <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>51</v>
+      </c>
+      <c r="K197">
+        <v>2.35</v>
+      </c>
+      <c r="L197">
+        <v>3.9</v>
+      </c>
+      <c r="M197">
+        <v>2.35</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197">
+        <v>4</v>
+      </c>
+      <c r="P197">
+        <v>2.9</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>1.75</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
+        <v>3.25</v>
+      </c>
+      <c r="U197">
+        <v>1.775</v>
+      </c>
+      <c r="V197">
+        <v>1.925</v>
+      </c>
+      <c r="W197">
+        <v>1</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>0.75</v>
+      </c>
+      <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>-0.5</v>
+      </c>
+      <c r="AC197">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>7047638</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45356.66666666666</v>
+      </c>
+      <c r="F198" t="s">
+        <v>37</v>
+      </c>
+      <c r="G198" t="s">
+        <v>32</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>3</v>
+      </c>
+      <c r="J198" t="s">
+        <v>52</v>
+      </c>
+      <c r="K198">
+        <v>3</v>
+      </c>
+      <c r="L198">
+        <v>3.8</v>
+      </c>
+      <c r="M198">
+        <v>1.95</v>
+      </c>
+      <c r="N198">
+        <v>2.45</v>
+      </c>
+      <c r="O198">
+        <v>3.6</v>
+      </c>
+      <c r="P198">
+        <v>2.4</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>1.925</v>
+      </c>
+      <c r="S198">
+        <v>1.875</v>
+      </c>
+      <c r="T198">
+        <v>3</v>
+      </c>
+      <c r="U198">
+        <v>1.9</v>
+      </c>
+      <c r="V198">
+        <v>1.9</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>1.4</v>
+      </c>
+      <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
+        <v>0.875</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+      <c r="AC198">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -109,22 +109,22 @@
     <t>Birmingham U21</t>
   </si>
   <si>
+    <t>Fleetwood Town U21</t>
+  </si>
+  <si>
     <t>Barnsley U21</t>
   </si>
   <si>
-    <t>Fleetwood Town U21</t>
+    <t>Coventry U21</t>
   </si>
   <si>
     <t>Sheffield Wed U21</t>
   </si>
   <si>
-    <t>Coventry U21</t>
+    <t>Sheff Utd U21</t>
   </si>
   <si>
     <t>Peterborough U21</t>
-  </si>
-  <si>
-    <t>Sheff Utd U21</t>
   </si>
   <si>
     <t>Hull U21</t>
@@ -142,10 +142,10 @@
     <t>Charlton U21</t>
   </si>
   <si>
-    <t>Millwall U21</t>
+    <t>Colchester U21</t>
   </si>
   <si>
-    <t>Colchester U21</t>
+    <t>Millwall U21</t>
   </si>
   <si>
     <t>QPR U21</t>
@@ -154,10 +154,10 @@
     <t>Cardiff U21</t>
   </si>
   <si>
-    <t>Bristol City U21</t>
+    <t>Bournemouth U21</t>
   </si>
   <si>
-    <t>Bournemouth U21</t>
+    <t>Bristol City U21</t>
   </si>
   <si>
     <t>Ipswich U21</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC198"/>
+  <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7047431</v>
+        <v>7067620</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -824,55 +824,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
       </c>
       <c r="K4">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L4">
+        <v>3.75</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
         <v>3.6</v>
       </c>
-      <c r="M4">
-        <v>2.1</v>
-      </c>
-      <c r="N4">
-        <v>2.75</v>
-      </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -881,13 +881,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7067620</v>
+        <v>7047431</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -913,55 +913,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
       </c>
       <c r="K5">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N5">
+        <v>2.75</v>
+      </c>
+      <c r="O5">
         <v>3.6</v>
       </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -970,13 +970,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7047435</v>
+        <v>7067710</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,73 +1002,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="L6">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q6">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
         <v>1.825</v>
       </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
         <v>0.825</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7067710</v>
+        <v>7047435</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1091,73 +1091,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M7">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P7">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y7">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7047433</v>
+        <v>7047434</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,73 +1180,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P8">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
+        <v>1.85</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
         <v>1.875</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.925</v>
       </c>
-      <c r="T8">
-        <v>3.5</v>
-      </c>
-      <c r="U8">
-        <v>1.85</v>
-      </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7047434</v>
+        <v>7047433</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1269,73 +1269,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N9">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q9">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
+        <v>1.875</v>
+      </c>
+      <c r="S9">
+        <v>1.925</v>
+      </c>
+      <c r="T9">
+        <v>3.5</v>
+      </c>
+      <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.925</v>
-      </c>
       <c r="W9">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <v>0.925</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.95</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>0.875</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7047440</v>
+        <v>7047445</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,55 +1803,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N15">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O15">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q15">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
-        <v>0.45</v>
+        <v>1.15</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1860,13 +1860,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7047445</v>
+        <v>7047440</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,55 +1892,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>51</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N16">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P16">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>1.15</v>
+        <v>0.45</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1949,13 +1949,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1981,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7047443</v>
+        <v>7071046</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2162,34 +2162,34 @@
         <v>36</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19">
+        <v>2.1</v>
+      </c>
+      <c r="L19">
+        <v>3.75</v>
+      </c>
+      <c r="M19">
+        <v>2.7</v>
+      </c>
+      <c r="N19">
+        <v>3.4</v>
+      </c>
+      <c r="O19">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>4.333</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
         <v>1.833</v>
       </c>
-      <c r="N19">
-        <v>2.625</v>
-      </c>
-      <c r="O19">
-        <v>4.2</v>
-      </c>
-      <c r="P19">
-        <v>2.05</v>
-      </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
         <v>1.95</v>
@@ -2198,34 +2198,34 @@
         <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7071046</v>
+        <v>7047443</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2251,34 +2251,34 @@
         <v>35</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M20">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N20">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
         <v>1.95</v>
@@ -2287,34 +2287,34 @@
         <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB20">
         <v>0.95</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>45163.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2604,7 +2604,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2693,7 +2693,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2779,7 +2779,7 @@
         <v>45167.375</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2868,10 +2868,10 @@
         <v>45167.375</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2957,7 +2957,7 @@
         <v>45167.375</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
@@ -3034,7 +3034,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7047704</v>
+        <v>7047452</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3049,70 +3049,70 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M29">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N29">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O29">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P29">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
         <v>1.775</v>
       </c>
-      <c r="S29">
-        <v>1.925</v>
-      </c>
       <c r="T29">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7047452</v>
+        <v>7047704</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3138,70 +3138,70 @@
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>2.55</v>
+      </c>
+      <c r="L30">
         <v>4</v>
       </c>
-      <c r="I30">
+      <c r="M30">
+        <v>2.15</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>1.285</v>
+      </c>
+      <c r="Q30">
         <v>2</v>
       </c>
-      <c r="J30" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30">
+      <c r="R30">
+        <v>1.775</v>
+      </c>
+      <c r="S30">
+        <v>1.925</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
         <v>1.75</v>
       </c>
-      <c r="L30">
-        <v>4.2</v>
-      </c>
-      <c r="M30">
-        <v>3.3</v>
-      </c>
-      <c r="N30">
-        <v>1.615</v>
-      </c>
-      <c r="O30">
-        <v>4.333</v>
-      </c>
-      <c r="P30">
-        <v>3.6</v>
-      </c>
-      <c r="Q30">
-        <v>-1</v>
-      </c>
-      <c r="R30">
-        <v>1.925</v>
-      </c>
-      <c r="S30">
-        <v>1.775</v>
-      </c>
-      <c r="T30">
-        <v>3.75</v>
-      </c>
-      <c r="U30">
-        <v>1.825</v>
-      </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>0.925</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3227,7 +3227,7 @@
         <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7047455</v>
+        <v>7047454</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3313,58 +3313,58 @@
         <v>45170.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>51</v>
       </c>
       <c r="K32">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="N32">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3373,16 +3373,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3390,7 +3390,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7047454</v>
+        <v>7047455</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,58 +3402,58 @@
         <v>45170.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M33">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O33">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3462,16 +3462,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3491,7 +3491,7 @@
         <v>45170.625</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
         <v>49</v>
@@ -3672,7 +3672,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7047459</v>
+        <v>7047462</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3758,40 +3758,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N37">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P37">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R37">
         <v>1.85</v>
@@ -3800,34 +3800,34 @@
         <v>1.95</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB37">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7047462</v>
+        <v>7047459</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3847,40 +3847,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>2.9</v>
+      </c>
+      <c r="N38">
+        <v>2.375</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>2.45</v>
+      </c>
+      <c r="Q38">
         <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38">
-        <v>1.25</v>
-      </c>
-      <c r="L38">
-        <v>5.5</v>
-      </c>
-      <c r="M38">
-        <v>7.5</v>
-      </c>
-      <c r="N38">
-        <v>1.166</v>
-      </c>
-      <c r="O38">
-        <v>7</v>
-      </c>
-      <c r="P38">
-        <v>9.5</v>
-      </c>
-      <c r="Q38">
-        <v>-2.25</v>
       </c>
       <c r="R38">
         <v>1.85</v>
@@ -3889,34 +3889,34 @@
         <v>1.95</v>
       </c>
       <c r="T38">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>-0</v>
+      </c>
+      <c r="AB38">
+        <v>0.4625</v>
+      </c>
+      <c r="AC38">
         <v>-0.5</v>
-      </c>
-      <c r="AA38">
-        <v>0.475</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7071044</v>
+        <v>7047461</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>45174.375</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
+        <v>4.2</v>
+      </c>
+      <c r="M39">
+        <v>2.45</v>
+      </c>
+      <c r="N39">
+        <v>2.375</v>
+      </c>
+      <c r="O39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>2.3</v>
-      </c>
-      <c r="N39">
-        <v>1.65</v>
-      </c>
-      <c r="O39">
-        <v>4.2</v>
-      </c>
       <c r="P39">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X39">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7047460</v>
+        <v>7071044</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,73 +4028,73 @@
         <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P40">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7047461</v>
+        <v>7047460</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,31 +4114,31 @@
         <v>45174.375</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>51</v>
       </c>
       <c r="K41">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N41">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O41">
         <v>4</v>
@@ -4159,13 +4159,13 @@
         <v>3.75</v>
       </c>
       <c r="U41">
+        <v>1.925</v>
+      </c>
+      <c r="V41">
         <v>1.875</v>
       </c>
-      <c r="V41">
-        <v>1.925</v>
-      </c>
       <c r="W41">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4183,7 +4183,7 @@
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4292,7 +4292,7 @@
         <v>45177.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -4384,7 +4384,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7047466</v>
+        <v>7047465</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4470,76 +4470,76 @@
         <v>45180.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M45">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N45">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
+        <v>1.975</v>
+      </c>
+      <c r="S45">
         <v>1.825</v>
-      </c>
-      <c r="S45">
-        <v>1.975</v>
       </c>
       <c r="T45">
         <v>3.5</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
         <v>0.825</v>
       </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7047465</v>
+        <v>7047466</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4559,76 +4559,76 @@
         <v>45180.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>1.727</v>
+      </c>
+      <c r="N46">
+        <v>3.2</v>
+      </c>
+      <c r="O46">
         <v>3.75</v>
       </c>
-      <c r="M46">
-        <v>2.4</v>
-      </c>
-      <c r="N46">
-        <v>2.55</v>
-      </c>
-      <c r="O46">
-        <v>3.4</v>
-      </c>
       <c r="P46">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
+        <v>1.825</v>
+      </c>
+      <c r="S46">
         <v>1.975</v>
-      </c>
-      <c r="S46">
-        <v>1.825</v>
       </c>
       <c r="T46">
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y46">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>45181.375</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>48</v>
@@ -4737,7 +4737,7 @@
         <v>45181.375</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4826,7 +4826,7 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>40</v>
@@ -4918,7 +4918,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5004,10 +5004,10 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5274,7 +5274,7 @@
         <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5360,10 +5360,10 @@
         <v>45188.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -5449,7 +5449,7 @@
         <v>45191.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5627,7 +5627,7 @@
         <v>45194.375</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s">
         <v>48</v>
@@ -5704,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7047479</v>
+        <v>7047485</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,76 +5716,76 @@
         <v>45194.625</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L59">
         <v>4.333</v>
       </c>
       <c r="M59">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N59">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
         <v>4.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5793,7 +5793,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7047485</v>
+        <v>7047479</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5805,76 +5805,76 @@
         <v>45194.625</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
-      <c r="I60">
+      <c r="J60" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60">
         <v>2</v>
-      </c>
-      <c r="J60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60">
-        <v>1.571</v>
       </c>
       <c r="L60">
         <v>4.333</v>
       </c>
       <c r="M60">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N60">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O60">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
         <v>4.25</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7047483</v>
+        <v>7071042</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>45195.375</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M61">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P61">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
+        <v>1.925</v>
+      </c>
+      <c r="S61">
         <v>1.875</v>
-      </c>
-      <c r="S61">
-        <v>1.925</v>
       </c>
       <c r="T61">
         <v>3.25</v>
       </c>
       <c r="U61">
+        <v>1.975</v>
+      </c>
+      <c r="V61">
         <v>1.825</v>
       </c>
-      <c r="V61">
-        <v>1.975</v>
-      </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.825</v>
-      </c>
-      <c r="AC61">
-        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7047484</v>
+        <v>7047483</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,76 +5983,76 @@
         <v>45195.375</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N62">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O62">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
+        <v>1.875</v>
+      </c>
+      <c r="S62">
+        <v>1.925</v>
+      </c>
+      <c r="T62">
+        <v>3.25</v>
+      </c>
+      <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
         <v>1.975</v>
       </c>
-      <c r="S62">
-        <v>1.825</v>
-      </c>
-      <c r="T62">
-        <v>3.75</v>
-      </c>
-      <c r="U62">
-        <v>1.875</v>
-      </c>
-      <c r="V62">
-        <v>1.925</v>
-      </c>
       <c r="W62">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7071042</v>
+        <v>7047484</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,58 +6072,58 @@
         <v>45195.375</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
         <v>1</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>51</v>
       </c>
       <c r="K63">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L63">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N63">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O63">
+        <v>4.5</v>
+      </c>
+      <c r="P63">
+        <v>4.5</v>
+      </c>
+      <c r="Q63">
+        <v>-1.25</v>
+      </c>
+      <c r="R63">
+        <v>1.975</v>
+      </c>
+      <c r="S63">
+        <v>1.825</v>
+      </c>
+      <c r="T63">
         <v>3.75</v>
       </c>
-      <c r="P63">
-        <v>2.75</v>
-      </c>
-      <c r="Q63">
-        <v>-0.25</v>
-      </c>
-      <c r="R63">
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
         <v>1.925</v>
       </c>
-      <c r="S63">
-        <v>1.875</v>
-      </c>
-      <c r="T63">
-        <v>3.25</v>
-      </c>
-      <c r="U63">
-        <v>1.975</v>
-      </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6132,16 +6132,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
+        <v>-0.5</v>
+      </c>
+      <c r="AA63">
+        <v>0.4125</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.925</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
-      <c r="AC63">
-        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6164,7 +6164,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6250,10 +6250,10 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6339,10 +6339,10 @@
         <v>45198.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6431,7 +6431,7 @@
         <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6609,7 +6609,7 @@
         <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -6695,7 +6695,7 @@
         <v>45201.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7047490</v>
+        <v>7047491</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,13 +6784,13 @@
         <v>45202.375</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6799,43 +6799,43 @@
         <v>51</v>
       </c>
       <c r="K71">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L71">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M71">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N71">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q71">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U71">
+        <v>1.95</v>
+      </c>
+      <c r="V71">
         <v>1.85</v>
       </c>
-      <c r="V71">
-        <v>1.95</v>
-      </c>
       <c r="W71">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6844,13 +6844,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6861,7 +6861,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7047491</v>
+        <v>7047490</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6873,13 +6873,13 @@
         <v>45202.375</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -6888,43 +6888,43 @@
         <v>51</v>
       </c>
       <c r="K72">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L72">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M72">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N72">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P72">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R72">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U72">
+        <v>1.85</v>
+      </c>
+      <c r="V72">
         <v>1.95</v>
       </c>
-      <c r="V72">
-        <v>1.85</v>
-      </c>
       <c r="W72">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6933,13 +6933,13 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6950,7 +6950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7047493</v>
+        <v>7047492</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6962,76 +6962,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L73">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
+        <v>2.4</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
         <v>1.85</v>
       </c>
-      <c r="Q73">
-        <v>0.5</v>
-      </c>
-      <c r="R73">
-        <v>1.875</v>
-      </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7039,7 +7039,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7047492</v>
+        <v>7047493</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7051,76 +7051,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>50</v>
+      </c>
+      <c r="K74">
+        <v>1.615</v>
+      </c>
+      <c r="L74">
+        <v>4.75</v>
+      </c>
+      <c r="M74">
+        <v>3.5</v>
+      </c>
+      <c r="N74">
         <v>3</v>
       </c>
-      <c r="J74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K74">
-        <v>1.909</v>
-      </c>
-      <c r="L74">
+      <c r="O74">
+        <v>4</v>
+      </c>
+      <c r="P74">
+        <v>1.85</v>
+      </c>
+      <c r="Q74">
+        <v>0.5</v>
+      </c>
+      <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
         <v>3.75</v>
       </c>
-      <c r="M74">
-        <v>3.1</v>
-      </c>
-      <c r="N74">
-        <v>2.3</v>
-      </c>
-      <c r="O74">
-        <v>3.6</v>
-      </c>
-      <c r="P74">
-        <v>2.4</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>3.25</v>
-      </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
+        <v>0.4625</v>
+      </c>
+      <c r="AC74">
         <v>-0.5</v>
-      </c>
-      <c r="AC74">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7140,10 +7140,10 @@
         <v>45212.625</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7232,7 +7232,7 @@
         <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7318,7 +7318,7 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -7407,7 +7407,7 @@
         <v>45216.375</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
@@ -7496,7 +7496,7 @@
         <v>45216.375</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7677,7 +7677,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7766,7 +7766,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8030,10 +8030,10 @@
         <v>45223.375</v>
       </c>
       <c r="F85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" t="s">
         <v>31</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8119,10 +8119,10 @@
         <v>45223.375</v>
       </c>
       <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
         <v>34</v>
-      </c>
-      <c r="G86" t="s">
-        <v>33</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8196,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7071039</v>
+        <v>7047507</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,76 +8208,76 @@
         <v>45223.375</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K87">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q87">
         <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U87">
+        <v>1.925</v>
+      </c>
+      <c r="V87">
         <v>1.875</v>
       </c>
-      <c r="V87">
-        <v>1.925</v>
-      </c>
       <c r="W87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8285,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7047507</v>
+        <v>7071039</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8297,76 +8297,76 @@
         <v>45223.375</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K88">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>4.333</v>
+        <v>3.9</v>
       </c>
       <c r="M88">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
+        <v>1.875</v>
+      </c>
+      <c r="V88">
         <v>1.925</v>
       </c>
-      <c r="V88">
-        <v>1.875</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8389,7 +8389,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>5</v>
@@ -8564,10 +8564,10 @@
         <v>45229.4375</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7047512</v>
+        <v>7047515</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8742,49 +8742,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L93">
         <v>4.5</v>
       </c>
       <c r="M93">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O93">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P93">
         <v>5</v>
       </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8793,25 +8793,25 @@
         <v>1.9</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X93">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
+        <v>0.425</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB93">
-        <v>0.45</v>
-      </c>
-      <c r="AC93">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7047515</v>
+        <v>7047512</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8831,49 +8831,49 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K94">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L94">
         <v>4.5</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N94">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O94">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P94">
         <v>5</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U94">
         <v>1.9</v>
@@ -8882,25 +8882,25 @@
         <v>1.9</v>
       </c>
       <c r="W94">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB94">
+        <v>0.45</v>
+      </c>
+      <c r="AC94">
         <v>-0.5</v>
-      </c>
-      <c r="AA94">
-        <v>0.425</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
-      <c r="AC94">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8920,10 +8920,10 @@
         <v>45230.45833333334</v>
       </c>
       <c r="F95" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" t="s">
         <v>35</v>
-      </c>
-      <c r="G95" t="s">
-        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>48</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7047520</v>
+        <v>7047707</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,76 +9098,76 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>3</v>
-      </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K97">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L97">
         <v>3.9</v>
       </c>
       <c r="M97">
-        <v>1.869</v>
+        <v>2.25</v>
       </c>
       <c r="N97">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
+        <v>3</v>
+      </c>
+      <c r="Q97">
+        <v>-0.25</v>
+      </c>
+      <c r="R97">
         <v>1.75</v>
       </c>
-      <c r="Q97">
+      <c r="S97">
+        <v>2.05</v>
+      </c>
+      <c r="T97">
+        <v>4</v>
+      </c>
+      <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>0.909</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
         <v>0.75</v>
       </c>
-      <c r="R97">
-        <v>1.775</v>
-      </c>
-      <c r="S97">
-        <v>1.925</v>
-      </c>
-      <c r="T97">
-        <v>3.5</v>
-      </c>
-      <c r="U97">
-        <v>1.925</v>
-      </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>0.75</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
       <c r="AA97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7047707</v>
+        <v>7047520</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,76 +9187,76 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
         <v>3.9</v>
       </c>
       <c r="M98">
-        <v>2.25</v>
+        <v>1.869</v>
       </c>
       <c r="N98">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7071037</v>
+        <v>7047523</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,73 +9276,73 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>4</v>
       </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L99">
+        <v>4.2</v>
+      </c>
+      <c r="M99">
+        <v>1.95</v>
+      </c>
+      <c r="N99">
+        <v>2.45</v>
+      </c>
+      <c r="O99">
         <v>4</v>
       </c>
-      <c r="M99">
-        <v>2.4</v>
-      </c>
-      <c r="N99">
-        <v>1.727</v>
-      </c>
-      <c r="O99">
-        <v>4.2</v>
-      </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T99">
         <v>3.75</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z99">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB99">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7047523</v>
+        <v>7071037</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,73 +9365,73 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>51</v>
+      </c>
+      <c r="K100">
+        <v>2.25</v>
+      </c>
+      <c r="L100">
         <v>4</v>
       </c>
-      <c r="J100" t="s">
-        <v>52</v>
-      </c>
-      <c r="K100">
-        <v>2.75</v>
-      </c>
-      <c r="L100">
+      <c r="M100">
+        <v>2.4</v>
+      </c>
+      <c r="N100">
+        <v>1.727</v>
+      </c>
+      <c r="O100">
         <v>4.2</v>
       </c>
-      <c r="M100">
-        <v>1.95</v>
-      </c>
-      <c r="N100">
-        <v>2.45</v>
-      </c>
-      <c r="O100">
-        <v>4</v>
-      </c>
       <c r="P100">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
         <v>3.75</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA100">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9454,10 +9454,10 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9531,7 +9531,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7047521</v>
+        <v>7047524</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9543,58 +9543,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>51</v>
       </c>
       <c r="K102">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N102">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="O102">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P102">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3.75</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>1.9</v>
+        <v>0.25</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9603,16 +9603,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7047524</v>
+        <v>7047521</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9632,58 +9632,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M103">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N103">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="O103">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P103">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q103">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
         <v>3.75</v>
       </c>
       <c r="U103">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>0.25</v>
+        <v>1.9</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9692,16 +9692,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9724,7 +9724,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9810,10 +9810,10 @@
         <v>45244.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9899,10 +9899,10 @@
         <v>45247.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10080,7 +10080,7 @@
         <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10166,7 +10166,7 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G109" t="s">
         <v>40</v>
@@ -10255,7 +10255,7 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
         <v>38</v>
@@ -10347,7 +10347,7 @@
         <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10522,10 +10522,10 @@
         <v>45257.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7047540</v>
+        <v>7047541</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,73 +10611,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K114">
+        <v>3.1</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>1.833</v>
+      </c>
+      <c r="N114">
         <v>3.2</v>
       </c>
-      <c r="L114">
-        <v>4.1</v>
-      </c>
-      <c r="M114">
+      <c r="O114">
+        <v>4</v>
+      </c>
+      <c r="P114">
         <v>1.8</v>
       </c>
-      <c r="N114">
-        <v>3.6</v>
-      </c>
-      <c r="O114">
-        <v>4.2</v>
-      </c>
-      <c r="P114">
-        <v>1.7</v>
-      </c>
       <c r="Q114">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T114">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB114">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7047537</v>
+        <v>7047540</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,73 +10700,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K115">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L115">
+        <v>4.1</v>
+      </c>
+      <c r="M115">
+        <v>1.8</v>
+      </c>
+      <c r="N115">
+        <v>3.6</v>
+      </c>
+      <c r="O115">
         <v>4.2</v>
       </c>
-      <c r="M115">
-        <v>3.3</v>
-      </c>
-      <c r="N115">
-        <v>1.95</v>
-      </c>
-      <c r="O115">
-        <v>4</v>
-      </c>
       <c r="P115">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X115">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7047541</v>
+        <v>7047537</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,73 +10789,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M116">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N116">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="O116">
         <v>4</v>
       </c>
       <c r="P116">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
         <v>3.75</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10970,7 +10970,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11059,7 +11059,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11145,7 +11145,7 @@
         <v>45260.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11237,7 +11237,7 @@
         <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11323,10 +11323,10 @@
         <v>45265.375</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11400,7 +11400,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7047546</v>
+        <v>7047545</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11412,40 +11412,40 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K123">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N123">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R123">
         <v>2</v>
@@ -11457,31 +11457,31 @@
         <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11489,7 +11489,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7047545</v>
+        <v>7047546</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11501,40 +11501,40 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M124">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N124">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -11546,31 +11546,31 @@
         <v>3.5</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s">
         <v>48</v>
@@ -11771,7 +11771,7 @@
         <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11860,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11946,10 +11946,10 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12127,7 +12127,7 @@
         <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12216,7 +12216,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>5</v>
@@ -12302,7 +12302,7 @@
         <v>45278.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
         <v>45</v>
@@ -12391,7 +12391,7 @@
         <v>45279.4375</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
         <v>30</v>
@@ -12483,7 +12483,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12569,7 +12569,7 @@
         <v>45282.375</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12658,7 +12658,7 @@
         <v>45295.4375</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
         <v>41</v>
@@ -12750,7 +12750,7 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7047568</v>
+        <v>7047570</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,49 +12836,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M139">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N139">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O139">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P139">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q139">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U139">
         <v>1.9</v>
@@ -12887,19 +12887,19 @@
         <v>1.9</v>
       </c>
       <c r="W139">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7047570</v>
+        <v>7047568</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,49 +12925,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L140">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O140">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P140">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U140">
         <v>1.9</v>
@@ -12976,19 +12976,19 @@
         <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X140">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7047709</v>
+        <v>7047569</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,55 +13014,55 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>50</v>
       </c>
       <c r="K141">
+        <v>2.1</v>
+      </c>
+      <c r="L141">
+        <v>4.2</v>
+      </c>
+      <c r="M141">
         <v>2.5</v>
       </c>
-      <c r="L141">
-        <v>4.333</v>
-      </c>
-      <c r="M141">
-        <v>2.1</v>
-      </c>
       <c r="N141">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O141">
         <v>4.333</v>
       </c>
       <c r="P141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13074,16 +13074,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7047572</v>
+        <v>7071032</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,34 +13103,34 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>52</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
         <v>4.2</v>
       </c>
       <c r="M142">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N142">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
         <v>3.1</v>
@@ -13139,19 +13139,19 @@
         <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>3.5</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13166,13 +13166,13 @@
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7047571</v>
+        <v>7047709</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,10 +13192,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13207,37 +13207,37 @@
         <v>50</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M143">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N143">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O143">
         <v>4.333</v>
       </c>
       <c r="P143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V143">
         <v>1.95</v>
@@ -13252,13 +13252,13 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA143">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7047569</v>
+        <v>7047572</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,76 +13281,76 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
         <v>4.2</v>
       </c>
       <c r="M144">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N144">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O144">
         <v>4.333</v>
       </c>
       <c r="P144">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
+        <v>1.825</v>
+      </c>
+      <c r="S144">
         <v>1.975</v>
-      </c>
-      <c r="S144">
-        <v>1.825</v>
       </c>
       <c r="T144">
         <v>3.5</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7071032</v>
+        <v>7047571</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,46 +13370,46 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L145">
         <v>4.2</v>
       </c>
       <c r="M145">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N145">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="O145">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q145">
         <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
         <v>3.5</v>
@@ -13424,22 +13424,22 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13459,7 +13459,7 @@
         <v>45303.375</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
         <v>40</v>
@@ -13548,7 +13548,7 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7047575</v>
+        <v>7047576</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>5</v>
@@ -13652,40 +13652,40 @@
         <v>52</v>
       </c>
       <c r="K148">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L148">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="N148">
+        <v>2.875</v>
+      </c>
+      <c r="O148">
         <v>4</v>
       </c>
-      <c r="O148">
-        <v>5</v>
-      </c>
       <c r="P148">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q148">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T148">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13694,16 +13694,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7047576</v>
+        <v>7047575</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>5</v>
@@ -13741,58 +13741,58 @@
         <v>52</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L149">
+        <v>6</v>
+      </c>
+      <c r="M149">
+        <v>1.25</v>
+      </c>
+      <c r="N149">
         <v>4</v>
       </c>
-      <c r="M149">
-        <v>2.75</v>
-      </c>
-      <c r="N149">
-        <v>2.875</v>
-      </c>
       <c r="O149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P149">
+        <v>1.5</v>
+      </c>
+      <c r="Q149">
+        <v>1.25</v>
+      </c>
+      <c r="R149">
+        <v>1.85</v>
+      </c>
+      <c r="S149">
         <v>1.95</v>
       </c>
-      <c r="Q149">
+      <c r="T149">
+        <v>3.75</v>
+      </c>
+      <c r="U149">
+        <v>1.9</v>
+      </c>
+      <c r="V149">
+        <v>1.9</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
         <v>0.5</v>
       </c>
-      <c r="R149">
-        <v>1.8</v>
-      </c>
-      <c r="S149">
-        <v>2</v>
-      </c>
-      <c r="T149">
-        <v>3.5</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
-      <c r="Y149">
+      <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
         <v>0.95</v>
       </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
-      <c r="AA149">
-        <v>1</v>
-      </c>
       <c r="AB149">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13818,7 +13818,7 @@
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13993,10 +13993,10 @@
         <v>45314.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14082,10 +14082,10 @@
         <v>45316.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14171,7 +14171,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
         <v>48</v>
@@ -14248,7 +14248,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7047585</v>
+        <v>7071030</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14260,76 +14260,76 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K155">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L155">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M155">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="N155">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O155">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T155">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U155">
+        <v>1.975</v>
+      </c>
+      <c r="V155">
         <v>1.825</v>
       </c>
-      <c r="V155">
-        <v>1.975</v>
-      </c>
       <c r="W155">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z155">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14337,7 +14337,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7071030</v>
+        <v>7047585</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14349,76 +14349,76 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>51</v>
+      </c>
+      <c r="K156">
+        <v>4.333</v>
+      </c>
+      <c r="L156">
+        <v>4.333</v>
+      </c>
+      <c r="M156">
+        <v>1.533</v>
+      </c>
+      <c r="N156">
+        <v>1.909</v>
+      </c>
+      <c r="O156">
+        <v>3.8</v>
+      </c>
+      <c r="P156">
         <v>3</v>
-      </c>
-      <c r="J156" t="s">
-        <v>52</v>
-      </c>
-      <c r="K156">
-        <v>2.1</v>
-      </c>
-      <c r="L156">
-        <v>3.75</v>
-      </c>
-      <c r="M156">
-        <v>2.7</v>
-      </c>
-      <c r="N156">
-        <v>2.15</v>
-      </c>
-      <c r="O156">
-        <v>3.6</v>
-      </c>
-      <c r="P156">
-        <v>2.7</v>
       </c>
       <c r="Q156">
         <v>-0.25</v>
       </c>
       <c r="R156">
+        <v>1.75</v>
+      </c>
+      <c r="S156">
+        <v>1.95</v>
+      </c>
+      <c r="T156">
+        <v>3.75</v>
+      </c>
+      <c r="U156">
+        <v>1.825</v>
+      </c>
+      <c r="V156">
         <v>1.975</v>
       </c>
-      <c r="S156">
-        <v>1.825</v>
-      </c>
-      <c r="T156">
-        <v>3.5</v>
-      </c>
-      <c r="U156">
-        <v>1.975</v>
-      </c>
-      <c r="V156">
-        <v>1.825</v>
-      </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14705,10 +14705,10 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14794,7 +14794,7 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
         <v>38</v>
@@ -14886,7 +14886,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14972,10 +14972,10 @@
         <v>45334.4375</v>
       </c>
       <c r="F163" t="s">
+        <v>43</v>
+      </c>
+      <c r="G163" t="s">
         <v>42</v>
-      </c>
-      <c r="G163" t="s">
-        <v>43</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15064,7 +15064,7 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7047601</v>
+        <v>7047603</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
         <v>1</v>
       </c>
-      <c r="I166">
-        <v>2</v>
-      </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K166">
+        <v>1.9</v>
+      </c>
+      <c r="L166">
+        <v>4</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
         <v>1.7</v>
       </c>
-      <c r="L166">
+      <c r="O166">
         <v>4.2</v>
       </c>
-      <c r="M166">
+      <c r="P166">
         <v>3.6</v>
       </c>
-      <c r="N166">
-        <v>1.363</v>
-      </c>
-      <c r="O166">
-        <v>4.75</v>
-      </c>
-      <c r="P166">
-        <v>5.75</v>
-      </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
         <v>1.825</v>
       </c>
-      <c r="V166">
-        <v>1.975</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA166">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7047603</v>
+        <v>7047601</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,76 +15328,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G167" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
         <v>2</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K167">
+        <v>1.7</v>
+      </c>
+      <c r="L167">
+        <v>4.2</v>
+      </c>
+      <c r="M167">
+        <v>3.6</v>
+      </c>
+      <c r="N167">
+        <v>1.363</v>
+      </c>
+      <c r="O167">
+        <v>4.75</v>
+      </c>
+      <c r="P167">
+        <v>5.75</v>
+      </c>
+      <c r="Q167">
+        <v>-1.5</v>
+      </c>
+      <c r="R167">
         <v>1.9</v>
       </c>
-      <c r="L167">
-        <v>4</v>
-      </c>
-      <c r="M167">
-        <v>3</v>
-      </c>
-      <c r="N167">
-        <v>1.7</v>
-      </c>
-      <c r="O167">
-        <v>4.2</v>
-      </c>
-      <c r="P167">
-        <v>3.6</v>
-      </c>
-      <c r="Q167">
-        <v>-0.75</v>
-      </c>
-      <c r="R167">
-        <v>1.925</v>
-      </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
+        <v>1.825</v>
+      </c>
+      <c r="V167">
         <v>1.975</v>
       </c>
-      <c r="V167">
-        <v>1.825</v>
-      </c>
       <c r="W167">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z167">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15417,7 +15417,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7047606</v>
+        <v>7047600</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,10 +15506,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15521,25 +15521,25 @@
         <v>52</v>
       </c>
       <c r="K169">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L169">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N169">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O169">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P169">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R169">
         <v>1.95</v>
@@ -15548,22 +15548,22 @@
         <v>1.85</v>
       </c>
       <c r="T169">
+        <v>3.75</v>
+      </c>
+      <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
+        <v>1.9</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
         <v>3.5</v>
-      </c>
-      <c r="U169">
-        <v>1.775</v>
-      </c>
-      <c r="V169">
-        <v>1.925</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>2</v>
       </c>
       <c r="Z169">
         <v>-1</v>
@@ -15575,7 +15575,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7047600</v>
+        <v>7047606</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,10 +15595,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15610,25 +15610,25 @@
         <v>52</v>
       </c>
       <c r="K170">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L170">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M170">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O170">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P170">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q170">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
         <v>1.95</v>
@@ -15637,13 +15637,13 @@
         <v>1.85</v>
       </c>
       <c r="T170">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15652,7 +15652,7 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z170">
         <v>-1</v>
@@ -15664,7 +15664,7 @@
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15687,7 +15687,7 @@
         <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15776,7 +15776,7 @@
         <v>49</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15862,10 +15862,10 @@
         <v>45338.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15954,7 +15954,7 @@
         <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7047610</v>
+        <v>7047613</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,40 +16040,40 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L175">
+        <v>4.8</v>
+      </c>
+      <c r="M175">
+        <v>1.571</v>
+      </c>
+      <c r="N175">
+        <v>3.2</v>
+      </c>
+      <c r="O175">
         <v>4.5</v>
       </c>
-      <c r="M175">
-        <v>3.2</v>
-      </c>
-      <c r="N175">
-        <v>1.55</v>
-      </c>
-      <c r="O175">
-        <v>5</v>
-      </c>
       <c r="P175">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="Q175">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R175">
         <v>1.825</v>
@@ -16082,34 +16082,34 @@
         <v>1.975</v>
       </c>
       <c r="T175">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC175">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7071028</v>
+        <v>7047610</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,76 +16129,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K176">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
         <v>4.5</v>
       </c>
       <c r="M176">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O176">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P176">
+        <v>4</v>
+      </c>
+      <c r="Q176">
+        <v>-1</v>
+      </c>
+      <c r="R176">
+        <v>1.825</v>
+      </c>
+      <c r="S176">
+        <v>1.975</v>
+      </c>
+      <c r="T176">
+        <v>3.25</v>
+      </c>
+      <c r="U176">
+        <v>1.85</v>
+      </c>
+      <c r="V176">
         <v>1.95</v>
       </c>
-      <c r="Q176">
-        <v>0.5</v>
-      </c>
-      <c r="R176">
-        <v>1.8</v>
-      </c>
-      <c r="S176">
-        <v>2</v>
-      </c>
-      <c r="T176">
-        <v>3.5</v>
-      </c>
-      <c r="U176">
-        <v>1.875</v>
-      </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB176">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7047613</v>
+        <v>7047611</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H177">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K177">
+        <v>2.3</v>
+      </c>
+      <c r="L177">
         <v>3.75</v>
       </c>
-      <c r="L177">
-        <v>4.8</v>
-      </c>
       <c r="M177">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N177">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O177">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7047611</v>
+        <v>7071028</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F178" t="s">
+        <v>39</v>
+      </c>
+      <c r="G178" t="s">
         <v>46</v>
       </c>
-      <c r="G178" t="s">
-        <v>42</v>
-      </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>50</v>
       </c>
       <c r="K178">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M178">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="N178">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R178">
+        <v>1.8</v>
+      </c>
+      <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>3.5</v>
+      </c>
+      <c r="U178">
         <v>1.875</v>
       </c>
-      <c r="S178">
+      <c r="V178">
         <v>1.925</v>
       </c>
-      <c r="T178">
-        <v>3.25</v>
-      </c>
-      <c r="U178">
-        <v>1.85</v>
-      </c>
-      <c r="V178">
-        <v>1.95</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16396,10 +16396,10 @@
         <v>45342.4375</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16577,7 +16577,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16663,10 +16663,10 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F182" t="s">
+        <v>34</v>
+      </c>
+      <c r="G182" t="s">
         <v>33</v>
-      </c>
-      <c r="G182" t="s">
-        <v>34</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>45348.375</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G183" t="s">
         <v>45</v>
@@ -16841,7 +16841,7 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
         <v>30</v>
@@ -17108,7 +17108,7 @@
         <v>45349.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>49</v>
@@ -17185,7 +17185,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7047630</v>
+        <v>7047628</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17197,76 +17197,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K188">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L188">
         <v>4</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N188">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P188">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB188">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17286,7 +17286,7 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
         <v>48</v>
@@ -17363,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7047628</v>
+        <v>7047630</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,76 +17375,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K190">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L190">
         <v>4</v>
       </c>
       <c r="M190">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N190">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O190">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y190">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA190">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17464,7 +17464,7 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
         <v>44</v>
@@ -17553,7 +17553,7 @@
         <v>45352.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
@@ -17645,7 +17645,7 @@
         <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17820,7 +17820,7 @@
         <v>45356.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G195" t="s">
         <v>30</v>
@@ -17909,10 +17909,10 @@
         <v>45356.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H196">
         <v>5</v>
@@ -18001,7 +18001,7 @@
         <v>44</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18090,7 +18090,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18157,6 +18157,184 @@
       </c>
       <c r="AC198">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>7923647</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45358.5</v>
+      </c>
+      <c r="F199" t="s">
+        <v>32</v>
+      </c>
+      <c r="G199" t="s">
+        <v>38</v>
+      </c>
+      <c r="H199">
+        <v>4</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>51</v>
+      </c>
+      <c r="K199">
+        <v>1.533</v>
+      </c>
+      <c r="L199">
+        <v>4</v>
+      </c>
+      <c r="M199">
+        <v>4.75</v>
+      </c>
+      <c r="N199">
+        <v>1.363</v>
+      </c>
+      <c r="O199">
+        <v>4.5</v>
+      </c>
+      <c r="P199">
+        <v>5.75</v>
+      </c>
+      <c r="Q199">
+        <v>-1.5</v>
+      </c>
+      <c r="R199">
+        <v>1.95</v>
+      </c>
+      <c r="S199">
+        <v>1.85</v>
+      </c>
+      <c r="T199">
+        <v>3.75</v>
+      </c>
+      <c r="U199">
+        <v>1.95</v>
+      </c>
+      <c r="V199">
+        <v>1.85</v>
+      </c>
+      <c r="W199">
+        <v>0.363</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
+        <v>0.95</v>
+      </c>
+      <c r="AA199">
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>0.95</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7047639</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45359.66666666666</v>
+      </c>
+      <c r="F200" t="s">
+        <v>42</v>
+      </c>
+      <c r="G200" t="s">
+        <v>47</v>
+      </c>
+      <c r="H200">
+        <v>6</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200" t="s">
+        <v>51</v>
+      </c>
+      <c r="K200">
+        <v>3.25</v>
+      </c>
+      <c r="L200">
+        <v>4.333</v>
+      </c>
+      <c r="M200">
+        <v>1.727</v>
+      </c>
+      <c r="N200">
+        <v>2.45</v>
+      </c>
+      <c r="O200">
+        <v>4</v>
+      </c>
+      <c r="P200">
+        <v>2.2</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>2</v>
+      </c>
+      <c r="S200">
+        <v>1.8</v>
+      </c>
+      <c r="T200">
+        <v>3.25</v>
+      </c>
+      <c r="U200">
+        <v>1.825</v>
+      </c>
+      <c r="V200">
+        <v>1.975</v>
+      </c>
+      <c r="W200">
+        <v>1.45</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
+        <v>1</v>
+      </c>
+      <c r="AA200">
+        <v>-1</v>
+      </c>
+      <c r="AB200">
+        <v>0.825</v>
+      </c>
+      <c r="AC200">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -115,16 +115,16 @@
     <t>Barnsley U21</t>
   </si>
   <si>
+    <t>Sheffield Wed U21</t>
+  </si>
+  <si>
     <t>Coventry U21</t>
   </si>
   <si>
-    <t>Sheffield Wed U21</t>
+    <t>Peterborough U21</t>
   </si>
   <si>
     <t>Sheff Utd U21</t>
-  </si>
-  <si>
-    <t>Peterborough U21</t>
   </si>
   <si>
     <t>Hull U21</t>
@@ -154,10 +154,10 @@
     <t>Cardiff U21</t>
   </si>
   <si>
-    <t>Bournemouth U21</t>
+    <t>Bristol City U21</t>
   </si>
   <si>
-    <t>Bristol City U21</t>
+    <t>Bournemouth U21</t>
   </si>
   <si>
     <t>Ipswich U21</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7067710</v>
+        <v>7047435</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,73 +1002,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="L6">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M6">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P6">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
+        <v>1.825</v>
+      </c>
+      <c r="V6">
         <v>1.975</v>
       </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y6">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7047435</v>
+        <v>7067710</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1091,73 +1091,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="L7">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q7">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.825</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7047434</v>
+        <v>7047433</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,73 +1180,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q8">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
+        <v>1.875</v>
+      </c>
+      <c r="S8">
+        <v>1.925</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
+        <v>1.85</v>
+      </c>
+      <c r="V8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.925</v>
-      </c>
       <c r="W8">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>0.925</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.95</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>0.875</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7047433</v>
+        <v>7047434</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1269,73 +1269,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P9">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>1.85</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
         <v>1.875</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>1.925</v>
       </c>
-      <c r="T9">
-        <v>3.5</v>
-      </c>
-      <c r="U9">
-        <v>1.85</v>
-      </c>
-      <c r="V9">
-        <v>1.95</v>
-      </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1981,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7071046</v>
+        <v>7047443</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2162,34 +2162,34 @@
         <v>36</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M19">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N19">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P19">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
         <v>1.95</v>
@@ -2198,34 +2198,34 @@
         <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB19">
         <v>0.95</v>
       </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7047443</v>
+        <v>7071046</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2251,34 +2251,34 @@
         <v>35</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>2.1</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>2.7</v>
+      </c>
+      <c r="N20">
+        <v>3.4</v>
+      </c>
+      <c r="O20">
         <v>4</v>
       </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>4.333</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
         <v>1.833</v>
       </c>
-      <c r="N20">
-        <v>2.625</v>
-      </c>
-      <c r="O20">
-        <v>4.2</v>
-      </c>
-      <c r="P20">
-        <v>2.05</v>
-      </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
         <v>1.95</v>
@@ -2287,34 +2287,34 @@
         <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>45163.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2693,7 +2693,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2767,7 +2767,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7047451</v>
+        <v>7071045</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,13 +2779,13 @@
         <v>45167.375</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2794,43 +2794,43 @@
         <v>51</v>
       </c>
       <c r="K26">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N26">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O26">
         <v>4.2</v>
       </c>
       <c r="P26">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q26">
         <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
         <v>3.5</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>0.615</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2839,16 +2839,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7071045</v>
+        <v>7047451</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,13 +2868,13 @@
         <v>45167.375</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2883,43 +2883,43 @@
         <v>51</v>
       </c>
       <c r="K27">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N27">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O27">
         <v>4.2</v>
       </c>
       <c r="P27">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q27">
         <v>-1</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>3.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>0.5329999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2928,16 +2928,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2957,7 +2957,7 @@
         <v>45167.375</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
@@ -3046,7 +3046,7 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3135,7 +3135,7 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>44</v>
@@ -3405,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>4</v>
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7047462</v>
+        <v>7047459</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3758,40 +3758,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>2.9</v>
+      </c>
+      <c r="N37">
+        <v>2.375</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>2.45</v>
+      </c>
+      <c r="Q37">
         <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37">
-        <v>1.25</v>
-      </c>
-      <c r="L37">
-        <v>5.5</v>
-      </c>
-      <c r="M37">
-        <v>7.5</v>
-      </c>
-      <c r="N37">
-        <v>1.166</v>
-      </c>
-      <c r="O37">
-        <v>7</v>
-      </c>
-      <c r="P37">
-        <v>9.5</v>
-      </c>
-      <c r="Q37">
-        <v>-2.25</v>
       </c>
       <c r="R37">
         <v>1.85</v>
@@ -3800,34 +3800,34 @@
         <v>1.95</v>
       </c>
       <c r="T37">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>-0</v>
+      </c>
+      <c r="AB37">
+        <v>0.4625</v>
+      </c>
+      <c r="AC37">
         <v>-0.5</v>
-      </c>
-      <c r="AA37">
-        <v>0.475</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7047459</v>
+        <v>7047462</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3847,40 +3847,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M38">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N38">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P38">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R38">
         <v>1.85</v>
@@ -3889,34 +3889,34 @@
         <v>1.95</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X38">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB38">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7047461</v>
+        <v>7071044</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>45174.375</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>2.3</v>
+      </c>
+      <c r="N39">
+        <v>1.65</v>
+      </c>
+      <c r="O39">
         <v>4.2</v>
       </c>
-      <c r="M39">
-        <v>2.45</v>
-      </c>
-      <c r="N39">
-        <v>2.375</v>
-      </c>
-      <c r="O39">
-        <v>4</v>
-      </c>
       <c r="P39">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7071044</v>
+        <v>7047461</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>45174.375</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L40">
+        <v>4.2</v>
+      </c>
+      <c r="M40">
+        <v>2.45</v>
+      </c>
+      <c r="N40">
+        <v>2.375</v>
+      </c>
+      <c r="O40">
         <v>4</v>
       </c>
-      <c r="M40">
-        <v>2.3</v>
-      </c>
-      <c r="N40">
-        <v>1.65</v>
-      </c>
-      <c r="O40">
-        <v>4.2</v>
-      </c>
       <c r="P40">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X40">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4114,7 +4114,7 @@
         <v>45174.375</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4292,7 +4292,7 @@
         <v>45177.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -4384,7 +4384,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7047465</v>
+        <v>7047466</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4470,76 +4470,76 @@
         <v>45180.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>1.727</v>
+      </c>
+      <c r="N45">
+        <v>3.2</v>
+      </c>
+      <c r="O45">
         <v>3.75</v>
       </c>
-      <c r="M45">
-        <v>2.4</v>
-      </c>
-      <c r="N45">
-        <v>2.55</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
+        <v>1.825</v>
+      </c>
+      <c r="S45">
         <v>1.975</v>
-      </c>
-      <c r="S45">
-        <v>1.825</v>
       </c>
       <c r="T45">
         <v>3.5</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y45">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7047466</v>
+        <v>7047465</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4559,76 +4559,76 @@
         <v>45180.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M46">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
+        <v>1.975</v>
+      </c>
+      <c r="S46">
         <v>1.825</v>
-      </c>
-      <c r="S46">
-        <v>1.975</v>
       </c>
       <c r="T46">
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
         <v>0.825</v>
       </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7047467</v>
+        <v>7047468</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,73 +4648,73 @@
         <v>45181.375</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K47">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N47">
-        <v>1.666</v>
+        <v>1.142</v>
       </c>
       <c r="O47">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P47">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
         <v>1.925</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7047468</v>
+        <v>7047467</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,73 +4737,73 @@
         <v>45181.375</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="O48">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P48">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q48">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
         <v>1.925</v>
       </c>
       <c r="T48">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W48">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z48">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4814,7 +4814,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7047469</v>
+        <v>7047471</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4826,76 +4826,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K49">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L49">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M49">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="N49">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O49">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P49">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T49">
         <v>3.75</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA49">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4903,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7047471</v>
+        <v>7047470</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,76 +4915,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L50">
         <v>4.5</v>
       </c>
       <c r="M50">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="N50">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7047470</v>
+        <v>7047469</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,56 +5004,56 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>52</v>
       </c>
       <c r="K51">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L51">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M51">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="N51">
+        <v>3.1</v>
+      </c>
+      <c r="O51">
         <v>4.2</v>
       </c>
-      <c r="O51">
-        <v>4.75</v>
-      </c>
       <c r="P51">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
+        <v>1.925</v>
+      </c>
+      <c r="S51">
+        <v>1.775</v>
+      </c>
+      <c r="T51">
+        <v>3.75</v>
+      </c>
+      <c r="U51">
+        <v>1.8</v>
+      </c>
+      <c r="V51">
         <v>2</v>
       </c>
-      <c r="S51">
-        <v>1.8</v>
-      </c>
-      <c r="T51">
-        <v>4</v>
-      </c>
-      <c r="U51">
-        <v>1.975</v>
-      </c>
-      <c r="V51">
-        <v>1.825</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
@@ -5061,16 +5061,16 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB51">
         <v>0.8</v>
-      </c>
-      <c r="AB51">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5274,7 +5274,7 @@
         <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5360,7 +5360,7 @@
         <v>45188.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>31</v>
@@ -5449,7 +5449,7 @@
         <v>45191.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5627,7 +5627,7 @@
         <v>45194.375</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
         <v>48</v>
@@ -5719,7 +5719,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7071042</v>
+        <v>7047483</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>45195.375</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N61">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
+        <v>1.875</v>
+      </c>
+      <c r="S61">
         <v>1.925</v>
-      </c>
-      <c r="S61">
-        <v>1.875</v>
       </c>
       <c r="T61">
         <v>3.25</v>
       </c>
       <c r="U61">
+        <v>1.825</v>
+      </c>
+      <c r="V61">
         <v>1.975</v>
       </c>
-      <c r="V61">
-        <v>1.825</v>
-      </c>
       <c r="W61">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
         <v>0.925</v>
       </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7047483</v>
+        <v>7071042</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,76 +5983,76 @@
         <v>45195.375</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M62">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
+        <v>1.925</v>
+      </c>
+      <c r="S62">
         <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.925</v>
       </c>
       <c r="T62">
         <v>3.25</v>
       </c>
       <c r="U62">
+        <v>1.975</v>
+      </c>
+      <c r="V62">
         <v>1.825</v>
       </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.825</v>
-      </c>
-      <c r="AC62">
-        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6253,7 +6253,7 @@
         <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6342,7 +6342,7 @@
         <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6609,7 +6609,7 @@
         <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -6695,7 +6695,7 @@
         <v>45201.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6876,7 +6876,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -6965,7 +6965,7 @@
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7140,10 +7140,10 @@
         <v>45212.625</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7407,7 +7407,7 @@
         <v>45216.375</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
@@ -7496,7 +7496,7 @@
         <v>45216.375</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7047705</v>
+        <v>7047706</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7763,10 +7763,10 @@
         <v>45222.375</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7778,61 +7778,61 @@
         <v>50</v>
       </c>
       <c r="K82">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
+        <v>3.5</v>
+      </c>
+      <c r="N82">
+        <v>2.15</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
         <v>2.5</v>
       </c>
-      <c r="N82">
-        <v>3.75</v>
-      </c>
-      <c r="O82">
-        <v>4.333</v>
-      </c>
-      <c r="P82">
-        <v>1.666</v>
-      </c>
       <c r="Q82">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7047706</v>
+        <v>7047705</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7852,10 +7852,10 @@
         <v>45222.375</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7867,61 +7867,61 @@
         <v>50</v>
       </c>
       <c r="K83">
+        <v>2.25</v>
+      </c>
+      <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>2.5</v>
+      </c>
+      <c r="N83">
+        <v>3.75</v>
+      </c>
+      <c r="O83">
+        <v>4.333</v>
+      </c>
+      <c r="P83">
         <v>1.666</v>
       </c>
-      <c r="L83">
-        <v>4.333</v>
-      </c>
-      <c r="M83">
-        <v>3.5</v>
-      </c>
-      <c r="N83">
-        <v>2.15</v>
-      </c>
-      <c r="O83">
-        <v>4</v>
-      </c>
-      <c r="P83">
-        <v>2.5</v>
-      </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8119,10 +8119,10 @@
         <v>45223.375</v>
       </c>
       <c r="F86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
         <v>33</v>
-      </c>
-      <c r="G86" t="s">
-        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>45223.375</v>
       </c>
       <c r="F88" t="s">
+        <v>47</v>
+      </c>
+      <c r="G88" t="s">
         <v>46</v>
-      </c>
-      <c r="G88" t="s">
-        <v>47</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8374,7 +8374,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7047510</v>
+        <v>7047509</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8386,49 +8386,49 @@
         <v>45229.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>51</v>
       </c>
       <c r="K89">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>4.5</v>
+      </c>
+      <c r="N89">
+        <v>2.1</v>
+      </c>
+      <c r="O89">
         <v>4.333</v>
       </c>
-      <c r="M89">
-        <v>3.6</v>
-      </c>
-      <c r="N89">
-        <v>1.909</v>
-      </c>
-      <c r="O89">
-        <v>4</v>
-      </c>
       <c r="P89">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U89">
         <v>1.975</v>
@@ -8437,7 +8437,7 @@
         <v>1.825</v>
       </c>
       <c r="W89">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8446,7 +8446,7 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8463,7 +8463,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7047509</v>
+        <v>7047510</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8475,49 +8475,49 @@
         <v>45229.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>51</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M90">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O90">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q90">
         <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
         <v>1.975</v>
@@ -8526,7 +8526,7 @@
         <v>1.825</v>
       </c>
       <c r="W90">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8535,7 +8535,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8567,7 +8567,7 @@
         <v>43</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8742,7 +8742,7 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8831,7 +8831,7 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G94" t="s">
         <v>39</v>
@@ -8920,10 +8920,10 @@
         <v>45230.45833333334</v>
       </c>
       <c r="F95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" t="s">
         <v>36</v>
-      </c>
-      <c r="G95" t="s">
-        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7047707</v>
+        <v>7047520</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,76 +9098,76 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L97">
         <v>3.9</v>
       </c>
       <c r="M97">
-        <v>2.25</v>
+        <v>1.869</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R97">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7047520</v>
+        <v>7047707</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,76 +9187,76 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>3</v>
-      </c>
       <c r="J98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L98">
         <v>3.9</v>
       </c>
       <c r="M98">
-        <v>1.869</v>
+        <v>2.25</v>
       </c>
       <c r="N98">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
+        <v>3</v>
+      </c>
+      <c r="Q98">
+        <v>-0.25</v>
+      </c>
+      <c r="R98">
         <v>1.75</v>
       </c>
-      <c r="Q98">
+      <c r="S98">
+        <v>2.05</v>
+      </c>
+      <c r="T98">
+        <v>4</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
+        <v>1.95</v>
+      </c>
+      <c r="W98">
+        <v>0.909</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
         <v>0.75</v>
       </c>
-      <c r="R98">
-        <v>1.775</v>
-      </c>
-      <c r="S98">
-        <v>1.925</v>
-      </c>
-      <c r="T98">
-        <v>3.5</v>
-      </c>
-      <c r="U98">
-        <v>1.925</v>
-      </c>
-      <c r="V98">
-        <v>1.875</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>0.75</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
       <c r="AA98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7047523</v>
+        <v>7047522</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,56 +9276,56 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
       </c>
       <c r="K99">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L99">
         <v>4.2</v>
       </c>
       <c r="M99">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N99">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P99">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
         <v>3.75</v>
       </c>
       <c r="U99">
+        <v>1.875</v>
+      </c>
+      <c r="V99">
         <v>1.925</v>
       </c>
-      <c r="V99">
-        <v>1.875</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9333,19 +9333,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.925</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7071037</v>
+        <v>7047523</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,73 +9365,73 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>4</v>
       </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K100">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
+        <v>4.2</v>
+      </c>
+      <c r="M100">
+        <v>1.95</v>
+      </c>
+      <c r="N100">
+        <v>2.45</v>
+      </c>
+      <c r="O100">
         <v>4</v>
       </c>
-      <c r="M100">
-        <v>2.4</v>
-      </c>
-      <c r="N100">
-        <v>1.727</v>
-      </c>
-      <c r="O100">
-        <v>4.2</v>
-      </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T100">
         <v>3.75</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z100">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9442,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7047522</v>
+        <v>7071037</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9454,76 +9454,76 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K101">
         <v>2.25</v>
       </c>
       <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>2.4</v>
+      </c>
+      <c r="N101">
+        <v>1.727</v>
+      </c>
+      <c r="O101">
         <v>4.2</v>
       </c>
-      <c r="M101">
-        <v>2.3</v>
-      </c>
-      <c r="N101">
-        <v>3.6</v>
-      </c>
-      <c r="O101">
-        <v>5</v>
-      </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.75</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9531,7 +9531,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7047524</v>
+        <v>7047521</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9543,58 +9543,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>51</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M102">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N102">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="O102">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q102">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
         <v>3.75</v>
       </c>
       <c r="U102">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>0.25</v>
+        <v>1.9</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9603,16 +9603,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7047521</v>
+        <v>7047524</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9632,58 +9632,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N103">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P103">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>3.75</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>1.9</v>
+        <v>0.25</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9692,16 +9692,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9724,7 +9724,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>45244.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
         <v>31</v>
@@ -9899,10 +9899,10 @@
         <v>45247.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10080,7 +10080,7 @@
         <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10154,7 +10154,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7047530</v>
+        <v>7047534</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10166,76 +10166,76 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>50</v>
+      </c>
+      <c r="K109">
+        <v>2.9</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>1.909</v>
+      </c>
+      <c r="N109">
+        <v>3.1</v>
+      </c>
+      <c r="O109">
+        <v>3.75</v>
+      </c>
+      <c r="P109">
+        <v>1.85</v>
+      </c>
+      <c r="Q109">
+        <v>0.5</v>
+      </c>
+      <c r="R109">
+        <v>1.85</v>
+      </c>
+      <c r="S109">
+        <v>1.95</v>
+      </c>
+      <c r="T109">
         <v>3</v>
       </c>
-      <c r="J109" t="s">
-        <v>52</v>
-      </c>
-      <c r="K109">
-        <v>2.25</v>
-      </c>
-      <c r="L109">
-        <v>3.75</v>
-      </c>
-      <c r="M109">
-        <v>2.5</v>
-      </c>
-      <c r="N109">
-        <v>2.55</v>
-      </c>
-      <c r="O109">
-        <v>3.6</v>
-      </c>
-      <c r="P109">
-        <v>2.2</v>
-      </c>
-      <c r="Q109">
-        <v>0.25</v>
-      </c>
-      <c r="R109">
-        <v>1.775</v>
-      </c>
-      <c r="S109">
-        <v>2.025</v>
-      </c>
-      <c r="T109">
-        <v>3.75</v>
-      </c>
       <c r="U109">
+        <v>1.85</v>
+      </c>
+      <c r="V109">
         <v>1.95</v>
       </c>
-      <c r="V109">
-        <v>1.85</v>
-      </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7047534</v>
+        <v>7047533</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,10 +10255,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10270,61 +10270,61 @@
         <v>50</v>
       </c>
       <c r="K110">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
         <v>4</v>
       </c>
       <c r="M110">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S110">
         <v>1.95</v>
       </c>
       <c r="T110">
+        <v>3.75</v>
+      </c>
+      <c r="U110">
+        <v>1.95</v>
+      </c>
+      <c r="V110">
+        <v>1.85</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
         <v>3</v>
       </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
-      <c r="V110">
-        <v>1.95</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>2.75</v>
-      </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>-0.5</v>
+      </c>
+      <c r="AA110">
+        <v>0.475</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7047533</v>
+        <v>7047530</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,46 +10344,46 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N111">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
         <v>3.75</v>
@@ -10398,16 +10398,16 @@
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AB111">
         <v>-1</v>
@@ -10436,7 +10436,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10525,7 +10525,7 @@
         <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7047541</v>
+        <v>7047540</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,73 +10611,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
       <c r="I114">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K114">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M114">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="N114">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
+        <v>1.7</v>
+      </c>
+      <c r="Q114">
+        <v>0.75</v>
+      </c>
+      <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
+        <v>3.5</v>
+      </c>
+      <c r="U114">
         <v>1.8</v>
       </c>
-      <c r="Q114">
-        <v>0.5</v>
-      </c>
-      <c r="R114">
-        <v>1.925</v>
-      </c>
-      <c r="S114">
-        <v>1.875</v>
-      </c>
-      <c r="T114">
-        <v>3.75</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
         <v>0.8</v>
-      </c>
-      <c r="Z114">
-        <v>-1</v>
-      </c>
-      <c r="AA114">
-        <v>0.875</v>
-      </c>
-      <c r="AB114">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7047540</v>
+        <v>7047541</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,73 +10700,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H115">
         <v>3</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K115">
+        <v>3.1</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>1.833</v>
+      </c>
+      <c r="N115">
         <v>3.2</v>
       </c>
-      <c r="L115">
-        <v>4.1</v>
-      </c>
-      <c r="M115">
+      <c r="O115">
+        <v>4</v>
+      </c>
+      <c r="P115">
         <v>1.8</v>
       </c>
-      <c r="N115">
-        <v>3.6</v>
-      </c>
-      <c r="O115">
-        <v>4.2</v>
-      </c>
-      <c r="P115">
-        <v>1.7</v>
-      </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10970,7 +10970,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11145,7 +11145,7 @@
         <v>45260.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11326,7 +11326,7 @@
         <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11501,7 +11501,7 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
         <v>42</v>
@@ -11679,7 +11679,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s">
         <v>48</v>
@@ -11860,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11946,10 +11946,10 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12112,7 +12112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7047559</v>
+        <v>7047560</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12124,76 +12124,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H131">
+        <v>5</v>
+      </c>
+      <c r="I131">
         <v>1</v>
       </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K131">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L131">
         <v>4</v>
       </c>
       <c r="M131">
-        <v>1.952</v>
+        <v>2.9</v>
       </c>
       <c r="N131">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="O131">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q131">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
+        <v>1.85</v>
+      </c>
+      <c r="T131">
+        <v>3.5</v>
+      </c>
+      <c r="U131">
         <v>1.925</v>
       </c>
-      <c r="T131">
-        <v>3.75</v>
-      </c>
-      <c r="U131">
-        <v>1.95</v>
-      </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7047560</v>
+        <v>7047559</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K132">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L132">
         <v>4</v>
       </c>
       <c r="M132">
-        <v>2.9</v>
+        <v>1.952</v>
       </c>
       <c r="N132">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P132">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R132">
+        <v>1.775</v>
+      </c>
+      <c r="S132">
+        <v>1.925</v>
+      </c>
+      <c r="T132">
+        <v>3.75</v>
+      </c>
+      <c r="U132">
         <v>1.95</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="T132">
-        <v>3.5</v>
-      </c>
-      <c r="U132">
-        <v>1.925</v>
-      </c>
-      <c r="V132">
-        <v>1.875</v>
-      </c>
       <c r="W132">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12391,7 +12391,7 @@
         <v>45279.4375</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
         <v>30</v>
@@ -12483,7 +12483,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12750,7 +12750,7 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7047570</v>
+        <v>7047568</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,49 +12836,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L139">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M139">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N139">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O139">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P139">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U139">
         <v>1.9</v>
@@ -12887,19 +12887,19 @@
         <v>1.9</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X139">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7047568</v>
+        <v>7047570</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,49 +12925,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N140">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O140">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P140">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q140">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U140">
         <v>1.9</v>
@@ -12976,19 +12976,19 @@
         <v>1.9</v>
       </c>
       <c r="W140">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -13103,10 +13103,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F142" t="s">
+        <v>46</v>
+      </c>
+      <c r="G142" t="s">
         <v>47</v>
-      </c>
-      <c r="G142" t="s">
-        <v>46</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>37</v>
@@ -13548,7 +13548,7 @@
         <v>45303.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7047576</v>
+        <v>7047575</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>5</v>
@@ -13652,58 +13652,58 @@
         <v>52</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L148">
+        <v>6</v>
+      </c>
+      <c r="M148">
+        <v>1.25</v>
+      </c>
+      <c r="N148">
         <v>4</v>
       </c>
-      <c r="M148">
-        <v>2.75</v>
-      </c>
-      <c r="N148">
-        <v>2.875</v>
-      </c>
       <c r="O148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P148">
+        <v>1.5</v>
+      </c>
+      <c r="Q148">
+        <v>1.25</v>
+      </c>
+      <c r="R148">
+        <v>1.85</v>
+      </c>
+      <c r="S148">
         <v>1.95</v>
       </c>
-      <c r="Q148">
+      <c r="T148">
+        <v>3.75</v>
+      </c>
+      <c r="U148">
+        <v>1.9</v>
+      </c>
+      <c r="V148">
+        <v>1.9</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
         <v>0.5</v>
       </c>
-      <c r="R148">
-        <v>1.8</v>
-      </c>
-      <c r="S148">
-        <v>2</v>
-      </c>
-      <c r="T148">
-        <v>3.5</v>
-      </c>
-      <c r="U148">
-        <v>1.925</v>
-      </c>
-      <c r="V148">
-        <v>1.875</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
         <v>0.95</v>
       </c>
-      <c r="Z148">
-        <v>-1</v>
-      </c>
-      <c r="AA148">
-        <v>1</v>
-      </c>
       <c r="AB148">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7047575</v>
+        <v>7047576</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45306.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>5</v>
@@ -13741,40 +13741,40 @@
         <v>52</v>
       </c>
       <c r="K149">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="N149">
+        <v>2.875</v>
+      </c>
+      <c r="O149">
         <v>4</v>
       </c>
-      <c r="O149">
-        <v>5</v>
-      </c>
       <c r="P149">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q149">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13783,16 +13783,16 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13818,7 +13818,7 @@
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13993,7 +13993,7 @@
         <v>45314.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
         <v>32</v>
@@ -14085,7 +14085,7 @@
         <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7071030</v>
+        <v>7047585</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14260,76 +14260,76 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>51</v>
+      </c>
+      <c r="K155">
+        <v>4.333</v>
+      </c>
+      <c r="L155">
+        <v>4.333</v>
+      </c>
+      <c r="M155">
+        <v>1.533</v>
+      </c>
+      <c r="N155">
+        <v>1.909</v>
+      </c>
+      <c r="O155">
+        <v>3.8</v>
+      </c>
+      <c r="P155">
         <v>3</v>
-      </c>
-      <c r="J155" t="s">
-        <v>52</v>
-      </c>
-      <c r="K155">
-        <v>2.1</v>
-      </c>
-      <c r="L155">
-        <v>3.75</v>
-      </c>
-      <c r="M155">
-        <v>2.7</v>
-      </c>
-      <c r="N155">
-        <v>2.15</v>
-      </c>
-      <c r="O155">
-        <v>3.6</v>
-      </c>
-      <c r="P155">
-        <v>2.7</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
+        <v>1.75</v>
+      </c>
+      <c r="S155">
+        <v>1.95</v>
+      </c>
+      <c r="T155">
+        <v>3.75</v>
+      </c>
+      <c r="U155">
+        <v>1.825</v>
+      </c>
+      <c r="V155">
         <v>1.975</v>
       </c>
-      <c r="S155">
-        <v>1.825</v>
-      </c>
-      <c r="T155">
-        <v>3.5</v>
-      </c>
-      <c r="U155">
-        <v>1.975</v>
-      </c>
-      <c r="V155">
-        <v>1.825</v>
-      </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC155">
-        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14337,7 +14337,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7047585</v>
+        <v>7071030</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14349,76 +14349,76 @@
         <v>45321.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L156">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="N156">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q156">
         <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
+        <v>1.975</v>
+      </c>
+      <c r="V156">
         <v>1.825</v>
       </c>
-      <c r="V156">
-        <v>1.975</v>
-      </c>
       <c r="W156">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z156">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14705,10 +14705,10 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14794,7 +14794,7 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>38</v>
@@ -14886,7 +14886,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15064,7 +15064,7 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7047710</v>
+        <v>7047603</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,76 +15150,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>8</v>
-      </c>
       <c r="J165" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K165">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="L165">
         <v>4</v>
       </c>
       <c r="M165">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N165">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T165">
         <v>3.5</v>
       </c>
       <c r="U165">
+        <v>1.975</v>
+      </c>
+      <c r="V165">
         <v>1.825</v>
       </c>
-      <c r="V165">
-        <v>1.975</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
         <v>0.825</v>
-      </c>
-      <c r="AC165">
-        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7047603</v>
+        <v>7047710</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G166" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K166">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="L166">
         <v>4</v>
       </c>
       <c r="M166">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
+        <v>1.825</v>
+      </c>
+      <c r="V166">
         <v>1.975</v>
       </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z166">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7047601</v>
+        <v>7047602</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,76 +15328,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K167">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
+        <v>4.5</v>
+      </c>
+      <c r="M167">
+        <v>4.5</v>
+      </c>
+      <c r="N167">
+        <v>1.75</v>
+      </c>
+      <c r="O167">
         <v>4.2</v>
       </c>
-      <c r="M167">
-        <v>3.6</v>
-      </c>
-      <c r="N167">
-        <v>1.363</v>
-      </c>
-      <c r="O167">
-        <v>4.75</v>
-      </c>
       <c r="P167">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7047602</v>
+        <v>7047601</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
         <v>2</v>
       </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L168">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M168">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N168">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P168">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
         <v>3.5</v>
       </c>
       <c r="U168">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA168">
-        <v>-1</v>
-      </c>
-      <c r="AB168">
-        <v>-1</v>
-      </c>
-      <c r="AC168">
-        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7047600</v>
+        <v>7047606</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,10 +15506,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15521,25 +15521,25 @@
         <v>52</v>
       </c>
       <c r="K169">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L169">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M169">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O169">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P169">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
         <v>1.95</v>
@@ -15548,13 +15548,13 @@
         <v>1.85</v>
       </c>
       <c r="T169">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15563,7 +15563,7 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z169">
         <v>-1</v>
@@ -15575,7 +15575,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7047606</v>
+        <v>7047600</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,10 +15595,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15610,25 +15610,25 @@
         <v>52</v>
       </c>
       <c r="K170">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L170">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N170">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O170">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P170">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R170">
         <v>1.95</v>
@@ -15637,22 +15637,22 @@
         <v>1.85</v>
       </c>
       <c r="T170">
+        <v>3.75</v>
+      </c>
+      <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
+        <v>1.9</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
         <v>3.5</v>
-      </c>
-      <c r="U170">
-        <v>1.775</v>
-      </c>
-      <c r="V170">
-        <v>1.925</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>2</v>
       </c>
       <c r="Z170">
         <v>-1</v>
@@ -15664,7 +15664,7 @@
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15776,7 +15776,7 @@
         <v>49</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15865,7 +15865,7 @@
         <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7047613</v>
+        <v>7047611</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,76 +16040,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H175">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K175">
+        <v>2.3</v>
+      </c>
+      <c r="L175">
         <v>3.75</v>
       </c>
-      <c r="L175">
-        <v>4.8</v>
-      </c>
       <c r="M175">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N175">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O175">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q175">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S175">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T175">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16132,7 +16132,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7047611</v>
+        <v>7071028</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F177" t="s">
+        <v>39</v>
+      </c>
+      <c r="G177" t="s">
         <v>47</v>
       </c>
-      <c r="G177" t="s">
-        <v>43</v>
-      </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>50</v>
       </c>
       <c r="K177">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M177">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="N177">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P177">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
+        <v>1.8</v>
+      </c>
+      <c r="S177">
+        <v>2</v>
+      </c>
+      <c r="T177">
+        <v>3.5</v>
+      </c>
+      <c r="U177">
         <v>1.875</v>
       </c>
-      <c r="S177">
+      <c r="V177">
         <v>1.925</v>
       </c>
-      <c r="T177">
-        <v>3.25</v>
-      </c>
-      <c r="U177">
-        <v>1.85</v>
-      </c>
-      <c r="V177">
-        <v>1.95</v>
-      </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7071028</v>
+        <v>7047613</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,49 +16307,49 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K178">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="L178">
+        <v>4.8</v>
+      </c>
+      <c r="M178">
+        <v>1.571</v>
+      </c>
+      <c r="N178">
+        <v>3.2</v>
+      </c>
+      <c r="O178">
         <v>4.5</v>
       </c>
-      <c r="M178">
-        <v>1.833</v>
-      </c>
-      <c r="N178">
-        <v>2.8</v>
-      </c>
-      <c r="O178">
-        <v>4.333</v>
-      </c>
       <c r="P178">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="Q178">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U178">
         <v>1.875</v>
@@ -16358,16 +16358,16 @@
         <v>1.925</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X178">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA178">
         <v>-1</v>
@@ -16399,7 +16399,7 @@
         <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16663,10 +16663,10 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F182" t="s">
+        <v>33</v>
+      </c>
+      <c r="G182" t="s">
         <v>34</v>
-      </c>
-      <c r="G182" t="s">
-        <v>33</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16841,7 +16841,7 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
         <v>30</v>
@@ -17185,7 +17185,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7047628</v>
+        <v>7047629</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17197,28 +17197,28 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
         <v>1</v>
       </c>
-      <c r="I188">
-        <v>2</v>
-      </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L188">
         <v>4</v>
       </c>
       <c r="M188">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N188">
         <v>1.7</v>
@@ -17227,19 +17227,19 @@
         <v>4</v>
       </c>
       <c r="P188">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q188">
         <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U188">
         <v>1.95</v>
@@ -17248,19 +17248,19 @@
         <v>1.85</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA188">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
         <v>-1</v>
@@ -17274,7 +17274,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7047629</v>
+        <v>7047630</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17286,76 +17286,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K189">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L189">
         <v>4</v>
       </c>
       <c r="M189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N189">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17363,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7047630</v>
+        <v>7047628</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,76 +17375,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K190">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L190">
         <v>4</v>
       </c>
       <c r="M190">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N190">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB190">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17464,7 +17464,7 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G191" t="s">
         <v>44</v>
@@ -17645,7 +17645,7 @@
         <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17820,7 +17820,7 @@
         <v>45356.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G195" t="s">
         <v>30</v>
@@ -17909,7 +17909,7 @@
         <v>45356.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G196" t="s">
         <v>42</v>
@@ -17986,7 +17986,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7047634</v>
+        <v>7047638</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17998,76 +17998,76 @@
         <v>45356.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K197">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="L197">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M197">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="N197">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O197">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P197">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U197">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z197">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB197">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC197">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18075,7 +18075,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7047638</v>
+        <v>7047634</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18087,76 +18087,76 @@
         <v>45356.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="L198">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M198">
+        <v>2.35</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198">
+        <v>4</v>
+      </c>
+      <c r="P198">
+        <v>2.9</v>
+      </c>
+      <c r="Q198">
+        <v>-0.25</v>
+      </c>
+      <c r="R198">
+        <v>1.75</v>
+      </c>
+      <c r="S198">
         <v>1.95</v>
       </c>
-      <c r="N198">
-        <v>2.45</v>
-      </c>
-      <c r="O198">
-        <v>3.6</v>
-      </c>
-      <c r="P198">
-        <v>2.4</v>
-      </c>
-      <c r="Q198">
-        <v>0</v>
-      </c>
-      <c r="R198">
+      <c r="T198">
+        <v>3.25</v>
+      </c>
+      <c r="U198">
+        <v>1.775</v>
+      </c>
+      <c r="V198">
         <v>1.925</v>
       </c>
-      <c r="S198">
-        <v>1.875</v>
-      </c>
-      <c r="T198">
-        <v>3</v>
-      </c>
-      <c r="U198">
-        <v>1.9</v>
-      </c>
-      <c r="V198">
-        <v>1.9</v>
-      </c>
       <c r="W198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC198">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18268,7 +18268,7 @@
         <v>42</v>
       </c>
       <c r="G200" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H200">
         <v>6</v>
@@ -18335,6 +18335,614 @@
       </c>
       <c r="AC200">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7047640</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45360.375</v>
+      </c>
+      <c r="F201" t="s">
+        <v>49</v>
+      </c>
+      <c r="G201" t="s">
+        <v>37</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>4</v>
+      </c>
+      <c r="J201" t="s">
+        <v>52</v>
+      </c>
+      <c r="K201">
+        <v>1.7</v>
+      </c>
+      <c r="L201">
+        <v>3.8</v>
+      </c>
+      <c r="M201">
+        <v>3.8</v>
+      </c>
+      <c r="N201">
+        <v>2.1</v>
+      </c>
+      <c r="O201">
+        <v>3.6</v>
+      </c>
+      <c r="P201">
+        <v>2.8</v>
+      </c>
+      <c r="Q201">
+        <v>-0.25</v>
+      </c>
+      <c r="R201">
+        <v>1.925</v>
+      </c>
+      <c r="S201">
+        <v>1.875</v>
+      </c>
+      <c r="T201">
+        <v>3.5</v>
+      </c>
+      <c r="U201">
+        <v>1.95</v>
+      </c>
+      <c r="V201">
+        <v>1.85</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>1.8</v>
+      </c>
+      <c r="Z201">
+        <v>-1</v>
+      </c>
+      <c r="AA201">
+        <v>0.875</v>
+      </c>
+      <c r="AB201">
+        <v>0.95</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7047642</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45362.41666666666</v>
+      </c>
+      <c r="F202" t="s">
+        <v>38</v>
+      </c>
+      <c r="G202" t="s">
+        <v>33</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>4</v>
+      </c>
+      <c r="J202" t="s">
+        <v>52</v>
+      </c>
+      <c r="K202">
+        <v>2.5</v>
+      </c>
+      <c r="L202">
+        <v>3.9</v>
+      </c>
+      <c r="M202">
+        <v>2.2</v>
+      </c>
+      <c r="N202">
+        <v>2.375</v>
+      </c>
+      <c r="O202">
+        <v>3.8</v>
+      </c>
+      <c r="P202">
+        <v>2.3</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>1.975</v>
+      </c>
+      <c r="S202">
+        <v>1.825</v>
+      </c>
+      <c r="T202">
+        <v>3.25</v>
+      </c>
+      <c r="U202">
+        <v>1.95</v>
+      </c>
+      <c r="V202">
+        <v>1.85</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>1.3</v>
+      </c>
+      <c r="Z202">
+        <v>-1</v>
+      </c>
+      <c r="AA202">
+        <v>0.825</v>
+      </c>
+      <c r="AB202">
+        <v>0.95</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7047711</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45362.41666666666</v>
+      </c>
+      <c r="F203" t="s">
+        <v>41</v>
+      </c>
+      <c r="G203" t="s">
+        <v>44</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>51</v>
+      </c>
+      <c r="K203">
+        <v>2.35</v>
+      </c>
+      <c r="L203">
+        <v>4.1</v>
+      </c>
+      <c r="M203">
+        <v>2.25</v>
+      </c>
+      <c r="N203">
+        <v>1.666</v>
+      </c>
+      <c r="O203">
+        <v>4.5</v>
+      </c>
+      <c r="P203">
+        <v>3.4</v>
+      </c>
+      <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>1.85</v>
+      </c>
+      <c r="S203">
+        <v>1.95</v>
+      </c>
+      <c r="T203">
+        <v>3.75</v>
+      </c>
+      <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
+        <v>1.95</v>
+      </c>
+      <c r="W203">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.425</v>
+      </c>
+      <c r="AA203">
+        <v>-0.5</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7047643</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45362.45833333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>43</v>
+      </c>
+      <c r="G204" t="s">
+        <v>39</v>
+      </c>
+      <c r="H204">
+        <v>7</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>51</v>
+      </c>
+      <c r="K204">
+        <v>1.45</v>
+      </c>
+      <c r="L204">
+        <v>4.75</v>
+      </c>
+      <c r="M204">
+        <v>4.75</v>
+      </c>
+      <c r="N204">
+        <v>1.363</v>
+      </c>
+      <c r="O204">
+        <v>5.25</v>
+      </c>
+      <c r="P204">
+        <v>5</v>
+      </c>
+      <c r="Q204">
+        <v>-1.5</v>
+      </c>
+      <c r="R204">
+        <v>1.925</v>
+      </c>
+      <c r="S204">
+        <v>1.875</v>
+      </c>
+      <c r="T204">
+        <v>3.75</v>
+      </c>
+      <c r="U204">
+        <v>1.9</v>
+      </c>
+      <c r="V204">
+        <v>1.9</v>
+      </c>
+      <c r="W204">
+        <v>0.363</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.925</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC204">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7047712</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45362.45833333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>35</v>
+      </c>
+      <c r="G205" t="s">
+        <v>29</v>
+      </c>
+      <c r="H205">
+        <v>3</v>
+      </c>
+      <c r="I205">
+        <v>4</v>
+      </c>
+      <c r="J205" t="s">
+        <v>52</v>
+      </c>
+      <c r="K205">
+        <v>1.5</v>
+      </c>
+      <c r="L205">
+        <v>4.5</v>
+      </c>
+      <c r="M205">
+        <v>4.5</v>
+      </c>
+      <c r="N205">
+        <v>1.444</v>
+      </c>
+      <c r="O205">
+        <v>4.5</v>
+      </c>
+      <c r="P205">
+        <v>5</v>
+      </c>
+      <c r="Q205">
+        <v>-1.25</v>
+      </c>
+      <c r="R205">
+        <v>1.825</v>
+      </c>
+      <c r="S205">
+        <v>1.975</v>
+      </c>
+      <c r="T205">
+        <v>3.75</v>
+      </c>
+      <c r="U205">
+        <v>1.925</v>
+      </c>
+      <c r="V205">
+        <v>1.875</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>4</v>
+      </c>
+      <c r="Z205">
+        <v>-1</v>
+      </c>
+      <c r="AA205">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB205">
+        <v>0.925</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7047644</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45362.66666666666</v>
+      </c>
+      <c r="F206" t="s">
+        <v>40</v>
+      </c>
+      <c r="G206" t="s">
+        <v>45</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206" t="s">
+        <v>50</v>
+      </c>
+      <c r="K206">
+        <v>1.4</v>
+      </c>
+      <c r="L206">
+        <v>5</v>
+      </c>
+      <c r="M206">
+        <v>5</v>
+      </c>
+      <c r="N206">
+        <v>1.55</v>
+      </c>
+      <c r="O206">
+        <v>4.5</v>
+      </c>
+      <c r="P206">
+        <v>4</v>
+      </c>
+      <c r="Q206">
+        <v>-1</v>
+      </c>
+      <c r="R206">
+        <v>1.85</v>
+      </c>
+      <c r="S206">
+        <v>1.95</v>
+      </c>
+      <c r="T206">
+        <v>4</v>
+      </c>
+      <c r="U206">
+        <v>1.925</v>
+      </c>
+      <c r="V206">
+        <v>1.875</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>3.5</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
+        <v>0.95</v>
+      </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
+      <c r="AC206">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7047645</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45363.41666666666</v>
+      </c>
+      <c r="F207" t="s">
+        <v>34</v>
+      </c>
+      <c r="G207" t="s">
+        <v>36</v>
+      </c>
+      <c r="K207">
+        <v>4.5</v>
+      </c>
+      <c r="L207">
+        <v>4.5</v>
+      </c>
+      <c r="M207">
+        <v>1.5</v>
+      </c>
+      <c r="N207">
+        <v>5</v>
+      </c>
+      <c r="O207">
+        <v>4.75</v>
+      </c>
+      <c r="P207">
+        <v>1.444</v>
+      </c>
+      <c r="Q207">
+        <v>1.25</v>
+      </c>
+      <c r="R207">
+        <v>1.9</v>
+      </c>
+      <c r="S207">
+        <v>1.9</v>
+      </c>
+      <c r="T207">
+        <v>3.5</v>
+      </c>
+      <c r="U207">
+        <v>1.95</v>
+      </c>
+      <c r="V207">
+        <v>1.85</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/England Development League 2/England Development League 2.xlsx
+++ b/England Development League 2/England Development League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -109,16 +109,13 @@
     <t>Birmingham U21</t>
   </si>
   <si>
+    <t>Barnsley U21</t>
+  </si>
+  <si>
     <t>Fleetwood Town U21</t>
   </si>
   <si>
-    <t>Barnsley U21</t>
-  </si>
-  <si>
-    <t>Sheffield Wed U21</t>
-  </si>
-  <si>
-    <t>Coventry U21</t>
+    <t>Hull U21</t>
   </si>
   <si>
     <t>Peterborough U21</t>
@@ -127,7 +124,10 @@
     <t>Sheff Utd U21</t>
   </si>
   <si>
-    <t>Hull U21</t>
+    <t>Sheffield Wed U21</t>
+  </si>
+  <si>
+    <t>Coventry U21</t>
   </si>
   <si>
     <t>Wigan U21</t>
@@ -142,10 +142,10 @@
     <t>Charlton U21</t>
   </si>
   <si>
-    <t>Colchester U21</t>
+    <t>Millwall U21</t>
   </si>
   <si>
-    <t>Millwall U21</t>
+    <t>Colchester U21</t>
   </si>
   <si>
     <t>QPR U21</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AC212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7067620</v>
+        <v>7047431</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -824,55 +824,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
       </c>
       <c r="K4">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
+        <v>2.75</v>
+      </c>
+      <c r="O4">
         <v>3.6</v>
       </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
       <c r="P4">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q4">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -881,13 +881,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7047431</v>
+        <v>7067620</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -913,55 +913,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
       </c>
       <c r="K5">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>2.1</v>
-      </c>
-      <c r="N5">
-        <v>2.75</v>
-      </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
         <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -970,13 +970,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7047435</v>
+        <v>7046797</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,73 +1002,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
+        <v>4.5</v>
+      </c>
+      <c r="M6">
         <v>4.75</v>
       </c>
-      <c r="M6">
-        <v>1.444</v>
-      </c>
       <c r="N6">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q6">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
+        <v>1.875</v>
+      </c>
+      <c r="S6">
         <v>1.925</v>
       </c>
-      <c r="S6">
-        <v>1.875</v>
-      </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X6">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7067710</v>
+        <v>7047433</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1091,52 +1091,52 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>52</v>
       </c>
       <c r="K7">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P7">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
         <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1145,19 +1145,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.7</v>
+        <v>0.909</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7047433</v>
+        <v>7047434</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,73 +1180,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P8">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
+        <v>1.85</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
         <v>1.875</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.925</v>
       </c>
-      <c r="T8">
-        <v>3.5</v>
-      </c>
-      <c r="U8">
-        <v>1.85</v>
-      </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7047434</v>
+        <v>7047435</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1269,70 +1269,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
+        <v>4.75</v>
+      </c>
+      <c r="M9">
+        <v>1.444</v>
+      </c>
+      <c r="N9">
         <v>5</v>
       </c>
-      <c r="M9">
-        <v>5.5</v>
-      </c>
-      <c r="N9">
+      <c r="O9">
+        <v>4.75</v>
+      </c>
+      <c r="P9">
+        <v>1.45</v>
+      </c>
+      <c r="Q9">
         <v>1.25</v>
       </c>
-      <c r="O9">
-        <v>6.5</v>
-      </c>
-      <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9">
-        <v>-2</v>
-      </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7046797</v>
+        <v>7067710</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1358,73 +1358,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N10">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7047445</v>
+        <v>7047440</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,55 +1803,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M15">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>1.15</v>
+        <v>0.45</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1860,13 +1860,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7047440</v>
+        <v>7047445</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,55 +1892,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>51</v>
       </c>
       <c r="K16">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N16">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O16">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q16">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
-        <v>0.45</v>
+        <v>1.15</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1949,13 +1949,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1981,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2159,7 +2159,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2423,7 +2423,7 @@
         <v>45163.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2604,7 +2604,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2779,7 +2779,7 @@
         <v>45167.375</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>47</v>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7047451</v>
+        <v>7047450</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,58 +2868,58 @@
         <v>45167.375</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>51</v>
       </c>
       <c r="K27">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>4</v>
       </c>
       <c r="M27">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N27">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O27">
         <v>4.2</v>
       </c>
       <c r="P27">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
         <v>3.5</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>0.615</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2928,16 +2928,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7047450</v>
+        <v>7047451</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,58 +2957,58 @@
         <v>45167.375</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>51</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L28">
         <v>4</v>
       </c>
       <c r="M28">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N28">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O28">
         <v>4.2</v>
       </c>
       <c r="P28">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
         <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>0.7270000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3017,16 +3017,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3046,7 +3046,7 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3135,7 +3135,7 @@
         <v>45167.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>44</v>
@@ -3224,10 +3224,10 @@
         <v>45168.375</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3316,7 +3316,7 @@
         <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3405,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>4</v>
@@ -3491,7 +3491,7 @@
         <v>45170.625</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
         <v>49</v>
@@ -3583,7 +3583,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -3672,7 +3672,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7047459</v>
+        <v>7047462</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3758,40 +3758,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N37">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P37">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R37">
         <v>1.85</v>
@@ -3800,34 +3800,34 @@
         <v>1.95</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB37">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7047462</v>
+        <v>7047459</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3847,40 +3847,40 @@
         <v>45173.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>2.9</v>
+      </c>
+      <c r="N38">
+        <v>2.375</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>2.45</v>
+      </c>
+      <c r="Q38">
         <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38">
-        <v>1.25</v>
-      </c>
-      <c r="L38">
-        <v>5.5</v>
-      </c>
-      <c r="M38">
-        <v>7.5</v>
-      </c>
-      <c r="N38">
-        <v>1.166</v>
-      </c>
-      <c r="O38">
-        <v>7</v>
-      </c>
-      <c r="P38">
-        <v>9.5</v>
-      </c>
-      <c r="Q38">
-        <v>-2.25</v>
       </c>
       <c r="R38">
         <v>1.85</v>
@@ -3889,34 +3889,34 @@
         <v>1.95</v>
       </c>
       <c r="T38">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>-0</v>
+      </c>
+      <c r="AB38">
+        <v>0.4625</v>
+      </c>
+      <c r="AC38">
         <v>-0.5</v>
-      </c>
-      <c r="AA38">
-        <v>0.475</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7071044</v>
+        <v>7047460</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>45174.375</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L39">
+        <v>3.75</v>
+      </c>
+      <c r="M39">
+        <v>2.55</v>
+      </c>
+      <c r="N39">
+        <v>2.4</v>
+      </c>
+      <c r="O39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>2.3</v>
-      </c>
-      <c r="N39">
-        <v>1.65</v>
-      </c>
-      <c r="O39">
-        <v>4.2</v>
-      </c>
       <c r="P39">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X39">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4028,7 +4028,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7047460</v>
+        <v>7071044</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,76 +4114,76 @@
         <v>45174.375</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N41">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4292,7 +4292,7 @@
         <v>45177.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -4381,7 +4381,7 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>47</v>
@@ -4473,7 +4473,7 @@
         <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4648,7 +4648,7 @@
         <v>45181.375</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4737,7 +4737,7 @@
         <v>45181.375</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>48</v>
@@ -4814,7 +4814,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7047471</v>
+        <v>7047469</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4826,76 +4826,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
         <v>3</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K49">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L49">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M49">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="N49">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P49">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T49">
         <v>3.75</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4915,7 +4915,7 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7047469</v>
+        <v>7047471</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,76 +5004,76 @@
         <v>45181.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K51">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L51">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M51">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O51">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
         <v>3.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5185,7 +5185,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5360,10 +5360,10 @@
         <v>45188.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -5449,7 +5449,7 @@
         <v>45191.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7047478</v>
+        <v>7047481</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,76 +5538,76 @@
         <v>45194.375</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K57">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O57">
         <v>5.25</v>
       </c>
       <c r="P57">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>4</v>
       </c>
       <c r="U57">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7047481</v>
+        <v>7047478</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,76 +5627,76 @@
         <v>45194.375</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K58">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="O58">
         <v>5.25</v>
       </c>
       <c r="P58">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
         <v>4</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5716,10 +5716,10 @@
         <v>45194.625</v>
       </c>
       <c r="F59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
         <v>37</v>
-      </c>
-      <c r="G59" t="s">
-        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5894,7 +5894,7 @@
         <v>45195.375</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -6075,7 +6075,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6164,7 +6164,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6250,10 +6250,10 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6339,7 +6339,7 @@
         <v>45198.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
         <v>47</v>
@@ -6431,7 +6431,7 @@
         <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6695,10 +6695,10 @@
         <v>45201.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7047491</v>
+        <v>7047490</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,13 +6784,13 @@
         <v>45202.375</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6799,43 +6799,43 @@
         <v>51</v>
       </c>
       <c r="K71">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L71">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M71">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N71">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O71">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P71">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U71">
+        <v>1.85</v>
+      </c>
+      <c r="V71">
         <v>1.95</v>
       </c>
-      <c r="V71">
-        <v>1.85</v>
-      </c>
       <c r="W71">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6844,13 +6844,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6861,7 +6861,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7047490</v>
+        <v>7047491</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6873,13 +6873,13 @@
         <v>45202.375</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -6888,43 +6888,43 @@
         <v>51</v>
       </c>
       <c r="K72">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L72">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M72">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N72">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q72">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T72">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
         <v>1.85</v>
       </c>
-      <c r="V72">
-        <v>1.95</v>
-      </c>
       <c r="W72">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6933,13 +6933,13 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6965,7 +6965,7 @@
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>45202.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7140,10 +7140,10 @@
         <v>45212.625</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7232,7 +7232,7 @@
         <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7318,7 +7318,7 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -7395,7 +7395,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7047499</v>
+        <v>7047501</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7407,58 +7407,58 @@
         <v>45216.375</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>51</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M78">
+        <v>1.8</v>
+      </c>
+      <c r="N78">
+        <v>2.05</v>
+      </c>
+      <c r="O78">
+        <v>4.5</v>
+      </c>
+      <c r="P78">
         <v>2.5</v>
       </c>
-      <c r="N78">
-        <v>2.75</v>
-      </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
-      <c r="P78">
-        <v>2.1</v>
-      </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7467,16 +7467,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7047501</v>
+        <v>7047499</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7496,58 +7496,58 @@
         <v>45216.375</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>51</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O79">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7556,16 +7556,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7674,10 +7674,10 @@
         <v>45216.625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7047706</v>
+        <v>7047705</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7763,10 +7763,10 @@
         <v>45222.375</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7778,61 +7778,61 @@
         <v>50</v>
       </c>
       <c r="K82">
+        <v>2.25</v>
+      </c>
+      <c r="L82">
+        <v>3.75</v>
+      </c>
+      <c r="M82">
+        <v>2.5</v>
+      </c>
+      <c r="N82">
+        <v>3.75</v>
+      </c>
+      <c r="O82">
+        <v>4.333</v>
+      </c>
+      <c r="P82">
         <v>1.666</v>
       </c>
-      <c r="L82">
-        <v>4.333</v>
-      </c>
-      <c r="M82">
-        <v>3.5</v>
-      </c>
-      <c r="N82">
-        <v>2.15</v>
-      </c>
-      <c r="O82">
-        <v>4</v>
-      </c>
-      <c r="P82">
-        <v>2.5</v>
-      </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7047705</v>
+        <v>7047706</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7852,10 +7852,10 @@
         <v>45222.375</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7867,61 +7867,61 @@
         <v>50</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M83">
+        <v>3.5</v>
+      </c>
+      <c r="N83">
+        <v>2.15</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
         <v>2.5</v>
       </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>4.333</v>
-      </c>
-      <c r="P83">
-        <v>1.666</v>
-      </c>
       <c r="Q83">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7944,7 +7944,7 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7047505</v>
+        <v>7047506</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,46 +8030,46 @@
         <v>45223.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85" t="s">
+        <v>52</v>
+      </c>
+      <c r="K85">
+        <v>2.3</v>
+      </c>
+      <c r="L85">
+        <v>3.8</v>
+      </c>
+      <c r="M85">
+        <v>2.375</v>
+      </c>
+      <c r="N85">
+        <v>4.75</v>
+      </c>
+      <c r="O85">
+        <v>4.5</v>
+      </c>
+      <c r="P85">
+        <v>1.5</v>
+      </c>
+      <c r="Q85">
+        <v>1.25</v>
+      </c>
+      <c r="R85">
+        <v>1.8</v>
+      </c>
+      <c r="S85">
         <v>2</v>
-      </c>
-      <c r="J85" t="s">
-        <v>51</v>
-      </c>
-      <c r="K85">
-        <v>1.8</v>
-      </c>
-      <c r="L85">
-        <v>4</v>
-      </c>
-      <c r="M85">
-        <v>3.25</v>
-      </c>
-      <c r="N85">
-        <v>1.7</v>
-      </c>
-      <c r="O85">
-        <v>4.2</v>
-      </c>
-      <c r="P85">
-        <v>3.8</v>
-      </c>
-      <c r="Q85">
-        <v>-0.75</v>
-      </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
       </c>
       <c r="T85">
         <v>3.5</v>
@@ -8081,19 +8081,19 @@
         <v>1.85</v>
       </c>
       <c r="W85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z85">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB85">
         <v>0.95</v>
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7047506</v>
+        <v>7047505</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,46 +8119,46 @@
         <v>45223.375</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>51</v>
+      </c>
+      <c r="K86">
+        <v>1.8</v>
+      </c>
+      <c r="L86">
         <v>4</v>
       </c>
-      <c r="J86" t="s">
-        <v>52</v>
-      </c>
-      <c r="K86">
-        <v>2.3</v>
-      </c>
-      <c r="L86">
+      <c r="M86">
+        <v>3.25</v>
+      </c>
+      <c r="N86">
+        <v>1.7</v>
+      </c>
+      <c r="O86">
+        <v>4.2</v>
+      </c>
+      <c r="P86">
         <v>3.8</v>
       </c>
-      <c r="M86">
-        <v>2.375</v>
-      </c>
-      <c r="N86">
-        <v>4.75</v>
-      </c>
-      <c r="O86">
-        <v>4.5</v>
-      </c>
-      <c r="P86">
-        <v>1.5</v>
-      </c>
       <c r="Q86">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
         <v>3.5</v>
@@ -8170,19 +8170,19 @@
         <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
         <v>0.95</v>
@@ -8478,7 +8478,7 @@
         <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H90">
         <v>5</v>
@@ -8564,7 +8564,7 @@
         <v>45229.4375</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
         <v>47</v>
@@ -8742,7 +8742,7 @@
         <v>45230.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8920,10 +8920,10 @@
         <v>45230.45833333334</v>
       </c>
       <c r="F95" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" t="s">
         <v>35</v>
-      </c>
-      <c r="G95" t="s">
-        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>48</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9276,10 +9276,10 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7047523</v>
+        <v>7071037</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,73 +9365,73 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>51</v>
+      </c>
+      <c r="K100">
+        <v>2.25</v>
+      </c>
+      <c r="L100">
         <v>4</v>
       </c>
-      <c r="J100" t="s">
-        <v>52</v>
-      </c>
-      <c r="K100">
-        <v>2.75</v>
-      </c>
-      <c r="L100">
+      <c r="M100">
+        <v>2.4</v>
+      </c>
+      <c r="N100">
+        <v>1.727</v>
+      </c>
+      <c r="O100">
         <v>4.2</v>
       </c>
-      <c r="M100">
-        <v>1.95</v>
-      </c>
-      <c r="N100">
-        <v>2.45</v>
-      </c>
-      <c r="O100">
-        <v>4</v>
-      </c>
       <c r="P100">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
         <v>3.75</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA100">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9442,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7071037</v>
+        <v>7047523</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9454,73 +9454,73 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
         <v>4</v>
       </c>
-      <c r="I101">
-        <v>3</v>
-      </c>
       <c r="J101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K101">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L101">
+        <v>4.2</v>
+      </c>
+      <c r="M101">
+        <v>1.95</v>
+      </c>
+      <c r="N101">
+        <v>2.45</v>
+      </c>
+      <c r="O101">
         <v>4</v>
       </c>
-      <c r="M101">
-        <v>2.4</v>
-      </c>
-      <c r="N101">
-        <v>1.727</v>
-      </c>
-      <c r="O101">
-        <v>4.2</v>
-      </c>
       <c r="P101">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T101">
         <v>3.75</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z101">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9531,7 +9531,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7047521</v>
+        <v>7047524</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9543,58 +9543,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>51</v>
       </c>
       <c r="K102">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N102">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="O102">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P102">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3.75</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>1.9</v>
+        <v>0.25</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9603,16 +9603,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7047524</v>
+        <v>7047521</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9632,58 +9632,58 @@
         <v>45237.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M103">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N103">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="O103">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P103">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q103">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
         <v>3.75</v>
       </c>
       <c r="U103">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>0.25</v>
+        <v>1.9</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9692,16 +9692,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9721,10 +9721,10 @@
         <v>45237.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9810,10 +9810,10 @@
         <v>45244.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9899,10 +9899,10 @@
         <v>45247.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10154,7 +10154,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7047534</v>
+        <v>7047533</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10166,10 +10166,10 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10181,61 +10181,61 @@
         <v>50</v>
       </c>
       <c r="K109">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L109">
         <v>4</v>
       </c>
       <c r="M109">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O109">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P109">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S109">
         <v>1.95</v>
       </c>
       <c r="T109">
+        <v>3.75</v>
+      </c>
+      <c r="U109">
+        <v>1.95</v>
+      </c>
+      <c r="V109">
+        <v>1.85</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
         <v>3</v>
       </c>
-      <c r="U109">
-        <v>1.85</v>
-      </c>
-      <c r="V109">
-        <v>1.95</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>2.75</v>
-      </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
+        <v>-0.5</v>
+      </c>
+      <c r="AA109">
+        <v>0.475</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>0.95</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7047533</v>
+        <v>7047530</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,46 +10255,46 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K110">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N110">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
         <v>3.75</v>
@@ -10309,16 +10309,16 @@
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7047530</v>
+        <v>7047534</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,76 +10344,76 @@
         <v>45251.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>50</v>
+      </c>
+      <c r="K111">
+        <v>2.9</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>1.909</v>
+      </c>
+      <c r="N111">
+        <v>3.1</v>
+      </c>
+      <c r="O111">
+        <v>3.75</v>
+      </c>
+      <c r="P111">
+        <v>1.85</v>
+      </c>
+      <c r="Q111">
+        <v>0.5</v>
+      </c>
+      <c r="R111">
+        <v>1.85</v>
+      </c>
+      <c r="S111">
+        <v>1.95</v>
+      </c>
+      <c r="T111">
         <v>3</v>
       </c>
-      <c r="J111" t="s">
-        <v>52</v>
-      </c>
-      <c r="K111">
-        <v>2.25</v>
-      </c>
-      <c r="L111">
-        <v>3.75</v>
-      </c>
-      <c r="M111">
-        <v>2.5</v>
-      </c>
-      <c r="N111">
-        <v>2.55</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>2.2</v>
-      </c>
-      <c r="Q111">
-        <v>0.25</v>
-      </c>
-      <c r="R111">
-        <v>1.775</v>
-      </c>
-      <c r="S111">
-        <v>2.025</v>
-      </c>
-      <c r="T111">
-        <v>3.75</v>
-      </c>
       <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
         <v>1.95</v>
       </c>
-      <c r="V111">
-        <v>1.85</v>
-      </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y111">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10436,7 +10436,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10522,7 +10522,7 @@
         <v>45257.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
         <v>46</v>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7047540</v>
+        <v>7047541</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,73 +10611,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K114">
+        <v>3.1</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>1.833</v>
+      </c>
+      <c r="N114">
         <v>3.2</v>
       </c>
-      <c r="L114">
-        <v>4.1</v>
-      </c>
-      <c r="M114">
+      <c r="O114">
+        <v>4</v>
+      </c>
+      <c r="P114">
         <v>1.8</v>
       </c>
-      <c r="N114">
-        <v>3.6</v>
-      </c>
-      <c r="O114">
-        <v>4.2</v>
-      </c>
-      <c r="P114">
-        <v>1.7</v>
-      </c>
       <c r="Q114">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T114">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB114">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7047541</v>
+        <v>7047537</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,73 +10700,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M115">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N115">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
         <v>4</v>
       </c>
       <c r="P115">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>3.75</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7047537</v>
+        <v>7047540</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,73 +10789,73 @@
         <v>45257.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K116">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L116">
+        <v>4.1</v>
+      </c>
+      <c r="M116">
+        <v>1.8</v>
+      </c>
+      <c r="N116">
+        <v>3.6</v>
+      </c>
+      <c r="O116">
         <v>4.2</v>
       </c>
-      <c r="M116">
-        <v>3.3</v>
-      </c>
-      <c r="N116">
-        <v>1.95</v>
-      </c>
-      <c r="O116">
-        <v>4</v>
-      </c>
       <c r="P116">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X116">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10967,10 +10967,10 @@
         <v>45258.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11059,7 +11059,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11237,7 +11237,7 @@
         <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11323,10 +11323,10 @@
         <v>45265.375</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11400,7 +11400,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7047545</v>
+        <v>7047546</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11412,40 +11412,40 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K123">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M123">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N123">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R123">
         <v>2</v>
@@ -11457,31 +11457,31 @@
         <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11489,7 +11489,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7047546</v>
+        <v>7047545</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11501,40 +11501,40 @@
         <v>45265.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K124">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N124">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -11546,31 +11546,31 @@
         <v>3.5</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11771,7 +11771,7 @@
         <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11860,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11946,10 +11946,10 @@
         <v>45275.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12112,7 +12112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7047560</v>
+        <v>7047559</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12124,76 +12124,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L131">
         <v>4</v>
       </c>
       <c r="M131">
-        <v>2.9</v>
+        <v>1.952</v>
       </c>
       <c r="N131">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P131">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R131">
+        <v>1.775</v>
+      </c>
+      <c r="S131">
+        <v>1.925</v>
+      </c>
+      <c r="T131">
+        <v>3.75</v>
+      </c>
+      <c r="U131">
         <v>1.95</v>
       </c>
-      <c r="S131">
+      <c r="V131">
         <v>1.85</v>
       </c>
-      <c r="T131">
-        <v>3.5</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
-      <c r="V131">
-        <v>1.875</v>
-      </c>
       <c r="W131">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7047559</v>
+        <v>7047560</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45278.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H132">
+        <v>5</v>
+      </c>
+      <c r="I132">
         <v>1</v>
       </c>
-      <c r="I132">
-        <v>2</v>
-      </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K132">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L132">
         <v>4</v>
       </c>
       <c r="M132">
-        <v>1.952</v>
+        <v>2.9</v>
       </c>
       <c r="N132">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="O132">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P132">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q132">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
+        <v>1.85</v>
+      </c>
+      <c r="T132">
+        <v>3.5</v>
+      </c>
+      <c r="U132">
         <v>1.925</v>
       </c>
-      <c r="T132">
-        <v>3.75</v>
-      </c>
-      <c r="U132">
-        <v>1.95</v>
-      </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12302,7 +12302,7 @@
         <v>45278.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
         <v>45</v>
@@ -12391,7 +12391,7 @@
         <v>45279.4375</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
         <v>30</v>
@@ -12480,10 +12480,10 @@
         <v>45279.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12569,7 +12569,7 @@
         <v>45282.375</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12658,7 +12658,7 @@
         <v>45295.4375</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
         <v>41</v>
@@ -12750,7 +12750,7 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7047568</v>
+        <v>7047570</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,49 +12836,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M139">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N139">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O139">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P139">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q139">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U139">
         <v>1.9</v>
@@ -12887,19 +12887,19 @@
         <v>1.9</v>
       </c>
       <c r="W139">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7047570</v>
+        <v>7047568</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,49 +12925,49 @@
         <v>45299.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L140">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O140">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P140">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U140">
         <v>1.9</v>
@@ -12976,19 +12976,19 @@
         <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X140">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7047569</v>
+        <v>7047571</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,55 +13014,55 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
         <v>50</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L141">
         <v>4.2</v>
       </c>
       <c r="M141">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N141">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="O141">
         <v>4.333</v>
       </c>
       <c r="P141">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
         <v>3.5</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13074,16 +13074,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7071032</v>
+        <v>7047709</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,52 +13103,52 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G142" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K142">
         <v>2.5</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M142">
         <v>2.1</v>
       </c>
       <c r="N142">
+        <v>2.625</v>
+      </c>
+      <c r="O142">
+        <v>4.333</v>
+      </c>
+      <c r="P142">
+        <v>2</v>
+      </c>
+      <c r="Q142">
+        <v>0.25</v>
+      </c>
+      <c r="R142">
+        <v>1.9</v>
+      </c>
+      <c r="S142">
+        <v>1.9</v>
+      </c>
+      <c r="T142">
+        <v>3.25</v>
+      </c>
+      <c r="U142">
         <v>1.75</v>
-      </c>
-      <c r="O142">
-        <v>4.5</v>
-      </c>
-      <c r="P142">
-        <v>3.1</v>
-      </c>
-      <c r="Q142">
-        <v>-0.5</v>
-      </c>
-      <c r="R142">
-        <v>1.8</v>
-      </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
-      <c r="T142">
-        <v>3.5</v>
-      </c>
-      <c r="U142">
-        <v>1.85</v>
       </c>
       <c r="V142">
         <v>1.95</v>
@@ -13157,22 +13157,22 @@
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y142">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7047709</v>
+        <v>7071032</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,52 +13192,52 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K143">
         <v>2.5</v>
       </c>
       <c r="L143">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M143">
         <v>2.1</v>
       </c>
       <c r="N143">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
+        <v>3.1</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
         <v>2</v>
       </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.9</v>
-      </c>
-      <c r="S143">
-        <v>1.9</v>
-      </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U143">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
         <v>1.95</v>
@@ -13246,22 +13246,22 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13281,10 +13281,10 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F144" t="s">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s">
         <v>31</v>
-      </c>
-      <c r="G144" t="s">
-        <v>32</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7047571</v>
+        <v>7047569</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,55 +13370,55 @@
         <v>45300.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>50</v>
       </c>
       <c r="K145">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
         <v>4.2</v>
       </c>
       <c r="M145">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N145">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="O145">
         <v>4.333</v>
       </c>
       <c r="P145">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
         <v>3.5</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13430,16 +13430,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13459,7 +13459,7 @@
         <v>45303.375</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
         <v>40</v>
@@ -13640,7 +13640,7 @@
         <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13818,7 +13818,7 @@
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13993,10 +13993,10 @@
         <v>45314.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14082,10 +14082,10 @@
         <v>45316.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14171,7 +14171,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
         <v>48</v>
@@ -14352,7 +14352,7 @@
         <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14527,7 +14527,7 @@
         <v>45321.67708333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14705,10 +14705,10 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14794,7 +14794,7 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
         <v>38</v>
@@ -14972,10 +14972,10 @@
         <v>45334.4375</v>
       </c>
       <c r="F163" t="s">
+        <v>42</v>
+      </c>
+      <c r="G163" t="s">
         <v>43</v>
-      </c>
-      <c r="G163" t="s">
-        <v>42</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7047603</v>
+        <v>7047710</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,76 +15150,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K165">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="L165">
         <v>4</v>
       </c>
       <c r="M165">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N165">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
         <v>3.5</v>
       </c>
       <c r="U165">
+        <v>1.825</v>
+      </c>
+      <c r="V165">
         <v>1.975</v>
       </c>
-      <c r="V165">
-        <v>1.825</v>
-      </c>
       <c r="W165">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z165">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7047710</v>
+        <v>7047603</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
         <v>1</v>
       </c>
-      <c r="I166">
-        <v>8</v>
-      </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K166">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="L166">
         <v>4</v>
       </c>
       <c r="M166">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N166">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P166">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
         <v>1.825</v>
       </c>
-      <c r="V166">
-        <v>1.975</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
+        <v>-1</v>
+      </c>
+      <c r="AC166">
         <v>0.825</v>
-      </c>
-      <c r="AC166">
-        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7047602</v>
+        <v>7047601</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,76 +15328,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
         <v>2</v>
       </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L167">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M167">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N167">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P167">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z167">
+        <v>-1</v>
+      </c>
+      <c r="AA167">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB167">
+        <v>-1</v>
+      </c>
+      <c r="AC167">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA167">
-        <v>-1</v>
-      </c>
-      <c r="AB167">
-        <v>-1</v>
-      </c>
-      <c r="AC167">
-        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7047601</v>
+        <v>7047602</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K168">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
+        <v>4.5</v>
+      </c>
+      <c r="M168">
+        <v>4.5</v>
+      </c>
+      <c r="N168">
+        <v>1.75</v>
+      </c>
+      <c r="O168">
         <v>4.2</v>
       </c>
-      <c r="M168">
-        <v>3.6</v>
-      </c>
-      <c r="N168">
-        <v>1.363</v>
-      </c>
-      <c r="O168">
-        <v>4.75</v>
-      </c>
       <c r="P168">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>3.5</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7047606</v>
+        <v>7047600</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,10 +15506,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15521,25 +15521,25 @@
         <v>52</v>
       </c>
       <c r="K169">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L169">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N169">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O169">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P169">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R169">
         <v>1.95</v>
@@ -15548,22 +15548,22 @@
         <v>1.85</v>
       </c>
       <c r="T169">
+        <v>3.75</v>
+      </c>
+      <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
+        <v>1.9</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
         <v>3.5</v>
-      </c>
-      <c r="U169">
-        <v>1.775</v>
-      </c>
-      <c r="V169">
-        <v>1.925</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>2</v>
       </c>
       <c r="Z169">
         <v>-1</v>
@@ -15575,7 +15575,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7047600</v>
+        <v>7047606</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,10 +15595,10 @@
         <v>45335.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15610,25 +15610,25 @@
         <v>52</v>
       </c>
       <c r="K170">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L170">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M170">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O170">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P170">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q170">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
         <v>1.95</v>
@@ -15637,13 +15637,13 @@
         <v>1.85</v>
       </c>
       <c r="T170">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15652,7 +15652,7 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z170">
         <v>-1</v>
@@ -15664,7 +15664,7 @@
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15687,7 +15687,7 @@
         <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15776,7 +15776,7 @@
         <v>49</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15862,10 +15862,10 @@
         <v>45338.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15954,7 +15954,7 @@
         <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7047611</v>
+        <v>7047610</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,46 +16040,46 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K175">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M175">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N175">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P175">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R175">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
         <v>3.25</v>
@@ -16094,22 +16094,22 @@
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7047610</v>
+        <v>7047613</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,40 +16129,40 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L176">
+        <v>4.8</v>
+      </c>
+      <c r="M176">
+        <v>1.571</v>
+      </c>
+      <c r="N176">
+        <v>3.2</v>
+      </c>
+      <c r="O176">
         <v>4.5</v>
       </c>
-      <c r="M176">
-        <v>3.2</v>
-      </c>
-      <c r="N176">
-        <v>1.55</v>
-      </c>
-      <c r="O176">
-        <v>5</v>
-      </c>
       <c r="P176">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R176">
         <v>1.825</v>
@@ -16171,34 +16171,34 @@
         <v>1.975</v>
       </c>
       <c r="T176">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7047613</v>
+        <v>7047611</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H178">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K178">
+        <v>2.3</v>
+      </c>
+      <c r="L178">
         <v>3.75</v>
       </c>
-      <c r="L178">
-        <v>4.8</v>
-      </c>
       <c r="M178">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N178">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O178">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q178">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16396,10 +16396,10 @@
         <v>45342.4375</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16577,7 +16577,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16663,10 +16663,10 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>45348.375</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G183" t="s">
         <v>45</v>
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7047618</v>
+        <v>7047619</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,76 +16841,76 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
         <v>50</v>
       </c>
       <c r="K184">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L184">
         <v>4.2</v>
       </c>
       <c r="M184">
+        <v>1.666</v>
+      </c>
+      <c r="N184">
+        <v>3.4</v>
+      </c>
+      <c r="O184">
+        <v>4.2</v>
+      </c>
+      <c r="P184">
         <v>1.75</v>
       </c>
-      <c r="N184">
-        <v>4</v>
-      </c>
-      <c r="O184">
-        <v>4.5</v>
-      </c>
-      <c r="P184">
-        <v>1.571</v>
-      </c>
       <c r="Q184">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T184">
         <v>3.5</v>
       </c>
       <c r="U184">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7047619</v>
+        <v>7047618</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16930,76 +16930,76 @@
         <v>45348.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>50</v>
       </c>
       <c r="K185">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L185">
         <v>4.2</v>
       </c>
       <c r="M185">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="N185">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O185">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P185">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
         <v>3.5</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17108,7 +17108,7 @@
         <v>45349.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>49</v>
@@ -17197,7 +17197,7 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G188" t="s">
         <v>48</v>
@@ -17274,7 +17274,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7047630</v>
+        <v>7047628</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17286,76 +17286,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K189">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L189">
         <v>4</v>
       </c>
       <c r="M189">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N189">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P189">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17363,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7047628</v>
+        <v>7047630</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,76 +17375,76 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K190">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L190">
         <v>4</v>
       </c>
       <c r="M190">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N190">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O190">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y190">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA190">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17553,7 +17553,7 @@
         <v>45352.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
@@ -17645,7 +17645,7 @@
         <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17808,7 +17808,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7047637</v>
+        <v>7071026</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17820,13 +17820,13 @@
         <v>45356.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -17835,43 +17835,43 @@
         <v>51</v>
       </c>
    